--- a/INSTRUCTIONS/Binary Instructions.xlsx
+++ b/INSTRUCTIONS/Binary Instructions.xlsx
@@ -983,7 +983,7 @@
   <dimension ref="A1:AO101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1179,7 +1179,7 @@
         <v>16</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>98</v>
+        <v>3</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>76</v>
@@ -1201,11 +1201,11 @@
       </c>
       <c r="J3" s="13" t="str">
         <f t="shared" ref="J3:J32" si="0">AO3</f>
-        <v>040401AA</v>
+        <v>4C0401AA</v>
       </c>
       <c r="M3" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C3,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>0000</v>
+        <v>1001</v>
       </c>
       <c r="N3" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D3,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D3,'HEX GEN BACKEND'!G:G,0)),D3)</f>
@@ -1233,15 +1233,15 @@
       </c>
       <c r="U3" s="21" t="str">
         <f t="shared" ref="U3:U66" si="1">B3&amp;M3&amp;O3&amp;N3&amp;Q3&amp;P3&amp;S3&amp;R3</f>
-        <v>00000100000001000000000110101010</v>
+        <v>01001100000001000000000110101010</v>
       </c>
       <c r="W3" s="21" t="str">
         <f t="shared" ref="W3:W32" si="2">MID(U3,1,4)</f>
-        <v>0000</v>
+        <v>0100</v>
       </c>
       <c r="X3" s="21" t="str">
         <f t="shared" ref="X3:X32" si="3">MID(U3,5,4)</f>
-        <v>0100</v>
+        <v>1100</v>
       </c>
       <c r="Y3" s="21" t="str">
         <f t="shared" ref="Y3:Y32" si="4">MID(U3,9,4)</f>
@@ -1269,11 +1269,11 @@
       </c>
       <c r="AF3" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W3,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AG3" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X3,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
+        <v>C</v>
       </c>
       <c r="AH3" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y3,'HEX GEN BACKEND'!L:L,0))</f>
@@ -1301,7 +1301,7 @@
       </c>
       <c r="AO3" s="21" t="str">
         <f t="shared" ref="AO3:AO66" si="10">AF3&amp;AG3&amp;AH3&amp;AI3&amp;AJ3&amp;AK3&amp;AL3&amp;AM3</f>
-        <v>040401AA</v>
+        <v>4C0401AA</v>
       </c>
     </row>
     <row r="4" spans="1:41" x14ac:dyDescent="0.25">
@@ -1312,7 +1312,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>98</v>
+        <v>3</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>98</v>
@@ -1334,11 +1334,11 @@
       </c>
       <c r="J4" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>000203D7</v>
+        <v>480203D7</v>
       </c>
       <c r="M4" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C4,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>0000</v>
+        <v>1001</v>
       </c>
       <c r="N4" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D4,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D4,'HEX GEN BACKEND'!G:G,0)),D4)</f>
@@ -1366,15 +1366,15 @@
       </c>
       <c r="U4" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>00000000000000100000001111010111</v>
+        <v>01001000000000100000001111010111</v>
       </c>
       <c r="W4" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>0000</v>
+        <v>0100</v>
       </c>
       <c r="X4" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>0000</v>
+        <v>1000</v>
       </c>
       <c r="Y4" s="21" t="str">
         <f t="shared" si="4"/>
@@ -1402,11 +1402,11 @@
       </c>
       <c r="AF4" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W4,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AG4" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X4,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AH4" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y4,'HEX GEN BACKEND'!L:L,0))</f>
@@ -1434,7 +1434,7 @@
       </c>
       <c r="AO4" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>000203D7</v>
+        <v>480203D7</v>
       </c>
     </row>
     <row r="5" spans="1:41" x14ac:dyDescent="0.25">

--- a/INSTRUCTIONS/Binary Instructions.xlsx
+++ b/INSTRUCTIONS/Binary Instructions.xlsx
@@ -983,7 +983,7 @@
   <dimension ref="A1:AO101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="J1" sqref="J1:J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1575,7 +1575,7 @@
         <v>21</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>2</v>
@@ -1600,7 +1600,7 @@
       </c>
       <c r="J6" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>62050281</v>
+        <v>E2050281</v>
       </c>
       <c r="M6" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C6,'HEX GEN BACKEND'!A:A,0))</f>
@@ -1632,11 +1632,11 @@
       </c>
       <c r="U6" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>01100010000001010000001010000001</v>
+        <v>11100010000001010000001010000001</v>
       </c>
       <c r="W6" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>0110</v>
+        <v>1110</v>
       </c>
       <c r="X6" s="21" t="str">
         <f t="shared" si="3"/>
@@ -1668,7 +1668,7 @@
       </c>
       <c r="AF6" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W6,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>6</v>
+        <v>E</v>
       </c>
       <c r="AG6" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X6,'HEX GEN BACKEND'!L:L,0))</f>
@@ -1700,7 +1700,7 @@
       </c>
       <c r="AO6" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>62050281</v>
+        <v>E2050281</v>
       </c>
     </row>
     <row r="7" spans="1:41" x14ac:dyDescent="0.25">

--- a/INSTRUCTIONS/Binary Instructions.xlsx
+++ b/INSTRUCTIONS/Binary Instructions.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="185">
   <si>
     <t>0001</t>
   </si>
@@ -580,12 +580,6 @@
   </si>
   <si>
     <t>STRIG</t>
-  </si>
-  <si>
-    <t>0101010</t>
-  </si>
-  <si>
-    <t>1010111</t>
   </si>
 </sst>
 </file>
@@ -983,7 +977,7 @@
   <dimension ref="A1:AO101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J6"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1179,7 +1173,7 @@
         <v>16</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>76</v>
@@ -1188,24 +1182,24 @@
         <v>67</v>
       </c>
       <c r="F3" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="H3" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="I3" s="19" t="s">
         <v>98</v>
-      </c>
-      <c r="H3" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="I3" s="19" t="s">
-        <v>69</v>
       </c>
       <c r="J3" s="13" t="str">
         <f t="shared" ref="J3:J32" si="0">AO3</f>
-        <v>4C0401AA</v>
+        <v>5C060200</v>
       </c>
       <c r="M3" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C3,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>1001</v>
+        <v>1011</v>
       </c>
       <c r="N3" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D3,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D3,'HEX GEN BACKEND'!G:G,0)),D3)</f>
@@ -1217,27 +1211,27 @@
       </c>
       <c r="P3" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F3,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F3,'HEX GEN BACKEND'!H:H,0)),F3)</f>
-        <v>0000000</v>
+        <v>0000001</v>
       </c>
       <c r="Q3" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G3,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>00</v>
+        <v>10</v>
       </c>
       <c r="R3" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H3,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H3,'HEX GEN BACKEND'!I:I,0)),H3)</f>
-        <v>0101010</v>
+        <v>0000000</v>
       </c>
       <c r="S3" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I3,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>11</v>
+        <v>00</v>
       </c>
       <c r="U3" s="21" t="str">
         <f t="shared" ref="U3:U66" si="1">B3&amp;M3&amp;O3&amp;N3&amp;Q3&amp;P3&amp;S3&amp;R3</f>
-        <v>01001100000001000000000110101010</v>
+        <v>01011100000001100000001000000000</v>
       </c>
       <c r="W3" s="21" t="str">
         <f t="shared" ref="W3:W32" si="2">MID(U3,1,4)</f>
-        <v>0100</v>
+        <v>0101</v>
       </c>
       <c r="X3" s="21" t="str">
         <f t="shared" ref="X3:X32" si="3">MID(U3,5,4)</f>
@@ -1249,7 +1243,7 @@
       </c>
       <c r="Z3" s="21" t="str">
         <f t="shared" ref="Z3:Z32" si="5">MID(U3,13,4)</f>
-        <v>0100</v>
+        <v>0110</v>
       </c>
       <c r="AA3" s="21" t="str">
         <f t="shared" ref="AA3:AA32" si="6">MID(U3,17,4)</f>
@@ -1257,19 +1251,19 @@
       </c>
       <c r="AB3" s="21" t="str">
         <f t="shared" ref="AB3:AB32" si="7">MID(U3,21,4)</f>
-        <v>0001</v>
+        <v>0010</v>
       </c>
       <c r="AC3" s="21" t="str">
         <f t="shared" ref="AC3:AC32" si="8">MID(U3,25,4)</f>
-        <v>1010</v>
+        <v>0000</v>
       </c>
       <c r="AD3" s="21" t="str">
         <f t="shared" ref="AD3:AD32" si="9">MID(U3,29,4)</f>
-        <v>1010</v>
+        <v>0000</v>
       </c>
       <c r="AF3" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W3,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG3" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X3,'HEX GEN BACKEND'!L:L,0))</f>
@@ -1281,7 +1275,7 @@
       </c>
       <c r="AI3" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z3,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AJ3" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA3,'HEX GEN BACKEND'!L:L,0))</f>
@@ -1289,19 +1283,19 @@
       </c>
       <c r="AK3" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB3,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL3" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC3,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>A</v>
+        <v>0</v>
       </c>
       <c r="AM3" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD3,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>A</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="21" t="str">
         <f t="shared" ref="AO3:AO66" si="10">AF3&amp;AG3&amp;AH3&amp;AI3&amp;AJ3&amp;AK3&amp;AL3&amp;AM3</f>
-        <v>4C0401AA</v>
+        <v>5C060200</v>
       </c>
     </row>
     <row r="4" spans="1:41" x14ac:dyDescent="0.25">
@@ -1312,41 +1306,41 @@
         <v>16</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>3</v>
+        <v>181</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="F4" s="16" t="s">
         <v>83</v>
       </c>
       <c r="G4" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="I4" s="19" t="s">
         <v>67</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>186</v>
-      </c>
-      <c r="I4" s="19" t="s">
-        <v>69</v>
       </c>
       <c r="J4" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>480203D7</v>
+        <v>2A050301</v>
       </c>
       <c r="M4" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C4,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>1001</v>
+        <v>0101</v>
       </c>
       <c r="N4" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D4,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D4,'HEX GEN BACKEND'!G:G,0)),D4)</f>
-        <v>0000000</v>
+        <v>0000001</v>
       </c>
       <c r="O4" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E4,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>00</v>
+        <v>01</v>
       </c>
       <c r="P4" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F4,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F4,'HEX GEN BACKEND'!H:H,0)),F4)</f>
@@ -1354,27 +1348,27 @@
       </c>
       <c r="Q4" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G4,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>10</v>
+        <v>01</v>
       </c>
       <c r="R4" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H4,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H4,'HEX GEN BACKEND'!I:I,0)),H4)</f>
-        <v>1010111</v>
+        <v>0000001</v>
       </c>
       <c r="S4" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I4,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U4" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>01001000000000100000001111010111</v>
+        <v>00101010000001010000001100000001</v>
       </c>
       <c r="W4" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>0100</v>
+        <v>0010</v>
       </c>
       <c r="X4" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>1000</v>
+        <v>1010</v>
       </c>
       <c r="Y4" s="21" t="str">
         <f t="shared" si="4"/>
@@ -1382,7 +1376,7 @@
       </c>
       <c r="Z4" s="21" t="str">
         <f t="shared" si="5"/>
-        <v>0010</v>
+        <v>0101</v>
       </c>
       <c r="AA4" s="21" t="str">
         <f t="shared" si="6"/>
@@ -1394,19 +1388,19 @@
       </c>
       <c r="AC4" s="21" t="str">
         <f t="shared" si="8"/>
-        <v>1101</v>
+        <v>0000</v>
       </c>
       <c r="AD4" s="21" t="str">
         <f t="shared" si="9"/>
-        <v>0111</v>
+        <v>0001</v>
       </c>
       <c r="AF4" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W4,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AG4" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X4,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
+        <v>A</v>
       </c>
       <c r="AH4" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y4,'HEX GEN BACKEND'!L:L,0))</f>
@@ -1414,7 +1408,7 @@
       </c>
       <c r="AI4" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z4,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AJ4" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA4,'HEX GEN BACKEND'!L:L,0))</f>
@@ -1426,15 +1420,15 @@
       </c>
       <c r="AL4" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC4,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>D</v>
+        <v>0</v>
       </c>
       <c r="AM4" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD4,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AO4" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>480203D7</v>
+        <v>2A050301</v>
       </c>
     </row>
     <row r="5" spans="1:41" x14ac:dyDescent="0.25">
@@ -1460,14 +1454,14 @@
         <v>68</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I5" s="19" t="s">
         <v>67</v>
       </c>
       <c r="J5" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>0A050301</v>
+        <v>0A050302</v>
       </c>
       <c r="M5" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C5,'HEX GEN BACKEND'!A:A,0))</f>
@@ -1491,7 +1485,7 @@
       </c>
       <c r="R5" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H5,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H5,'HEX GEN BACKEND'!I:I,0)),H5)</f>
-        <v>0000001</v>
+        <v>0000010</v>
       </c>
       <c r="S5" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I5,'HEX GEN BACKEND'!D:D,0))</f>
@@ -1499,7 +1493,7 @@
       </c>
       <c r="U5" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>00001010000001010000001100000001</v>
+        <v>00001010000001010000001100000010</v>
       </c>
       <c r="W5" s="21" t="str">
         <f t="shared" si="2"/>
@@ -1531,7 +1525,7 @@
       </c>
       <c r="AD5" s="21" t="str">
         <f t="shared" si="9"/>
-        <v>0001</v>
+        <v>0010</v>
       </c>
       <c r="AF5" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W5,'HEX GEN BACKEND'!L:L,0))</f>
@@ -1563,11 +1557,11 @@
       </c>
       <c r="AM5" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD5,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO5" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>0A050301</v>
+        <v>0A050302</v>
       </c>
     </row>
     <row r="6" spans="1:41" x14ac:dyDescent="0.25">
@@ -1575,44 +1569,44 @@
         <v>21</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>2</v>
+        <v>16</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>3</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="F6" s="16" t="s">
         <v>83</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I6" s="19" t="s">
         <v>68</v>
       </c>
       <c r="J6" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>E2050281</v>
+        <v>48020282</v>
       </c>
       <c r="M6" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C6,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>1100</v>
+        <v>1001</v>
       </c>
       <c r="N6" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D6,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D6,'HEX GEN BACKEND'!G:G,0)),D6)</f>
-        <v>0000001</v>
+        <v>0000000</v>
       </c>
       <c r="O6" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E6,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>01</v>
+        <v>00</v>
       </c>
       <c r="P6" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F6,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F6,'HEX GEN BACKEND'!H:H,0)),F6)</f>
@@ -1620,11 +1614,11 @@
       </c>
       <c r="Q6" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G6,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>01</v>
+        <v>10</v>
       </c>
       <c r="R6" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H6,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H6,'HEX GEN BACKEND'!I:I,0)),H6)</f>
-        <v>0000001</v>
+        <v>0000010</v>
       </c>
       <c r="S6" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I6,'HEX GEN BACKEND'!D:D,0))</f>
@@ -1632,15 +1626,15 @@
       </c>
       <c r="U6" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>11100010000001010000001010000001</v>
+        <v>01001000000000100000001010000010</v>
       </c>
       <c r="W6" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>1110</v>
+        <v>0100</v>
       </c>
       <c r="X6" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>0010</v>
+        <v>1000</v>
       </c>
       <c r="Y6" s="21" t="str">
         <f t="shared" si="4"/>
@@ -1648,7 +1642,7 @@
       </c>
       <c r="Z6" s="21" t="str">
         <f t="shared" si="5"/>
-        <v>0101</v>
+        <v>0010</v>
       </c>
       <c r="AA6" s="21" t="str">
         <f t="shared" si="6"/>
@@ -1664,15 +1658,15 @@
       </c>
       <c r="AD6" s="21" t="str">
         <f t="shared" si="9"/>
-        <v>0001</v>
+        <v>0010</v>
       </c>
       <c r="AF6" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W6,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>E</v>
+        <v>4</v>
       </c>
       <c r="AG6" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X6,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AH6" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y6,'HEX GEN BACKEND'!L:L,0))</f>
@@ -1680,7 +1674,7 @@
       </c>
       <c r="AI6" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z6,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AJ6" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA6,'HEX GEN BACKEND'!L:L,0))</f>
@@ -1696,11 +1690,11 @@
       </c>
       <c r="AM6" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD6,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO6" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>E2050281</v>
+        <v>48020282</v>
       </c>
     </row>
     <row r="7" spans="1:41" x14ac:dyDescent="0.25">
@@ -1710,116 +1704,130 @@
       <c r="B7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="23"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="13" t="e">
+      <c r="C7" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="J7" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M7" s="21" t="e">
+        <v>38010302</v>
+      </c>
+      <c r="M7" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C7,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N7" s="21">
+        <v>0111</v>
+      </c>
+      <c r="N7" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D7,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D7,'HEX GEN BACKEND'!G:G,0)),D7)</f>
-        <v>0</v>
-      </c>
-      <c r="O7" s="21" t="e">
+        <v>0000000</v>
+      </c>
+      <c r="O7" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E7,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P7" s="21">
+        <v>00</v>
+      </c>
+      <c r="P7" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F7,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F7,'HEX GEN BACKEND'!H:H,0)),F7)</f>
-        <v>0</v>
-      </c>
-      <c r="Q7" s="21" t="e">
+        <v>0000001</v>
+      </c>
+      <c r="Q7" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G7,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R7" s="21">
+        <v>01</v>
+      </c>
+      <c r="R7" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H7,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H7,'HEX GEN BACKEND'!I:I,0)),H7)</f>
-        <v>0</v>
-      </c>
-      <c r="S7" s="21" t="e">
+        <v>0000010</v>
+      </c>
+      <c r="S7" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I7,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U7" s="21" t="e">
+        <v>10</v>
+      </c>
+      <c r="U7" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W7" s="21" t="e">
+        <v>00111000000000010000001100000010</v>
+      </c>
+      <c r="W7" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X7" s="21" t="e">
+        <v>0011</v>
+      </c>
+      <c r="X7" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y7" s="21" t="e">
+        <v>1000</v>
+      </c>
+      <c r="Y7" s="21" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z7" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="Z7" s="21" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA7" s="21" t="e">
+        <v>0001</v>
+      </c>
+      <c r="AA7" s="21" t="str">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB7" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AB7" s="21" t="str">
         <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC7" s="21" t="e">
+        <v>0011</v>
+      </c>
+      <c r="AC7" s="21" t="str">
         <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AD7" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AD7" s="21" t="str">
         <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AF7" s="21" t="e">
+        <v>0010</v>
+      </c>
+      <c r="AF7" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W7,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG7" s="21" t="e">
+        <v>3</v>
+      </c>
+      <c r="AG7" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X7,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH7" s="21" t="e">
+        <v>8</v>
+      </c>
+      <c r="AH7" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y7,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI7" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z7,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ7" s="21" t="e">
+        <v>1</v>
+      </c>
+      <c r="AJ7" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA7,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK7" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB7,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL7" s="21" t="e">
+        <v>3</v>
+      </c>
+      <c r="AL7" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC7,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM7" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD7,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO7" s="21" t="e">
+        <v>2</v>
+      </c>
+      <c r="AO7" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>38010302</v>
       </c>
     </row>
     <row r="8" spans="1:41" x14ac:dyDescent="0.25">
@@ -1829,116 +1837,130 @@
       <c r="B8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="13" t="e">
+      <c r="C8" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="J8" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M8" s="21" t="e">
+        <v>4C040081</v>
+      </c>
+      <c r="M8" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C8,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N8" s="21">
+        <v>1001</v>
+      </c>
+      <c r="N8" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D8,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D8,'HEX GEN BACKEND'!G:G,0)),D8)</f>
-        <v>0</v>
-      </c>
-      <c r="O8" s="21" t="e">
+        <v>0000001</v>
+      </c>
+      <c r="O8" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E8,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P8" s="21">
+        <v>10</v>
+      </c>
+      <c r="P8" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F8,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F8,'HEX GEN BACKEND'!H:H,0)),F8)</f>
-        <v>0</v>
-      </c>
-      <c r="Q8" s="21" t="e">
+        <v>0000000</v>
+      </c>
+      <c r="Q8" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G8,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R8" s="21">
+        <v>00</v>
+      </c>
+      <c r="R8" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H8,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H8,'HEX GEN BACKEND'!I:I,0)),H8)</f>
-        <v>0</v>
-      </c>
-      <c r="S8" s="21" t="e">
+        <v>0000001</v>
+      </c>
+      <c r="S8" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I8,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U8" s="21" t="e">
+        <v>01</v>
+      </c>
+      <c r="U8" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W8" s="21" t="e">
+        <v>01001100000001000000000010000001</v>
+      </c>
+      <c r="W8" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X8" s="21" t="e">
+        <v>0100</v>
+      </c>
+      <c r="X8" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y8" s="21" t="e">
+        <v>1100</v>
+      </c>
+      <c r="Y8" s="21" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z8" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="Z8" s="21" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA8" s="21" t="e">
+        <v>0100</v>
+      </c>
+      <c r="AA8" s="21" t="str">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB8" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AB8" s="21" t="str">
         <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC8" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AC8" s="21" t="str">
         <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AD8" s="21" t="e">
+        <v>1000</v>
+      </c>
+      <c r="AD8" s="21" t="str">
         <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AF8" s="21" t="e">
+        <v>0001</v>
+      </c>
+      <c r="AF8" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W8,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG8" s="21" t="e">
+        <v>4</v>
+      </c>
+      <c r="AG8" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X8,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH8" s="21" t="e">
+        <v>C</v>
+      </c>
+      <c r="AH8" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y8,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI8" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z8,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ8" s="21" t="e">
+        <v>4</v>
+      </c>
+      <c r="AJ8" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA8,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK8" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB8,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL8" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC8,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM8" s="21" t="e">
+        <v>8</v>
+      </c>
+      <c r="AM8" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD8,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO8" s="21" t="e">
+        <v>1</v>
+      </c>
+      <c r="AO8" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>4C040081</v>
       </c>
     </row>
     <row r="9" spans="1:41" x14ac:dyDescent="0.25">
@@ -1948,116 +1970,130 @@
       <c r="B9" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="13" t="e">
+      <c r="C9" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="J9" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M9" s="21" t="e">
+        <v>48020282</v>
+      </c>
+      <c r="M9" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C9,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N9" s="21">
+        <v>1001</v>
+      </c>
+      <c r="N9" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D9,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D9,'HEX GEN BACKEND'!G:G,0)),D9)</f>
-        <v>0</v>
-      </c>
-      <c r="O9" s="21" t="e">
+        <v>0000000</v>
+      </c>
+      <c r="O9" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E9,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P9" s="21">
+        <v>00</v>
+      </c>
+      <c r="P9" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F9,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F9,'HEX GEN BACKEND'!H:H,0)),F9)</f>
-        <v>0</v>
-      </c>
-      <c r="Q9" s="21" t="e">
+        <v>0000001</v>
+      </c>
+      <c r="Q9" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G9,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R9" s="21">
+        <v>10</v>
+      </c>
+      <c r="R9" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H9,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H9,'HEX GEN BACKEND'!I:I,0)),H9)</f>
-        <v>0</v>
-      </c>
-      <c r="S9" s="21" t="e">
+        <v>0000010</v>
+      </c>
+      <c r="S9" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I9,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U9" s="21" t="e">
+        <v>01</v>
+      </c>
+      <c r="U9" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W9" s="21" t="e">
+        <v>01001000000000100000001010000010</v>
+      </c>
+      <c r="W9" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X9" s="21" t="e">
+        <v>0100</v>
+      </c>
+      <c r="X9" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y9" s="21" t="e">
+        <v>1000</v>
+      </c>
+      <c r="Y9" s="21" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z9" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="Z9" s="21" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA9" s="21" t="e">
+        <v>0010</v>
+      </c>
+      <c r="AA9" s="21" t="str">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB9" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AB9" s="21" t="str">
         <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC9" s="21" t="e">
+        <v>0010</v>
+      </c>
+      <c r="AC9" s="21" t="str">
         <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AD9" s="21" t="e">
+        <v>1000</v>
+      </c>
+      <c r="AD9" s="21" t="str">
         <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AF9" s="21" t="e">
+        <v>0010</v>
+      </c>
+      <c r="AF9" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W9,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG9" s="21" t="e">
+        <v>4</v>
+      </c>
+      <c r="AG9" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X9,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH9" s="21" t="e">
+        <v>8</v>
+      </c>
+      <c r="AH9" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y9,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI9" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z9,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ9" s="21" t="e">
+        <v>2</v>
+      </c>
+      <c r="AJ9" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA9,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK9" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB9,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL9" s="21" t="e">
+        <v>2</v>
+      </c>
+      <c r="AL9" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC9,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM9" s="21" t="e">
+        <v>8</v>
+      </c>
+      <c r="AM9" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD9,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO9" s="21" t="e">
+        <v>2</v>
+      </c>
+      <c r="AO9" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>48020282</v>
       </c>
     </row>
     <row r="10" spans="1:41" x14ac:dyDescent="0.25">
@@ -2067,116 +2103,130 @@
       <c r="B10" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="13" t="e">
+      <c r="C10" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="I10" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="J10" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M10" s="21" t="e">
+        <v>2A070101</v>
+      </c>
+      <c r="M10" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C10,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N10" s="21">
+        <v>0101</v>
+      </c>
+      <c r="N10" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D10,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D10,'HEX GEN BACKEND'!G:G,0)),D10)</f>
-        <v>0</v>
-      </c>
-      <c r="O10" s="21" t="e">
+        <v>0000001</v>
+      </c>
+      <c r="O10" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E10,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P10" s="21">
+        <v>01</v>
+      </c>
+      <c r="P10" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F10,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F10,'HEX GEN BACKEND'!H:H,0)),F10)</f>
-        <v>0</v>
-      </c>
-      <c r="Q10" s="21" t="e">
+        <v>0000000</v>
+      </c>
+      <c r="Q10" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G10,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R10" s="21">
+        <v>11</v>
+      </c>
+      <c r="R10" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H10,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H10,'HEX GEN BACKEND'!I:I,0)),H10)</f>
-        <v>0</v>
-      </c>
-      <c r="S10" s="21" t="e">
+        <v>0000001</v>
+      </c>
+      <c r="S10" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I10,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U10" s="21" t="e">
+        <v>10</v>
+      </c>
+      <c r="U10" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W10" s="21" t="e">
+        <v>00101010000001110000000100000001</v>
+      </c>
+      <c r="W10" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X10" s="21" t="e">
+        <v>0010</v>
+      </c>
+      <c r="X10" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y10" s="21" t="e">
+        <v>1010</v>
+      </c>
+      <c r="Y10" s="21" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z10" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="Z10" s="21" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA10" s="21" t="e">
+        <v>0111</v>
+      </c>
+      <c r="AA10" s="21" t="str">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB10" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AB10" s="21" t="str">
         <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC10" s="21" t="e">
+        <v>0001</v>
+      </c>
+      <c r="AC10" s="21" t="str">
         <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AD10" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AD10" s="21" t="str">
         <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AF10" s="21" t="e">
+        <v>0001</v>
+      </c>
+      <c r="AF10" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W10,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG10" s="21" t="e">
+        <v>2</v>
+      </c>
+      <c r="AG10" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X10,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH10" s="21" t="e">
+        <v>A</v>
+      </c>
+      <c r="AH10" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y10,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI10" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z10,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ10" s="21" t="e">
+        <v>7</v>
+      </c>
+      <c r="AJ10" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA10,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK10" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB10,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL10" s="21" t="e">
+        <v>1</v>
+      </c>
+      <c r="AL10" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC10,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM10" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AM10" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD10,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO10" s="21" t="e">
+        <v>1</v>
+      </c>
+      <c r="AO10" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>2A070101</v>
       </c>
     </row>
     <row r="11" spans="1:41" x14ac:dyDescent="0.25">
@@ -2186,116 +2236,130 @@
       <c r="B11" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="13" t="e">
+      <c r="C11" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="I11" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="J11" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M11" s="21" t="e">
+        <v>2E010302</v>
+      </c>
+      <c r="M11" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C11,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N11" s="21">
+        <v>0101</v>
+      </c>
+      <c r="N11" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D11,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D11,'HEX GEN BACKEND'!G:G,0)),D11)</f>
-        <v>0</v>
-      </c>
-      <c r="O11" s="21" t="e">
+        <v>0000000</v>
+      </c>
+      <c r="O11" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E11,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P11" s="21">
+        <v>11</v>
+      </c>
+      <c r="P11" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F11,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F11,'HEX GEN BACKEND'!H:H,0)),F11)</f>
-        <v>0</v>
-      </c>
-      <c r="Q11" s="21" t="e">
+        <v>0000001</v>
+      </c>
+      <c r="Q11" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G11,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R11" s="21">
+        <v>01</v>
+      </c>
+      <c r="R11" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H11,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H11,'HEX GEN BACKEND'!I:I,0)),H11)</f>
-        <v>0</v>
-      </c>
-      <c r="S11" s="21" t="e">
+        <v>0000010</v>
+      </c>
+      <c r="S11" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I11,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U11" s="21" t="e">
+        <v>10</v>
+      </c>
+      <c r="U11" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W11" s="21" t="e">
+        <v>00101110000000010000001100000010</v>
+      </c>
+      <c r="W11" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X11" s="21" t="e">
+        <v>0010</v>
+      </c>
+      <c r="X11" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y11" s="21" t="e">
+        <v>1110</v>
+      </c>
+      <c r="Y11" s="21" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z11" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="Z11" s="21" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA11" s="21" t="e">
+        <v>0001</v>
+      </c>
+      <c r="AA11" s="21" t="str">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB11" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AB11" s="21" t="str">
         <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC11" s="21" t="e">
+        <v>0011</v>
+      </c>
+      <c r="AC11" s="21" t="str">
         <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AD11" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AD11" s="21" t="str">
         <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AF11" s="21" t="e">
+        <v>0010</v>
+      </c>
+      <c r="AF11" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W11,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG11" s="21" t="e">
+        <v>2</v>
+      </c>
+      <c r="AG11" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X11,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH11" s="21" t="e">
+        <v>E</v>
+      </c>
+      <c r="AH11" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y11,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI11" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z11,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ11" s="21" t="e">
+        <v>1</v>
+      </c>
+      <c r="AJ11" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA11,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK11" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB11,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL11" s="21" t="e">
+        <v>3</v>
+      </c>
+      <c r="AL11" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC11,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM11" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AM11" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD11,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO11" s="21" t="e">
+        <v>2</v>
+      </c>
+      <c r="AO11" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>2E010302</v>
       </c>
     </row>
     <row r="12" spans="1:41" x14ac:dyDescent="0.25">
@@ -2305,116 +2369,130 @@
       <c r="B12" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="13" t="e">
+      <c r="C12" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="I12" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="J12" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M12" s="21" t="e">
+        <v>562F1881</v>
+      </c>
+      <c r="M12" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C12,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N12" s="21">
+        <v>1010</v>
+      </c>
+      <c r="N12" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D12,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D12,'HEX GEN BACKEND'!G:G,0)),D12)</f>
-        <v>0</v>
-      </c>
-      <c r="O12" s="21" t="e">
+        <v>0001011</v>
+      </c>
+      <c r="O12" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E12,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P12" s="21">
+        <v>11</v>
+      </c>
+      <c r="P12" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F12,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F12,'HEX GEN BACKEND'!H:H,0)),F12)</f>
-        <v>0</v>
-      </c>
-      <c r="Q12" s="21" t="e">
+        <v>0001100</v>
+      </c>
+      <c r="Q12" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G12,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R12" s="21">
+        <v>11</v>
+      </c>
+      <c r="R12" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H12,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H12,'HEX GEN BACKEND'!I:I,0)),H12)</f>
-        <v>0</v>
-      </c>
-      <c r="S12" s="21" t="e">
+        <v>0000001</v>
+      </c>
+      <c r="S12" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I12,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U12" s="21" t="e">
+        <v>01</v>
+      </c>
+      <c r="U12" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W12" s="21" t="e">
+        <v>01010110001011110001100010000001</v>
+      </c>
+      <c r="W12" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X12" s="21" t="e">
+        <v>0101</v>
+      </c>
+      <c r="X12" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y12" s="21" t="e">
+        <v>0110</v>
+      </c>
+      <c r="Y12" s="21" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z12" s="21" t="e">
+        <v>0010</v>
+      </c>
+      <c r="Z12" s="21" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA12" s="21" t="e">
+        <v>1111</v>
+      </c>
+      <c r="AA12" s="21" t="str">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB12" s="21" t="e">
+        <v>0001</v>
+      </c>
+      <c r="AB12" s="21" t="str">
         <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC12" s="21" t="e">
+        <v>1000</v>
+      </c>
+      <c r="AC12" s="21" t="str">
         <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AD12" s="21" t="e">
+        <v>1000</v>
+      </c>
+      <c r="AD12" s="21" t="str">
         <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AF12" s="21" t="e">
+        <v>0001</v>
+      </c>
+      <c r="AF12" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W12,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG12" s="21" t="e">
+        <v>5</v>
+      </c>
+      <c r="AG12" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X12,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH12" s="21" t="e">
+        <v>6</v>
+      </c>
+      <c r="AH12" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y12,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI12" s="21" t="e">
+        <v>2</v>
+      </c>
+      <c r="AI12" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z12,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ12" s="21" t="e">
+        <v>F</v>
+      </c>
+      <c r="AJ12" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA12,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK12" s="21" t="e">
+        <v>1</v>
+      </c>
+      <c r="AK12" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB12,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL12" s="21" t="e">
+        <v>8</v>
+      </c>
+      <c r="AL12" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC12,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM12" s="21" t="e">
+        <v>8</v>
+      </c>
+      <c r="AM12" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD12,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO12" s="21" t="e">
+        <v>1</v>
+      </c>
+      <c r="AO12" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>562F1881</v>
       </c>
     </row>
     <row r="13" spans="1:41" x14ac:dyDescent="0.25">
@@ -2424,116 +2502,130 @@
       <c r="B13" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="13" t="e">
+      <c r="C13" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="I13" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="J13" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M13" s="21" t="e">
+        <v>560B1882</v>
+      </c>
+      <c r="M13" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C13,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N13" s="21">
+        <v>1010</v>
+      </c>
+      <c r="N13" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D13,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D13,'HEX GEN BACKEND'!G:G,0)),D13)</f>
-        <v>0</v>
-      </c>
-      <c r="O13" s="21" t="e">
+        <v>0000010</v>
+      </c>
+      <c r="O13" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E13,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P13" s="21">
+        <v>11</v>
+      </c>
+      <c r="P13" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F13,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F13,'HEX GEN BACKEND'!H:H,0)),F13)</f>
-        <v>0</v>
-      </c>
-      <c r="Q13" s="21" t="e">
+        <v>0001100</v>
+      </c>
+      <c r="Q13" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G13,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R13" s="21">
+        <v>11</v>
+      </c>
+      <c r="R13" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H13,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H13,'HEX GEN BACKEND'!I:I,0)),H13)</f>
-        <v>0</v>
-      </c>
-      <c r="S13" s="21" t="e">
+        <v>0000010</v>
+      </c>
+      <c r="S13" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I13,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U13" s="21" t="e">
+        <v>01</v>
+      </c>
+      <c r="U13" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W13" s="21" t="e">
+        <v>01010110000010110001100010000010</v>
+      </c>
+      <c r="W13" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X13" s="21" t="e">
+        <v>0101</v>
+      </c>
+      <c r="X13" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y13" s="21" t="e">
+        <v>0110</v>
+      </c>
+      <c r="Y13" s="21" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z13" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="Z13" s="21" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA13" s="21" t="e">
+        <v>1011</v>
+      </c>
+      <c r="AA13" s="21" t="str">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB13" s="21" t="e">
+        <v>0001</v>
+      </c>
+      <c r="AB13" s="21" t="str">
         <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC13" s="21" t="e">
+        <v>1000</v>
+      </c>
+      <c r="AC13" s="21" t="str">
         <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AD13" s="21" t="e">
+        <v>1000</v>
+      </c>
+      <c r="AD13" s="21" t="str">
         <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AF13" s="21" t="e">
+        <v>0010</v>
+      </c>
+      <c r="AF13" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W13,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG13" s="21" t="e">
+        <v>5</v>
+      </c>
+      <c r="AG13" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X13,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH13" s="21" t="e">
+        <v>6</v>
+      </c>
+      <c r="AH13" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y13,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI13" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AI13" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z13,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ13" s="21" t="e">
+        <v>B</v>
+      </c>
+      <c r="AJ13" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA13,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK13" s="21" t="e">
+        <v>1</v>
+      </c>
+      <c r="AK13" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB13,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL13" s="21" t="e">
+        <v>8</v>
+      </c>
+      <c r="AL13" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC13,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM13" s="21" t="e">
+        <v>8</v>
+      </c>
+      <c r="AM13" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD13,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO13" s="21" t="e">
+        <v>2</v>
+      </c>
+      <c r="AO13" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>560B1882</v>
       </c>
     </row>
     <row r="14" spans="1:41" x14ac:dyDescent="0.25">
@@ -2541,118 +2633,132 @@
         <v>49</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="13" t="e">
+        <v>17</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="H14" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="I14" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="J14" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M14" s="21" t="e">
+        <v>E2050200</v>
+      </c>
+      <c r="M14" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C14,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N14" s="21">
+        <v>1100</v>
+      </c>
+      <c r="N14" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D14,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D14,'HEX GEN BACKEND'!G:G,0)),D14)</f>
-        <v>0</v>
-      </c>
-      <c r="O14" s="21" t="e">
+        <v>0000001</v>
+      </c>
+      <c r="O14" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E14,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P14" s="21">
+        <v>01</v>
+      </c>
+      <c r="P14" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F14,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F14,'HEX GEN BACKEND'!H:H,0)),F14)</f>
-        <v>0</v>
-      </c>
-      <c r="Q14" s="21" t="e">
+        <v>0000001</v>
+      </c>
+      <c r="Q14" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G14,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R14" s="21">
+        <v>01</v>
+      </c>
+      <c r="R14" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H14,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H14,'HEX GEN BACKEND'!I:I,0)),H14)</f>
-        <v>0</v>
-      </c>
-      <c r="S14" s="21" t="e">
+        <v>0000000</v>
+      </c>
+      <c r="S14" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I14,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U14" s="21" t="e">
+        <v>00</v>
+      </c>
+      <c r="U14" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W14" s="21" t="e">
+        <v>11100010000001010000001000000000</v>
+      </c>
+      <c r="W14" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X14" s="21" t="e">
+        <v>1110</v>
+      </c>
+      <c r="X14" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y14" s="21" t="e">
+        <v>0010</v>
+      </c>
+      <c r="Y14" s="21" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z14" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="Z14" s="21" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA14" s="21" t="e">
+        <v>0101</v>
+      </c>
+      <c r="AA14" s="21" t="str">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB14" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AB14" s="21" t="str">
         <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC14" s="21" t="e">
+        <v>0010</v>
+      </c>
+      <c r="AC14" s="21" t="str">
         <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AD14" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AD14" s="21" t="str">
         <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AF14" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AF14" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W14,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG14" s="21" t="e">
+        <v>E</v>
+      </c>
+      <c r="AG14" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X14,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH14" s="21" t="e">
+        <v>2</v>
+      </c>
+      <c r="AH14" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y14,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI14" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AI14" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z14,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ14" s="21" t="e">
+        <v>5</v>
+      </c>
+      <c r="AJ14" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA14,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK14" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AK14" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB14,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL14" s="21" t="e">
+        <v>2</v>
+      </c>
+      <c r="AL14" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC14,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM14" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AM14" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD14,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO14" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AO14" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>E2050200</v>
       </c>
     </row>
     <row r="15" spans="1:41" x14ac:dyDescent="0.25">
@@ -12880,7 +12986,7 @@
           <x14:formula1>
             <xm:f>'HEX GEN BACKEND'!$D:$D</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E101 G2:G101 I2:I101</xm:sqref>
+          <xm:sqref>I2:I101 G2:G101 E2:E101</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/INSTRUCTIONS/Binary Instructions.xlsx
+++ b/INSTRUCTIONS/Binary Instructions.xlsx
@@ -977,7 +977,7 @@
   <dimension ref="A1:AO101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2104,7 +2104,7 @@
         <v>16</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>76</v>
@@ -2126,11 +2126,11 @@
       </c>
       <c r="J10" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>2A070101</v>
+        <v>32070101</v>
       </c>
       <c r="M10" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C10,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>0101</v>
+        <v>0110</v>
       </c>
       <c r="N10" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D10,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D10,'HEX GEN BACKEND'!G:G,0)),D10)</f>
@@ -2158,15 +2158,15 @@
       </c>
       <c r="U10" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>00101010000001110000000100000001</v>
+        <v>00110010000001110000000100000001</v>
       </c>
       <c r="W10" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>0010</v>
+        <v>0011</v>
       </c>
       <c r="X10" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>1010</v>
+        <v>0010</v>
       </c>
       <c r="Y10" s="21" t="str">
         <f t="shared" si="4"/>
@@ -2194,11 +2194,11 @@
       </c>
       <c r="AF10" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W10,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG10" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X10,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>A</v>
+        <v>2</v>
       </c>
       <c r="AH10" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y10,'HEX GEN BACKEND'!L:L,0))</f>
@@ -2226,7 +2226,7 @@
       </c>
       <c r="AO10" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>2A070101</v>
+        <v>32070101</v>
       </c>
     </row>
     <row r="11" spans="1:41" x14ac:dyDescent="0.25">
@@ -2237,7 +2237,7 @@
         <v>16</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>98</v>
@@ -2259,11 +2259,11 @@
       </c>
       <c r="J11" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>2E010302</v>
+        <v>36010302</v>
       </c>
       <c r="M11" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C11,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>0101</v>
+        <v>0110</v>
       </c>
       <c r="N11" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D11,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D11,'HEX GEN BACKEND'!G:G,0)),D11)</f>
@@ -2291,15 +2291,15 @@
       </c>
       <c r="U11" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>00101110000000010000001100000010</v>
+        <v>00110110000000010000001100000010</v>
       </c>
       <c r="W11" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>0010</v>
+        <v>0011</v>
       </c>
       <c r="X11" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>1110</v>
+        <v>0110</v>
       </c>
       <c r="Y11" s="21" t="str">
         <f t="shared" si="4"/>
@@ -2327,11 +2327,11 @@
       </c>
       <c r="AF11" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W11,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG11" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X11,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>E</v>
+        <v>6</v>
       </c>
       <c r="AH11" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y11,'HEX GEN BACKEND'!L:L,0))</f>
@@ -2359,7 +2359,7 @@
       </c>
       <c r="AO11" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>2E010302</v>
+        <v>36010302</v>
       </c>
     </row>
     <row r="12" spans="1:41" x14ac:dyDescent="0.25">

--- a/INSTRUCTIONS/Binary Instructions.xlsx
+++ b/INSTRUCTIONS/Binary Instructions.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="185">
   <si>
     <t>0001</t>
   </si>
@@ -977,7 +977,7 @@
   <dimension ref="A1:AO101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1037,7 +1037,7 @@
         <v>97</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>98</v>
@@ -1062,7 +1062,7 @@
       </c>
       <c r="J2" s="13" t="str">
         <f>AO2</f>
-        <v>00000000</v>
+        <v>80000000</v>
       </c>
       <c r="M2" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C2,'HEX GEN BACKEND'!A:A,0))</f>
@@ -1094,11 +1094,11 @@
       </c>
       <c r="U2" s="21" t="str">
         <f>B2&amp;M2&amp;O2&amp;N2&amp;Q2&amp;P2&amp;S2&amp;R2</f>
-        <v>00000000000000000000000000000000</v>
+        <v>10000000000000000000000000000000</v>
       </c>
       <c r="W2" s="21" t="str">
         <f>MID(U2,1,4)</f>
-        <v>0000</v>
+        <v>1000</v>
       </c>
       <c r="X2" s="21" t="str">
         <f>MID(U2,5,4)</f>
@@ -1130,7 +1130,7 @@
       </c>
       <c r="AF2" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W2,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AG2" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X2,'HEX GEN BACKEND'!L:L,0))</f>
@@ -1162,7 +1162,7 @@
       </c>
       <c r="AO2" s="21" t="str">
         <f>AF2&amp;AG2&amp;AH2&amp;AI2&amp;AJ2&amp;AK2&amp;AL2&amp;AM2</f>
-        <v>00000000</v>
+        <v>80000000</v>
       </c>
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.25">
@@ -1571,30 +1571,30 @@
       <c r="B6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="13" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="G6" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="F6" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="G6" s="17" t="s">
-        <v>67</v>
-      </c>
       <c r="H6" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I6" s="19" t="s">
         <v>68</v>
       </c>
       <c r="J6" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>48020282</v>
+        <v>4C040081</v>
       </c>
       <c r="M6" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C6,'HEX GEN BACKEND'!A:A,0))</f>
@@ -1602,23 +1602,23 @@
       </c>
       <c r="N6" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D6,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D6,'HEX GEN BACKEND'!G:G,0)),D6)</f>
-        <v>0000000</v>
+        <v>0000001</v>
       </c>
       <c r="O6" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E6,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>00</v>
+        <v>10</v>
       </c>
       <c r="P6" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F6,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F6,'HEX GEN BACKEND'!H:H,0)),F6)</f>
-        <v>0000001</v>
+        <v>0000000</v>
       </c>
       <c r="Q6" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G6,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>10</v>
+        <v>00</v>
       </c>
       <c r="R6" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H6,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H6,'HEX GEN BACKEND'!I:I,0)),H6)</f>
-        <v>0000010</v>
+        <v>0000001</v>
       </c>
       <c r="S6" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I6,'HEX GEN BACKEND'!D:D,0))</f>
@@ -1626,7 +1626,7 @@
       </c>
       <c r="U6" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>01001000000000100000001010000010</v>
+        <v>01001100000001000000000010000001</v>
       </c>
       <c r="W6" s="21" t="str">
         <f t="shared" si="2"/>
@@ -1634,7 +1634,7 @@
       </c>
       <c r="X6" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="Y6" s="21" t="str">
         <f t="shared" si="4"/>
@@ -1642,7 +1642,7 @@
       </c>
       <c r="Z6" s="21" t="str">
         <f t="shared" si="5"/>
-        <v>0010</v>
+        <v>0100</v>
       </c>
       <c r="AA6" s="21" t="str">
         <f t="shared" si="6"/>
@@ -1650,7 +1650,7 @@
       </c>
       <c r="AB6" s="21" t="str">
         <f t="shared" si="7"/>
-        <v>0010</v>
+        <v>0000</v>
       </c>
       <c r="AC6" s="21" t="str">
         <f t="shared" si="8"/>
@@ -1658,7 +1658,7 @@
       </c>
       <c r="AD6" s="21" t="str">
         <f t="shared" si="9"/>
-        <v>0010</v>
+        <v>0001</v>
       </c>
       <c r="AF6" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W6,'HEX GEN BACKEND'!L:L,0))</f>
@@ -1666,7 +1666,7 @@
       </c>
       <c r="AG6" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X6,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
+        <v>C</v>
       </c>
       <c r="AH6" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y6,'HEX GEN BACKEND'!L:L,0))</f>
@@ -1674,7 +1674,7 @@
       </c>
       <c r="AI6" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z6,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ6" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA6,'HEX GEN BACKEND'!L:L,0))</f>
@@ -1682,7 +1682,7 @@
       </c>
       <c r="AK6" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB6,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL6" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC6,'HEX GEN BACKEND'!L:L,0))</f>
@@ -1690,11 +1690,11 @@
       </c>
       <c r="AM6" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD6,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO6" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>48020282</v>
+        <v>4C040081</v>
       </c>
     </row>
     <row r="7" spans="1:41" x14ac:dyDescent="0.25">
@@ -1704,8 +1704,8 @@
       <c r="B7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="13" t="s">
-        <v>183</v>
+      <c r="C7" s="23" t="s">
+        <v>3</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>98</v>
@@ -1717,21 +1717,21 @@
         <v>83</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H7" s="18" t="s">
         <v>91</v>
       </c>
       <c r="I7" s="19" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J7" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>38010302</v>
+        <v>48020282</v>
       </c>
       <c r="M7" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C7,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>0111</v>
+        <v>1001</v>
       </c>
       <c r="N7" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D7,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D7,'HEX GEN BACKEND'!G:G,0)),D7)</f>
@@ -1747,7 +1747,7 @@
       </c>
       <c r="Q7" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G7,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>01</v>
+        <v>10</v>
       </c>
       <c r="R7" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H7,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H7,'HEX GEN BACKEND'!I:I,0)),H7)</f>
@@ -1755,15 +1755,15 @@
       </c>
       <c r="S7" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I7,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>10</v>
+        <v>01</v>
       </c>
       <c r="U7" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>00111000000000010000001100000010</v>
+        <v>01001000000000100000001010000010</v>
       </c>
       <c r="W7" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>0011</v>
+        <v>0100</v>
       </c>
       <c r="X7" s="21" t="str">
         <f t="shared" si="3"/>
@@ -1775,7 +1775,7 @@
       </c>
       <c r="Z7" s="21" t="str">
         <f t="shared" si="5"/>
-        <v>0001</v>
+        <v>0010</v>
       </c>
       <c r="AA7" s="21" t="str">
         <f t="shared" si="6"/>
@@ -1783,11 +1783,11 @@
       </c>
       <c r="AB7" s="21" t="str">
         <f t="shared" si="7"/>
-        <v>0011</v>
+        <v>0010</v>
       </c>
       <c r="AC7" s="21" t="str">
         <f t="shared" si="8"/>
-        <v>0000</v>
+        <v>1000</v>
       </c>
       <c r="AD7" s="21" t="str">
         <f t="shared" si="9"/>
@@ -1795,7 +1795,7 @@
       </c>
       <c r="AF7" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W7,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG7" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X7,'HEX GEN BACKEND'!L:L,0))</f>
@@ -1807,7 +1807,7 @@
       </c>
       <c r="AI7" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z7,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ7" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA7,'HEX GEN BACKEND'!L:L,0))</f>
@@ -1815,11 +1815,11 @@
       </c>
       <c r="AK7" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB7,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AL7" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC7,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AM7" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD7,'HEX GEN BACKEND'!L:L,0))</f>
@@ -1827,7 +1827,7 @@
       </c>
       <c r="AO7" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>38010302</v>
+        <v>48020282</v>
       </c>
     </row>
     <row r="8" spans="1:41" x14ac:dyDescent="0.25">
@@ -1838,69 +1838,69 @@
         <v>16</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>3</v>
+        <v>183</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="E8" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="I8" s="19" t="s">
         <v>67</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="G8" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="H8" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="I8" s="19" t="s">
-        <v>68</v>
       </c>
       <c r="J8" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>4C040081</v>
+        <v>38010302</v>
       </c>
       <c r="M8" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C8,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>1001</v>
+        <v>0111</v>
       </c>
       <c r="N8" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D8,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D8,'HEX GEN BACKEND'!G:G,0)),D8)</f>
-        <v>0000001</v>
+        <v>0000000</v>
       </c>
       <c r="O8" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E8,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>10</v>
+        <v>00</v>
       </c>
       <c r="P8" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F8,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F8,'HEX GEN BACKEND'!H:H,0)),F8)</f>
-        <v>0000000</v>
+        <v>0000001</v>
       </c>
       <c r="Q8" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G8,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>00</v>
+        <v>01</v>
       </c>
       <c r="R8" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H8,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H8,'HEX GEN BACKEND'!I:I,0)),H8)</f>
-        <v>0000001</v>
+        <v>0000010</v>
       </c>
       <c r="S8" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I8,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>01</v>
+        <v>10</v>
       </c>
       <c r="U8" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>01001100000001000000000010000001</v>
+        <v>00111000000000010000001100000010</v>
       </c>
       <c r="W8" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>0100</v>
+        <v>0011</v>
       </c>
       <c r="X8" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="Y8" s="21" t="str">
         <f t="shared" si="4"/>
@@ -1908,7 +1908,7 @@
       </c>
       <c r="Z8" s="21" t="str">
         <f t="shared" si="5"/>
-        <v>0100</v>
+        <v>0001</v>
       </c>
       <c r="AA8" s="21" t="str">
         <f t="shared" si="6"/>
@@ -1916,23 +1916,23 @@
       </c>
       <c r="AB8" s="21" t="str">
         <f t="shared" si="7"/>
-        <v>0000</v>
+        <v>0011</v>
       </c>
       <c r="AC8" s="21" t="str">
         <f t="shared" si="8"/>
-        <v>1000</v>
+        <v>0000</v>
       </c>
       <c r="AD8" s="21" t="str">
         <f t="shared" si="9"/>
-        <v>0001</v>
+        <v>0010</v>
       </c>
       <c r="AF8" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W8,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG8" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X8,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>C</v>
+        <v>8</v>
       </c>
       <c r="AH8" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y8,'HEX GEN BACKEND'!L:L,0))</f>
@@ -1940,7 +1940,7 @@
       </c>
       <c r="AI8" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z8,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AJ8" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA8,'HEX GEN BACKEND'!L:L,0))</f>
@@ -1948,19 +1948,19 @@
       </c>
       <c r="AK8" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB8,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AL8" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC8,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AM8" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD8,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO8" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>4C040081</v>
+        <v>38010302</v>
       </c>
     </row>
     <row r="9" spans="1:41" x14ac:dyDescent="0.25">
@@ -2107,16 +2107,16 @@
         <v>182</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="E10" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="G10" s="17" t="s">
         <v>68</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>69</v>
       </c>
       <c r="H10" s="18" t="s">
         <v>90</v>
@@ -2126,7 +2126,7 @@
       </c>
       <c r="J10" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>32070101</v>
+        <v>36010301</v>
       </c>
       <c r="M10" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C10,'HEX GEN BACKEND'!A:A,0))</f>
@@ -2134,19 +2134,19 @@
       </c>
       <c r="N10" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D10,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D10,'HEX GEN BACKEND'!G:G,0)),D10)</f>
-        <v>0000001</v>
+        <v>0000000</v>
       </c>
       <c r="O10" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E10,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>01</v>
+        <v>11</v>
       </c>
       <c r="P10" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F10,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F10,'HEX GEN BACKEND'!H:H,0)),F10)</f>
-        <v>0000000</v>
+        <v>0000001</v>
       </c>
       <c r="Q10" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G10,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>11</v>
+        <v>01</v>
       </c>
       <c r="R10" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H10,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H10,'HEX GEN BACKEND'!I:I,0)),H10)</f>
@@ -2158,7 +2158,7 @@
       </c>
       <c r="U10" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>00110010000001110000000100000001</v>
+        <v>00110110000000010000001100000001</v>
       </c>
       <c r="W10" s="21" t="str">
         <f t="shared" si="2"/>
@@ -2166,7 +2166,7 @@
       </c>
       <c r="X10" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>0010</v>
+        <v>0110</v>
       </c>
       <c r="Y10" s="21" t="str">
         <f t="shared" si="4"/>
@@ -2174,7 +2174,7 @@
       </c>
       <c r="Z10" s="21" t="str">
         <f t="shared" si="5"/>
-        <v>0111</v>
+        <v>0001</v>
       </c>
       <c r="AA10" s="21" t="str">
         <f t="shared" si="6"/>
@@ -2182,7 +2182,7 @@
       </c>
       <c r="AB10" s="21" t="str">
         <f t="shared" si="7"/>
-        <v>0001</v>
+        <v>0011</v>
       </c>
       <c r="AC10" s="21" t="str">
         <f t="shared" si="8"/>
@@ -2198,7 +2198,7 @@
       </c>
       <c r="AG10" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X10,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AH10" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y10,'HEX GEN BACKEND'!L:L,0))</f>
@@ -2206,7 +2206,7 @@
       </c>
       <c r="AI10" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z10,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AJ10" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA10,'HEX GEN BACKEND'!L:L,0))</f>
@@ -2214,7 +2214,7 @@
       </c>
       <c r="AK10" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB10,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AL10" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC10,'HEX GEN BACKEND'!L:L,0))</f>
@@ -2226,7 +2226,7 @@
       </c>
       <c r="AO10" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>32070101</v>
+        <v>36010301</v>
       </c>
     </row>
     <row r="11" spans="1:41" x14ac:dyDescent="0.25">
@@ -2237,37 +2237,37 @@
         <v>16</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>182</v>
+        <v>1</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>98</v>
+        <v>163</v>
       </c>
       <c r="E11" s="15" t="s">
         <v>69</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>83</v>
+        <v>171</v>
       </c>
       <c r="G11" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="I11" s="19" t="s">
         <v>68</v>
-      </c>
-      <c r="H11" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="I11" s="19" t="s">
-        <v>67</v>
       </c>
       <c r="J11" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>36010302</v>
+        <v>560B1481</v>
       </c>
       <c r="M11" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C11,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>0110</v>
+        <v>1010</v>
       </c>
       <c r="N11" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D11,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D11,'HEX GEN BACKEND'!G:G,0)),D11)</f>
-        <v>0000000</v>
+        <v>0000010</v>
       </c>
       <c r="O11" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E11,'HEX GEN BACKEND'!D:D,0))</f>
@@ -2275,27 +2275,27 @@
       </c>
       <c r="P11" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F11,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F11,'HEX GEN BACKEND'!H:H,0)),F11)</f>
-        <v>0000001</v>
+        <v>0001010</v>
       </c>
       <c r="Q11" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G11,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>01</v>
+        <v>11</v>
       </c>
       <c r="R11" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H11,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H11,'HEX GEN BACKEND'!I:I,0)),H11)</f>
-        <v>0000010</v>
+        <v>0000001</v>
       </c>
       <c r="S11" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I11,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>10</v>
+        <v>01</v>
       </c>
       <c r="U11" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>00110110000000010000001100000010</v>
+        <v>01010110000010110001010010000001</v>
       </c>
       <c r="W11" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>0011</v>
+        <v>0101</v>
       </c>
       <c r="X11" s="21" t="str">
         <f t="shared" si="3"/>
@@ -2307,27 +2307,27 @@
       </c>
       <c r="Z11" s="21" t="str">
         <f t="shared" si="5"/>
-        <v>0001</v>
+        <v>1011</v>
       </c>
       <c r="AA11" s="21" t="str">
         <f t="shared" si="6"/>
-        <v>0000</v>
+        <v>0001</v>
       </c>
       <c r="AB11" s="21" t="str">
         <f t="shared" si="7"/>
-        <v>0011</v>
+        <v>0100</v>
       </c>
       <c r="AC11" s="21" t="str">
         <f t="shared" si="8"/>
-        <v>0000</v>
+        <v>1000</v>
       </c>
       <c r="AD11" s="21" t="str">
         <f t="shared" si="9"/>
-        <v>0010</v>
+        <v>0001</v>
       </c>
       <c r="AF11" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W11,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AG11" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X11,'HEX GEN BACKEND'!L:L,0))</f>
@@ -2339,27 +2339,27 @@
       </c>
       <c r="AI11" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z11,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>1</v>
+        <v>B</v>
       </c>
       <c r="AJ11" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA11,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK11" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB11,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AL11" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC11,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AM11" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD11,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO11" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>36010302</v>
+        <v>560B1481</v>
       </c>
     </row>
     <row r="12" spans="1:41" x14ac:dyDescent="0.25">
@@ -2367,132 +2367,132 @@
         <v>47</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>172</v>
+        <v>76</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>173</v>
+        <v>98</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="I12" s="19" t="s">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="J12" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>562F1881</v>
+        <v>E2040000</v>
       </c>
       <c r="M12" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C12,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>1010</v>
+        <v>1100</v>
       </c>
       <c r="N12" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D12,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D12,'HEX GEN BACKEND'!G:G,0)),D12)</f>
-        <v>0001011</v>
+        <v>0000001</v>
       </c>
       <c r="O12" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E12,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>11</v>
+        <v>01</v>
       </c>
       <c r="P12" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F12,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F12,'HEX GEN BACKEND'!H:H,0)),F12)</f>
-        <v>0001100</v>
+        <v>0000000</v>
       </c>
       <c r="Q12" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G12,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>11</v>
+        <v>00</v>
       </c>
       <c r="R12" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H12,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H12,'HEX GEN BACKEND'!I:I,0)),H12)</f>
-        <v>0000001</v>
+        <v>0000000</v>
       </c>
       <c r="S12" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I12,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>01</v>
+        <v>00</v>
       </c>
       <c r="U12" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>01010110001011110001100010000001</v>
+        <v>11100010000001000000000000000000</v>
       </c>
       <c r="W12" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>0101</v>
+        <v>1110</v>
       </c>
       <c r="X12" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>0110</v>
+        <v>0010</v>
       </c>
       <c r="Y12" s="21" t="str">
         <f t="shared" si="4"/>
-        <v>0010</v>
+        <v>0000</v>
       </c>
       <c r="Z12" s="21" t="str">
         <f t="shared" si="5"/>
-        <v>1111</v>
+        <v>0100</v>
       </c>
       <c r="AA12" s="21" t="str">
         <f t="shared" si="6"/>
-        <v>0001</v>
+        <v>0000</v>
       </c>
       <c r="AB12" s="21" t="str">
         <f t="shared" si="7"/>
-        <v>1000</v>
+        <v>0000</v>
       </c>
       <c r="AC12" s="21" t="str">
         <f t="shared" si="8"/>
-        <v>1000</v>
+        <v>0000</v>
       </c>
       <c r="AD12" s="21" t="str">
         <f t="shared" si="9"/>
-        <v>0001</v>
+        <v>0000</v>
       </c>
       <c r="AF12" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W12,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>5</v>
+        <v>E</v>
       </c>
       <c r="AG12" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X12,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AH12" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y12,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI12" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z12,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>F</v>
+        <v>4</v>
       </c>
       <c r="AJ12" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA12,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK12" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB12,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AL12" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC12,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AM12" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD12,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>562F1881</v>
+        <v>E2040000</v>
       </c>
     </row>
     <row r="13" spans="1:41" x14ac:dyDescent="0.25">
@@ -2502,130 +2502,116 @@
       <c r="B13" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>173</v>
-      </c>
-      <c r="G13" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="H13" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="I13" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="J13" s="13" t="str">
+      <c r="C13" s="13"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="13" t="e">
         <f t="shared" si="0"/>
-        <v>560B1882</v>
-      </c>
-      <c r="M13" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="M13" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C13,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>1010</v>
-      </c>
-      <c r="N13" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="N13" s="21">
         <f>IF(ISNUMBER(MATCH(D13,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D13,'HEX GEN BACKEND'!G:G,0)),D13)</f>
-        <v>0000010</v>
-      </c>
-      <c r="O13" s="21" t="str">
+        <v>0</v>
+      </c>
+      <c r="O13" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E13,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>11</v>
-      </c>
-      <c r="P13" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="P13" s="21">
         <f>IF(ISNUMBER(MATCH(F13,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F13,'HEX GEN BACKEND'!H:H,0)),F13)</f>
-        <v>0001100</v>
-      </c>
-      <c r="Q13" s="21" t="str">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G13,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>11</v>
-      </c>
-      <c r="R13" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="R13" s="21">
         <f>IF(ISNUMBER(MATCH(H13,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H13,'HEX GEN BACKEND'!I:I,0)),H13)</f>
-        <v>0000010</v>
-      </c>
-      <c r="S13" s="21" t="str">
+        <v>0</v>
+      </c>
+      <c r="S13" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I13,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>01</v>
-      </c>
-      <c r="U13" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="U13" s="21" t="e">
         <f t="shared" si="1"/>
-        <v>01010110000010110001100010000010</v>
-      </c>
-      <c r="W13" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="W13" s="21" t="e">
         <f t="shared" si="2"/>
-        <v>0101</v>
-      </c>
-      <c r="X13" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="X13" s="21" t="e">
         <f t="shared" si="3"/>
-        <v>0110</v>
-      </c>
-      <c r="Y13" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Y13" s="21" t="e">
         <f t="shared" si="4"/>
-        <v>0000</v>
-      </c>
-      <c r="Z13" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Z13" s="21" t="e">
         <f t="shared" si="5"/>
-        <v>1011</v>
-      </c>
-      <c r="AA13" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AA13" s="21" t="e">
         <f t="shared" si="6"/>
-        <v>0001</v>
-      </c>
-      <c r="AB13" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AB13" s="21" t="e">
         <f t="shared" si="7"/>
-        <v>1000</v>
-      </c>
-      <c r="AC13" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AC13" s="21" t="e">
         <f t="shared" si="8"/>
-        <v>1000</v>
-      </c>
-      <c r="AD13" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AD13" s="21" t="e">
         <f t="shared" si="9"/>
-        <v>0010</v>
-      </c>
-      <c r="AF13" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AF13" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W13,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>5</v>
-      </c>
-      <c r="AG13" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AG13" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X13,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>6</v>
-      </c>
-      <c r="AH13" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AH13" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y13,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AI13" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AI13" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z13,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>B</v>
-      </c>
-      <c r="AJ13" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ13" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA13,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>1</v>
-      </c>
-      <c r="AK13" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AK13" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB13,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
-      </c>
-      <c r="AL13" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AL13" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC13,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
-      </c>
-      <c r="AM13" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AM13" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD13,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
-      </c>
-      <c r="AO13" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AO13" s="21" t="e">
         <f t="shared" si="10"/>
-        <v>560B1882</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="14" spans="1:41" x14ac:dyDescent="0.25">
@@ -2633,132 +2619,118 @@
         <v>49</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="G14" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="H14" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="I14" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="J14" s="13" t="str">
+        <v>16</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="13" t="e">
         <f t="shared" si="0"/>
-        <v>E2050200</v>
-      </c>
-      <c r="M14" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="M14" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C14,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>1100</v>
-      </c>
-      <c r="N14" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="N14" s="21">
         <f>IF(ISNUMBER(MATCH(D14,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D14,'HEX GEN BACKEND'!G:G,0)),D14)</f>
-        <v>0000001</v>
-      </c>
-      <c r="O14" s="21" t="str">
+        <v>0</v>
+      </c>
+      <c r="O14" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E14,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>01</v>
-      </c>
-      <c r="P14" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="P14" s="21">
         <f>IF(ISNUMBER(MATCH(F14,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F14,'HEX GEN BACKEND'!H:H,0)),F14)</f>
-        <v>0000001</v>
-      </c>
-      <c r="Q14" s="21" t="str">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G14,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>01</v>
-      </c>
-      <c r="R14" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="R14" s="21">
         <f>IF(ISNUMBER(MATCH(H14,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H14,'HEX GEN BACKEND'!I:I,0)),H14)</f>
-        <v>0000000</v>
-      </c>
-      <c r="S14" s="21" t="str">
+        <v>0</v>
+      </c>
+      <c r="S14" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I14,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>00</v>
-      </c>
-      <c r="U14" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="U14" s="21" t="e">
         <f t="shared" si="1"/>
-        <v>11100010000001010000001000000000</v>
-      </c>
-      <c r="W14" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="W14" s="21" t="e">
         <f t="shared" si="2"/>
-        <v>1110</v>
-      </c>
-      <c r="X14" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="X14" s="21" t="e">
         <f t="shared" si="3"/>
-        <v>0010</v>
-      </c>
-      <c r="Y14" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Y14" s="21" t="e">
         <f t="shared" si="4"/>
-        <v>0000</v>
-      </c>
-      <c r="Z14" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Z14" s="21" t="e">
         <f t="shared" si="5"/>
-        <v>0101</v>
-      </c>
-      <c r="AA14" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AA14" s="21" t="e">
         <f t="shared" si="6"/>
-        <v>0000</v>
-      </c>
-      <c r="AB14" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AB14" s="21" t="e">
         <f t="shared" si="7"/>
-        <v>0010</v>
-      </c>
-      <c r="AC14" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AC14" s="21" t="e">
         <f t="shared" si="8"/>
-        <v>0000</v>
-      </c>
-      <c r="AD14" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AD14" s="21" t="e">
         <f t="shared" si="9"/>
-        <v>0000</v>
-      </c>
-      <c r="AF14" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AF14" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W14,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>E</v>
-      </c>
-      <c r="AG14" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AG14" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X14,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
-      </c>
-      <c r="AH14" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AH14" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y14,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AI14" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AI14" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z14,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>5</v>
-      </c>
-      <c r="AJ14" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ14" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA14,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AK14" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AK14" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB14,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
-      </c>
-      <c r="AL14" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AL14" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC14,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AM14" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AM14" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD14,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AO14" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AO14" s="21" t="e">
         <f t="shared" si="10"/>
-        <v>E2050200</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="15" spans="1:41" x14ac:dyDescent="0.25">
@@ -12986,7 +12958,7 @@
           <x14:formula1>
             <xm:f>'HEX GEN BACKEND'!$D:$D</xm:f>
           </x14:formula1>
-          <xm:sqref>I2:I101 G2:G101 E2:E101</xm:sqref>
+          <xm:sqref>E2:E101 G2:G101 I2:I101</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/INSTRUCTIONS/Binary Instructions.xlsx
+++ b/INSTRUCTIONS/Binary Instructions.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="186">
   <si>
     <t>0001</t>
   </si>
@@ -580,6 +580,9 @@
   </si>
   <si>
     <t>STRIG</t>
+  </si>
+  <si>
+    <t>0010110</t>
   </si>
 </sst>
 </file>
@@ -698,7 +701,38 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -977,7 +1011,7 @@
   <dimension ref="A1:AO101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="J1" sqref="J1:J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1306,13 +1340,13 @@
         <v>16</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F4" s="16" t="s">
         <v>83</v>
@@ -1328,19 +1362,19 @@
       </c>
       <c r="J4" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>2A050301</v>
+        <v>26010301</v>
       </c>
       <c r="M4" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C4,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>0101</v>
+        <v>0100</v>
       </c>
       <c r="N4" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D4,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D4,'HEX GEN BACKEND'!G:G,0)),D4)</f>
-        <v>0000001</v>
+        <v>0000000</v>
       </c>
       <c r="O4" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E4,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>01</v>
+        <v>11</v>
       </c>
       <c r="P4" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F4,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F4,'HEX GEN BACKEND'!H:H,0)),F4)</f>
@@ -1360,7 +1394,7 @@
       </c>
       <c r="U4" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>00101010000001010000001100000001</v>
+        <v>00100110000000010000001100000001</v>
       </c>
       <c r="W4" s="21" t="str">
         <f t="shared" si="2"/>
@@ -1368,7 +1402,7 @@
       </c>
       <c r="X4" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>1010</v>
+        <v>0110</v>
       </c>
       <c r="Y4" s="21" t="str">
         <f t="shared" si="4"/>
@@ -1376,7 +1410,7 @@
       </c>
       <c r="Z4" s="21" t="str">
         <f t="shared" si="5"/>
-        <v>0101</v>
+        <v>0001</v>
       </c>
       <c r="AA4" s="21" t="str">
         <f t="shared" si="6"/>
@@ -1400,7 +1434,7 @@
       </c>
       <c r="AG4" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X4,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>A</v>
+        <v>6</v>
       </c>
       <c r="AH4" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y4,'HEX GEN BACKEND'!L:L,0))</f>
@@ -1408,7 +1442,7 @@
       </c>
       <c r="AI4" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z4,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AJ4" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA4,'HEX GEN BACKEND'!L:L,0))</f>
@@ -1428,7 +1462,7 @@
       </c>
       <c r="AO4" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>2A050301</v>
+        <v>26010301</v>
       </c>
     </row>
     <row r="5" spans="1:41" x14ac:dyDescent="0.25">
@@ -1439,41 +1473,41 @@
         <v>16</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>177</v>
+        <v>3</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="F5" s="16" t="s">
         <v>83</v>
       </c>
       <c r="G5" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="I5" s="19" t="s">
         <v>68</v>
-      </c>
-      <c r="H5" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="I5" s="19" t="s">
-        <v>67</v>
       </c>
       <c r="J5" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>0A050302</v>
+        <v>48020281</v>
       </c>
       <c r="M5" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C5,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>0001</v>
+        <v>1001</v>
       </c>
       <c r="N5" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D5,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D5,'HEX GEN BACKEND'!G:G,0)),D5)</f>
-        <v>0000001</v>
+        <v>0000000</v>
       </c>
       <c r="O5" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E5,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>01</v>
+        <v>00</v>
       </c>
       <c r="P5" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F5,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F5,'HEX GEN BACKEND'!H:H,0)),F5)</f>
@@ -1481,27 +1515,27 @@
       </c>
       <c r="Q5" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G5,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>01</v>
+        <v>10</v>
       </c>
       <c r="R5" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H5,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H5,'HEX GEN BACKEND'!I:I,0)),H5)</f>
-        <v>0000010</v>
+        <v>0000001</v>
       </c>
       <c r="S5" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I5,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>10</v>
+        <v>01</v>
       </c>
       <c r="U5" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>00001010000001010000001100000010</v>
+        <v>01001000000000100000001010000001</v>
       </c>
       <c r="W5" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>0000</v>
+        <v>0100</v>
       </c>
       <c r="X5" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>1010</v>
+        <v>1000</v>
       </c>
       <c r="Y5" s="21" t="str">
         <f t="shared" si="4"/>
@@ -1509,7 +1543,7 @@
       </c>
       <c r="Z5" s="21" t="str">
         <f t="shared" si="5"/>
-        <v>0101</v>
+        <v>0010</v>
       </c>
       <c r="AA5" s="21" t="str">
         <f t="shared" si="6"/>
@@ -1517,23 +1551,23 @@
       </c>
       <c r="AB5" s="21" t="str">
         <f t="shared" si="7"/>
-        <v>0011</v>
+        <v>0010</v>
       </c>
       <c r="AC5" s="21" t="str">
         <f t="shared" si="8"/>
-        <v>0000</v>
+        <v>1000</v>
       </c>
       <c r="AD5" s="21" t="str">
         <f t="shared" si="9"/>
-        <v>0010</v>
+        <v>0001</v>
       </c>
       <c r="AF5" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W5,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AG5" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X5,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>A</v>
+        <v>8</v>
       </c>
       <c r="AH5" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y5,'HEX GEN BACKEND'!L:L,0))</f>
@@ -1541,7 +1575,7 @@
       </c>
       <c r="AI5" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z5,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AJ5" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA5,'HEX GEN BACKEND'!L:L,0))</f>
@@ -1549,19 +1583,19 @@
       </c>
       <c r="AK5" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB5,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AL5" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC5,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AM5" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD5,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO5" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>0A050302</v>
+        <v>48020281</v>
       </c>
     </row>
     <row r="6" spans="1:41" x14ac:dyDescent="0.25">
@@ -1575,7 +1609,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E6" s="15" t="s">
         <v>67</v>
@@ -1587,14 +1621,14 @@
         <v>98</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>90</v>
+        <v>162</v>
       </c>
       <c r="I6" s="19" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J6" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>4C040081</v>
+        <v>4C080181</v>
       </c>
       <c r="M6" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C6,'HEX GEN BACKEND'!A:A,0))</f>
@@ -1602,7 +1636,7 @@
       </c>
       <c r="N6" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D6,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D6,'HEX GEN BACKEND'!G:G,0)),D6)</f>
-        <v>0000001</v>
+        <v>0000010</v>
       </c>
       <c r="O6" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E6,'HEX GEN BACKEND'!D:D,0))</f>
@@ -1622,11 +1656,11 @@
       </c>
       <c r="S6" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I6,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>01</v>
+        <v>11</v>
       </c>
       <c r="U6" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>01001100000001000000000010000001</v>
+        <v>01001100000010000000000110000001</v>
       </c>
       <c r="W6" s="21" t="str">
         <f t="shared" si="2"/>
@@ -1642,7 +1676,7 @@
       </c>
       <c r="Z6" s="21" t="str">
         <f t="shared" si="5"/>
-        <v>0100</v>
+        <v>1000</v>
       </c>
       <c r="AA6" s="21" t="str">
         <f t="shared" si="6"/>
@@ -1650,7 +1684,7 @@
       </c>
       <c r="AB6" s="21" t="str">
         <f t="shared" si="7"/>
-        <v>0000</v>
+        <v>0001</v>
       </c>
       <c r="AC6" s="21" t="str">
         <f t="shared" si="8"/>
@@ -1674,7 +1708,7 @@
       </c>
       <c r="AI6" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z6,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AJ6" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA6,'HEX GEN BACKEND'!L:L,0))</f>
@@ -1682,7 +1716,7 @@
       </c>
       <c r="AK6" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB6,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL6" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC6,'HEX GEN BACKEND'!L:L,0))</f>
@@ -1694,7 +1728,7 @@
       </c>
       <c r="AO6" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>4C040081</v>
+        <v>4C080181</v>
       </c>
     </row>
     <row r="7" spans="1:41" x14ac:dyDescent="0.25">
@@ -1705,41 +1739,41 @@
         <v>16</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>3</v>
+        <v>181</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="F7" s="16" t="s">
         <v>83</v>
       </c>
       <c r="G7" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="I7" s="19" t="s">
         <v>67</v>
-      </c>
-      <c r="H7" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="I7" s="19" t="s">
-        <v>68</v>
       </c>
       <c r="J7" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>48020282</v>
+        <v>2A090301</v>
       </c>
       <c r="M7" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C7,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>1001</v>
+        <v>0101</v>
       </c>
       <c r="N7" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D7,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D7,'HEX GEN BACKEND'!G:G,0)),D7)</f>
-        <v>0000000</v>
+        <v>0000010</v>
       </c>
       <c r="O7" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E7,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>00</v>
+        <v>01</v>
       </c>
       <c r="P7" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F7,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F7,'HEX GEN BACKEND'!H:H,0)),F7)</f>
@@ -1747,27 +1781,27 @@
       </c>
       <c r="Q7" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G7,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>10</v>
+        <v>01</v>
       </c>
       <c r="R7" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H7,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H7,'HEX GEN BACKEND'!I:I,0)),H7)</f>
-        <v>0000010</v>
+        <v>0000001</v>
       </c>
       <c r="S7" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I7,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>01</v>
+        <v>10</v>
       </c>
       <c r="U7" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>01001000000000100000001010000010</v>
+        <v>00101010000010010000001100000001</v>
       </c>
       <c r="W7" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>0100</v>
+        <v>0010</v>
       </c>
       <c r="X7" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>1000</v>
+        <v>1010</v>
       </c>
       <c r="Y7" s="21" t="str">
         <f t="shared" si="4"/>
@@ -1775,7 +1809,7 @@
       </c>
       <c r="Z7" s="21" t="str">
         <f t="shared" si="5"/>
-        <v>0010</v>
+        <v>1001</v>
       </c>
       <c r="AA7" s="21" t="str">
         <f t="shared" si="6"/>
@@ -1783,23 +1817,23 @@
       </c>
       <c r="AB7" s="21" t="str">
         <f t="shared" si="7"/>
-        <v>0010</v>
+        <v>0011</v>
       </c>
       <c r="AC7" s="21" t="str">
         <f t="shared" si="8"/>
-        <v>1000</v>
+        <v>0000</v>
       </c>
       <c r="AD7" s="21" t="str">
         <f t="shared" si="9"/>
-        <v>0010</v>
+        <v>0001</v>
       </c>
       <c r="AF7" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W7,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AG7" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X7,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
+        <v>A</v>
       </c>
       <c r="AH7" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y7,'HEX GEN BACKEND'!L:L,0))</f>
@@ -1807,7 +1841,7 @@
       </c>
       <c r="AI7" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z7,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AJ7" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA7,'HEX GEN BACKEND'!L:L,0))</f>
@@ -1815,19 +1849,19 @@
       </c>
       <c r="AK7" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB7,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AL7" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC7,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AM7" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD7,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO7" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>48020282</v>
+        <v>2A090301</v>
       </c>
     </row>
     <row r="8" spans="1:41" x14ac:dyDescent="0.25">
@@ -1838,13 +1872,13 @@
         <v>16</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="F8" s="16" t="s">
         <v>83</v>
@@ -1860,19 +1894,19 @@
       </c>
       <c r="J8" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>38010302</v>
+        <v>0A090302</v>
       </c>
       <c r="M8" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C8,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>0111</v>
+        <v>0001</v>
       </c>
       <c r="N8" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D8,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D8,'HEX GEN BACKEND'!G:G,0)),D8)</f>
-        <v>0000000</v>
+        <v>0000010</v>
       </c>
       <c r="O8" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E8,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>00</v>
+        <v>01</v>
       </c>
       <c r="P8" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F8,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F8,'HEX GEN BACKEND'!H:H,0)),F8)</f>
@@ -1892,15 +1926,15 @@
       </c>
       <c r="U8" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>00111000000000010000001100000010</v>
+        <v>00001010000010010000001100000010</v>
       </c>
       <c r="W8" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>0011</v>
+        <v>0000</v>
       </c>
       <c r="X8" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>1000</v>
+        <v>1010</v>
       </c>
       <c r="Y8" s="21" t="str">
         <f t="shared" si="4"/>
@@ -1908,7 +1942,7 @@
       </c>
       <c r="Z8" s="21" t="str">
         <f t="shared" si="5"/>
-        <v>0001</v>
+        <v>1001</v>
       </c>
       <c r="AA8" s="21" t="str">
         <f t="shared" si="6"/>
@@ -1928,11 +1962,11 @@
       </c>
       <c r="AF8" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W8,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG8" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X8,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
+        <v>A</v>
       </c>
       <c r="AH8" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y8,'HEX GEN BACKEND'!L:L,0))</f>
@@ -1940,7 +1974,7 @@
       </c>
       <c r="AI8" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z8,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AJ8" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA8,'HEX GEN BACKEND'!L:L,0))</f>
@@ -1960,7 +1994,7 @@
       </c>
       <c r="AO8" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>38010302</v>
+        <v>0A090302</v>
       </c>
     </row>
     <row r="9" spans="1:41" x14ac:dyDescent="0.25">
@@ -1974,26 +2008,26 @@
         <v>3</v>
       </c>
       <c r="D9" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="G9" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="F9" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="G9" s="17" t="s">
-        <v>67</v>
-      </c>
       <c r="H9" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I9" s="19" t="s">
         <v>68</v>
       </c>
       <c r="J9" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>48020282</v>
+        <v>4C080081</v>
       </c>
       <c r="M9" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C9,'HEX GEN BACKEND'!A:A,0))</f>
@@ -2001,23 +2035,23 @@
       </c>
       <c r="N9" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D9,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D9,'HEX GEN BACKEND'!G:G,0)),D9)</f>
-        <v>0000000</v>
+        <v>0000010</v>
       </c>
       <c r="O9" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E9,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>00</v>
+        <v>10</v>
       </c>
       <c r="P9" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F9,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F9,'HEX GEN BACKEND'!H:H,0)),F9)</f>
-        <v>0000001</v>
+        <v>0000000</v>
       </c>
       <c r="Q9" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G9,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>10</v>
+        <v>00</v>
       </c>
       <c r="R9" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H9,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H9,'HEX GEN BACKEND'!I:I,0)),H9)</f>
-        <v>0000010</v>
+        <v>0000001</v>
       </c>
       <c r="S9" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I9,'HEX GEN BACKEND'!D:D,0))</f>
@@ -2025,7 +2059,7 @@
       </c>
       <c r="U9" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>01001000000000100000001010000010</v>
+        <v>01001100000010000000000010000001</v>
       </c>
       <c r="W9" s="21" t="str">
         <f t="shared" si="2"/>
@@ -2033,7 +2067,7 @@
       </c>
       <c r="X9" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="Y9" s="21" t="str">
         <f t="shared" si="4"/>
@@ -2041,7 +2075,7 @@
       </c>
       <c r="Z9" s="21" t="str">
         <f t="shared" si="5"/>
-        <v>0010</v>
+        <v>1000</v>
       </c>
       <c r="AA9" s="21" t="str">
         <f t="shared" si="6"/>
@@ -2049,7 +2083,7 @@
       </c>
       <c r="AB9" s="21" t="str">
         <f t="shared" si="7"/>
-        <v>0010</v>
+        <v>0000</v>
       </c>
       <c r="AC9" s="21" t="str">
         <f t="shared" si="8"/>
@@ -2057,7 +2091,7 @@
       </c>
       <c r="AD9" s="21" t="str">
         <f t="shared" si="9"/>
-        <v>0010</v>
+        <v>0001</v>
       </c>
       <c r="AF9" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W9,'HEX GEN BACKEND'!L:L,0))</f>
@@ -2065,7 +2099,7 @@
       </c>
       <c r="AG9" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X9,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
+        <v>C</v>
       </c>
       <c r="AH9" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y9,'HEX GEN BACKEND'!L:L,0))</f>
@@ -2073,7 +2107,7 @@
       </c>
       <c r="AI9" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z9,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AJ9" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA9,'HEX GEN BACKEND'!L:L,0))</f>
@@ -2081,7 +2115,7 @@
       </c>
       <c r="AK9" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB9,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL9" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC9,'HEX GEN BACKEND'!L:L,0))</f>
@@ -2089,11 +2123,11 @@
       </c>
       <c r="AM9" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD9,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO9" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>48020282</v>
+        <v>4C080081</v>
       </c>
     </row>
     <row r="10" spans="1:41" x14ac:dyDescent="0.25">
@@ -2104,33 +2138,33 @@
         <v>16</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>182</v>
+        <v>3</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>98</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="F10" s="16" t="s">
         <v>83</v>
       </c>
       <c r="G10" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="I10" s="19" t="s">
         <v>68</v>
-      </c>
-      <c r="H10" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="I10" s="19" t="s">
-        <v>67</v>
       </c>
       <c r="J10" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>36010301</v>
+        <v>48020282</v>
       </c>
       <c r="M10" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C10,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>0110</v>
+        <v>1001</v>
       </c>
       <c r="N10" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D10,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D10,'HEX GEN BACKEND'!G:G,0)),D10)</f>
@@ -2138,7 +2172,7 @@
       </c>
       <c r="O10" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E10,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>11</v>
+        <v>00</v>
       </c>
       <c r="P10" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F10,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F10,'HEX GEN BACKEND'!H:H,0)),F10)</f>
@@ -2146,27 +2180,27 @@
       </c>
       <c r="Q10" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G10,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>01</v>
+        <v>10</v>
       </c>
       <c r="R10" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H10,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H10,'HEX GEN BACKEND'!I:I,0)),H10)</f>
-        <v>0000001</v>
+        <v>0000010</v>
       </c>
       <c r="S10" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I10,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>10</v>
+        <v>01</v>
       </c>
       <c r="U10" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>00110110000000010000001100000001</v>
+        <v>01001000000000100000001010000010</v>
       </c>
       <c r="W10" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>0011</v>
+        <v>0100</v>
       </c>
       <c r="X10" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>0110</v>
+        <v>1000</v>
       </c>
       <c r="Y10" s="21" t="str">
         <f t="shared" si="4"/>
@@ -2174,7 +2208,7 @@
       </c>
       <c r="Z10" s="21" t="str">
         <f t="shared" si="5"/>
-        <v>0001</v>
+        <v>0010</v>
       </c>
       <c r="AA10" s="21" t="str">
         <f t="shared" si="6"/>
@@ -2182,23 +2216,23 @@
       </c>
       <c r="AB10" s="21" t="str">
         <f t="shared" si="7"/>
-        <v>0011</v>
+        <v>0010</v>
       </c>
       <c r="AC10" s="21" t="str">
         <f t="shared" si="8"/>
-        <v>0000</v>
+        <v>1000</v>
       </c>
       <c r="AD10" s="21" t="str">
         <f t="shared" si="9"/>
-        <v>0001</v>
+        <v>0010</v>
       </c>
       <c r="AF10" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W10,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG10" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X10,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AH10" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y10,'HEX GEN BACKEND'!L:L,0))</f>
@@ -2206,7 +2240,7 @@
       </c>
       <c r="AI10" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z10,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ10" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA10,'HEX GEN BACKEND'!L:L,0))</f>
@@ -2214,19 +2248,19 @@
       </c>
       <c r="AK10" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB10,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AL10" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC10,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AM10" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD10,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO10" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>36010301</v>
+        <v>48020282</v>
       </c>
     </row>
     <row r="11" spans="1:41" x14ac:dyDescent="0.25">
@@ -2237,69 +2271,69 @@
         <v>16</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>1</v>
+        <v>183</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>163</v>
+        <v>98</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>171</v>
+        <v>83</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I11" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J11" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>560B1481</v>
+        <v>38010302</v>
       </c>
       <c r="M11" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C11,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>1010</v>
+        <v>0111</v>
       </c>
       <c r="N11" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D11,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D11,'HEX GEN BACKEND'!G:G,0)),D11)</f>
-        <v>0000010</v>
+        <v>0000000</v>
       </c>
       <c r="O11" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E11,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>11</v>
+        <v>00</v>
       </c>
       <c r="P11" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F11,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F11,'HEX GEN BACKEND'!H:H,0)),F11)</f>
-        <v>0001010</v>
+        <v>0000001</v>
       </c>
       <c r="Q11" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G11,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>11</v>
+        <v>01</v>
       </c>
       <c r="R11" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H11,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H11,'HEX GEN BACKEND'!I:I,0)),H11)</f>
-        <v>0000001</v>
+        <v>0000010</v>
       </c>
       <c r="S11" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I11,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>01</v>
+        <v>10</v>
       </c>
       <c r="U11" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>01010110000010110001010010000001</v>
+        <v>00111000000000010000001100000010</v>
       </c>
       <c r="W11" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>0101</v>
+        <v>0011</v>
       </c>
       <c r="X11" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>0110</v>
+        <v>1000</v>
       </c>
       <c r="Y11" s="21" t="str">
         <f t="shared" si="4"/>
@@ -2307,31 +2341,31 @@
       </c>
       <c r="Z11" s="21" t="str">
         <f t="shared" si="5"/>
-        <v>1011</v>
+        <v>0001</v>
       </c>
       <c r="AA11" s="21" t="str">
         <f t="shared" si="6"/>
-        <v>0001</v>
+        <v>0000</v>
       </c>
       <c r="AB11" s="21" t="str">
         <f t="shared" si="7"/>
-        <v>0100</v>
+        <v>0011</v>
       </c>
       <c r="AC11" s="21" t="str">
         <f t="shared" si="8"/>
-        <v>1000</v>
+        <v>0000</v>
       </c>
       <c r="AD11" s="21" t="str">
         <f t="shared" si="9"/>
-        <v>0001</v>
+        <v>0010</v>
       </c>
       <c r="AF11" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W11,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AG11" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X11,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AH11" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y11,'HEX GEN BACKEND'!L:L,0))</f>
@@ -2339,27 +2373,27 @@
       </c>
       <c r="AI11" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z11,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>B</v>
+        <v>1</v>
       </c>
       <c r="AJ11" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA11,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK11" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB11,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AL11" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC11,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AM11" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD11,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO11" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>560B1481</v>
+        <v>38010302</v>
       </c>
     </row>
     <row r="12" spans="1:41" x14ac:dyDescent="0.25">
@@ -2367,72 +2401,72 @@
         <v>47</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="E12" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="I12" s="19" t="s">
         <v>68</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="G12" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="H12" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="I12" s="19" t="s">
-        <v>98</v>
       </c>
       <c r="J12" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>E2040000</v>
+        <v>48020282</v>
       </c>
       <c r="M12" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C12,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>1100</v>
+        <v>1001</v>
       </c>
       <c r="N12" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D12,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D12,'HEX GEN BACKEND'!G:G,0)),D12)</f>
-        <v>0000001</v>
+        <v>0000000</v>
       </c>
       <c r="O12" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E12,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>01</v>
+        <v>00</v>
       </c>
       <c r="P12" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F12,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F12,'HEX GEN BACKEND'!H:H,0)),F12)</f>
-        <v>0000000</v>
+        <v>0000001</v>
       </c>
       <c r="Q12" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G12,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>00</v>
+        <v>10</v>
       </c>
       <c r="R12" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H12,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H12,'HEX GEN BACKEND'!I:I,0)),H12)</f>
-        <v>0000000</v>
+        <v>0000010</v>
       </c>
       <c r="S12" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I12,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>00</v>
+        <v>01</v>
       </c>
       <c r="U12" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>11100010000001000000000000000000</v>
+        <v>01001000000000100000001010000010</v>
       </c>
       <c r="W12" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>1110</v>
+        <v>0100</v>
       </c>
       <c r="X12" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>0010</v>
+        <v>1000</v>
       </c>
       <c r="Y12" s="21" t="str">
         <f t="shared" si="4"/>
@@ -2440,7 +2474,7 @@
       </c>
       <c r="Z12" s="21" t="str">
         <f t="shared" si="5"/>
-        <v>0100</v>
+        <v>0010</v>
       </c>
       <c r="AA12" s="21" t="str">
         <f t="shared" si="6"/>
@@ -2448,23 +2482,23 @@
       </c>
       <c r="AB12" s="21" t="str">
         <f t="shared" si="7"/>
-        <v>0000</v>
+        <v>0010</v>
       </c>
       <c r="AC12" s="21" t="str">
         <f t="shared" si="8"/>
-        <v>0000</v>
+        <v>1000</v>
       </c>
       <c r="AD12" s="21" t="str">
         <f t="shared" si="9"/>
-        <v>0000</v>
+        <v>0010</v>
       </c>
       <c r="AF12" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W12,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>E</v>
+        <v>4</v>
       </c>
       <c r="AG12" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X12,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AH12" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y12,'HEX GEN BACKEND'!L:L,0))</f>
@@ -2472,7 +2506,7 @@
       </c>
       <c r="AI12" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z12,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ12" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA12,'HEX GEN BACKEND'!L:L,0))</f>
@@ -2480,19 +2514,19 @@
       </c>
       <c r="AK12" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB12,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL12" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC12,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AM12" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD12,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO12" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>E2040000</v>
+        <v>48020282</v>
       </c>
     </row>
     <row r="13" spans="1:41" x14ac:dyDescent="0.25">
@@ -2502,116 +2536,130 @@
       <c r="B13" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="13" t="e">
+      <c r="C13" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="I13" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="J13" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M13" s="21" t="e">
+        <v>36010301</v>
+      </c>
+      <c r="M13" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C13,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N13" s="21">
+        <v>0110</v>
+      </c>
+      <c r="N13" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D13,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D13,'HEX GEN BACKEND'!G:G,0)),D13)</f>
-        <v>0</v>
-      </c>
-      <c r="O13" s="21" t="e">
+        <v>0000000</v>
+      </c>
+      <c r="O13" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E13,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P13" s="21">
+        <v>11</v>
+      </c>
+      <c r="P13" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F13,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F13,'HEX GEN BACKEND'!H:H,0)),F13)</f>
-        <v>0</v>
-      </c>
-      <c r="Q13" s="21" t="e">
+        <v>0000001</v>
+      </c>
+      <c r="Q13" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G13,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R13" s="21">
+        <v>01</v>
+      </c>
+      <c r="R13" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H13,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H13,'HEX GEN BACKEND'!I:I,0)),H13)</f>
-        <v>0</v>
-      </c>
-      <c r="S13" s="21" t="e">
+        <v>0000001</v>
+      </c>
+      <c r="S13" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I13,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U13" s="21" t="e">
+        <v>10</v>
+      </c>
+      <c r="U13" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W13" s="21" t="e">
+        <v>00110110000000010000001100000001</v>
+      </c>
+      <c r="W13" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X13" s="21" t="e">
+        <v>0011</v>
+      </c>
+      <c r="X13" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y13" s="21" t="e">
+        <v>0110</v>
+      </c>
+      <c r="Y13" s="21" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z13" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="Z13" s="21" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA13" s="21" t="e">
+        <v>0001</v>
+      </c>
+      <c r="AA13" s="21" t="str">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB13" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AB13" s="21" t="str">
         <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC13" s="21" t="e">
+        <v>0011</v>
+      </c>
+      <c r="AC13" s="21" t="str">
         <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AD13" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AD13" s="21" t="str">
         <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AF13" s="21" t="e">
+        <v>0001</v>
+      </c>
+      <c r="AF13" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W13,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG13" s="21" t="e">
+        <v>3</v>
+      </c>
+      <c r="AG13" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X13,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH13" s="21" t="e">
+        <v>6</v>
+      </c>
+      <c r="AH13" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y13,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI13" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AI13" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z13,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ13" s="21" t="e">
+        <v>1</v>
+      </c>
+      <c r="AJ13" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA13,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK13" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AK13" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB13,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL13" s="21" t="e">
+        <v>3</v>
+      </c>
+      <c r="AL13" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC13,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM13" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AM13" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD13,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO13" s="21" t="e">
+        <v>1</v>
+      </c>
+      <c r="AO13" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>36010301</v>
       </c>
     </row>
     <row r="14" spans="1:41" x14ac:dyDescent="0.25">
@@ -2621,116 +2669,130 @@
       <c r="B14" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="13" t="e">
+      <c r="C14" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="H14" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="I14" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="J14" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M14" s="21" t="e">
+        <v>56171A81</v>
+      </c>
+      <c r="M14" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C14,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N14" s="21">
+        <v>1010</v>
+      </c>
+      <c r="N14" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D14,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D14,'HEX GEN BACKEND'!G:G,0)),D14)</f>
-        <v>0</v>
-      </c>
-      <c r="O14" s="21" t="e">
+        <v>0000101</v>
+      </c>
+      <c r="O14" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E14,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P14" s="21">
+        <v>11</v>
+      </c>
+      <c r="P14" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F14,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F14,'HEX GEN BACKEND'!H:H,0)),F14)</f>
-        <v>0</v>
-      </c>
-      <c r="Q14" s="21" t="e">
+        <v>0001101</v>
+      </c>
+      <c r="Q14" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G14,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R14" s="21">
+        <v>11</v>
+      </c>
+      <c r="R14" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H14,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H14,'HEX GEN BACKEND'!I:I,0)),H14)</f>
-        <v>0</v>
-      </c>
-      <c r="S14" s="21" t="e">
+        <v>0000001</v>
+      </c>
+      <c r="S14" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I14,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U14" s="21" t="e">
+        <v>01</v>
+      </c>
+      <c r="U14" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W14" s="21" t="e">
+        <v>01010110000101110001101010000001</v>
+      </c>
+      <c r="W14" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X14" s="21" t="e">
+        <v>0101</v>
+      </c>
+      <c r="X14" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y14" s="21" t="e">
+        <v>0110</v>
+      </c>
+      <c r="Y14" s="21" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z14" s="21" t="e">
+        <v>0001</v>
+      </c>
+      <c r="Z14" s="21" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA14" s="21" t="e">
+        <v>0111</v>
+      </c>
+      <c r="AA14" s="21" t="str">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB14" s="21" t="e">
+        <v>0001</v>
+      </c>
+      <c r="AB14" s="21" t="str">
         <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC14" s="21" t="e">
+        <v>1010</v>
+      </c>
+      <c r="AC14" s="21" t="str">
         <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AD14" s="21" t="e">
+        <v>1000</v>
+      </c>
+      <c r="AD14" s="21" t="str">
         <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AF14" s="21" t="e">
+        <v>0001</v>
+      </c>
+      <c r="AF14" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W14,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG14" s="21" t="e">
+        <v>5</v>
+      </c>
+      <c r="AG14" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X14,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH14" s="21" t="e">
+        <v>6</v>
+      </c>
+      <c r="AH14" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y14,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI14" s="21" t="e">
+        <v>1</v>
+      </c>
+      <c r="AI14" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z14,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ14" s="21" t="e">
+        <v>7</v>
+      </c>
+      <c r="AJ14" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA14,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK14" s="21" t="e">
+        <v>1</v>
+      </c>
+      <c r="AK14" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB14,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL14" s="21" t="e">
+        <v>A</v>
+      </c>
+      <c r="AL14" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC14,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM14" s="21" t="e">
+        <v>8</v>
+      </c>
+      <c r="AM14" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD14,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO14" s="21" t="e">
+        <v>1</v>
+      </c>
+      <c r="AO14" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>56171A81</v>
       </c>
     </row>
     <row r="15" spans="1:41" x14ac:dyDescent="0.25">
@@ -2740,116 +2802,130 @@
       <c r="B15" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="13" t="e">
+      <c r="C15" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="H15" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="I15" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="J15" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M15" s="21" t="e">
+        <v>4A0A0200</v>
+      </c>
+      <c r="M15" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C15,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N15" s="21">
+        <v>1001</v>
+      </c>
+      <c r="N15" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D15,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D15,'HEX GEN BACKEND'!G:G,0)),D15)</f>
-        <v>0</v>
-      </c>
-      <c r="O15" s="21" t="e">
+        <v>0000010</v>
+      </c>
+      <c r="O15" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E15,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P15" s="21">
+        <v>01</v>
+      </c>
+      <c r="P15" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F15,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F15,'HEX GEN BACKEND'!H:H,0)),F15)</f>
-        <v>0</v>
-      </c>
-      <c r="Q15" s="21" t="e">
+        <v>0000001</v>
+      </c>
+      <c r="Q15" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G15,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R15" s="21">
+        <v>10</v>
+      </c>
+      <c r="R15" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H15,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H15,'HEX GEN BACKEND'!I:I,0)),H15)</f>
-        <v>0</v>
-      </c>
-      <c r="S15" s="21" t="e">
+        <v>0000000</v>
+      </c>
+      <c r="S15" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I15,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U15" s="21" t="e">
+        <v>00</v>
+      </c>
+      <c r="U15" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W15" s="21" t="e">
+        <v>01001010000010100000001000000000</v>
+      </c>
+      <c r="W15" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X15" s="21" t="e">
+        <v>0100</v>
+      </c>
+      <c r="X15" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y15" s="21" t="e">
+        <v>1010</v>
+      </c>
+      <c r="Y15" s="21" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z15" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="Z15" s="21" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA15" s="21" t="e">
+        <v>1010</v>
+      </c>
+      <c r="AA15" s="21" t="str">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB15" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AB15" s="21" t="str">
         <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC15" s="21" t="e">
+        <v>0010</v>
+      </c>
+      <c r="AC15" s="21" t="str">
         <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AD15" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AD15" s="21" t="str">
         <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AF15" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AF15" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W15,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG15" s="21" t="e">
+        <v>4</v>
+      </c>
+      <c r="AG15" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X15,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH15" s="21" t="e">
+        <v>A</v>
+      </c>
+      <c r="AH15" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y15,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI15" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AI15" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z15,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ15" s="21" t="e">
+        <v>A</v>
+      </c>
+      <c r="AJ15" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA15,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK15" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AK15" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB15,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL15" s="21" t="e">
+        <v>2</v>
+      </c>
+      <c r="AL15" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC15,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM15" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AM15" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD15,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO15" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AO15" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>4A0A0200</v>
       </c>
     </row>
     <row r="16" spans="1:41" x14ac:dyDescent="0.25">
@@ -2859,116 +2935,130 @@
       <c r="B16" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="13" t="e">
+      <c r="C16" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="H16" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="I16" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="J16" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M16" s="21" t="e">
+        <v>2A050301</v>
+      </c>
+      <c r="M16" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C16,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N16" s="21">
+        <v>0101</v>
+      </c>
+      <c r="N16" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D16,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D16,'HEX GEN BACKEND'!G:G,0)),D16)</f>
-        <v>0</v>
-      </c>
-      <c r="O16" s="21" t="e">
+        <v>0000001</v>
+      </c>
+      <c r="O16" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E16,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P16" s="21">
+        <v>01</v>
+      </c>
+      <c r="P16" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F16,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F16,'HEX GEN BACKEND'!H:H,0)),F16)</f>
-        <v>0</v>
-      </c>
-      <c r="Q16" s="21" t="e">
+        <v>0000001</v>
+      </c>
+      <c r="Q16" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G16,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R16" s="21">
+        <v>01</v>
+      </c>
+      <c r="R16" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H16,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H16,'HEX GEN BACKEND'!I:I,0)),H16)</f>
-        <v>0</v>
-      </c>
-      <c r="S16" s="21" t="e">
+        <v>0000001</v>
+      </c>
+      <c r="S16" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I16,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U16" s="21" t="e">
+        <v>10</v>
+      </c>
+      <c r="U16" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W16" s="21" t="e">
+        <v>00101010000001010000001100000001</v>
+      </c>
+      <c r="W16" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X16" s="21" t="e">
+        <v>0010</v>
+      </c>
+      <c r="X16" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y16" s="21" t="e">
+        <v>1010</v>
+      </c>
+      <c r="Y16" s="21" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z16" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="Z16" s="21" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA16" s="21" t="e">
+        <v>0101</v>
+      </c>
+      <c r="AA16" s="21" t="str">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB16" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AB16" s="21" t="str">
         <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC16" s="21" t="e">
+        <v>0011</v>
+      </c>
+      <c r="AC16" s="21" t="str">
         <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AD16" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AD16" s="21" t="str">
         <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AF16" s="21" t="e">
+        <v>0001</v>
+      </c>
+      <c r="AF16" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W16,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG16" s="21" t="e">
+        <v>2</v>
+      </c>
+      <c r="AG16" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X16,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH16" s="21" t="e">
+        <v>A</v>
+      </c>
+      <c r="AH16" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y16,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI16" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z16,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ16" s="21" t="e">
+        <v>5</v>
+      </c>
+      <c r="AJ16" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA16,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK16" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AK16" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB16,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL16" s="21" t="e">
+        <v>3</v>
+      </c>
+      <c r="AL16" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC16,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM16" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AM16" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD16,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO16" s="21" t="e">
+        <v>1</v>
+      </c>
+      <c r="AO16" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>2A050301</v>
       </c>
     </row>
     <row r="17" spans="1:41" x14ac:dyDescent="0.25">
@@ -2978,116 +3068,130 @@
       <c r="B17" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="13" t="e">
+      <c r="C17" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="H17" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="J17" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M17" s="21" t="e">
+        <v>0A050302</v>
+      </c>
+      <c r="M17" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C17,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N17" s="21">
+        <v>0001</v>
+      </c>
+      <c r="N17" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D17,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D17,'HEX GEN BACKEND'!G:G,0)),D17)</f>
-        <v>0</v>
-      </c>
-      <c r="O17" s="21" t="e">
+        <v>0000001</v>
+      </c>
+      <c r="O17" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E17,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P17" s="21">
+        <v>01</v>
+      </c>
+      <c r="P17" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F17,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F17,'HEX GEN BACKEND'!H:H,0)),F17)</f>
-        <v>0</v>
-      </c>
-      <c r="Q17" s="21" t="e">
+        <v>0000001</v>
+      </c>
+      <c r="Q17" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G17,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R17" s="21">
+        <v>01</v>
+      </c>
+      <c r="R17" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H17,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H17,'HEX GEN BACKEND'!I:I,0)),H17)</f>
-        <v>0</v>
-      </c>
-      <c r="S17" s="21" t="e">
+        <v>0000010</v>
+      </c>
+      <c r="S17" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I17,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U17" s="21" t="e">
+        <v>10</v>
+      </c>
+      <c r="U17" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W17" s="21" t="e">
+        <v>00001010000001010000001100000010</v>
+      </c>
+      <c r="W17" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X17" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="X17" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y17" s="21" t="e">
+        <v>1010</v>
+      </c>
+      <c r="Y17" s="21" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z17" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="Z17" s="21" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA17" s="21" t="e">
+        <v>0101</v>
+      </c>
+      <c r="AA17" s="21" t="str">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB17" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AB17" s="21" t="str">
         <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC17" s="21" t="e">
+        <v>0011</v>
+      </c>
+      <c r="AC17" s="21" t="str">
         <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AD17" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AD17" s="21" t="str">
         <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AF17" s="21" t="e">
+        <v>0010</v>
+      </c>
+      <c r="AF17" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W17,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG17" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AG17" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X17,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH17" s="21" t="e">
+        <v>A</v>
+      </c>
+      <c r="AH17" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y17,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI17" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AI17" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z17,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ17" s="21" t="e">
+        <v>5</v>
+      </c>
+      <c r="AJ17" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA17,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK17" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AK17" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB17,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL17" s="21" t="e">
+        <v>3</v>
+      </c>
+      <c r="AL17" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC17,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM17" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AM17" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD17,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO17" s="21" t="e">
+        <v>2</v>
+      </c>
+      <c r="AO17" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>0A050302</v>
       </c>
     </row>
     <row r="18" spans="1:41" x14ac:dyDescent="0.25">
@@ -3097,116 +3201,130 @@
       <c r="B18" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="13" t="e">
+      <c r="C18" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="H18" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="I18" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="J18" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M18" s="21" t="e">
+        <v>4C040081</v>
+      </c>
+      <c r="M18" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C18,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N18" s="21">
+        <v>1001</v>
+      </c>
+      <c r="N18" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D18,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D18,'HEX GEN BACKEND'!G:G,0)),D18)</f>
-        <v>0</v>
-      </c>
-      <c r="O18" s="21" t="e">
+        <v>0000001</v>
+      </c>
+      <c r="O18" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E18,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P18" s="21">
+        <v>10</v>
+      </c>
+      <c r="P18" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F18,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F18,'HEX GEN BACKEND'!H:H,0)),F18)</f>
-        <v>0</v>
-      </c>
-      <c r="Q18" s="21" t="e">
+        <v>0000000</v>
+      </c>
+      <c r="Q18" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G18,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R18" s="21">
+        <v>00</v>
+      </c>
+      <c r="R18" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H18,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H18,'HEX GEN BACKEND'!I:I,0)),H18)</f>
-        <v>0</v>
-      </c>
-      <c r="S18" s="21" t="e">
+        <v>0000001</v>
+      </c>
+      <c r="S18" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I18,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U18" s="21" t="e">
+        <v>01</v>
+      </c>
+      <c r="U18" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W18" s="21" t="e">
+        <v>01001100000001000000000010000001</v>
+      </c>
+      <c r="W18" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X18" s="21" t="e">
+        <v>0100</v>
+      </c>
+      <c r="X18" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y18" s="21" t="e">
+        <v>1100</v>
+      </c>
+      <c r="Y18" s="21" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z18" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="Z18" s="21" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA18" s="21" t="e">
+        <v>0100</v>
+      </c>
+      <c r="AA18" s="21" t="str">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB18" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AB18" s="21" t="str">
         <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC18" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AC18" s="21" t="str">
         <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AD18" s="21" t="e">
+        <v>1000</v>
+      </c>
+      <c r="AD18" s="21" t="str">
         <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AF18" s="21" t="e">
+        <v>0001</v>
+      </c>
+      <c r="AF18" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W18,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG18" s="21" t="e">
+        <v>4</v>
+      </c>
+      <c r="AG18" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X18,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH18" s="21" t="e">
+        <v>C</v>
+      </c>
+      <c r="AH18" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y18,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI18" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AI18" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z18,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ18" s="21" t="e">
+        <v>4</v>
+      </c>
+      <c r="AJ18" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA18,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK18" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AK18" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB18,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL18" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AL18" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC18,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM18" s="21" t="e">
+        <v>8</v>
+      </c>
+      <c r="AM18" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD18,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO18" s="21" t="e">
+        <v>1</v>
+      </c>
+      <c r="AO18" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>4C040081</v>
       </c>
     </row>
     <row r="19" spans="1:41" x14ac:dyDescent="0.25">
@@ -3216,116 +3334,130 @@
       <c r="B19" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="23"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="13" t="e">
+      <c r="C19" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="H19" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="I19" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="J19" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M19" s="21" t="e">
+        <v>48020282</v>
+      </c>
+      <c r="M19" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C19,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N19" s="21">
+        <v>1001</v>
+      </c>
+      <c r="N19" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D19,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D19,'HEX GEN BACKEND'!G:G,0)),D19)</f>
-        <v>0</v>
-      </c>
-      <c r="O19" s="21" t="e">
+        <v>0000000</v>
+      </c>
+      <c r="O19" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E19,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P19" s="21">
+        <v>00</v>
+      </c>
+      <c r="P19" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F19,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F19,'HEX GEN BACKEND'!H:H,0)),F19)</f>
-        <v>0</v>
-      </c>
-      <c r="Q19" s="21" t="e">
+        <v>0000001</v>
+      </c>
+      <c r="Q19" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G19,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R19" s="21">
+        <v>10</v>
+      </c>
+      <c r="R19" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H19,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H19,'HEX GEN BACKEND'!I:I,0)),H19)</f>
-        <v>0</v>
-      </c>
-      <c r="S19" s="21" t="e">
+        <v>0000010</v>
+      </c>
+      <c r="S19" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I19,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U19" s="21" t="e">
+        <v>01</v>
+      </c>
+      <c r="U19" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W19" s="21" t="e">
+        <v>01001000000000100000001010000010</v>
+      </c>
+      <c r="W19" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X19" s="21" t="e">
+        <v>0100</v>
+      </c>
+      <c r="X19" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y19" s="21" t="e">
+        <v>1000</v>
+      </c>
+      <c r="Y19" s="21" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z19" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="Z19" s="21" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA19" s="21" t="e">
+        <v>0010</v>
+      </c>
+      <c r="AA19" s="21" t="str">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB19" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AB19" s="21" t="str">
         <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC19" s="21" t="e">
+        <v>0010</v>
+      </c>
+      <c r="AC19" s="21" t="str">
         <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AD19" s="21" t="e">
+        <v>1000</v>
+      </c>
+      <c r="AD19" s="21" t="str">
         <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AF19" s="21" t="e">
+        <v>0010</v>
+      </c>
+      <c r="AF19" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W19,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG19" s="21" t="e">
+        <v>4</v>
+      </c>
+      <c r="AG19" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X19,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH19" s="21" t="e">
+        <v>8</v>
+      </c>
+      <c r="AH19" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y19,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI19" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AI19" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z19,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ19" s="21" t="e">
+        <v>2</v>
+      </c>
+      <c r="AJ19" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA19,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK19" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AK19" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB19,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL19" s="21" t="e">
+        <v>2</v>
+      </c>
+      <c r="AL19" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC19,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM19" s="21" t="e">
+        <v>8</v>
+      </c>
+      <c r="AM19" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD19,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO19" s="21" t="e">
+        <v>2</v>
+      </c>
+      <c r="AO19" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>48020282</v>
       </c>
     </row>
     <row r="20" spans="1:41" x14ac:dyDescent="0.25">
@@ -3335,116 +3467,130 @@
       <c r="B20" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="13" t="e">
+      <c r="C20" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="H20" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="I20" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="J20" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M20" s="21" t="e">
+        <v>38010302</v>
+      </c>
+      <c r="M20" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C20,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N20" s="21">
+        <v>0111</v>
+      </c>
+      <c r="N20" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D20,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D20,'HEX GEN BACKEND'!G:G,0)),D20)</f>
-        <v>0</v>
-      </c>
-      <c r="O20" s="21" t="e">
+        <v>0000000</v>
+      </c>
+      <c r="O20" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E20,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P20" s="21">
+        <v>00</v>
+      </c>
+      <c r="P20" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F20,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F20,'HEX GEN BACKEND'!H:H,0)),F20)</f>
-        <v>0</v>
-      </c>
-      <c r="Q20" s="21" t="e">
+        <v>0000001</v>
+      </c>
+      <c r="Q20" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G20,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R20" s="21">
+        <v>01</v>
+      </c>
+      <c r="R20" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H20,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H20,'HEX GEN BACKEND'!I:I,0)),H20)</f>
-        <v>0</v>
-      </c>
-      <c r="S20" s="21" t="e">
+        <v>0000010</v>
+      </c>
+      <c r="S20" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I20,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U20" s="21" t="e">
+        <v>10</v>
+      </c>
+      <c r="U20" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W20" s="21" t="e">
+        <v>00111000000000010000001100000010</v>
+      </c>
+      <c r="W20" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X20" s="21" t="e">
+        <v>0011</v>
+      </c>
+      <c r="X20" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y20" s="21" t="e">
+        <v>1000</v>
+      </c>
+      <c r="Y20" s="21" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z20" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="Z20" s="21" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA20" s="21" t="e">
+        <v>0001</v>
+      </c>
+      <c r="AA20" s="21" t="str">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB20" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AB20" s="21" t="str">
         <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC20" s="21" t="e">
+        <v>0011</v>
+      </c>
+      <c r="AC20" s="21" t="str">
         <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AD20" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AD20" s="21" t="str">
         <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AF20" s="21" t="e">
+        <v>0010</v>
+      </c>
+      <c r="AF20" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W20,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG20" s="21" t="e">
+        <v>3</v>
+      </c>
+      <c r="AG20" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X20,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH20" s="21" t="e">
+        <v>8</v>
+      </c>
+      <c r="AH20" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y20,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI20" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AI20" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z20,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ20" s="21" t="e">
+        <v>1</v>
+      </c>
+      <c r="AJ20" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA20,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK20" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AK20" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB20,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL20" s="21" t="e">
+        <v>3</v>
+      </c>
+      <c r="AL20" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC20,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM20" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AM20" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD20,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO20" s="21" t="e">
+        <v>2</v>
+      </c>
+      <c r="AO20" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>38010302</v>
       </c>
     </row>
     <row r="21" spans="1:41" x14ac:dyDescent="0.25">
@@ -3454,116 +3600,130 @@
       <c r="B21" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="13" t="e">
+      <c r="C21" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="H21" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="I21" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="J21" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M21" s="21" t="e">
+        <v>48020282</v>
+      </c>
+      <c r="M21" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C21,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N21" s="21">
+        <v>1001</v>
+      </c>
+      <c r="N21" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D21,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D21,'HEX GEN BACKEND'!G:G,0)),D21)</f>
-        <v>0</v>
-      </c>
-      <c r="O21" s="21" t="e">
+        <v>0000000</v>
+      </c>
+      <c r="O21" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E21,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P21" s="21">
+        <v>00</v>
+      </c>
+      <c r="P21" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F21,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F21,'HEX GEN BACKEND'!H:H,0)),F21)</f>
-        <v>0</v>
-      </c>
-      <c r="Q21" s="21" t="e">
+        <v>0000001</v>
+      </c>
+      <c r="Q21" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G21,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R21" s="21">
+        <v>10</v>
+      </c>
+      <c r="R21" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H21,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H21,'HEX GEN BACKEND'!I:I,0)),H21)</f>
-        <v>0</v>
-      </c>
-      <c r="S21" s="21" t="e">
+        <v>0000010</v>
+      </c>
+      <c r="S21" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I21,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U21" s="21" t="e">
+        <v>01</v>
+      </c>
+      <c r="U21" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W21" s="21" t="e">
+        <v>01001000000000100000001010000010</v>
+      </c>
+      <c r="W21" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X21" s="21" t="e">
+        <v>0100</v>
+      </c>
+      <c r="X21" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y21" s="21" t="e">
+        <v>1000</v>
+      </c>
+      <c r="Y21" s="21" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z21" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="Z21" s="21" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA21" s="21" t="e">
+        <v>0010</v>
+      </c>
+      <c r="AA21" s="21" t="str">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB21" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AB21" s="21" t="str">
         <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC21" s="21" t="e">
+        <v>0010</v>
+      </c>
+      <c r="AC21" s="21" t="str">
         <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AD21" s="21" t="e">
+        <v>1000</v>
+      </c>
+      <c r="AD21" s="21" t="str">
         <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AF21" s="21" t="e">
+        <v>0010</v>
+      </c>
+      <c r="AF21" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W21,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG21" s="21" t="e">
+        <v>4</v>
+      </c>
+      <c r="AG21" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X21,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH21" s="21" t="e">
+        <v>8</v>
+      </c>
+      <c r="AH21" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y21,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI21" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z21,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ21" s="21" t="e">
+        <v>2</v>
+      </c>
+      <c r="AJ21" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA21,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK21" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AK21" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB21,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL21" s="21" t="e">
+        <v>2</v>
+      </c>
+      <c r="AL21" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC21,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM21" s="21" t="e">
+        <v>8</v>
+      </c>
+      <c r="AM21" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD21,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO21" s="21" t="e">
+        <v>2</v>
+      </c>
+      <c r="AO21" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>48020282</v>
       </c>
     </row>
     <row r="22" spans="1:41" x14ac:dyDescent="0.25">
@@ -3573,116 +3733,130 @@
       <c r="B22" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="23"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="13" t="e">
+      <c r="C22" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="G22" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="H22" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="I22" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="J22" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M22" s="21" t="e">
+        <v>36010301</v>
+      </c>
+      <c r="M22" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C22,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N22" s="21">
+        <v>0110</v>
+      </c>
+      <c r="N22" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D22,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D22,'HEX GEN BACKEND'!G:G,0)),D22)</f>
-        <v>0</v>
-      </c>
-      <c r="O22" s="21" t="e">
+        <v>0000000</v>
+      </c>
+      <c r="O22" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E22,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P22" s="21">
+        <v>11</v>
+      </c>
+      <c r="P22" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F22,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F22,'HEX GEN BACKEND'!H:H,0)),F22)</f>
-        <v>0</v>
-      </c>
-      <c r="Q22" s="21" t="e">
+        <v>0000001</v>
+      </c>
+      <c r="Q22" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G22,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R22" s="21">
+        <v>01</v>
+      </c>
+      <c r="R22" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H22,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H22,'HEX GEN BACKEND'!I:I,0)),H22)</f>
-        <v>0</v>
-      </c>
-      <c r="S22" s="21" t="e">
+        <v>0000001</v>
+      </c>
+      <c r="S22" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I22,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U22" s="21" t="e">
+        <v>10</v>
+      </c>
+      <c r="U22" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W22" s="21" t="e">
+        <v>00110110000000010000001100000001</v>
+      </c>
+      <c r="W22" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X22" s="21" t="e">
+        <v>0011</v>
+      </c>
+      <c r="X22" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y22" s="21" t="e">
+        <v>0110</v>
+      </c>
+      <c r="Y22" s="21" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z22" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="Z22" s="21" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA22" s="21" t="e">
+        <v>0001</v>
+      </c>
+      <c r="AA22" s="21" t="str">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB22" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AB22" s="21" t="str">
         <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC22" s="21" t="e">
+        <v>0011</v>
+      </c>
+      <c r="AC22" s="21" t="str">
         <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AD22" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AD22" s="21" t="str">
         <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AF22" s="21" t="e">
+        <v>0001</v>
+      </c>
+      <c r="AF22" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W22,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG22" s="21" t="e">
+        <v>3</v>
+      </c>
+      <c r="AG22" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X22,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH22" s="21" t="e">
+        <v>6</v>
+      </c>
+      <c r="AH22" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y22,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI22" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AI22" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z22,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ22" s="21" t="e">
+        <v>1</v>
+      </c>
+      <c r="AJ22" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA22,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK22" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AK22" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB22,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL22" s="21" t="e">
+        <v>3</v>
+      </c>
+      <c r="AL22" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC22,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM22" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AM22" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD22,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO22" s="21" t="e">
+        <v>1</v>
+      </c>
+      <c r="AO22" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>36010301</v>
       </c>
     </row>
     <row r="23" spans="1:41" x14ac:dyDescent="0.25">
@@ -3692,116 +3866,130 @@
       <c r="B23" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="13" t="e">
+      <c r="C23" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="G23" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="H23" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="I23" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="J23" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M23" s="21" t="e">
+        <v>563B2C81</v>
+      </c>
+      <c r="M23" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C23,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N23" s="21">
+        <v>1010</v>
+      </c>
+      <c r="N23" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D23,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D23,'HEX GEN BACKEND'!G:G,0)),D23)</f>
-        <v>0</v>
-      </c>
-      <c r="O23" s="21" t="e">
+        <v>0001110</v>
+      </c>
+      <c r="O23" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E23,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P23" s="21">
+        <v>11</v>
+      </c>
+      <c r="P23" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F23,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F23,'HEX GEN BACKEND'!H:H,0)),F23)</f>
-        <v>0</v>
-      </c>
-      <c r="Q23" s="21" t="e">
+        <v>0010110</v>
+      </c>
+      <c r="Q23" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G23,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R23" s="21">
+        <v>11</v>
+      </c>
+      <c r="R23" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H23,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H23,'HEX GEN BACKEND'!I:I,0)),H23)</f>
-        <v>0</v>
-      </c>
-      <c r="S23" s="21" t="e">
+        <v>0000001</v>
+      </c>
+      <c r="S23" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I23,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U23" s="21" t="e">
+        <v>01</v>
+      </c>
+      <c r="U23" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W23" s="21" t="e">
+        <v>01010110001110110010110010000001</v>
+      </c>
+      <c r="W23" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X23" s="21" t="e">
+        <v>0101</v>
+      </c>
+      <c r="X23" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y23" s="21" t="e">
+        <v>0110</v>
+      </c>
+      <c r="Y23" s="21" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z23" s="21" t="e">
+        <v>0011</v>
+      </c>
+      <c r="Z23" s="21" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA23" s="21" t="e">
+        <v>1011</v>
+      </c>
+      <c r="AA23" s="21" t="str">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB23" s="21" t="e">
+        <v>0010</v>
+      </c>
+      <c r="AB23" s="21" t="str">
         <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC23" s="21" t="e">
+        <v>1100</v>
+      </c>
+      <c r="AC23" s="21" t="str">
         <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AD23" s="21" t="e">
+        <v>1000</v>
+      </c>
+      <c r="AD23" s="21" t="str">
         <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AF23" s="21" t="e">
+        <v>0001</v>
+      </c>
+      <c r="AF23" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W23,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG23" s="21" t="e">
+        <v>5</v>
+      </c>
+      <c r="AG23" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X23,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH23" s="21" t="e">
+        <v>6</v>
+      </c>
+      <c r="AH23" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y23,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI23" s="21" t="e">
+        <v>3</v>
+      </c>
+      <c r="AI23" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z23,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ23" s="21" t="e">
+        <v>B</v>
+      </c>
+      <c r="AJ23" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA23,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK23" s="21" t="e">
+        <v>2</v>
+      </c>
+      <c r="AK23" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB23,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL23" s="21" t="e">
+        <v>C</v>
+      </c>
+      <c r="AL23" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC23,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM23" s="21" t="e">
+        <v>8</v>
+      </c>
+      <c r="AM23" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD23,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO23" s="21" t="e">
+        <v>1</v>
+      </c>
+      <c r="AO23" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>563B2C81</v>
       </c>
     </row>
     <row r="24" spans="1:41" x14ac:dyDescent="0.25">
@@ -3809,118 +3997,132 @@
         <v>59</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="13" t="e">
+        <v>17</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="H24" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="I24" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="J24" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M24" s="21" t="e">
+        <v>E2040000</v>
+      </c>
+      <c r="M24" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C24,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N24" s="21">
+        <v>1100</v>
+      </c>
+      <c r="N24" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D24,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D24,'HEX GEN BACKEND'!G:G,0)),D24)</f>
-        <v>0</v>
-      </c>
-      <c r="O24" s="21" t="e">
+        <v>0000001</v>
+      </c>
+      <c r="O24" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E24,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P24" s="21">
+        <v>01</v>
+      </c>
+      <c r="P24" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F24,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F24,'HEX GEN BACKEND'!H:H,0)),F24)</f>
-        <v>0</v>
-      </c>
-      <c r="Q24" s="21" t="e">
+        <v>0000000</v>
+      </c>
+      <c r="Q24" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G24,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R24" s="21">
+        <v>00</v>
+      </c>
+      <c r="R24" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H24,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H24,'HEX GEN BACKEND'!I:I,0)),H24)</f>
-        <v>0</v>
-      </c>
-      <c r="S24" s="21" t="e">
+        <v>0000000</v>
+      </c>
+      <c r="S24" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I24,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U24" s="21" t="e">
+        <v>00</v>
+      </c>
+      <c r="U24" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W24" s="21" t="e">
+        <v>11100010000001000000000000000000</v>
+      </c>
+      <c r="W24" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X24" s="21" t="e">
+        <v>1110</v>
+      </c>
+      <c r="X24" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y24" s="21" t="e">
+        <v>0010</v>
+      </c>
+      <c r="Y24" s="21" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z24" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="Z24" s="21" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA24" s="21" t="e">
+        <v>0100</v>
+      </c>
+      <c r="AA24" s="21" t="str">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB24" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AB24" s="21" t="str">
         <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC24" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AC24" s="21" t="str">
         <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AD24" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AD24" s="21" t="str">
         <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AF24" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AF24" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W24,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG24" s="21" t="e">
+        <v>E</v>
+      </c>
+      <c r="AG24" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X24,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH24" s="21" t="e">
+        <v>2</v>
+      </c>
+      <c r="AH24" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y24,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI24" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AI24" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z24,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ24" s="21" t="e">
+        <v>4</v>
+      </c>
+      <c r="AJ24" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA24,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK24" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AK24" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB24,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL24" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AL24" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC24,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM24" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AM24" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD24,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO24" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AO24" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>E2040000</v>
       </c>
     </row>
     <row r="25" spans="1:41" x14ac:dyDescent="0.25">
@@ -12943,6 +13145,16 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B101">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="1">
+      <formula>NOT(ISERROR(SEARCH("1",B2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <extLst>

--- a/INSTRUCTIONS/Binary Instructions.xlsx
+++ b/INSTRUCTIONS/Binary Instructions.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="188">
   <si>
     <t>0001</t>
   </si>
@@ -582,7 +582,13 @@
     <t>STRIG</t>
   </si>
   <si>
-    <t>0010110</t>
+    <t>1000000</t>
+  </si>
+  <si>
+    <t>0010000</t>
+  </si>
+  <si>
+    <t>0010001</t>
   </si>
 </sst>
 </file>
@@ -701,17 +707,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1011,7 +1007,7 @@
   <dimension ref="A1:AO101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J24"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1340,13 +1336,13 @@
         <v>16</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>180</v>
+        <v>3</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F4" s="16" t="s">
         <v>83</v>
@@ -1355,26 +1351,26 @@
         <v>68</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="I4" s="19" t="s">
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="J4" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>26010301</v>
+        <v>4C090200</v>
       </c>
       <c r="M4" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C4,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>0100</v>
+        <v>1001</v>
       </c>
       <c r="N4" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D4,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D4,'HEX GEN BACKEND'!G:G,0)),D4)</f>
-        <v>0000000</v>
+        <v>0000010</v>
       </c>
       <c r="O4" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E4,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P4" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F4,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F4,'HEX GEN BACKEND'!H:H,0)),F4)</f>
@@ -1386,23 +1382,23 @@
       </c>
       <c r="R4" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H4,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H4,'HEX GEN BACKEND'!I:I,0)),H4)</f>
-        <v>0000001</v>
+        <v>0000000</v>
       </c>
       <c r="S4" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I4,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>10</v>
+        <v>00</v>
       </c>
       <c r="U4" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>00100110000000010000001100000001</v>
+        <v>01001100000010010000001000000000</v>
       </c>
       <c r="W4" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>0010</v>
+        <v>0100</v>
       </c>
       <c r="X4" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>0110</v>
+        <v>1100</v>
       </c>
       <c r="Y4" s="21" t="str">
         <f t="shared" si="4"/>
@@ -1410,7 +1406,7 @@
       </c>
       <c r="Z4" s="21" t="str">
         <f t="shared" si="5"/>
-        <v>0001</v>
+        <v>1001</v>
       </c>
       <c r="AA4" s="21" t="str">
         <f t="shared" si="6"/>
@@ -1418,7 +1414,7 @@
       </c>
       <c r="AB4" s="21" t="str">
         <f t="shared" si="7"/>
-        <v>0011</v>
+        <v>0010</v>
       </c>
       <c r="AC4" s="21" t="str">
         <f t="shared" si="8"/>
@@ -1426,15 +1422,15 @@
       </c>
       <c r="AD4" s="21" t="str">
         <f t="shared" si="9"/>
-        <v>0001</v>
+        <v>0000</v>
       </c>
       <c r="AF4" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W4,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AG4" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X4,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>6</v>
+        <v>C</v>
       </c>
       <c r="AH4" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y4,'HEX GEN BACKEND'!L:L,0))</f>
@@ -1442,7 +1438,7 @@
       </c>
       <c r="AI4" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z4,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AJ4" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA4,'HEX GEN BACKEND'!L:L,0))</f>
@@ -1450,7 +1446,7 @@
       </c>
       <c r="AK4" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB4,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AL4" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC4,'HEX GEN BACKEND'!L:L,0))</f>
@@ -1458,11 +1454,11 @@
       </c>
       <c r="AM4" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD4,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>26010301</v>
+        <v>4C090200</v>
       </c>
     </row>
     <row r="5" spans="1:41" x14ac:dyDescent="0.25">
@@ -1476,26 +1472,26 @@
         <v>3</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>98</v>
+        <v>185</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G5" s="17" t="s">
         <v>67</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="J5" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>48020281</v>
+        <v>4F020400</v>
       </c>
       <c r="M5" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C5,'HEX GEN BACKEND'!A:A,0))</f>
@@ -1503,15 +1499,15 @@
       </c>
       <c r="N5" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D5,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D5,'HEX GEN BACKEND'!G:G,0)),D5)</f>
-        <v>0000000</v>
+        <v>1000000</v>
       </c>
       <c r="O5" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E5,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>00</v>
+        <v>11</v>
       </c>
       <c r="P5" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F5,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F5,'HEX GEN BACKEND'!H:H,0)),F5)</f>
-        <v>0000001</v>
+        <v>0000010</v>
       </c>
       <c r="Q5" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G5,'HEX GEN BACKEND'!D:D,0))</f>
@@ -1519,15 +1515,15 @@
       </c>
       <c r="R5" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H5,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H5,'HEX GEN BACKEND'!I:I,0)),H5)</f>
-        <v>0000001</v>
+        <v>0000000</v>
       </c>
       <c r="S5" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I5,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>01</v>
+        <v>00</v>
       </c>
       <c r="U5" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>01001000000000100000001010000001</v>
+        <v>01001111000000100000010000000000</v>
       </c>
       <c r="W5" s="21" t="str">
         <f t="shared" si="2"/>
@@ -1535,7 +1531,7 @@
       </c>
       <c r="X5" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="Y5" s="21" t="str">
         <f t="shared" si="4"/>
@@ -1551,15 +1547,15 @@
       </c>
       <c r="AB5" s="21" t="str">
         <f t="shared" si="7"/>
-        <v>0010</v>
+        <v>0100</v>
       </c>
       <c r="AC5" s="21" t="str">
         <f t="shared" si="8"/>
-        <v>1000</v>
+        <v>0000</v>
       </c>
       <c r="AD5" s="21" t="str">
         <f t="shared" si="9"/>
-        <v>0001</v>
+        <v>0000</v>
       </c>
       <c r="AF5" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W5,'HEX GEN BACKEND'!L:L,0))</f>
@@ -1567,7 +1563,7 @@
       </c>
       <c r="AG5" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X5,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
+        <v>F</v>
       </c>
       <c r="AH5" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y5,'HEX GEN BACKEND'!L:L,0))</f>
@@ -1583,19 +1579,19 @@
       </c>
       <c r="AK5" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB5,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AL5" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC5,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AM5" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD5,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>48020281</v>
+        <v>4F020400</v>
       </c>
     </row>
     <row r="6" spans="1:41" x14ac:dyDescent="0.25">
@@ -1606,49 +1602,49 @@
         <v>16</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>3</v>
+        <v>177</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E6" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="I6" s="19" t="s">
         <v>67</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="G6" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="H6" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="I6" s="19" t="s">
-        <v>69</v>
       </c>
       <c r="J6" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>4C080181</v>
+        <v>0A050501</v>
       </c>
       <c r="M6" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C6,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>1001</v>
+        <v>0001</v>
       </c>
       <c r="N6" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D6,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D6,'HEX GEN BACKEND'!G:G,0)),D6)</f>
-        <v>0000010</v>
+        <v>0000001</v>
       </c>
       <c r="O6" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E6,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>10</v>
+        <v>01</v>
       </c>
       <c r="P6" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F6,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F6,'HEX GEN BACKEND'!H:H,0)),F6)</f>
-        <v>0000000</v>
+        <v>0000010</v>
       </c>
       <c r="Q6" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G6,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>00</v>
+        <v>01</v>
       </c>
       <c r="R6" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H6,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H6,'HEX GEN BACKEND'!I:I,0)),H6)</f>
@@ -1656,19 +1652,19 @@
       </c>
       <c r="S6" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I6,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U6" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>01001100000010000000000110000001</v>
+        <v>00001010000001010000010100000001</v>
       </c>
       <c r="W6" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>0100</v>
+        <v>0000</v>
       </c>
       <c r="X6" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>1100</v>
+        <v>1010</v>
       </c>
       <c r="Y6" s="21" t="str">
         <f t="shared" si="4"/>
@@ -1676,7 +1672,7 @@
       </c>
       <c r="Z6" s="21" t="str">
         <f t="shared" si="5"/>
-        <v>1000</v>
+        <v>0101</v>
       </c>
       <c r="AA6" s="21" t="str">
         <f t="shared" si="6"/>
@@ -1684,11 +1680,11 @@
       </c>
       <c r="AB6" s="21" t="str">
         <f t="shared" si="7"/>
-        <v>0001</v>
+        <v>0101</v>
       </c>
       <c r="AC6" s="21" t="str">
         <f t="shared" si="8"/>
-        <v>1000</v>
+        <v>0000</v>
       </c>
       <c r="AD6" s="21" t="str">
         <f t="shared" si="9"/>
@@ -1696,11 +1692,11 @@
       </c>
       <c r="AF6" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W6,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AG6" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X6,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>C</v>
+        <v>A</v>
       </c>
       <c r="AH6" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y6,'HEX GEN BACKEND'!L:L,0))</f>
@@ -1708,7 +1704,7 @@
       </c>
       <c r="AI6" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z6,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AJ6" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA6,'HEX GEN BACKEND'!L:L,0))</f>
@@ -1716,11 +1712,11 @@
       </c>
       <c r="AK6" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB6,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AL6" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC6,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AM6" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD6,'HEX GEN BACKEND'!L:L,0))</f>
@@ -1728,7 +1724,7 @@
       </c>
       <c r="AO6" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>4C080181</v>
+        <v>0A050501</v>
       </c>
     </row>
     <row r="7" spans="1:41" x14ac:dyDescent="0.25">
@@ -1739,7 +1735,7 @@
         <v>16</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>77</v>
@@ -1748,24 +1744,24 @@
         <v>68</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G7" s="17" t="s">
         <v>68</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I7" s="19" t="s">
         <v>67</v>
       </c>
       <c r="J7" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>2A090301</v>
+        <v>0A090502</v>
       </c>
       <c r="M7" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C7,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>0101</v>
+        <v>0001</v>
       </c>
       <c r="N7" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D7,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D7,'HEX GEN BACKEND'!G:G,0)),D7)</f>
@@ -1777,7 +1773,7 @@
       </c>
       <c r="P7" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F7,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F7,'HEX GEN BACKEND'!H:H,0)),F7)</f>
-        <v>0000001</v>
+        <v>0000010</v>
       </c>
       <c r="Q7" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G7,'HEX GEN BACKEND'!D:D,0))</f>
@@ -1785,7 +1781,7 @@
       </c>
       <c r="R7" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H7,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H7,'HEX GEN BACKEND'!I:I,0)),H7)</f>
-        <v>0000001</v>
+        <v>0000010</v>
       </c>
       <c r="S7" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I7,'HEX GEN BACKEND'!D:D,0))</f>
@@ -1793,11 +1789,11 @@
       </c>
       <c r="U7" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>00101010000010010000001100000001</v>
+        <v>00001010000010010000010100000010</v>
       </c>
       <c r="W7" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>0010</v>
+        <v>0000</v>
       </c>
       <c r="X7" s="21" t="str">
         <f t="shared" si="3"/>
@@ -1817,7 +1813,7 @@
       </c>
       <c r="AB7" s="21" t="str">
         <f t="shared" si="7"/>
-        <v>0011</v>
+        <v>0101</v>
       </c>
       <c r="AC7" s="21" t="str">
         <f t="shared" si="8"/>
@@ -1825,11 +1821,11 @@
       </c>
       <c r="AD7" s="21" t="str">
         <f t="shared" si="9"/>
-        <v>0001</v>
+        <v>0010</v>
       </c>
       <c r="AF7" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W7,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG7" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X7,'HEX GEN BACKEND'!L:L,0))</f>
@@ -1849,7 +1845,7 @@
       </c>
       <c r="AK7" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB7,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AL7" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC7,'HEX GEN BACKEND'!L:L,0))</f>
@@ -1857,11 +1853,11 @@
       </c>
       <c r="AM7" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD7,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO7" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>2A090301</v>
+        <v>0A090502</v>
       </c>
     </row>
     <row r="8" spans="1:41" x14ac:dyDescent="0.25">
@@ -1872,69 +1868,69 @@
         <v>16</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>177</v>
+        <v>3</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E8" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="I8" s="19" t="s">
         <v>68</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="G8" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="H8" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="I8" s="19" t="s">
-        <v>67</v>
       </c>
       <c r="J8" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>0A090302</v>
+        <v>4C0C0081</v>
       </c>
       <c r="M8" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C8,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>0001</v>
+        <v>1001</v>
       </c>
       <c r="N8" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D8,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D8,'HEX GEN BACKEND'!G:G,0)),D8)</f>
-        <v>0000010</v>
+        <v>0000011</v>
       </c>
       <c r="O8" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E8,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>01</v>
+        <v>10</v>
       </c>
       <c r="P8" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F8,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F8,'HEX GEN BACKEND'!H:H,0)),F8)</f>
-        <v>0000001</v>
+        <v>0000000</v>
       </c>
       <c r="Q8" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G8,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>01</v>
+        <v>00</v>
       </c>
       <c r="R8" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H8,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H8,'HEX GEN BACKEND'!I:I,0)),H8)</f>
-        <v>0000010</v>
+        <v>0000001</v>
       </c>
       <c r="S8" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I8,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>10</v>
+        <v>01</v>
       </c>
       <c r="U8" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>00001010000010010000001100000010</v>
+        <v>01001100000011000000000010000001</v>
       </c>
       <c r="W8" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>0000</v>
+        <v>0100</v>
       </c>
       <c r="X8" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>1010</v>
+        <v>1100</v>
       </c>
       <c r="Y8" s="21" t="str">
         <f t="shared" si="4"/>
@@ -1942,7 +1938,7 @@
       </c>
       <c r="Z8" s="21" t="str">
         <f t="shared" si="5"/>
-        <v>1001</v>
+        <v>1100</v>
       </c>
       <c r="AA8" s="21" t="str">
         <f t="shared" si="6"/>
@@ -1950,23 +1946,23 @@
       </c>
       <c r="AB8" s="21" t="str">
         <f t="shared" si="7"/>
-        <v>0011</v>
+        <v>0000</v>
       </c>
       <c r="AC8" s="21" t="str">
         <f t="shared" si="8"/>
-        <v>0000</v>
+        <v>1000</v>
       </c>
       <c r="AD8" s="21" t="str">
         <f t="shared" si="9"/>
-        <v>0010</v>
+        <v>0001</v>
       </c>
       <c r="AF8" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W8,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AG8" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X8,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>A</v>
+        <v>C</v>
       </c>
       <c r="AH8" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y8,'HEX GEN BACKEND'!L:L,0))</f>
@@ -1974,7 +1970,7 @@
       </c>
       <c r="AI8" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z8,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>9</v>
+        <v>C</v>
       </c>
       <c r="AJ8" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA8,'HEX GEN BACKEND'!L:L,0))</f>
@@ -1982,19 +1978,19 @@
       </c>
       <c r="AK8" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB8,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AL8" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC8,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AM8" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD8,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO8" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>0A090302</v>
+        <v>4C0C0081</v>
       </c>
     </row>
     <row r="9" spans="1:41" x14ac:dyDescent="0.25">
@@ -2008,7 +2004,7 @@
         <v>3</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E9" s="15" t="s">
         <v>67</v>
@@ -2020,14 +2016,14 @@
         <v>98</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I9" s="19" t="s">
         <v>68</v>
       </c>
       <c r="J9" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>4C080081</v>
+        <v>4C100082</v>
       </c>
       <c r="M9" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C9,'HEX GEN BACKEND'!A:A,0))</f>
@@ -2035,7 +2031,7 @@
       </c>
       <c r="N9" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D9,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D9,'HEX GEN BACKEND'!G:G,0)),D9)</f>
-        <v>0000010</v>
+        <v>0000100</v>
       </c>
       <c r="O9" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E9,'HEX GEN BACKEND'!D:D,0))</f>
@@ -2051,7 +2047,7 @@
       </c>
       <c r="R9" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H9,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H9,'HEX GEN BACKEND'!I:I,0)),H9)</f>
-        <v>0000001</v>
+        <v>0000010</v>
       </c>
       <c r="S9" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I9,'HEX GEN BACKEND'!D:D,0))</f>
@@ -2059,7 +2055,7 @@
       </c>
       <c r="U9" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>01001100000010000000000010000001</v>
+        <v>01001100000100000000000010000010</v>
       </c>
       <c r="W9" s="21" t="str">
         <f t="shared" si="2"/>
@@ -2071,11 +2067,11 @@
       </c>
       <c r="Y9" s="21" t="str">
         <f t="shared" si="4"/>
-        <v>0000</v>
+        <v>0001</v>
       </c>
       <c r="Z9" s="21" t="str">
         <f t="shared" si="5"/>
-        <v>1000</v>
+        <v>0000</v>
       </c>
       <c r="AA9" s="21" t="str">
         <f t="shared" si="6"/>
@@ -2091,7 +2087,7 @@
       </c>
       <c r="AD9" s="21" t="str">
         <f t="shared" si="9"/>
-        <v>0001</v>
+        <v>0010</v>
       </c>
       <c r="AF9" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W9,'HEX GEN BACKEND'!L:L,0))</f>
@@ -2103,11 +2099,11 @@
       </c>
       <c r="AH9" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y9,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI9" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z9,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA9,'HEX GEN BACKEND'!L:L,0))</f>
@@ -2123,11 +2119,11 @@
       </c>
       <c r="AM9" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD9,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO9" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>4C080081</v>
+        <v>4C100082</v>
       </c>
     </row>
     <row r="10" spans="1:41" x14ac:dyDescent="0.25">
@@ -2138,69 +2134,69 @@
         <v>16</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>3</v>
+        <v>182</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G10" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="I10" s="19" t="s">
         <v>67</v>
-      </c>
-      <c r="H10" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="I10" s="19" t="s">
-        <v>68</v>
       </c>
       <c r="J10" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>48020282</v>
+        <v>320D0501</v>
       </c>
       <c r="M10" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C10,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>1001</v>
+        <v>0110</v>
       </c>
       <c r="N10" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D10,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D10,'HEX GEN BACKEND'!G:G,0)),D10)</f>
-        <v>0000000</v>
+        <v>0000011</v>
       </c>
       <c r="O10" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E10,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>00</v>
+        <v>01</v>
       </c>
       <c r="P10" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F10,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F10,'HEX GEN BACKEND'!H:H,0)),F10)</f>
-        <v>0000001</v>
+        <v>0000010</v>
       </c>
       <c r="Q10" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G10,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>10</v>
+        <v>01</v>
       </c>
       <c r="R10" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H10,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H10,'HEX GEN BACKEND'!I:I,0)),H10)</f>
-        <v>0000010</v>
+        <v>0000001</v>
       </c>
       <c r="S10" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I10,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>01</v>
+        <v>10</v>
       </c>
       <c r="U10" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>01001000000000100000001010000010</v>
+        <v>00110010000011010000010100000001</v>
       </c>
       <c r="W10" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>0100</v>
+        <v>0011</v>
       </c>
       <c r="X10" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>1000</v>
+        <v>0010</v>
       </c>
       <c r="Y10" s="21" t="str">
         <f t="shared" si="4"/>
@@ -2208,7 +2204,7 @@
       </c>
       <c r="Z10" s="21" t="str">
         <f t="shared" si="5"/>
-        <v>0010</v>
+        <v>1101</v>
       </c>
       <c r="AA10" s="21" t="str">
         <f t="shared" si="6"/>
@@ -2216,23 +2212,23 @@
       </c>
       <c r="AB10" s="21" t="str">
         <f t="shared" si="7"/>
-        <v>0010</v>
+        <v>0101</v>
       </c>
       <c r="AC10" s="21" t="str">
         <f t="shared" si="8"/>
-        <v>1000</v>
+        <v>0000</v>
       </c>
       <c r="AD10" s="21" t="str">
         <f t="shared" si="9"/>
-        <v>0010</v>
+        <v>0001</v>
       </c>
       <c r="AF10" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W10,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG10" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X10,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AH10" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y10,'HEX GEN BACKEND'!L:L,0))</f>
@@ -2240,7 +2236,7 @@
       </c>
       <c r="AI10" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z10,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
+        <v>D</v>
       </c>
       <c r="AJ10" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA10,'HEX GEN BACKEND'!L:L,0))</f>
@@ -2248,19 +2244,19 @@
       </c>
       <c r="AK10" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB10,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AL10" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC10,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AM10" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD10,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO10" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>48020282</v>
+        <v>320D0501</v>
       </c>
     </row>
     <row r="11" spans="1:41" x14ac:dyDescent="0.25">
@@ -2271,16 +2267,16 @@
         <v>16</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G11" s="17" t="s">
         <v>68</v>
@@ -2293,23 +2289,23 @@
       </c>
       <c r="J11" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>38010302</v>
+        <v>32110502</v>
       </c>
       <c r="M11" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C11,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>0111</v>
+        <v>0110</v>
       </c>
       <c r="N11" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D11,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D11,'HEX GEN BACKEND'!G:G,0)),D11)</f>
-        <v>0000000</v>
+        <v>0000100</v>
       </c>
       <c r="O11" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E11,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>00</v>
+        <v>01</v>
       </c>
       <c r="P11" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F11,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F11,'HEX GEN BACKEND'!H:H,0)),F11)</f>
-        <v>0000001</v>
+        <v>0000010</v>
       </c>
       <c r="Q11" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G11,'HEX GEN BACKEND'!D:D,0))</f>
@@ -2325,7 +2321,7 @@
       </c>
       <c r="U11" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>00111000000000010000001100000010</v>
+        <v>00110010000100010000010100000010</v>
       </c>
       <c r="W11" s="21" t="str">
         <f t="shared" si="2"/>
@@ -2333,11 +2329,11 @@
       </c>
       <c r="X11" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>1000</v>
+        <v>0010</v>
       </c>
       <c r="Y11" s="21" t="str">
         <f t="shared" si="4"/>
-        <v>0000</v>
+        <v>0001</v>
       </c>
       <c r="Z11" s="21" t="str">
         <f t="shared" si="5"/>
@@ -2349,7 +2345,7 @@
       </c>
       <c r="AB11" s="21" t="str">
         <f t="shared" si="7"/>
-        <v>0011</v>
+        <v>0101</v>
       </c>
       <c r="AC11" s="21" t="str">
         <f t="shared" si="8"/>
@@ -2365,11 +2361,11 @@
       </c>
       <c r="AG11" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X11,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AH11" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y11,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI11" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z11,'HEX GEN BACKEND'!L:L,0))</f>
@@ -2381,7 +2377,7 @@
       </c>
       <c r="AK11" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB11,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AL11" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC11,'HEX GEN BACKEND'!L:L,0))</f>
@@ -2393,7 +2389,7 @@
       </c>
       <c r="AO11" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>38010302</v>
+        <v>32110502</v>
       </c>
     </row>
     <row r="12" spans="1:41" x14ac:dyDescent="0.25">
@@ -2404,53 +2400,53 @@
         <v>16</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>98</v>
+        <v>172</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>83</v>
+        <v>173</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I12" s="19" t="s">
         <v>68</v>
       </c>
       <c r="J12" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>48020282</v>
+        <v>562F1881</v>
       </c>
       <c r="M12" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C12,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>1001</v>
+        <v>1010</v>
       </c>
       <c r="N12" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D12,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D12,'HEX GEN BACKEND'!G:G,0)),D12)</f>
-        <v>0000000</v>
+        <v>0001011</v>
       </c>
       <c r="O12" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E12,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>00</v>
+        <v>11</v>
       </c>
       <c r="P12" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F12,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F12,'HEX GEN BACKEND'!H:H,0)),F12)</f>
-        <v>0000001</v>
+        <v>0001100</v>
       </c>
       <c r="Q12" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G12,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="R12" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H12,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H12,'HEX GEN BACKEND'!I:I,0)),H12)</f>
-        <v>0000010</v>
+        <v>0000001</v>
       </c>
       <c r="S12" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I12,'HEX GEN BACKEND'!D:D,0))</f>
@@ -2458,31 +2454,31 @@
       </c>
       <c r="U12" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>01001000000000100000001010000010</v>
+        <v>01010110001011110001100010000001</v>
       </c>
       <c r="W12" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>0100</v>
+        <v>0101</v>
       </c>
       <c r="X12" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>1000</v>
+        <v>0110</v>
       </c>
       <c r="Y12" s="21" t="str">
         <f t="shared" si="4"/>
-        <v>0000</v>
+        <v>0010</v>
       </c>
       <c r="Z12" s="21" t="str">
         <f t="shared" si="5"/>
-        <v>0010</v>
+        <v>1111</v>
       </c>
       <c r="AA12" s="21" t="str">
         <f t="shared" si="6"/>
-        <v>0000</v>
+        <v>0001</v>
       </c>
       <c r="AB12" s="21" t="str">
         <f t="shared" si="7"/>
-        <v>0010</v>
+        <v>1000</v>
       </c>
       <c r="AC12" s="21" t="str">
         <f t="shared" si="8"/>
@@ -2490,31 +2486,31 @@
       </c>
       <c r="AD12" s="21" t="str">
         <f t="shared" si="9"/>
-        <v>0010</v>
+        <v>0001</v>
       </c>
       <c r="AF12" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W12,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG12" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X12,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AH12" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y12,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI12" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z12,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
+        <v>F</v>
       </c>
       <c r="AJ12" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA12,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK12" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB12,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AL12" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC12,'HEX GEN BACKEND'!L:L,0))</f>
@@ -2522,11 +2518,11 @@
       </c>
       <c r="AM12" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD12,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO12" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>48020282</v>
+        <v>562F1881</v>
       </c>
     </row>
     <row r="13" spans="1:41" x14ac:dyDescent="0.25">
@@ -2537,37 +2533,37 @@
         <v>16</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>182</v>
+        <v>1</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>98</v>
+        <v>174</v>
       </c>
       <c r="E13" s="15" t="s">
         <v>69</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>83</v>
+        <v>187</v>
       </c>
       <c r="G13" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="I13" s="19" t="s">
         <v>68</v>
-      </c>
-      <c r="H13" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="I13" s="19" t="s">
-        <v>67</v>
       </c>
       <c r="J13" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>36010301</v>
+        <v>56372282</v>
       </c>
       <c r="M13" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C13,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>0110</v>
+        <v>1010</v>
       </c>
       <c r="N13" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D13,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D13,'HEX GEN BACKEND'!G:G,0)),D13)</f>
-        <v>0000000</v>
+        <v>0001101</v>
       </c>
       <c r="O13" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E13,'HEX GEN BACKEND'!D:D,0))</f>
@@ -2575,27 +2571,27 @@
       </c>
       <c r="P13" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F13,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F13,'HEX GEN BACKEND'!H:H,0)),F13)</f>
-        <v>0000001</v>
+        <v>0010001</v>
       </c>
       <c r="Q13" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G13,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>01</v>
+        <v>11</v>
       </c>
       <c r="R13" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H13,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H13,'HEX GEN BACKEND'!I:I,0)),H13)</f>
-        <v>0000001</v>
+        <v>0000010</v>
       </c>
       <c r="S13" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I13,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>10</v>
+        <v>01</v>
       </c>
       <c r="U13" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>00110110000000010000001100000001</v>
+        <v>01010110001101110010001010000010</v>
       </c>
       <c r="W13" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>0011</v>
+        <v>0101</v>
       </c>
       <c r="X13" s="21" t="str">
         <f t="shared" si="3"/>
@@ -2603,31 +2599,31 @@
       </c>
       <c r="Y13" s="21" t="str">
         <f t="shared" si="4"/>
-        <v>0000</v>
+        <v>0011</v>
       </c>
       <c r="Z13" s="21" t="str">
         <f t="shared" si="5"/>
-        <v>0001</v>
+        <v>0111</v>
       </c>
       <c r="AA13" s="21" t="str">
         <f t="shared" si="6"/>
-        <v>0000</v>
+        <v>0010</v>
       </c>
       <c r="AB13" s="21" t="str">
         <f t="shared" si="7"/>
-        <v>0011</v>
+        <v>0010</v>
       </c>
       <c r="AC13" s="21" t="str">
         <f t="shared" si="8"/>
-        <v>0000</v>
+        <v>1000</v>
       </c>
       <c r="AD13" s="21" t="str">
         <f t="shared" si="9"/>
-        <v>0001</v>
+        <v>0010</v>
       </c>
       <c r="AF13" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W13,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AG13" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X13,'HEX GEN BACKEND'!L:L,0))</f>
@@ -2635,31 +2631,31 @@
       </c>
       <c r="AH13" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y13,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AI13" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z13,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AJ13" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA13,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK13" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB13,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AL13" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC13,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AM13" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD13,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO13" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>36010301</v>
+        <v>56372282</v>
       </c>
     </row>
     <row r="14" spans="1:41" x14ac:dyDescent="0.25">
@@ -2673,7 +2669,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="E14" s="15" t="s">
         <v>69</v>
@@ -2685,14 +2681,14 @@
         <v>69</v>
       </c>
       <c r="H14" s="18" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I14" s="19" t="s">
         <v>68</v>
       </c>
       <c r="J14" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>56171A81</v>
+        <v>56431A82</v>
       </c>
       <c r="M14" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C14,'HEX GEN BACKEND'!A:A,0))</f>
@@ -2700,7 +2696,7 @@
       </c>
       <c r="N14" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D14,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D14,'HEX GEN BACKEND'!G:G,0)),D14)</f>
-        <v>0000101</v>
+        <v>0010000</v>
       </c>
       <c r="O14" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E14,'HEX GEN BACKEND'!D:D,0))</f>
@@ -2716,7 +2712,7 @@
       </c>
       <c r="R14" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H14,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H14,'HEX GEN BACKEND'!I:I,0)),H14)</f>
-        <v>0000001</v>
+        <v>0000010</v>
       </c>
       <c r="S14" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I14,'HEX GEN BACKEND'!D:D,0))</f>
@@ -2724,7 +2720,7 @@
       </c>
       <c r="U14" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>01010110000101110001101010000001</v>
+        <v>01010110010000110001101010000010</v>
       </c>
       <c r="W14" s="21" t="str">
         <f t="shared" si="2"/>
@@ -2736,11 +2732,11 @@
       </c>
       <c r="Y14" s="21" t="str">
         <f t="shared" si="4"/>
-        <v>0001</v>
+        <v>0100</v>
       </c>
       <c r="Z14" s="21" t="str">
         <f t="shared" si="5"/>
-        <v>0111</v>
+        <v>0011</v>
       </c>
       <c r="AA14" s="21" t="str">
         <f t="shared" si="6"/>
@@ -2756,7 +2752,7 @@
       </c>
       <c r="AD14" s="21" t="str">
         <f t="shared" si="9"/>
-        <v>0001</v>
+        <v>0010</v>
       </c>
       <c r="AF14" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W14,'HEX GEN BACKEND'!L:L,0))</f>
@@ -2768,11 +2764,11 @@
       </c>
       <c r="AH14" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y14,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AI14" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z14,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AJ14" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA14,'HEX GEN BACKEND'!L:L,0))</f>
@@ -2788,11 +2784,11 @@
       </c>
       <c r="AM14" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD14,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO14" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>56171A81</v>
+        <v>56431A82</v>
       </c>
     </row>
     <row r="15" spans="1:41" x14ac:dyDescent="0.25">
@@ -2803,61 +2799,61 @@
         <v>16</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>3</v>
+        <v>184</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="E15" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="G15" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="F15" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="G15" s="17" t="s">
+      <c r="H15" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="I15" s="19" t="s">
         <v>67</v>
-      </c>
-      <c r="H15" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="I15" s="19" t="s">
-        <v>98</v>
       </c>
       <c r="J15" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>4A0A0200</v>
+        <v>40010503</v>
       </c>
       <c r="M15" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C15,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="N15" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D15,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D15,'HEX GEN BACKEND'!G:G,0)),D15)</f>
-        <v>0000010</v>
+        <v>0000000</v>
       </c>
       <c r="O15" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E15,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>01</v>
+        <v>00</v>
       </c>
       <c r="P15" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F15,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F15,'HEX GEN BACKEND'!H:H,0)),F15)</f>
-        <v>0000001</v>
+        <v>0000010</v>
       </c>
       <c r="Q15" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G15,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>10</v>
+        <v>01</v>
       </c>
       <c r="R15" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H15,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H15,'HEX GEN BACKEND'!I:I,0)),H15)</f>
-        <v>0000000</v>
+        <v>0000011</v>
       </c>
       <c r="S15" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I15,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>00</v>
+        <v>10</v>
       </c>
       <c r="U15" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>01001010000010100000001000000000</v>
+        <v>01000000000000010000010100000011</v>
       </c>
       <c r="W15" s="21" t="str">
         <f t="shared" si="2"/>
@@ -2865,7 +2861,7 @@
       </c>
       <c r="X15" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>1010</v>
+        <v>0000</v>
       </c>
       <c r="Y15" s="21" t="str">
         <f t="shared" si="4"/>
@@ -2873,7 +2869,7 @@
       </c>
       <c r="Z15" s="21" t="str">
         <f t="shared" si="5"/>
-        <v>1010</v>
+        <v>0001</v>
       </c>
       <c r="AA15" s="21" t="str">
         <f t="shared" si="6"/>
@@ -2881,7 +2877,7 @@
       </c>
       <c r="AB15" s="21" t="str">
         <f t="shared" si="7"/>
-        <v>0010</v>
+        <v>0101</v>
       </c>
       <c r="AC15" s="21" t="str">
         <f t="shared" si="8"/>
@@ -2889,7 +2885,7 @@
       </c>
       <c r="AD15" s="21" t="str">
         <f t="shared" si="9"/>
-        <v>0000</v>
+        <v>0011</v>
       </c>
       <c r="AF15" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W15,'HEX GEN BACKEND'!L:L,0))</f>
@@ -2897,7 +2893,7 @@
       </c>
       <c r="AG15" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X15,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>A</v>
+        <v>0</v>
       </c>
       <c r="AH15" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y15,'HEX GEN BACKEND'!L:L,0))</f>
@@ -2905,7 +2901,7 @@
       </c>
       <c r="AI15" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z15,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>A</v>
+        <v>1</v>
       </c>
       <c r="AJ15" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA15,'HEX GEN BACKEND'!L:L,0))</f>
@@ -2913,7 +2909,7 @@
       </c>
       <c r="AK15" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB15,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AL15" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC15,'HEX GEN BACKEND'!L:L,0))</f>
@@ -2921,11 +2917,11 @@
       </c>
       <c r="AM15" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD15,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO15" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>4A0A0200</v>
+        <v>40010503</v>
       </c>
     </row>
     <row r="16" spans="1:41" x14ac:dyDescent="0.25">
@@ -2936,69 +2932,69 @@
         <v>16</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>181</v>
+        <v>3</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="E16" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="H16" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="I16" s="19" t="s">
         <v>68</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="G16" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="H16" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="I16" s="19" t="s">
-        <v>67</v>
       </c>
       <c r="J16" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>2A050301</v>
+        <v>48020483</v>
       </c>
       <c r="M16" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C16,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>0101</v>
+        <v>1001</v>
       </c>
       <c r="N16" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D16,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D16,'HEX GEN BACKEND'!G:G,0)),D16)</f>
-        <v>0000001</v>
+        <v>0000000</v>
       </c>
       <c r="O16" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E16,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>01</v>
+        <v>00</v>
       </c>
       <c r="P16" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F16,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F16,'HEX GEN BACKEND'!H:H,0)),F16)</f>
-        <v>0000001</v>
+        <v>0000010</v>
       </c>
       <c r="Q16" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G16,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>01</v>
+        <v>10</v>
       </c>
       <c r="R16" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H16,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H16,'HEX GEN BACKEND'!I:I,0)),H16)</f>
-        <v>0000001</v>
+        <v>0000011</v>
       </c>
       <c r="S16" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I16,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>10</v>
+        <v>01</v>
       </c>
       <c r="U16" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>00101010000001010000001100000001</v>
+        <v>01001000000000100000010010000011</v>
       </c>
       <c r="W16" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>0010</v>
+        <v>0100</v>
       </c>
       <c r="X16" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>1010</v>
+        <v>1000</v>
       </c>
       <c r="Y16" s="21" t="str">
         <f t="shared" si="4"/>
@@ -3006,7 +3002,7 @@
       </c>
       <c r="Z16" s="21" t="str">
         <f t="shared" si="5"/>
-        <v>0101</v>
+        <v>0010</v>
       </c>
       <c r="AA16" s="21" t="str">
         <f t="shared" si="6"/>
@@ -3014,23 +3010,23 @@
       </c>
       <c r="AB16" s="21" t="str">
         <f t="shared" si="7"/>
-        <v>0011</v>
+        <v>0100</v>
       </c>
       <c r="AC16" s="21" t="str">
         <f t="shared" si="8"/>
-        <v>0000</v>
+        <v>1000</v>
       </c>
       <c r="AD16" s="21" t="str">
         <f t="shared" si="9"/>
-        <v>0001</v>
+        <v>0011</v>
       </c>
       <c r="AF16" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W16,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AG16" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X16,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>A</v>
+        <v>8</v>
       </c>
       <c r="AH16" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y16,'HEX GEN BACKEND'!L:L,0))</f>
@@ -3038,7 +3034,7 @@
       </c>
       <c r="AI16" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z16,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AJ16" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA16,'HEX GEN BACKEND'!L:L,0))</f>
@@ -3046,19 +3042,19 @@
       </c>
       <c r="AK16" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB16,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AL16" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC16,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AM16" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD16,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AO16" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>2A050301</v>
+        <v>48020483</v>
       </c>
     </row>
     <row r="17" spans="1:41" x14ac:dyDescent="0.25">
@@ -3069,77 +3065,77 @@
         <v>16</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>177</v>
+        <v>1</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>76</v>
+        <v>165</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H17" s="18" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="I17" s="19" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="J17" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>0A050302</v>
+        <v>56130180</v>
       </c>
       <c r="M17" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C17,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>0001</v>
+        <v>1010</v>
       </c>
       <c r="N17" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D17,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D17,'HEX GEN BACKEND'!G:G,0)),D17)</f>
-        <v>0000001</v>
+        <v>0000100</v>
       </c>
       <c r="O17" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E17,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>01</v>
+        <v>11</v>
       </c>
       <c r="P17" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F17,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F17,'HEX GEN BACKEND'!H:H,0)),F17)</f>
-        <v>0000001</v>
+        <v>0000000</v>
       </c>
       <c r="Q17" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G17,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>01</v>
+        <v>11</v>
       </c>
       <c r="R17" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H17,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H17,'HEX GEN BACKEND'!I:I,0)),H17)</f>
-        <v>0000010</v>
+        <v>0000000</v>
       </c>
       <c r="S17" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I17,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U17" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>00001010000001010000001100000010</v>
+        <v>01010110000100110000000110000000</v>
       </c>
       <c r="W17" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>0000</v>
+        <v>0101</v>
       </c>
       <c r="X17" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>1010</v>
+        <v>0110</v>
       </c>
       <c r="Y17" s="21" t="str">
         <f t="shared" si="4"/>
-        <v>0000</v>
+        <v>0001</v>
       </c>
       <c r="Z17" s="21" t="str">
         <f t="shared" si="5"/>
-        <v>0101</v>
+        <v>0011</v>
       </c>
       <c r="AA17" s="21" t="str">
         <f t="shared" si="6"/>
@@ -3147,31 +3143,31 @@
       </c>
       <c r="AB17" s="21" t="str">
         <f t="shared" si="7"/>
-        <v>0011</v>
+        <v>0001</v>
       </c>
       <c r="AC17" s="21" t="str">
         <f t="shared" si="8"/>
-        <v>0000</v>
+        <v>1000</v>
       </c>
       <c r="AD17" s="21" t="str">
         <f t="shared" si="9"/>
-        <v>0010</v>
+        <v>0000</v>
       </c>
       <c r="AF17" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W17,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AG17" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X17,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>A</v>
+        <v>6</v>
       </c>
       <c r="AH17" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y17,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI17" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z17,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AJ17" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA17,'HEX GEN BACKEND'!L:L,0))</f>
@@ -3179,19 +3175,19 @@
       </c>
       <c r="AK17" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB17,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AL17" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC17,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AM17" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD17,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>0A050302</v>
+        <v>56130180</v>
       </c>
     </row>
     <row r="18" spans="1:41" x14ac:dyDescent="0.25">
@@ -3199,16 +3195,16 @@
         <v>53</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F18" s="16" t="s">
         <v>98</v>
@@ -3217,26 +3213,26 @@
         <v>98</v>
       </c>
       <c r="H18" s="18" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="I18" s="19" t="s">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="J18" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>4C040081</v>
+        <v>E2080000</v>
       </c>
       <c r="M18" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C18,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>1001</v>
+        <v>1100</v>
       </c>
       <c r="N18" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D18,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D18,'HEX GEN BACKEND'!G:G,0)),D18)</f>
-        <v>0000001</v>
+        <v>0000010</v>
       </c>
       <c r="O18" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E18,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>10</v>
+        <v>01</v>
       </c>
       <c r="P18" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F18,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F18,'HEX GEN BACKEND'!H:H,0)),F18)</f>
@@ -3248,23 +3244,23 @@
       </c>
       <c r="R18" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H18,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H18,'HEX GEN BACKEND'!I:I,0)),H18)</f>
-        <v>0000001</v>
+        <v>0000000</v>
       </c>
       <c r="S18" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I18,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>01</v>
+        <v>00</v>
       </c>
       <c r="U18" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>01001100000001000000000010000001</v>
+        <v>11100010000010000000000000000000</v>
       </c>
       <c r="W18" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>0100</v>
+        <v>1110</v>
       </c>
       <c r="X18" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>1100</v>
+        <v>0010</v>
       </c>
       <c r="Y18" s="21" t="str">
         <f t="shared" si="4"/>
@@ -3272,7 +3268,7 @@
       </c>
       <c r="Z18" s="21" t="str">
         <f t="shared" si="5"/>
-        <v>0100</v>
+        <v>1000</v>
       </c>
       <c r="AA18" s="21" t="str">
         <f t="shared" si="6"/>
@@ -3284,19 +3280,19 @@
       </c>
       <c r="AC18" s="21" t="str">
         <f t="shared" si="8"/>
-        <v>1000</v>
+        <v>0000</v>
       </c>
       <c r="AD18" s="21" t="str">
         <f t="shared" si="9"/>
-        <v>0001</v>
+        <v>0000</v>
       </c>
       <c r="AF18" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W18,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
+        <v>E</v>
       </c>
       <c r="AG18" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X18,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>C</v>
+        <v>2</v>
       </c>
       <c r="AH18" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y18,'HEX GEN BACKEND'!L:L,0))</f>
@@ -3304,7 +3300,7 @@
       </c>
       <c r="AI18" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z18,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AJ18" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA18,'HEX GEN BACKEND'!L:L,0))</f>
@@ -3316,15 +3312,15 @@
       </c>
       <c r="AL18" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC18,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AM18" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD18,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>4C040081</v>
+        <v>E2080000</v>
       </c>
     </row>
     <row r="19" spans="1:41" x14ac:dyDescent="0.25">
@@ -3332,72 +3328,72 @@
         <v>54</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="F19" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="E19" s="15" t="s">
+      <c r="G19" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="F19" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="G19" s="17" t="s">
-        <v>67</v>
-      </c>
       <c r="H19" s="18" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="I19" s="19" t="s">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="J19" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>48020282</v>
+        <v>E2040000</v>
       </c>
       <c r="M19" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C19,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>1001</v>
+        <v>1100</v>
       </c>
       <c r="N19" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D19,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D19,'HEX GEN BACKEND'!G:G,0)),D19)</f>
-        <v>0000000</v>
+        <v>0000001</v>
       </c>
       <c r="O19" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E19,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>00</v>
+        <v>01</v>
       </c>
       <c r="P19" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F19,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F19,'HEX GEN BACKEND'!H:H,0)),F19)</f>
-        <v>0000001</v>
+        <v>0000000</v>
       </c>
       <c r="Q19" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G19,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>10</v>
+        <v>00</v>
       </c>
       <c r="R19" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H19,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H19,'HEX GEN BACKEND'!I:I,0)),H19)</f>
-        <v>0000010</v>
+        <v>0000000</v>
       </c>
       <c r="S19" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I19,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>01</v>
+        <v>00</v>
       </c>
       <c r="U19" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>01001000000000100000001010000010</v>
+        <v>11100010000001000000000000000000</v>
       </c>
       <c r="W19" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>0100</v>
+        <v>1110</v>
       </c>
       <c r="X19" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>1000</v>
+        <v>0010</v>
       </c>
       <c r="Y19" s="21" t="str">
         <f t="shared" si="4"/>
@@ -3405,7 +3401,7 @@
       </c>
       <c r="Z19" s="21" t="str">
         <f t="shared" si="5"/>
-        <v>0010</v>
+        <v>0100</v>
       </c>
       <c r="AA19" s="21" t="str">
         <f t="shared" si="6"/>
@@ -3413,23 +3409,23 @@
       </c>
       <c r="AB19" s="21" t="str">
         <f t="shared" si="7"/>
-        <v>0010</v>
+        <v>0000</v>
       </c>
       <c r="AC19" s="21" t="str">
         <f t="shared" si="8"/>
-        <v>1000</v>
+        <v>0000</v>
       </c>
       <c r="AD19" s="21" t="str">
         <f t="shared" si="9"/>
-        <v>0010</v>
+        <v>0000</v>
       </c>
       <c r="AF19" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W19,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
+        <v>E</v>
       </c>
       <c r="AG19" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X19,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AH19" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y19,'HEX GEN BACKEND'!L:L,0))</f>
@@ -3437,7 +3433,7 @@
       </c>
       <c r="AI19" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z19,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ19" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA19,'HEX GEN BACKEND'!L:L,0))</f>
@@ -3445,19 +3441,19 @@
       </c>
       <c r="AK19" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB19,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL19" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC19,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AM19" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD19,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>48020282</v>
+        <v>E2040000</v>
       </c>
     </row>
     <row r="20" spans="1:41" x14ac:dyDescent="0.25">
@@ -3467,130 +3463,116 @@
       <c r="B20" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="F20" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="G20" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="H20" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="I20" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="J20" s="13" t="str">
+      <c r="C20" s="13"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="13" t="e">
         <f t="shared" si="0"/>
-        <v>38010302</v>
-      </c>
-      <c r="M20" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="M20" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C20,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>0111</v>
-      </c>
-      <c r="N20" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="N20" s="21">
         <f>IF(ISNUMBER(MATCH(D20,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D20,'HEX GEN BACKEND'!G:G,0)),D20)</f>
-        <v>0000000</v>
-      </c>
-      <c r="O20" s="21" t="str">
+        <v>0</v>
+      </c>
+      <c r="O20" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E20,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>00</v>
-      </c>
-      <c r="P20" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="P20" s="21">
         <f>IF(ISNUMBER(MATCH(F20,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F20,'HEX GEN BACKEND'!H:H,0)),F20)</f>
-        <v>0000001</v>
-      </c>
-      <c r="Q20" s="21" t="str">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G20,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>01</v>
-      </c>
-      <c r="R20" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="R20" s="21">
         <f>IF(ISNUMBER(MATCH(H20,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H20,'HEX GEN BACKEND'!I:I,0)),H20)</f>
-        <v>0000010</v>
-      </c>
-      <c r="S20" s="21" t="str">
+        <v>0</v>
+      </c>
+      <c r="S20" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I20,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>10</v>
-      </c>
-      <c r="U20" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="U20" s="21" t="e">
         <f t="shared" si="1"/>
-        <v>00111000000000010000001100000010</v>
-      </c>
-      <c r="W20" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="W20" s="21" t="e">
         <f t="shared" si="2"/>
-        <v>0011</v>
-      </c>
-      <c r="X20" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="X20" s="21" t="e">
         <f t="shared" si="3"/>
-        <v>1000</v>
-      </c>
-      <c r="Y20" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Y20" s="21" t="e">
         <f t="shared" si="4"/>
-        <v>0000</v>
-      </c>
-      <c r="Z20" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Z20" s="21" t="e">
         <f t="shared" si="5"/>
-        <v>0001</v>
-      </c>
-      <c r="AA20" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AA20" s="21" t="e">
         <f t="shared" si="6"/>
-        <v>0000</v>
-      </c>
-      <c r="AB20" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AB20" s="21" t="e">
         <f t="shared" si="7"/>
-        <v>0011</v>
-      </c>
-      <c r="AC20" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AC20" s="21" t="e">
         <f t="shared" si="8"/>
-        <v>0000</v>
-      </c>
-      <c r="AD20" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AD20" s="21" t="e">
         <f t="shared" si="9"/>
-        <v>0010</v>
-      </c>
-      <c r="AF20" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AF20" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W20,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>3</v>
-      </c>
-      <c r="AG20" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AG20" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X20,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
-      </c>
-      <c r="AH20" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AH20" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y20,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AI20" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AI20" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z20,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>1</v>
-      </c>
-      <c r="AJ20" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ20" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA20,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AK20" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AK20" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB20,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>3</v>
-      </c>
-      <c r="AL20" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AL20" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC20,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AM20" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AM20" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD20,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
-      </c>
-      <c r="AO20" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AO20" s="21" t="e">
         <f t="shared" si="10"/>
-        <v>38010302</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="21" spans="1:41" x14ac:dyDescent="0.25">
@@ -3600,130 +3582,116 @@
       <c r="B21" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="F21" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="G21" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="H21" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="I21" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="J21" s="13" t="str">
+      <c r="C21" s="13"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="13" t="e">
         <f t="shared" si="0"/>
-        <v>48020282</v>
-      </c>
-      <c r="M21" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="M21" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C21,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>1001</v>
-      </c>
-      <c r="N21" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="N21" s="21">
         <f>IF(ISNUMBER(MATCH(D21,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D21,'HEX GEN BACKEND'!G:G,0)),D21)</f>
-        <v>0000000</v>
-      </c>
-      <c r="O21" s="21" t="str">
+        <v>0</v>
+      </c>
+      <c r="O21" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E21,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>00</v>
-      </c>
-      <c r="P21" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="P21" s="21">
         <f>IF(ISNUMBER(MATCH(F21,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F21,'HEX GEN BACKEND'!H:H,0)),F21)</f>
-        <v>0000001</v>
-      </c>
-      <c r="Q21" s="21" t="str">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G21,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>10</v>
-      </c>
-      <c r="R21" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="R21" s="21">
         <f>IF(ISNUMBER(MATCH(H21,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H21,'HEX GEN BACKEND'!I:I,0)),H21)</f>
-        <v>0000010</v>
-      </c>
-      <c r="S21" s="21" t="str">
+        <v>0</v>
+      </c>
+      <c r="S21" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I21,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>01</v>
-      </c>
-      <c r="U21" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="U21" s="21" t="e">
         <f t="shared" si="1"/>
-        <v>01001000000000100000001010000010</v>
-      </c>
-      <c r="W21" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="W21" s="21" t="e">
         <f t="shared" si="2"/>
-        <v>0100</v>
-      </c>
-      <c r="X21" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="X21" s="21" t="e">
         <f t="shared" si="3"/>
-        <v>1000</v>
-      </c>
-      <c r="Y21" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Y21" s="21" t="e">
         <f t="shared" si="4"/>
-        <v>0000</v>
-      </c>
-      <c r="Z21" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Z21" s="21" t="e">
         <f t="shared" si="5"/>
-        <v>0010</v>
-      </c>
-      <c r="AA21" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AA21" s="21" t="e">
         <f t="shared" si="6"/>
-        <v>0000</v>
-      </c>
-      <c r="AB21" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AB21" s="21" t="e">
         <f t="shared" si="7"/>
-        <v>0010</v>
-      </c>
-      <c r="AC21" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AC21" s="21" t="e">
         <f t="shared" si="8"/>
-        <v>1000</v>
-      </c>
-      <c r="AD21" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AD21" s="21" t="e">
         <f t="shared" si="9"/>
-        <v>0010</v>
-      </c>
-      <c r="AF21" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AF21" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W21,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
-      </c>
-      <c r="AG21" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AG21" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X21,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
-      </c>
-      <c r="AH21" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AH21" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y21,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AI21" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AI21" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z21,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
-      </c>
-      <c r="AJ21" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ21" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA21,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AK21" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AK21" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB21,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
-      </c>
-      <c r="AL21" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AL21" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC21,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
-      </c>
-      <c r="AM21" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AM21" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD21,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
-      </c>
-      <c r="AO21" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AO21" s="21" t="e">
         <f t="shared" si="10"/>
-        <v>48020282</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="22" spans="1:41" x14ac:dyDescent="0.25">
@@ -3733,130 +3701,116 @@
       <c r="B22" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="F22" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="G22" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="H22" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="I22" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="J22" s="13" t="str">
+      <c r="C22" s="13"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="13" t="e">
         <f t="shared" si="0"/>
-        <v>36010301</v>
-      </c>
-      <c r="M22" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="M22" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C22,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>0110</v>
-      </c>
-      <c r="N22" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="N22" s="21">
         <f>IF(ISNUMBER(MATCH(D22,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D22,'HEX GEN BACKEND'!G:G,0)),D22)</f>
-        <v>0000000</v>
-      </c>
-      <c r="O22" s="21" t="str">
+        <v>0</v>
+      </c>
+      <c r="O22" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E22,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>11</v>
-      </c>
-      <c r="P22" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="P22" s="21">
         <f>IF(ISNUMBER(MATCH(F22,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F22,'HEX GEN BACKEND'!H:H,0)),F22)</f>
-        <v>0000001</v>
-      </c>
-      <c r="Q22" s="21" t="str">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G22,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>01</v>
-      </c>
-      <c r="R22" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="R22" s="21">
         <f>IF(ISNUMBER(MATCH(H22,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H22,'HEX GEN BACKEND'!I:I,0)),H22)</f>
-        <v>0000001</v>
-      </c>
-      <c r="S22" s="21" t="str">
+        <v>0</v>
+      </c>
+      <c r="S22" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I22,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>10</v>
-      </c>
-      <c r="U22" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="U22" s="21" t="e">
         <f t="shared" si="1"/>
-        <v>00110110000000010000001100000001</v>
-      </c>
-      <c r="W22" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="W22" s="21" t="e">
         <f t="shared" si="2"/>
-        <v>0011</v>
-      </c>
-      <c r="X22" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="X22" s="21" t="e">
         <f t="shared" si="3"/>
-        <v>0110</v>
-      </c>
-      <c r="Y22" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Y22" s="21" t="e">
         <f t="shared" si="4"/>
-        <v>0000</v>
-      </c>
-      <c r="Z22" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Z22" s="21" t="e">
         <f t="shared" si="5"/>
-        <v>0001</v>
-      </c>
-      <c r="AA22" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AA22" s="21" t="e">
         <f t="shared" si="6"/>
-        <v>0000</v>
-      </c>
-      <c r="AB22" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AB22" s="21" t="e">
         <f t="shared" si="7"/>
-        <v>0011</v>
-      </c>
-      <c r="AC22" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AC22" s="21" t="e">
         <f t="shared" si="8"/>
-        <v>0000</v>
-      </c>
-      <c r="AD22" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AD22" s="21" t="e">
         <f t="shared" si="9"/>
-        <v>0001</v>
-      </c>
-      <c r="AF22" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AF22" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W22,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>3</v>
-      </c>
-      <c r="AG22" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AG22" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X22,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>6</v>
-      </c>
-      <c r="AH22" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AH22" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y22,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AI22" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AI22" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z22,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>1</v>
-      </c>
-      <c r="AJ22" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ22" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA22,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AK22" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AK22" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB22,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>3</v>
-      </c>
-      <c r="AL22" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AL22" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC22,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AM22" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AM22" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD22,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>1</v>
-      </c>
-      <c r="AO22" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AO22" s="21" t="e">
         <f t="shared" si="10"/>
-        <v>36010301</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="23" spans="1:41" x14ac:dyDescent="0.25">
@@ -3866,130 +3820,116 @@
       <c r="B23" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="F23" s="16" t="s">
-        <v>185</v>
-      </c>
-      <c r="G23" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="H23" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="I23" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="J23" s="13" t="str">
+      <c r="C23" s="13"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="13" t="e">
         <f t="shared" si="0"/>
-        <v>563B2C81</v>
-      </c>
-      <c r="M23" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="M23" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C23,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>1010</v>
-      </c>
-      <c r="N23" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="N23" s="21">
         <f>IF(ISNUMBER(MATCH(D23,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D23,'HEX GEN BACKEND'!G:G,0)),D23)</f>
-        <v>0001110</v>
-      </c>
-      <c r="O23" s="21" t="str">
+        <v>0</v>
+      </c>
+      <c r="O23" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E23,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>11</v>
-      </c>
-      <c r="P23" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="P23" s="21">
         <f>IF(ISNUMBER(MATCH(F23,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F23,'HEX GEN BACKEND'!H:H,0)),F23)</f>
-        <v>0010110</v>
-      </c>
-      <c r="Q23" s="21" t="str">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G23,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>11</v>
-      </c>
-      <c r="R23" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="R23" s="21">
         <f>IF(ISNUMBER(MATCH(H23,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H23,'HEX GEN BACKEND'!I:I,0)),H23)</f>
-        <v>0000001</v>
-      </c>
-      <c r="S23" s="21" t="str">
+        <v>0</v>
+      </c>
+      <c r="S23" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I23,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>01</v>
-      </c>
-      <c r="U23" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="U23" s="21" t="e">
         <f t="shared" si="1"/>
-        <v>01010110001110110010110010000001</v>
-      </c>
-      <c r="W23" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="W23" s="21" t="e">
         <f t="shared" si="2"/>
-        <v>0101</v>
-      </c>
-      <c r="X23" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="X23" s="21" t="e">
         <f t="shared" si="3"/>
-        <v>0110</v>
-      </c>
-      <c r="Y23" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Y23" s="21" t="e">
         <f t="shared" si="4"/>
-        <v>0011</v>
-      </c>
-      <c r="Z23" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Z23" s="21" t="e">
         <f t="shared" si="5"/>
-        <v>1011</v>
-      </c>
-      <c r="AA23" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AA23" s="21" t="e">
         <f t="shared" si="6"/>
-        <v>0010</v>
-      </c>
-      <c r="AB23" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AB23" s="21" t="e">
         <f t="shared" si="7"/>
-        <v>1100</v>
-      </c>
-      <c r="AC23" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AC23" s="21" t="e">
         <f t="shared" si="8"/>
-        <v>1000</v>
-      </c>
-      <c r="AD23" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AD23" s="21" t="e">
         <f t="shared" si="9"/>
-        <v>0001</v>
-      </c>
-      <c r="AF23" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AF23" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W23,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>5</v>
-      </c>
-      <c r="AG23" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AG23" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X23,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>6</v>
-      </c>
-      <c r="AH23" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AH23" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y23,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>3</v>
-      </c>
-      <c r="AI23" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AI23" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z23,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>B</v>
-      </c>
-      <c r="AJ23" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ23" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA23,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
-      </c>
-      <c r="AK23" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AK23" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB23,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>C</v>
-      </c>
-      <c r="AL23" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AL23" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC23,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
-      </c>
-      <c r="AM23" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AM23" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD23,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>1</v>
-      </c>
-      <c r="AO23" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AO23" s="21" t="e">
         <f t="shared" si="10"/>
-        <v>563B2C81</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="24" spans="1:41" x14ac:dyDescent="0.25">
@@ -3997,132 +3937,118 @@
         <v>59</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="F24" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="G24" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="H24" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="I24" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="J24" s="13" t="str">
+        <v>16</v>
+      </c>
+      <c r="C24" s="13"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="13" t="e">
         <f t="shared" si="0"/>
-        <v>E2040000</v>
-      </c>
-      <c r="M24" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="M24" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C24,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>1100</v>
-      </c>
-      <c r="N24" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="N24" s="21">
         <f>IF(ISNUMBER(MATCH(D24,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D24,'HEX GEN BACKEND'!G:G,0)),D24)</f>
-        <v>0000001</v>
-      </c>
-      <c r="O24" s="21" t="str">
+        <v>0</v>
+      </c>
+      <c r="O24" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E24,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>01</v>
-      </c>
-      <c r="P24" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="P24" s="21">
         <f>IF(ISNUMBER(MATCH(F24,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F24,'HEX GEN BACKEND'!H:H,0)),F24)</f>
-        <v>0000000</v>
-      </c>
-      <c r="Q24" s="21" t="str">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G24,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>00</v>
-      </c>
-      <c r="R24" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="R24" s="21">
         <f>IF(ISNUMBER(MATCH(H24,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H24,'HEX GEN BACKEND'!I:I,0)),H24)</f>
-        <v>0000000</v>
-      </c>
-      <c r="S24" s="21" t="str">
+        <v>0</v>
+      </c>
+      <c r="S24" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I24,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>00</v>
-      </c>
-      <c r="U24" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="U24" s="21" t="e">
         <f t="shared" si="1"/>
-        <v>11100010000001000000000000000000</v>
-      </c>
-      <c r="W24" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="W24" s="21" t="e">
         <f t="shared" si="2"/>
-        <v>1110</v>
-      </c>
-      <c r="X24" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="X24" s="21" t="e">
         <f t="shared" si="3"/>
-        <v>0010</v>
-      </c>
-      <c r="Y24" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Y24" s="21" t="e">
         <f t="shared" si="4"/>
-        <v>0000</v>
-      </c>
-      <c r="Z24" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Z24" s="21" t="e">
         <f t="shared" si="5"/>
-        <v>0100</v>
-      </c>
-      <c r="AA24" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AA24" s="21" t="e">
         <f t="shared" si="6"/>
-        <v>0000</v>
-      </c>
-      <c r="AB24" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AB24" s="21" t="e">
         <f t="shared" si="7"/>
-        <v>0000</v>
-      </c>
-      <c r="AC24" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AC24" s="21" t="e">
         <f t="shared" si="8"/>
-        <v>0000</v>
-      </c>
-      <c r="AD24" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AD24" s="21" t="e">
         <f t="shared" si="9"/>
-        <v>0000</v>
-      </c>
-      <c r="AF24" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AF24" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W24,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>E</v>
-      </c>
-      <c r="AG24" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AG24" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X24,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
-      </c>
-      <c r="AH24" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AH24" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y24,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AI24" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AI24" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z24,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
-      </c>
-      <c r="AJ24" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ24" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA24,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AK24" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AK24" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB24,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AL24" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AL24" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC24,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AM24" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AM24" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD24,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AO24" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AO24" s="21" t="e">
         <f t="shared" si="10"/>
-        <v>E2040000</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="25" spans="1:41" x14ac:dyDescent="0.25">
@@ -13146,7 +13072,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13159,7 +13085,7 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'HEX GEN BACKEND'!$A:$A</xm:f>
@@ -13170,7 +13096,7 @@
           <x14:formula1>
             <xm:f>'HEX GEN BACKEND'!$D:$D</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E101 G2:G101 I2:I101</xm:sqref>
+          <xm:sqref>I2:I101 G2:G101 E2:E101</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/INSTRUCTIONS/Binary Instructions.xlsx
+++ b/INSTRUCTIONS/Binary Instructions.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="190">
   <si>
     <t>0001</t>
   </si>
@@ -585,10 +585,16 @@
     <t>1000000</t>
   </si>
   <si>
-    <t>0010000</t>
-  </si>
-  <si>
     <t>0010001</t>
+  </si>
+  <si>
+    <t>0010100</t>
+  </si>
+  <si>
+    <t>0010010</t>
+  </si>
+  <si>
+    <t>0010011</t>
   </si>
 </sst>
 </file>
@@ -1007,7 +1013,7 @@
   <dimension ref="A1:AO101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2542,7 +2548,7 @@
         <v>69</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G13" s="17" t="s">
         <v>69</v>
@@ -2555,7 +2561,7 @@
       </c>
       <c r="J13" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>56372282</v>
+        <v>56372682</v>
       </c>
       <c r="M13" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C13,'HEX GEN BACKEND'!A:A,0))</f>
@@ -2571,7 +2577,7 @@
       </c>
       <c r="P13" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F13,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F13,'HEX GEN BACKEND'!H:H,0)),F13)</f>
-        <v>0010001</v>
+        <v>0010011</v>
       </c>
       <c r="Q13" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G13,'HEX GEN BACKEND'!D:D,0))</f>
@@ -2587,7 +2593,7 @@
       </c>
       <c r="U13" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>01010110001101110010001010000010</v>
+        <v>01010110001101110010011010000010</v>
       </c>
       <c r="W13" s="21" t="str">
         <f t="shared" si="2"/>
@@ -2611,7 +2617,7 @@
       </c>
       <c r="AB13" s="21" t="str">
         <f t="shared" si="7"/>
-        <v>0010</v>
+        <v>0110</v>
       </c>
       <c r="AC13" s="21" t="str">
         <f t="shared" si="8"/>
@@ -2643,7 +2649,7 @@
       </c>
       <c r="AK13" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB13,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AL13" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC13,'HEX GEN BACKEND'!L:L,0))</f>
@@ -2655,7 +2661,7 @@
       </c>
       <c r="AO13" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>56372282</v>
+        <v>56372682</v>
       </c>
     </row>
     <row r="14" spans="1:41" x14ac:dyDescent="0.25">
@@ -2669,7 +2675,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E14" s="15" t="s">
         <v>69</v>
@@ -2688,7 +2694,7 @@
       </c>
       <c r="J14" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>56431A82</v>
+        <v>564B1A82</v>
       </c>
       <c r="M14" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C14,'HEX GEN BACKEND'!A:A,0))</f>
@@ -2696,7 +2702,7 @@
       </c>
       <c r="N14" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D14,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D14,'HEX GEN BACKEND'!G:G,0)),D14)</f>
-        <v>0010000</v>
+        <v>0010010</v>
       </c>
       <c r="O14" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E14,'HEX GEN BACKEND'!D:D,0))</f>
@@ -2720,7 +2726,7 @@
       </c>
       <c r="U14" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>01010110010000110001101010000010</v>
+        <v>01010110010010110001101010000010</v>
       </c>
       <c r="W14" s="21" t="str">
         <f t="shared" si="2"/>
@@ -2736,7 +2742,7 @@
       </c>
       <c r="Z14" s="21" t="str">
         <f t="shared" si="5"/>
-        <v>0011</v>
+        <v>1011</v>
       </c>
       <c r="AA14" s="21" t="str">
         <f t="shared" si="6"/>
@@ -2768,7 +2774,7 @@
       </c>
       <c r="AI14" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z14,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>3</v>
+        <v>B</v>
       </c>
       <c r="AJ14" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA14,'HEX GEN BACKEND'!L:L,0))</f>
@@ -2788,7 +2794,7 @@
       </c>
       <c r="AO14" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>56431A82</v>
+        <v>564B1A82</v>
       </c>
     </row>
     <row r="15" spans="1:41" x14ac:dyDescent="0.25">
@@ -3065,37 +3071,37 @@
         <v>16</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>1</v>
+        <v>182</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>165</v>
+        <v>98</v>
       </c>
       <c r="E17" s="15" t="s">
         <v>69</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H17" s="18" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="I17" s="19" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J17" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>56130180</v>
+        <v>36010503</v>
       </c>
       <c r="M17" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C17,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>1010</v>
+        <v>0110</v>
       </c>
       <c r="N17" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D17,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D17,'HEX GEN BACKEND'!G:G,0)),D17)</f>
-        <v>0000100</v>
+        <v>0000000</v>
       </c>
       <c r="O17" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E17,'HEX GEN BACKEND'!D:D,0))</f>
@@ -3103,27 +3109,27 @@
       </c>
       <c r="P17" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F17,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F17,'HEX GEN BACKEND'!H:H,0)),F17)</f>
-        <v>0000000</v>
+        <v>0000010</v>
       </c>
       <c r="Q17" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G17,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>11</v>
+        <v>01</v>
       </c>
       <c r="R17" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H17,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H17,'HEX GEN BACKEND'!I:I,0)),H17)</f>
-        <v>0000000</v>
+        <v>0000011</v>
       </c>
       <c r="S17" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I17,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U17" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>01010110000100110000000110000000</v>
+        <v>00110110000000010000010100000011</v>
       </c>
       <c r="W17" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>0101</v>
+        <v>0011</v>
       </c>
       <c r="X17" s="21" t="str">
         <f t="shared" si="3"/>
@@ -3131,11 +3137,11 @@
       </c>
       <c r="Y17" s="21" t="str">
         <f t="shared" si="4"/>
-        <v>0001</v>
+        <v>0000</v>
       </c>
       <c r="Z17" s="21" t="str">
         <f t="shared" si="5"/>
-        <v>0011</v>
+        <v>0001</v>
       </c>
       <c r="AA17" s="21" t="str">
         <f t="shared" si="6"/>
@@ -3143,19 +3149,19 @@
       </c>
       <c r="AB17" s="21" t="str">
         <f t="shared" si="7"/>
-        <v>0001</v>
+        <v>0101</v>
       </c>
       <c r="AC17" s="21" t="str">
         <f t="shared" si="8"/>
-        <v>1000</v>
+        <v>0000</v>
       </c>
       <c r="AD17" s="21" t="str">
         <f t="shared" si="9"/>
-        <v>0000</v>
+        <v>0011</v>
       </c>
       <c r="AF17" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W17,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AG17" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X17,'HEX GEN BACKEND'!L:L,0))</f>
@@ -3163,11 +3169,11 @@
       </c>
       <c r="AH17" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y17,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI17" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z17,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ17" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA17,'HEX GEN BACKEND'!L:L,0))</f>
@@ -3175,19 +3181,19 @@
       </c>
       <c r="AK17" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB17,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AL17" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC17,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AM17" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD17,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO17" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>56130180</v>
+        <v>36010503</v>
       </c>
     </row>
     <row r="18" spans="1:41" x14ac:dyDescent="0.25">
@@ -3195,132 +3201,132 @@
         <v>53</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>77</v>
+        <v>186</v>
       </c>
       <c r="E18" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="H18" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="I18" s="19" t="s">
         <v>68</v>
-      </c>
-      <c r="F18" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="G18" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="H18" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="I18" s="19" t="s">
-        <v>98</v>
       </c>
       <c r="J18" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>E2080000</v>
+        <v>56472883</v>
       </c>
       <c r="M18" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C18,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>1100</v>
+        <v>1010</v>
       </c>
       <c r="N18" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D18,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D18,'HEX GEN BACKEND'!G:G,0)),D18)</f>
-        <v>0000010</v>
+        <v>0010001</v>
       </c>
       <c r="O18" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E18,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>01</v>
+        <v>11</v>
       </c>
       <c r="P18" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F18,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F18,'HEX GEN BACKEND'!H:H,0)),F18)</f>
-        <v>0000000</v>
+        <v>0010100</v>
       </c>
       <c r="Q18" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G18,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>00</v>
+        <v>11</v>
       </c>
       <c r="R18" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H18,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H18,'HEX GEN BACKEND'!I:I,0)),H18)</f>
-        <v>0000000</v>
+        <v>0000011</v>
       </c>
       <c r="S18" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I18,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>00</v>
+        <v>01</v>
       </c>
       <c r="U18" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>11100010000010000000000000000000</v>
+        <v>01010110010001110010100010000011</v>
       </c>
       <c r="W18" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>1110</v>
+        <v>0101</v>
       </c>
       <c r="X18" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>0010</v>
+        <v>0110</v>
       </c>
       <c r="Y18" s="21" t="str">
         <f t="shared" si="4"/>
-        <v>0000</v>
+        <v>0100</v>
       </c>
       <c r="Z18" s="21" t="str">
         <f t="shared" si="5"/>
-        <v>1000</v>
+        <v>0111</v>
       </c>
       <c r="AA18" s="21" t="str">
         <f t="shared" si="6"/>
-        <v>0000</v>
+        <v>0010</v>
       </c>
       <c r="AB18" s="21" t="str">
         <f t="shared" si="7"/>
-        <v>0000</v>
+        <v>1000</v>
       </c>
       <c r="AC18" s="21" t="str">
         <f t="shared" si="8"/>
-        <v>0000</v>
+        <v>1000</v>
       </c>
       <c r="AD18" s="21" t="str">
         <f t="shared" si="9"/>
-        <v>0000</v>
+        <v>0011</v>
       </c>
       <c r="AF18" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W18,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>E</v>
+        <v>5</v>
       </c>
       <c r="AG18" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X18,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AH18" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y18,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AI18" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z18,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AJ18" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA18,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK18" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB18,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AL18" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC18,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AM18" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD18,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO18" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>E2080000</v>
+        <v>56472883</v>
       </c>
     </row>
     <row r="19" spans="1:41" x14ac:dyDescent="0.25">
@@ -3328,44 +3334,44 @@
         <v>54</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>2</v>
+        <v>16</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>1</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>76</v>
+        <v>165</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F19" s="16" t="s">
         <v>98</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="H19" s="18" t="s">
         <v>98</v>
       </c>
       <c r="I19" s="19" t="s">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="J19" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>E2040000</v>
+        <v>56130180</v>
       </c>
       <c r="M19" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C19,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>1100</v>
+        <v>1010</v>
       </c>
       <c r="N19" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D19,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D19,'HEX GEN BACKEND'!G:G,0)),D19)</f>
-        <v>0000001</v>
+        <v>0000100</v>
       </c>
       <c r="O19" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E19,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>01</v>
+        <v>11</v>
       </c>
       <c r="P19" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F19,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F19,'HEX GEN BACKEND'!H:H,0)),F19)</f>
@@ -3373,7 +3379,7 @@
       </c>
       <c r="Q19" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G19,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>00</v>
+        <v>11</v>
       </c>
       <c r="R19" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H19,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H19,'HEX GEN BACKEND'!I:I,0)),H19)</f>
@@ -3381,27 +3387,27 @@
       </c>
       <c r="S19" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I19,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>00</v>
+        <v>11</v>
       </c>
       <c r="U19" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>11100010000001000000000000000000</v>
+        <v>01010110000100110000000110000000</v>
       </c>
       <c r="W19" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>1110</v>
+        <v>0101</v>
       </c>
       <c r="X19" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>0010</v>
+        <v>0110</v>
       </c>
       <c r="Y19" s="21" t="str">
         <f t="shared" si="4"/>
-        <v>0000</v>
+        <v>0001</v>
       </c>
       <c r="Z19" s="21" t="str">
         <f t="shared" si="5"/>
-        <v>0100</v>
+        <v>0011</v>
       </c>
       <c r="AA19" s="21" t="str">
         <f t="shared" si="6"/>
@@ -3409,11 +3415,11 @@
       </c>
       <c r="AB19" s="21" t="str">
         <f t="shared" si="7"/>
-        <v>0000</v>
+        <v>0001</v>
       </c>
       <c r="AC19" s="21" t="str">
         <f t="shared" si="8"/>
-        <v>0000</v>
+        <v>1000</v>
       </c>
       <c r="AD19" s="21" t="str">
         <f t="shared" si="9"/>
@@ -3421,19 +3427,19 @@
       </c>
       <c r="AF19" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W19,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>E</v>
+        <v>5</v>
       </c>
       <c r="AG19" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X19,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AH19" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y19,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI19" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z19,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AJ19" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA19,'HEX GEN BACKEND'!L:L,0))</f>
@@ -3441,11 +3447,11 @@
       </c>
       <c r="AK19" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB19,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL19" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC19,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AM19" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD19,'HEX GEN BACKEND'!L:L,0))</f>
@@ -3453,7 +3459,7 @@
       </c>
       <c r="AO19" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>E2040000</v>
+        <v>56130180</v>
       </c>
     </row>
     <row r="20" spans="1:41" x14ac:dyDescent="0.25">
@@ -3461,118 +3467,132 @@
         <v>55</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="13" t="e">
+        <v>17</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="H20" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="I20" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="J20" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M20" s="21" t="e">
+        <v>E2080000</v>
+      </c>
+      <c r="M20" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C20,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N20" s="21">
+        <v>1100</v>
+      </c>
+      <c r="N20" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D20,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D20,'HEX GEN BACKEND'!G:G,0)),D20)</f>
-        <v>0</v>
-      </c>
-      <c r="O20" s="21" t="e">
+        <v>0000010</v>
+      </c>
+      <c r="O20" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E20,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P20" s="21">
+        <v>01</v>
+      </c>
+      <c r="P20" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F20,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F20,'HEX GEN BACKEND'!H:H,0)),F20)</f>
-        <v>0</v>
-      </c>
-      <c r="Q20" s="21" t="e">
+        <v>0000000</v>
+      </c>
+      <c r="Q20" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G20,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R20" s="21">
+        <v>00</v>
+      </c>
+      <c r="R20" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H20,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H20,'HEX GEN BACKEND'!I:I,0)),H20)</f>
-        <v>0</v>
-      </c>
-      <c r="S20" s="21" t="e">
+        <v>0000000</v>
+      </c>
+      <c r="S20" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I20,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U20" s="21" t="e">
+        <v>00</v>
+      </c>
+      <c r="U20" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W20" s="21" t="e">
+        <v>11100010000010000000000000000000</v>
+      </c>
+      <c r="W20" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X20" s="21" t="e">
+        <v>1110</v>
+      </c>
+      <c r="X20" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y20" s="21" t="e">
+        <v>0010</v>
+      </c>
+      <c r="Y20" s="21" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z20" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="Z20" s="21" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA20" s="21" t="e">
+        <v>1000</v>
+      </c>
+      <c r="AA20" s="21" t="str">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB20" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AB20" s="21" t="str">
         <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC20" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AC20" s="21" t="str">
         <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AD20" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AD20" s="21" t="str">
         <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AF20" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AF20" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W20,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG20" s="21" t="e">
+        <v>E</v>
+      </c>
+      <c r="AG20" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X20,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH20" s="21" t="e">
+        <v>2</v>
+      </c>
+      <c r="AH20" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y20,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI20" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AI20" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z20,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ20" s="21" t="e">
+        <v>8</v>
+      </c>
+      <c r="AJ20" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA20,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK20" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AK20" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB20,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL20" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AL20" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC20,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM20" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AM20" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD20,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO20" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AO20" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>E2080000</v>
       </c>
     </row>
     <row r="21" spans="1:41" x14ac:dyDescent="0.25">
@@ -3580,118 +3600,132 @@
         <v>56</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="13" t="e">
+        <v>17</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="H21" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="I21" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="J21" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M21" s="21" t="e">
+        <v>E2040000</v>
+      </c>
+      <c r="M21" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C21,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N21" s="21">
+        <v>1100</v>
+      </c>
+      <c r="N21" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D21,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D21,'HEX GEN BACKEND'!G:G,0)),D21)</f>
-        <v>0</v>
-      </c>
-      <c r="O21" s="21" t="e">
+        <v>0000001</v>
+      </c>
+      <c r="O21" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E21,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P21" s="21">
+        <v>01</v>
+      </c>
+      <c r="P21" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F21,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F21,'HEX GEN BACKEND'!H:H,0)),F21)</f>
-        <v>0</v>
-      </c>
-      <c r="Q21" s="21" t="e">
+        <v>0000000</v>
+      </c>
+      <c r="Q21" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G21,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R21" s="21">
+        <v>00</v>
+      </c>
+      <c r="R21" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H21,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H21,'HEX GEN BACKEND'!I:I,0)),H21)</f>
-        <v>0</v>
-      </c>
-      <c r="S21" s="21" t="e">
+        <v>0000000</v>
+      </c>
+      <c r="S21" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I21,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U21" s="21" t="e">
+        <v>00</v>
+      </c>
+      <c r="U21" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W21" s="21" t="e">
+        <v>11100010000001000000000000000000</v>
+      </c>
+      <c r="W21" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X21" s="21" t="e">
+        <v>1110</v>
+      </c>
+      <c r="X21" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y21" s="21" t="e">
+        <v>0010</v>
+      </c>
+      <c r="Y21" s="21" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z21" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="Z21" s="21" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA21" s="21" t="e">
+        <v>0100</v>
+      </c>
+      <c r="AA21" s="21" t="str">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB21" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AB21" s="21" t="str">
         <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC21" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AC21" s="21" t="str">
         <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AD21" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AD21" s="21" t="str">
         <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AF21" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AF21" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W21,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG21" s="21" t="e">
+        <v>E</v>
+      </c>
+      <c r="AG21" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X21,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH21" s="21" t="e">
+        <v>2</v>
+      </c>
+      <c r="AH21" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y21,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI21" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z21,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ21" s="21" t="e">
+        <v>4</v>
+      </c>
+      <c r="AJ21" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA21,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK21" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AK21" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB21,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL21" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AL21" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC21,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM21" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AM21" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD21,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO21" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AO21" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>E2040000</v>
       </c>
     </row>
     <row r="22" spans="1:41" x14ac:dyDescent="0.25">
@@ -3699,118 +3733,132 @@
         <v>57</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="13" t="e">
+        <v>17</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="G22" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="H22" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="I22" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="J22" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M22" s="21" t="e">
+        <v>E2050200</v>
+      </c>
+      <c r="M22" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C22,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N22" s="21">
+        <v>1100</v>
+      </c>
+      <c r="N22" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D22,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D22,'HEX GEN BACKEND'!G:G,0)),D22)</f>
-        <v>0</v>
-      </c>
-      <c r="O22" s="21" t="e">
+        <v>0000001</v>
+      </c>
+      <c r="O22" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E22,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P22" s="21">
+        <v>01</v>
+      </c>
+      <c r="P22" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F22,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F22,'HEX GEN BACKEND'!H:H,0)),F22)</f>
-        <v>0</v>
-      </c>
-      <c r="Q22" s="21" t="e">
+        <v>0000001</v>
+      </c>
+      <c r="Q22" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G22,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R22" s="21">
+        <v>01</v>
+      </c>
+      <c r="R22" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H22,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H22,'HEX GEN BACKEND'!I:I,0)),H22)</f>
-        <v>0</v>
-      </c>
-      <c r="S22" s="21" t="e">
+        <v>0000000</v>
+      </c>
+      <c r="S22" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I22,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U22" s="21" t="e">
+        <v>00</v>
+      </c>
+      <c r="U22" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W22" s="21" t="e">
+        <v>11100010000001010000001000000000</v>
+      </c>
+      <c r="W22" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X22" s="21" t="e">
+        <v>1110</v>
+      </c>
+      <c r="X22" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y22" s="21" t="e">
+        <v>0010</v>
+      </c>
+      <c r="Y22" s="21" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z22" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="Z22" s="21" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA22" s="21" t="e">
+        <v>0101</v>
+      </c>
+      <c r="AA22" s="21" t="str">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB22" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AB22" s="21" t="str">
         <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC22" s="21" t="e">
+        <v>0010</v>
+      </c>
+      <c r="AC22" s="21" t="str">
         <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AD22" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AD22" s="21" t="str">
         <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AF22" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AF22" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W22,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG22" s="21" t="e">
+        <v>E</v>
+      </c>
+      <c r="AG22" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X22,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH22" s="21" t="e">
+        <v>2</v>
+      </c>
+      <c r="AH22" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y22,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI22" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AI22" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z22,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ22" s="21" t="e">
+        <v>5</v>
+      </c>
+      <c r="AJ22" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA22,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK22" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AK22" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB22,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL22" s="21" t="e">
+        <v>2</v>
+      </c>
+      <c r="AL22" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC22,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM22" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AM22" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD22,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO22" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AO22" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>E2050200</v>
       </c>
     </row>
     <row r="23" spans="1:41" x14ac:dyDescent="0.25">
@@ -13085,7 +13133,7 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'HEX GEN BACKEND'!$A:$A</xm:f>
@@ -13096,7 +13144,7 @@
           <x14:formula1>
             <xm:f>'HEX GEN BACKEND'!$D:$D</xm:f>
           </x14:formula1>
-          <xm:sqref>I2:I101 G2:G101 E2:E101</xm:sqref>
+          <xm:sqref>E2:E101 G2:G101 I2:I101</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/INSTRUCTIONS/Binary Instructions.xlsx
+++ b/INSTRUCTIONS/Binary Instructions.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="187">
   <si>
     <t>0001</t>
   </si>
@@ -582,19 +582,10 @@
     <t>STRIG</t>
   </si>
   <si>
-    <t>1000000</t>
-  </si>
-  <si>
-    <t>0010001</t>
-  </si>
-  <si>
-    <t>0010100</t>
-  </si>
-  <si>
-    <t>0010010</t>
-  </si>
-  <si>
-    <t>0010011</t>
+    <t>0010000</t>
+  </si>
+  <si>
+    <t>0011000</t>
   </si>
 </sst>
 </file>
@@ -713,7 +704,97 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="11">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1013,7 +1094,7 @@
   <dimension ref="A1:AO101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1351,10 +1432,10 @@
         <v>67</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>83</v>
+        <v>162</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H4" s="18" t="s">
         <v>98</v>
@@ -1364,7 +1445,7 @@
       </c>
       <c r="J4" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>4C090200</v>
+        <v>4C0B0200</v>
       </c>
       <c r="M4" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C4,'HEX GEN BACKEND'!A:A,0))</f>
@@ -1384,7 +1465,7 @@
       </c>
       <c r="Q4" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G4,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>01</v>
+        <v>11</v>
       </c>
       <c r="R4" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H4,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H4,'HEX GEN BACKEND'!I:I,0)),H4)</f>
@@ -1396,7 +1477,7 @@
       </c>
       <c r="U4" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>01001100000010010000001000000000</v>
+        <v>01001100000010110000001000000000</v>
       </c>
       <c r="W4" s="21" t="str">
         <f t="shared" si="2"/>
@@ -1412,7 +1493,7 @@
       </c>
       <c r="Z4" s="21" t="str">
         <f t="shared" si="5"/>
-        <v>1001</v>
+        <v>1011</v>
       </c>
       <c r="AA4" s="21" t="str">
         <f t="shared" si="6"/>
@@ -1444,7 +1525,7 @@
       </c>
       <c r="AI4" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z4,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>9</v>
+        <v>B</v>
       </c>
       <c r="AJ4" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA4,'HEX GEN BACKEND'!L:L,0))</f>
@@ -1464,7 +1545,7 @@
       </c>
       <c r="AO4" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>4C090200</v>
+        <v>4C0B0200</v>
       </c>
     </row>
     <row r="5" spans="1:41" x14ac:dyDescent="0.25">
@@ -1478,13 +1559,13 @@
         <v>3</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>185</v>
+        <v>76</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G5" s="17" t="s">
         <v>67</v>
@@ -1497,7 +1578,7 @@
       </c>
       <c r="J5" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>4F020400</v>
+        <v>4A060600</v>
       </c>
       <c r="M5" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C5,'HEX GEN BACKEND'!A:A,0))</f>
@@ -1505,15 +1586,15 @@
       </c>
       <c r="N5" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D5,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D5,'HEX GEN BACKEND'!G:G,0)),D5)</f>
-        <v>1000000</v>
+        <v>0000001</v>
       </c>
       <c r="O5" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E5,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>11</v>
+        <v>01</v>
       </c>
       <c r="P5" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F5,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F5,'HEX GEN BACKEND'!H:H,0)),F5)</f>
-        <v>0000010</v>
+        <v>0000011</v>
       </c>
       <c r="Q5" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G5,'HEX GEN BACKEND'!D:D,0))</f>
@@ -1529,7 +1610,7 @@
       </c>
       <c r="U5" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>01001111000000100000010000000000</v>
+        <v>01001010000001100000011000000000</v>
       </c>
       <c r="W5" s="21" t="str">
         <f t="shared" si="2"/>
@@ -1537,7 +1618,7 @@
       </c>
       <c r="X5" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>1111</v>
+        <v>1010</v>
       </c>
       <c r="Y5" s="21" t="str">
         <f t="shared" si="4"/>
@@ -1545,7 +1626,7 @@
       </c>
       <c r="Z5" s="21" t="str">
         <f t="shared" si="5"/>
-        <v>0010</v>
+        <v>0110</v>
       </c>
       <c r="AA5" s="21" t="str">
         <f t="shared" si="6"/>
@@ -1553,7 +1634,7 @@
       </c>
       <c r="AB5" s="21" t="str">
         <f t="shared" si="7"/>
-        <v>0100</v>
+        <v>0110</v>
       </c>
       <c r="AC5" s="21" t="str">
         <f t="shared" si="8"/>
@@ -1569,7 +1650,7 @@
       </c>
       <c r="AG5" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X5,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>F</v>
+        <v>A</v>
       </c>
       <c r="AH5" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y5,'HEX GEN BACKEND'!L:L,0))</f>
@@ -1577,7 +1658,7 @@
       </c>
       <c r="AI5" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z5,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AJ5" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA5,'HEX GEN BACKEND'!L:L,0))</f>
@@ -1585,7 +1666,7 @@
       </c>
       <c r="AK5" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB5,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AL5" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC5,'HEX GEN BACKEND'!L:L,0))</f>
@@ -1597,7 +1678,7 @@
       </c>
       <c r="AO5" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>4F020400</v>
+        <v>4A060600</v>
       </c>
     </row>
     <row r="6" spans="1:41" x14ac:dyDescent="0.25">
@@ -1608,33 +1689,33 @@
         <v>16</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>177</v>
+        <v>3</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>76</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="I6" s="19" t="s">
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="J6" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>0A050501</v>
+        <v>4C070000</v>
       </c>
       <c r="M6" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C6,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>0001</v>
+        <v>1001</v>
       </c>
       <c r="N6" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D6,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D6,'HEX GEN BACKEND'!G:G,0)),D6)</f>
@@ -1642,35 +1723,35 @@
       </c>
       <c r="O6" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E6,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>01</v>
+        <v>10</v>
       </c>
       <c r="P6" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F6,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F6,'HEX GEN BACKEND'!H:H,0)),F6)</f>
-        <v>0000010</v>
+        <v>0000000</v>
       </c>
       <c r="Q6" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G6,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>01</v>
+        <v>11</v>
       </c>
       <c r="R6" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H6,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H6,'HEX GEN BACKEND'!I:I,0)),H6)</f>
-        <v>0000001</v>
+        <v>0000000</v>
       </c>
       <c r="S6" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I6,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>10</v>
+        <v>00</v>
       </c>
       <c r="U6" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>00001010000001010000010100000001</v>
+        <v>01001100000001110000000000000000</v>
       </c>
       <c r="W6" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>0000</v>
+        <v>0100</v>
       </c>
       <c r="X6" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>1010</v>
+        <v>1100</v>
       </c>
       <c r="Y6" s="21" t="str">
         <f t="shared" si="4"/>
@@ -1678,7 +1759,7 @@
       </c>
       <c r="Z6" s="21" t="str">
         <f t="shared" si="5"/>
-        <v>0101</v>
+        <v>0111</v>
       </c>
       <c r="AA6" s="21" t="str">
         <f t="shared" si="6"/>
@@ -1686,7 +1767,7 @@
       </c>
       <c r="AB6" s="21" t="str">
         <f t="shared" si="7"/>
-        <v>0101</v>
+        <v>0000</v>
       </c>
       <c r="AC6" s="21" t="str">
         <f t="shared" si="8"/>
@@ -1694,15 +1775,15 @@
       </c>
       <c r="AD6" s="21" t="str">
         <f t="shared" si="9"/>
-        <v>0001</v>
+        <v>0000</v>
       </c>
       <c r="AF6" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W6,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AG6" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X6,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>A</v>
+        <v>C</v>
       </c>
       <c r="AH6" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y6,'HEX GEN BACKEND'!L:L,0))</f>
@@ -1710,7 +1791,7 @@
       </c>
       <c r="AI6" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z6,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AJ6" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA6,'HEX GEN BACKEND'!L:L,0))</f>
@@ -1718,7 +1799,7 @@
       </c>
       <c r="AK6" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB6,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AL6" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC6,'HEX GEN BACKEND'!L:L,0))</f>
@@ -1726,11 +1807,11 @@
       </c>
       <c r="AM6" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD6,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>0A050501</v>
+        <v>4C070000</v>
       </c>
     </row>
     <row r="7" spans="1:41" x14ac:dyDescent="0.25">
@@ -1750,20 +1831,20 @@
         <v>68</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G7" s="17" t="s">
         <v>68</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I7" s="19" t="s">
         <v>67</v>
       </c>
       <c r="J7" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>0A090502</v>
+        <v>0A090301</v>
       </c>
       <c r="M7" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C7,'HEX GEN BACKEND'!A:A,0))</f>
@@ -1779,7 +1860,7 @@
       </c>
       <c r="P7" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F7,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F7,'HEX GEN BACKEND'!H:H,0)),F7)</f>
-        <v>0000010</v>
+        <v>0000001</v>
       </c>
       <c r="Q7" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G7,'HEX GEN BACKEND'!D:D,0))</f>
@@ -1787,7 +1868,7 @@
       </c>
       <c r="R7" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H7,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H7,'HEX GEN BACKEND'!I:I,0)),H7)</f>
-        <v>0000010</v>
+        <v>0000001</v>
       </c>
       <c r="S7" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I7,'HEX GEN BACKEND'!D:D,0))</f>
@@ -1795,7 +1876,7 @@
       </c>
       <c r="U7" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>00001010000010010000010100000010</v>
+        <v>00001010000010010000001100000001</v>
       </c>
       <c r="W7" s="21" t="str">
         <f t="shared" si="2"/>
@@ -1819,7 +1900,7 @@
       </c>
       <c r="AB7" s="21" t="str">
         <f t="shared" si="7"/>
-        <v>0101</v>
+        <v>0011</v>
       </c>
       <c r="AC7" s="21" t="str">
         <f t="shared" si="8"/>
@@ -1827,7 +1908,7 @@
       </c>
       <c r="AD7" s="21" t="str">
         <f t="shared" si="9"/>
-        <v>0010</v>
+        <v>0001</v>
       </c>
       <c r="AF7" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W7,'HEX GEN BACKEND'!L:L,0))</f>
@@ -1851,7 +1932,7 @@
       </c>
       <c r="AK7" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB7,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AL7" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC7,'HEX GEN BACKEND'!L:L,0))</f>
@@ -1859,11 +1940,11 @@
       </c>
       <c r="AM7" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD7,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO7" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>0A090502</v>
+        <v>0A090301</v>
       </c>
     </row>
     <row r="8" spans="1:41" x14ac:dyDescent="0.25">
@@ -1877,16 +1958,16 @@
         <v>3</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="E8" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="G8" s="17" t="s">
         <v>67</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="G8" s="17" t="s">
-        <v>98</v>
       </c>
       <c r="H8" s="18" t="s">
         <v>90</v>
@@ -1896,7 +1977,7 @@
       </c>
       <c r="J8" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>4C0C0081</v>
+        <v>48020481</v>
       </c>
       <c r="M8" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C8,'HEX GEN BACKEND'!A:A,0))</f>
@@ -1904,19 +1985,19 @@
       </c>
       <c r="N8" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D8,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D8,'HEX GEN BACKEND'!G:G,0)),D8)</f>
-        <v>0000011</v>
+        <v>0000000</v>
       </c>
       <c r="O8" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E8,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>10</v>
+        <v>00</v>
       </c>
       <c r="P8" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F8,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F8,'HEX GEN BACKEND'!H:H,0)),F8)</f>
-        <v>0000000</v>
+        <v>0000010</v>
       </c>
       <c r="Q8" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G8,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>00</v>
+        <v>10</v>
       </c>
       <c r="R8" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H8,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H8,'HEX GEN BACKEND'!I:I,0)),H8)</f>
@@ -1928,7 +2009,7 @@
       </c>
       <c r="U8" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>01001100000011000000000010000001</v>
+        <v>01001000000000100000010010000001</v>
       </c>
       <c r="W8" s="21" t="str">
         <f t="shared" si="2"/>
@@ -1936,7 +2017,7 @@
       </c>
       <c r="X8" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="Y8" s="21" t="str">
         <f t="shared" si="4"/>
@@ -1944,7 +2025,7 @@
       </c>
       <c r="Z8" s="21" t="str">
         <f t="shared" si="5"/>
-        <v>1100</v>
+        <v>0010</v>
       </c>
       <c r="AA8" s="21" t="str">
         <f t="shared" si="6"/>
@@ -1952,7 +2033,7 @@
       </c>
       <c r="AB8" s="21" t="str">
         <f t="shared" si="7"/>
-        <v>0000</v>
+        <v>0100</v>
       </c>
       <c r="AC8" s="21" t="str">
         <f t="shared" si="8"/>
@@ -1968,7 +2049,7 @@
       </c>
       <c r="AG8" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X8,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>C</v>
+        <v>8</v>
       </c>
       <c r="AH8" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y8,'HEX GEN BACKEND'!L:L,0))</f>
@@ -1976,7 +2057,7 @@
       </c>
       <c r="AI8" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z8,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>C</v>
+        <v>2</v>
       </c>
       <c r="AJ8" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA8,'HEX GEN BACKEND'!L:L,0))</f>
@@ -1984,7 +2065,7 @@
       </c>
       <c r="AK8" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB8,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AL8" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC8,'HEX GEN BACKEND'!L:L,0))</f>
@@ -1996,7 +2077,7 @@
       </c>
       <c r="AO8" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>4C0C0081</v>
+        <v>48020481</v>
       </c>
     </row>
     <row r="9" spans="1:41" x14ac:dyDescent="0.25">
@@ -2007,77 +2088,77 @@
         <v>16</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>3</v>
+        <v>182</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E9" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="I9" s="19" t="s">
         <v>67</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="G9" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="H9" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="I9" s="19" t="s">
-        <v>68</v>
       </c>
       <c r="J9" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>4C100082</v>
+        <v>32090501</v>
       </c>
       <c r="M9" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C9,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>1001</v>
+        <v>0110</v>
       </c>
       <c r="N9" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D9,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D9,'HEX GEN BACKEND'!G:G,0)),D9)</f>
-        <v>0000100</v>
+        <v>0000010</v>
       </c>
       <c r="O9" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E9,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>10</v>
+        <v>01</v>
       </c>
       <c r="P9" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F9,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F9,'HEX GEN BACKEND'!H:H,0)),F9)</f>
-        <v>0000000</v>
+        <v>0000010</v>
       </c>
       <c r="Q9" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G9,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>00</v>
+        <v>01</v>
       </c>
       <c r="R9" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H9,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H9,'HEX GEN BACKEND'!I:I,0)),H9)</f>
-        <v>0000010</v>
+        <v>0000001</v>
       </c>
       <c r="S9" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I9,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>01</v>
+        <v>10</v>
       </c>
       <c r="U9" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>01001100000100000000000010000010</v>
+        <v>00110010000010010000010100000001</v>
       </c>
       <c r="W9" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>0100</v>
+        <v>0011</v>
       </c>
       <c r="X9" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>1100</v>
+        <v>0010</v>
       </c>
       <c r="Y9" s="21" t="str">
         <f t="shared" si="4"/>
-        <v>0001</v>
+        <v>0000</v>
       </c>
       <c r="Z9" s="21" t="str">
         <f t="shared" si="5"/>
-        <v>0000</v>
+        <v>1001</v>
       </c>
       <c r="AA9" s="21" t="str">
         <f t="shared" si="6"/>
@@ -2085,31 +2166,31 @@
       </c>
       <c r="AB9" s="21" t="str">
         <f t="shared" si="7"/>
-        <v>0000</v>
+        <v>0101</v>
       </c>
       <c r="AC9" s="21" t="str">
         <f t="shared" si="8"/>
-        <v>1000</v>
+        <v>0000</v>
       </c>
       <c r="AD9" s="21" t="str">
         <f t="shared" si="9"/>
-        <v>0010</v>
+        <v>0001</v>
       </c>
       <c r="AF9" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W9,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG9" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X9,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>C</v>
+        <v>2</v>
       </c>
       <c r="AH9" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y9,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI9" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z9,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AJ9" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA9,'HEX GEN BACKEND'!L:L,0))</f>
@@ -2117,19 +2198,19 @@
       </c>
       <c r="AK9" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB9,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AL9" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC9,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AM9" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD9,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO9" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>4C100082</v>
+        <v>32090501</v>
       </c>
     </row>
     <row r="10" spans="1:41" x14ac:dyDescent="0.25">
@@ -2140,37 +2221,37 @@
         <v>16</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E10" s="15" t="s">
         <v>68</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I10" s="19" t="s">
         <v>67</v>
       </c>
       <c r="J10" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>320D0501</v>
+        <v>3A080102</v>
       </c>
       <c r="M10" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C10,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>0110</v>
+        <v>0111</v>
       </c>
       <c r="N10" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D10,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D10,'HEX GEN BACKEND'!G:G,0)),D10)</f>
-        <v>0000011</v>
+        <v>0000010</v>
       </c>
       <c r="O10" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E10,'HEX GEN BACKEND'!D:D,0))</f>
@@ -2178,15 +2259,15 @@
       </c>
       <c r="P10" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F10,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F10,'HEX GEN BACKEND'!H:H,0)),F10)</f>
-        <v>0000010</v>
+        <v>0000000</v>
       </c>
       <c r="Q10" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G10,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>01</v>
+        <v>00</v>
       </c>
       <c r="R10" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H10,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H10,'HEX GEN BACKEND'!I:I,0)),H10)</f>
-        <v>0000001</v>
+        <v>0000010</v>
       </c>
       <c r="S10" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I10,'HEX GEN BACKEND'!D:D,0))</f>
@@ -2194,7 +2275,7 @@
       </c>
       <c r="U10" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>00110010000011010000010100000001</v>
+        <v>00111010000010000000000100000010</v>
       </c>
       <c r="W10" s="21" t="str">
         <f t="shared" si="2"/>
@@ -2202,7 +2283,7 @@
       </c>
       <c r="X10" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>0010</v>
+        <v>1010</v>
       </c>
       <c r="Y10" s="21" t="str">
         <f t="shared" si="4"/>
@@ -2210,7 +2291,7 @@
       </c>
       <c r="Z10" s="21" t="str">
         <f t="shared" si="5"/>
-        <v>1101</v>
+        <v>1000</v>
       </c>
       <c r="AA10" s="21" t="str">
         <f t="shared" si="6"/>
@@ -2218,7 +2299,7 @@
       </c>
       <c r="AB10" s="21" t="str">
         <f t="shared" si="7"/>
-        <v>0101</v>
+        <v>0001</v>
       </c>
       <c r="AC10" s="21" t="str">
         <f t="shared" si="8"/>
@@ -2226,7 +2307,7 @@
       </c>
       <c r="AD10" s="21" t="str">
         <f t="shared" si="9"/>
-        <v>0001</v>
+        <v>0010</v>
       </c>
       <c r="AF10" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W10,'HEX GEN BACKEND'!L:L,0))</f>
@@ -2234,7 +2315,7 @@
       </c>
       <c r="AG10" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X10,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
+        <v>A</v>
       </c>
       <c r="AH10" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y10,'HEX GEN BACKEND'!L:L,0))</f>
@@ -2242,7 +2323,7 @@
       </c>
       <c r="AI10" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z10,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>D</v>
+        <v>8</v>
       </c>
       <c r="AJ10" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA10,'HEX GEN BACKEND'!L:L,0))</f>
@@ -2250,7 +2331,7 @@
       </c>
       <c r="AK10" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB10,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AL10" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC10,'HEX GEN BACKEND'!L:L,0))</f>
@@ -2258,11 +2339,11 @@
       </c>
       <c r="AM10" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD10,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO10" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>320D0501</v>
+        <v>3A080102</v>
       </c>
     </row>
     <row r="11" spans="1:41" x14ac:dyDescent="0.25">
@@ -2273,49 +2354,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>182</v>
+        <v>3</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="H11" s="18" t="s">
         <v>91</v>
       </c>
       <c r="I11" s="19" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J11" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>32110502</v>
+        <v>4C080082</v>
       </c>
       <c r="M11" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C11,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>0110</v>
+        <v>1001</v>
       </c>
       <c r="N11" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D11,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D11,'HEX GEN BACKEND'!G:G,0)),D11)</f>
-        <v>0000100</v>
+        <v>0000010</v>
       </c>
       <c r="O11" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E11,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>01</v>
+        <v>10</v>
       </c>
       <c r="P11" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F11,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F11,'HEX GEN BACKEND'!H:H,0)),F11)</f>
-        <v>0000010</v>
+        <v>0000000</v>
       </c>
       <c r="Q11" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G11,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>01</v>
+        <v>00</v>
       </c>
       <c r="R11" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H11,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H11,'HEX GEN BACKEND'!I:I,0)),H11)</f>
@@ -2323,27 +2404,27 @@
       </c>
       <c r="S11" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I11,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>10</v>
+        <v>01</v>
       </c>
       <c r="U11" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>00110010000100010000010100000010</v>
+        <v>01001100000010000000000010000010</v>
       </c>
       <c r="W11" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>0011</v>
+        <v>0100</v>
       </c>
       <c r="X11" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>0010</v>
+        <v>1100</v>
       </c>
       <c r="Y11" s="21" t="str">
         <f t="shared" si="4"/>
-        <v>0001</v>
+        <v>0000</v>
       </c>
       <c r="Z11" s="21" t="str">
         <f t="shared" si="5"/>
-        <v>0001</v>
+        <v>1000</v>
       </c>
       <c r="AA11" s="21" t="str">
         <f t="shared" si="6"/>
@@ -2351,11 +2432,11 @@
       </c>
       <c r="AB11" s="21" t="str">
         <f t="shared" si="7"/>
-        <v>0101</v>
+        <v>0000</v>
       </c>
       <c r="AC11" s="21" t="str">
         <f t="shared" si="8"/>
-        <v>0000</v>
+        <v>1000</v>
       </c>
       <c r="AD11" s="21" t="str">
         <f t="shared" si="9"/>
@@ -2363,19 +2444,19 @@
       </c>
       <c r="AF11" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W11,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG11" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X11,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
+        <v>C</v>
       </c>
       <c r="AH11" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y11,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI11" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z11,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AJ11" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA11,'HEX GEN BACKEND'!L:L,0))</f>
@@ -2383,11 +2464,11 @@
       </c>
       <c r="AK11" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB11,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AL11" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC11,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AM11" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD11,'HEX GEN BACKEND'!L:L,0))</f>
@@ -2395,7 +2476,7 @@
       </c>
       <c r="AO11" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>32110502</v>
+        <v>4C080082</v>
       </c>
     </row>
     <row r="12" spans="1:41" x14ac:dyDescent="0.25">
@@ -2409,13 +2490,13 @@
         <v>1</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>69</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G12" s="17" t="s">
         <v>69</v>
@@ -2428,7 +2509,7 @@
       </c>
       <c r="J12" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>562F1881</v>
+        <v>563B1681</v>
       </c>
       <c r="M12" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C12,'HEX GEN BACKEND'!A:A,0))</f>
@@ -2436,7 +2517,7 @@
       </c>
       <c r="N12" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D12,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D12,'HEX GEN BACKEND'!G:G,0)),D12)</f>
-        <v>0001011</v>
+        <v>0001110</v>
       </c>
       <c r="O12" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E12,'HEX GEN BACKEND'!D:D,0))</f>
@@ -2444,7 +2525,7 @@
       </c>
       <c r="P12" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F12,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F12,'HEX GEN BACKEND'!H:H,0)),F12)</f>
-        <v>0001100</v>
+        <v>0001011</v>
       </c>
       <c r="Q12" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G12,'HEX GEN BACKEND'!D:D,0))</f>
@@ -2460,7 +2541,7 @@
       </c>
       <c r="U12" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>01010110001011110001100010000001</v>
+        <v>01010110001110110001011010000001</v>
       </c>
       <c r="W12" s="21" t="str">
         <f t="shared" si="2"/>
@@ -2472,11 +2553,11 @@
       </c>
       <c r="Y12" s="21" t="str">
         <f t="shared" si="4"/>
-        <v>0010</v>
+        <v>0011</v>
       </c>
       <c r="Z12" s="21" t="str">
         <f t="shared" si="5"/>
-        <v>1111</v>
+        <v>1011</v>
       </c>
       <c r="AA12" s="21" t="str">
         <f t="shared" si="6"/>
@@ -2484,7 +2565,7 @@
       </c>
       <c r="AB12" s="21" t="str">
         <f t="shared" si="7"/>
-        <v>1000</v>
+        <v>0110</v>
       </c>
       <c r="AC12" s="21" t="str">
         <f t="shared" si="8"/>
@@ -2504,11 +2585,11 @@
       </c>
       <c r="AH12" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y12,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI12" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z12,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>F</v>
+        <v>B</v>
       </c>
       <c r="AJ12" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA12,'HEX GEN BACKEND'!L:L,0))</f>
@@ -2516,7 +2597,7 @@
       </c>
       <c r="AK12" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB12,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AL12" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC12,'HEX GEN BACKEND'!L:L,0))</f>
@@ -2528,7 +2609,7 @@
       </c>
       <c r="AO12" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>562F1881</v>
+        <v>563B1681</v>
       </c>
     </row>
     <row r="13" spans="1:41" x14ac:dyDescent="0.25">
@@ -2539,129 +2620,129 @@
         <v>16</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>174</v>
+        <v>98</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>189</v>
+        <v>85</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I13" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J13" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>56372682</v>
+        <v>48010701</v>
       </c>
       <c r="M13" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C13,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>1010</v>
+        <v>1001</v>
       </c>
       <c r="N13" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D13,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D13,'HEX GEN BACKEND'!G:G,0)),D13)</f>
-        <v>0001101</v>
+        <v>0000000</v>
       </c>
       <c r="O13" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E13,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>11</v>
+        <v>00</v>
       </c>
       <c r="P13" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F13,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F13,'HEX GEN BACKEND'!H:H,0)),F13)</f>
-        <v>0010011</v>
+        <v>0000011</v>
       </c>
       <c r="Q13" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G13,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>11</v>
+        <v>01</v>
       </c>
       <c r="R13" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H13,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H13,'HEX GEN BACKEND'!I:I,0)),H13)</f>
-        <v>0000010</v>
+        <v>0000001</v>
       </c>
       <c r="S13" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I13,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>01</v>
+        <v>10</v>
       </c>
       <c r="U13" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>01010110001101110010011010000010</v>
+        <v>01001000000000010000011100000001</v>
       </c>
       <c r="W13" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>0101</v>
+        <v>0100</v>
       </c>
       <c r="X13" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>0110</v>
+        <v>1000</v>
       </c>
       <c r="Y13" s="21" t="str">
         <f t="shared" si="4"/>
-        <v>0011</v>
+        <v>0000</v>
       </c>
       <c r="Z13" s="21" t="str">
         <f t="shared" si="5"/>
-        <v>0111</v>
+        <v>0001</v>
       </c>
       <c r="AA13" s="21" t="str">
         <f t="shared" si="6"/>
-        <v>0010</v>
+        <v>0000</v>
       </c>
       <c r="AB13" s="21" t="str">
         <f t="shared" si="7"/>
-        <v>0110</v>
+        <v>0111</v>
       </c>
       <c r="AC13" s="21" t="str">
         <f t="shared" si="8"/>
-        <v>1000</v>
+        <v>0000</v>
       </c>
       <c r="AD13" s="21" t="str">
         <f t="shared" si="9"/>
-        <v>0010</v>
+        <v>0001</v>
       </c>
       <c r="AF13" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W13,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AG13" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X13,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AH13" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y13,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AI13" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z13,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AJ13" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA13,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK13" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB13,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AL13" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC13,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AM13" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD13,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO13" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>56372682</v>
+        <v>48010701</v>
       </c>
     </row>
     <row r="14" spans="1:41" x14ac:dyDescent="0.25">
@@ -2672,53 +2753,53 @@
         <v>16</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>188</v>
+        <v>98</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>174</v>
+        <v>86</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H14" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I14" s="19" t="s">
         <v>68</v>
       </c>
       <c r="J14" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>564B1A82</v>
+        <v>48020881</v>
       </c>
       <c r="M14" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C14,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>1010</v>
+        <v>1001</v>
       </c>
       <c r="N14" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D14,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D14,'HEX GEN BACKEND'!G:G,0)),D14)</f>
-        <v>0010010</v>
+        <v>0000000</v>
       </c>
       <c r="O14" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E14,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>11</v>
+        <v>00</v>
       </c>
       <c r="P14" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F14,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F14,'HEX GEN BACKEND'!H:H,0)),F14)</f>
-        <v>0001101</v>
+        <v>0000100</v>
       </c>
       <c r="Q14" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G14,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R14" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H14,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H14,'HEX GEN BACKEND'!I:I,0)),H14)</f>
-        <v>0000010</v>
+        <v>0000001</v>
       </c>
       <c r="S14" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I14,'HEX GEN BACKEND'!D:D,0))</f>
@@ -2726,31 +2807,31 @@
       </c>
       <c r="U14" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>01010110010010110001101010000010</v>
+        <v>01001000000000100000100010000001</v>
       </c>
       <c r="W14" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>0101</v>
+        <v>0100</v>
       </c>
       <c r="X14" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>0110</v>
+        <v>1000</v>
       </c>
       <c r="Y14" s="21" t="str">
         <f t="shared" si="4"/>
-        <v>0100</v>
+        <v>0000</v>
       </c>
       <c r="Z14" s="21" t="str">
         <f t="shared" si="5"/>
-        <v>1011</v>
+        <v>0010</v>
       </c>
       <c r="AA14" s="21" t="str">
         <f t="shared" si="6"/>
-        <v>0001</v>
+        <v>0000</v>
       </c>
       <c r="AB14" s="21" t="str">
         <f t="shared" si="7"/>
-        <v>1010</v>
+        <v>1000</v>
       </c>
       <c r="AC14" s="21" t="str">
         <f t="shared" si="8"/>
@@ -2758,31 +2839,31 @@
       </c>
       <c r="AD14" s="21" t="str">
         <f t="shared" si="9"/>
-        <v>0010</v>
+        <v>0001</v>
       </c>
       <c r="AF14" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W14,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AG14" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X14,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AH14" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y14,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AI14" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z14,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>B</v>
+        <v>2</v>
       </c>
       <c r="AJ14" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA14,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK14" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB14,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>A</v>
+        <v>8</v>
       </c>
       <c r="AL14" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC14,'HEX GEN BACKEND'!L:L,0))</f>
@@ -2790,11 +2871,11 @@
       </c>
       <c r="AM14" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD14,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO14" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>564B1A82</v>
+        <v>48020881</v>
       </c>
     </row>
     <row r="15" spans="1:41" x14ac:dyDescent="0.25">
@@ -2805,77 +2886,77 @@
         <v>16</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>184</v>
+        <v>1</v>
       </c>
       <c r="D15" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="G15" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="F15" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="G15" s="17" t="s">
-        <v>68</v>
-      </c>
       <c r="H15" s="18" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="I15" s="19" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="J15" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>40010503</v>
+        <v>56400180</v>
       </c>
       <c r="M15" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C15,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>1000</v>
+        <v>1010</v>
       </c>
       <c r="N15" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D15,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D15,'HEX GEN BACKEND'!G:G,0)),D15)</f>
-        <v>0000000</v>
+        <v>0010000</v>
       </c>
       <c r="O15" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E15,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>00</v>
+        <v>11</v>
       </c>
       <c r="P15" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F15,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F15,'HEX GEN BACKEND'!H:H,0)),F15)</f>
-        <v>0000010</v>
+        <v>0000000</v>
       </c>
       <c r="Q15" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G15,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>01</v>
+        <v>00</v>
       </c>
       <c r="R15" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H15,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H15,'HEX GEN BACKEND'!I:I,0)),H15)</f>
-        <v>0000011</v>
+        <v>0000000</v>
       </c>
       <c r="S15" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I15,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U15" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>01000000000000010000010100000011</v>
+        <v>01010110010000000000000110000000</v>
       </c>
       <c r="W15" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>0100</v>
+        <v>0101</v>
       </c>
       <c r="X15" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>0000</v>
+        <v>0110</v>
       </c>
       <c r="Y15" s="21" t="str">
         <f t="shared" si="4"/>
-        <v>0000</v>
+        <v>0100</v>
       </c>
       <c r="Z15" s="21" t="str">
         <f t="shared" si="5"/>
-        <v>0001</v>
+        <v>0000</v>
       </c>
       <c r="AA15" s="21" t="str">
         <f t="shared" si="6"/>
@@ -2883,31 +2964,31 @@
       </c>
       <c r="AB15" s="21" t="str">
         <f t="shared" si="7"/>
-        <v>0101</v>
+        <v>0001</v>
       </c>
       <c r="AC15" s="21" t="str">
         <f t="shared" si="8"/>
-        <v>0000</v>
+        <v>1000</v>
       </c>
       <c r="AD15" s="21" t="str">
         <f t="shared" si="9"/>
-        <v>0011</v>
+        <v>0000</v>
       </c>
       <c r="AF15" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W15,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG15" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X15,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AH15" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y15,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AI15" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z15,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA15,'HEX GEN BACKEND'!L:L,0))</f>
@@ -2915,19 +2996,19 @@
       </c>
       <c r="AK15" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB15,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AL15" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC15,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AM15" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD15,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>40010503</v>
+        <v>56400180</v>
       </c>
     </row>
     <row r="16" spans="1:41" x14ac:dyDescent="0.25">
@@ -2947,20 +3028,20 @@
         <v>98</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G16" s="17" t="s">
         <v>67</v>
       </c>
       <c r="H16" s="18" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="I16" s="19" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J16" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>48020483</v>
+        <v>48020980</v>
       </c>
       <c r="M16" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C16,'HEX GEN BACKEND'!A:A,0))</f>
@@ -2976,7 +3057,7 @@
       </c>
       <c r="P16" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F16,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F16,'HEX GEN BACKEND'!H:H,0)),F16)</f>
-        <v>0000010</v>
+        <v>0000100</v>
       </c>
       <c r="Q16" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G16,'HEX GEN BACKEND'!D:D,0))</f>
@@ -2984,15 +3065,15 @@
       </c>
       <c r="R16" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H16,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H16,'HEX GEN BACKEND'!I:I,0)),H16)</f>
-        <v>0000011</v>
+        <v>0000000</v>
       </c>
       <c r="S16" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I16,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>01</v>
+        <v>11</v>
       </c>
       <c r="U16" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>01001000000000100000010010000011</v>
+        <v>01001000000000100000100110000000</v>
       </c>
       <c r="W16" s="21" t="str">
         <f t="shared" si="2"/>
@@ -3016,7 +3097,7 @@
       </c>
       <c r="AB16" s="21" t="str">
         <f t="shared" si="7"/>
-        <v>0100</v>
+        <v>1001</v>
       </c>
       <c r="AC16" s="21" t="str">
         <f t="shared" si="8"/>
@@ -3024,7 +3105,7 @@
       </c>
       <c r="AD16" s="21" t="str">
         <f t="shared" si="9"/>
-        <v>0011</v>
+        <v>0000</v>
       </c>
       <c r="AF16" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W16,'HEX GEN BACKEND'!L:L,0))</f>
@@ -3048,7 +3129,7 @@
       </c>
       <c r="AK16" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB16,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AL16" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC16,'HEX GEN BACKEND'!L:L,0))</f>
@@ -3056,11 +3137,11 @@
       </c>
       <c r="AM16" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD16,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>48020483</v>
+        <v>48020980</v>
       </c>
     </row>
     <row r="17" spans="1:41" x14ac:dyDescent="0.25">
@@ -3071,37 +3152,37 @@
         <v>16</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>182</v>
+        <v>1</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>98</v>
+        <v>185</v>
       </c>
       <c r="E17" s="15" t="s">
         <v>69</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="H17" s="18" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="I17" s="19" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="J17" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>36010503</v>
+        <v>56400180</v>
       </c>
       <c r="M17" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C17,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>0110</v>
+        <v>1010</v>
       </c>
       <c r="N17" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D17,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D17,'HEX GEN BACKEND'!G:G,0)),D17)</f>
-        <v>0000000</v>
+        <v>0010000</v>
       </c>
       <c r="O17" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E17,'HEX GEN BACKEND'!D:D,0))</f>
@@ -3109,27 +3190,27 @@
       </c>
       <c r="P17" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F17,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F17,'HEX GEN BACKEND'!H:H,0)),F17)</f>
-        <v>0000010</v>
+        <v>0000000</v>
       </c>
       <c r="Q17" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G17,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>01</v>
+        <v>00</v>
       </c>
       <c r="R17" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H17,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H17,'HEX GEN BACKEND'!I:I,0)),H17)</f>
-        <v>0000011</v>
+        <v>0000000</v>
       </c>
       <c r="S17" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I17,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U17" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>00110110000000010000010100000011</v>
+        <v>01010110010000000000000110000000</v>
       </c>
       <c r="W17" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>0011</v>
+        <v>0101</v>
       </c>
       <c r="X17" s="21" t="str">
         <f t="shared" si="3"/>
@@ -3137,11 +3218,11 @@
       </c>
       <c r="Y17" s="21" t="str">
         <f t="shared" si="4"/>
-        <v>0000</v>
+        <v>0100</v>
       </c>
       <c r="Z17" s="21" t="str">
         <f t="shared" si="5"/>
-        <v>0001</v>
+        <v>0000</v>
       </c>
       <c r="AA17" s="21" t="str">
         <f t="shared" si="6"/>
@@ -3149,19 +3230,19 @@
       </c>
       <c r="AB17" s="21" t="str">
         <f t="shared" si="7"/>
-        <v>0101</v>
+        <v>0001</v>
       </c>
       <c r="AC17" s="21" t="str">
         <f t="shared" si="8"/>
-        <v>0000</v>
+        <v>1000</v>
       </c>
       <c r="AD17" s="21" t="str">
         <f t="shared" si="9"/>
-        <v>0011</v>
+        <v>0000</v>
       </c>
       <c r="AF17" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W17,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AG17" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X17,'HEX GEN BACKEND'!L:L,0))</f>
@@ -3169,11 +3250,11 @@
       </c>
       <c r="AH17" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y17,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AI17" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z17,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA17,'HEX GEN BACKEND'!L:L,0))</f>
@@ -3181,19 +3262,19 @@
       </c>
       <c r="AK17" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB17,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AL17" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC17,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AM17" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD17,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>36010503</v>
+        <v>56400180</v>
       </c>
     </row>
     <row r="18" spans="1:41" x14ac:dyDescent="0.25">
@@ -3204,129 +3285,129 @@
         <v>16</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>1</v>
+        <v>181</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>186</v>
+        <v>76</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>187</v>
+        <v>86</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H18" s="18" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I18" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J18" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>56472883</v>
+        <v>2A050901</v>
       </c>
       <c r="M18" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C18,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>1010</v>
+        <v>0101</v>
       </c>
       <c r="N18" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D18,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D18,'HEX GEN BACKEND'!G:G,0)),D18)</f>
-        <v>0010001</v>
+        <v>0000001</v>
       </c>
       <c r="O18" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E18,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>11</v>
+        <v>01</v>
       </c>
       <c r="P18" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F18,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F18,'HEX GEN BACKEND'!H:H,0)),F18)</f>
-        <v>0010100</v>
+        <v>0000100</v>
       </c>
       <c r="Q18" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G18,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>11</v>
+        <v>01</v>
       </c>
       <c r="R18" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H18,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H18,'HEX GEN BACKEND'!I:I,0)),H18)</f>
-        <v>0000011</v>
+        <v>0000001</v>
       </c>
       <c r="S18" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I18,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>01</v>
+        <v>10</v>
       </c>
       <c r="U18" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>01010110010001110010100010000011</v>
+        <v>00101010000001010000100100000001</v>
       </c>
       <c r="W18" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>0101</v>
+        <v>0010</v>
       </c>
       <c r="X18" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>0110</v>
+        <v>1010</v>
       </c>
       <c r="Y18" s="21" t="str">
         <f t="shared" si="4"/>
-        <v>0100</v>
+        <v>0000</v>
       </c>
       <c r="Z18" s="21" t="str">
         <f t="shared" si="5"/>
-        <v>0111</v>
+        <v>0101</v>
       </c>
       <c r="AA18" s="21" t="str">
         <f t="shared" si="6"/>
-        <v>0010</v>
+        <v>0000</v>
       </c>
       <c r="AB18" s="21" t="str">
         <f t="shared" si="7"/>
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="AC18" s="21" t="str">
         <f t="shared" si="8"/>
-        <v>1000</v>
+        <v>0000</v>
       </c>
       <c r="AD18" s="21" t="str">
         <f t="shared" si="9"/>
-        <v>0011</v>
+        <v>0001</v>
       </c>
       <c r="AF18" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W18,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AG18" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X18,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>6</v>
+        <v>A</v>
       </c>
       <c r="AH18" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y18,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AI18" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z18,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AJ18" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA18,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK18" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB18,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL18" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC18,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AM18" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD18,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AO18" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>56472883</v>
+        <v>2A050901</v>
       </c>
     </row>
     <row r="19" spans="1:41" x14ac:dyDescent="0.25">
@@ -3337,77 +3418,77 @@
         <v>16</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>1</v>
+        <v>177</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>165</v>
+        <v>76</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H19" s="18" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="I19" s="19" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J19" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>56130180</v>
+        <v>0A050902</v>
       </c>
       <c r="M19" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C19,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>1010</v>
+        <v>0001</v>
       </c>
       <c r="N19" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D19,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D19,'HEX GEN BACKEND'!G:G,0)),D19)</f>
-        <v>0000100</v>
+        <v>0000001</v>
       </c>
       <c r="O19" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E19,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>11</v>
+        <v>01</v>
       </c>
       <c r="P19" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F19,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F19,'HEX GEN BACKEND'!H:H,0)),F19)</f>
-        <v>0000000</v>
+        <v>0000100</v>
       </c>
       <c r="Q19" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G19,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>11</v>
+        <v>01</v>
       </c>
       <c r="R19" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H19,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H19,'HEX GEN BACKEND'!I:I,0)),H19)</f>
-        <v>0000000</v>
+        <v>0000010</v>
       </c>
       <c r="S19" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I19,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U19" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>01010110000100110000000110000000</v>
+        <v>00001010000001010000100100000010</v>
       </c>
       <c r="W19" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>0101</v>
+        <v>0000</v>
       </c>
       <c r="X19" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>0110</v>
+        <v>1010</v>
       </c>
       <c r="Y19" s="21" t="str">
         <f t="shared" si="4"/>
-        <v>0001</v>
+        <v>0000</v>
       </c>
       <c r="Z19" s="21" t="str">
         <f t="shared" si="5"/>
-        <v>0011</v>
+        <v>0101</v>
       </c>
       <c r="AA19" s="21" t="str">
         <f t="shared" si="6"/>
@@ -3415,31 +3496,31 @@
       </c>
       <c r="AB19" s="21" t="str">
         <f t="shared" si="7"/>
-        <v>0001</v>
+        <v>1001</v>
       </c>
       <c r="AC19" s="21" t="str">
         <f t="shared" si="8"/>
-        <v>1000</v>
+        <v>0000</v>
       </c>
       <c r="AD19" s="21" t="str">
         <f t="shared" si="9"/>
-        <v>0000</v>
+        <v>0010</v>
       </c>
       <c r="AF19" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W19,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AG19" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X19,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>6</v>
+        <v>A</v>
       </c>
       <c r="AH19" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y19,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI19" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z19,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AJ19" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA19,'HEX GEN BACKEND'!L:L,0))</f>
@@ -3447,19 +3528,19 @@
       </c>
       <c r="AK19" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB19,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AL19" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC19,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AM19" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD19,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO19" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>56130180</v>
+        <v>0A050902</v>
       </c>
     </row>
     <row r="20" spans="1:41" x14ac:dyDescent="0.25">
@@ -3467,16 +3548,16 @@
         <v>55</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F20" s="16" t="s">
         <v>98</v>
@@ -3485,26 +3566,26 @@
         <v>98</v>
       </c>
       <c r="H20" s="18" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="I20" s="19" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="J20" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>E2080000</v>
+        <v>4C040081</v>
       </c>
       <c r="M20" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C20,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>1100</v>
+        <v>1001</v>
       </c>
       <c r="N20" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D20,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D20,'HEX GEN BACKEND'!G:G,0)),D20)</f>
-        <v>0000010</v>
+        <v>0000001</v>
       </c>
       <c r="O20" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E20,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>01</v>
+        <v>10</v>
       </c>
       <c r="P20" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F20,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F20,'HEX GEN BACKEND'!H:H,0)),F20)</f>
@@ -3516,23 +3597,23 @@
       </c>
       <c r="R20" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H20,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H20,'HEX GEN BACKEND'!I:I,0)),H20)</f>
-        <v>0000000</v>
+        <v>0000001</v>
       </c>
       <c r="S20" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I20,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>00</v>
+        <v>01</v>
       </c>
       <c r="U20" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>11100010000010000000000000000000</v>
+        <v>01001100000001000000000010000001</v>
       </c>
       <c r="W20" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>1110</v>
+        <v>0100</v>
       </c>
       <c r="X20" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>0010</v>
+        <v>1100</v>
       </c>
       <c r="Y20" s="21" t="str">
         <f t="shared" si="4"/>
@@ -3540,7 +3621,7 @@
       </c>
       <c r="Z20" s="21" t="str">
         <f t="shared" si="5"/>
-        <v>1000</v>
+        <v>0100</v>
       </c>
       <c r="AA20" s="21" t="str">
         <f t="shared" si="6"/>
@@ -3552,19 +3633,19 @@
       </c>
       <c r="AC20" s="21" t="str">
         <f t="shared" si="8"/>
-        <v>0000</v>
+        <v>1000</v>
       </c>
       <c r="AD20" s="21" t="str">
         <f t="shared" si="9"/>
-        <v>0000</v>
+        <v>0001</v>
       </c>
       <c r="AF20" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W20,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>E</v>
+        <v>4</v>
       </c>
       <c r="AG20" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X20,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
+        <v>C</v>
       </c>
       <c r="AH20" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y20,'HEX GEN BACKEND'!L:L,0))</f>
@@ -3572,7 +3653,7 @@
       </c>
       <c r="AI20" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z20,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AJ20" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA20,'HEX GEN BACKEND'!L:L,0))</f>
@@ -3584,15 +3665,15 @@
       </c>
       <c r="AL20" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC20,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AM20" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD20,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO20" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>E2080000</v>
+        <v>4C040081</v>
       </c>
     </row>
     <row r="21" spans="1:41" x14ac:dyDescent="0.25">
@@ -3600,72 +3681,72 @@
         <v>56</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="E21" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="H21" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="I21" s="19" t="s">
         <v>68</v>
-      </c>
-      <c r="F21" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="G21" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="H21" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="I21" s="19" t="s">
-        <v>98</v>
       </c>
       <c r="J21" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>E2040000</v>
+        <v>48020882</v>
       </c>
       <c r="M21" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C21,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>1100</v>
+        <v>1001</v>
       </c>
       <c r="N21" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D21,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D21,'HEX GEN BACKEND'!G:G,0)),D21)</f>
-        <v>0000001</v>
+        <v>0000000</v>
       </c>
       <c r="O21" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E21,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>01</v>
+        <v>00</v>
       </c>
       <c r="P21" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F21,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F21,'HEX GEN BACKEND'!H:H,0)),F21)</f>
-        <v>0000000</v>
+        <v>0000100</v>
       </c>
       <c r="Q21" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G21,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>00</v>
+        <v>10</v>
       </c>
       <c r="R21" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H21,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H21,'HEX GEN BACKEND'!I:I,0)),H21)</f>
-        <v>0000000</v>
+        <v>0000010</v>
       </c>
       <c r="S21" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I21,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>00</v>
+        <v>01</v>
       </c>
       <c r="U21" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>11100010000001000000000000000000</v>
+        <v>01001000000000100000100010000010</v>
       </c>
       <c r="W21" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>1110</v>
+        <v>0100</v>
       </c>
       <c r="X21" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>0010</v>
+        <v>1000</v>
       </c>
       <c r="Y21" s="21" t="str">
         <f t="shared" si="4"/>
@@ -3673,7 +3754,7 @@
       </c>
       <c r="Z21" s="21" t="str">
         <f t="shared" si="5"/>
-        <v>0100</v>
+        <v>0010</v>
       </c>
       <c r="AA21" s="21" t="str">
         <f t="shared" si="6"/>
@@ -3681,23 +3762,23 @@
       </c>
       <c r="AB21" s="21" t="str">
         <f t="shared" si="7"/>
-        <v>0000</v>
+        <v>1000</v>
       </c>
       <c r="AC21" s="21" t="str">
         <f t="shared" si="8"/>
-        <v>0000</v>
+        <v>1000</v>
       </c>
       <c r="AD21" s="21" t="str">
         <f t="shared" si="9"/>
-        <v>0000</v>
+        <v>0010</v>
       </c>
       <c r="AF21" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W21,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>E</v>
+        <v>4</v>
       </c>
       <c r="AG21" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X21,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AH21" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y21,'HEX GEN BACKEND'!L:L,0))</f>
@@ -3705,7 +3786,7 @@
       </c>
       <c r="AI21" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z21,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ21" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA21,'HEX GEN BACKEND'!L:L,0))</f>
@@ -3713,19 +3794,19 @@
       </c>
       <c r="AK21" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB21,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AL21" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC21,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AM21" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD21,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO21" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>E2040000</v>
+        <v>48020882</v>
       </c>
     </row>
     <row r="22" spans="1:41" x14ac:dyDescent="0.25">
@@ -3733,48 +3814,48 @@
         <v>57</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>2</v>
+        <v>183</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G22" s="17" t="s">
         <v>68</v>
       </c>
       <c r="H22" s="18" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="I22" s="19" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="J22" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>E2050200</v>
+        <v>38010902</v>
       </c>
       <c r="M22" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C22,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>1100</v>
+        <v>0111</v>
       </c>
       <c r="N22" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D22,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D22,'HEX GEN BACKEND'!G:G,0)),D22)</f>
-        <v>0000001</v>
+        <v>0000000</v>
       </c>
       <c r="O22" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E22,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>01</v>
+        <v>00</v>
       </c>
       <c r="P22" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F22,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F22,'HEX GEN BACKEND'!H:H,0)),F22)</f>
-        <v>0000001</v>
+        <v>0000100</v>
       </c>
       <c r="Q22" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G22,'HEX GEN BACKEND'!D:D,0))</f>
@@ -3782,23 +3863,23 @@
       </c>
       <c r="R22" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H22,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H22,'HEX GEN BACKEND'!I:I,0)),H22)</f>
-        <v>0000000</v>
+        <v>0000010</v>
       </c>
       <c r="S22" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I22,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>00</v>
+        <v>10</v>
       </c>
       <c r="U22" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>11100010000001010000001000000000</v>
+        <v>00111000000000010000100100000010</v>
       </c>
       <c r="W22" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>1110</v>
+        <v>0011</v>
       </c>
       <c r="X22" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>0010</v>
+        <v>1000</v>
       </c>
       <c r="Y22" s="21" t="str">
         <f t="shared" si="4"/>
@@ -3806,7 +3887,7 @@
       </c>
       <c r="Z22" s="21" t="str">
         <f t="shared" si="5"/>
-        <v>0101</v>
+        <v>0001</v>
       </c>
       <c r="AA22" s="21" t="str">
         <f t="shared" si="6"/>
@@ -3814,7 +3895,7 @@
       </c>
       <c r="AB22" s="21" t="str">
         <f t="shared" si="7"/>
-        <v>0010</v>
+        <v>1001</v>
       </c>
       <c r="AC22" s="21" t="str">
         <f t="shared" si="8"/>
@@ -3822,15 +3903,15 @@
       </c>
       <c r="AD22" s="21" t="str">
         <f t="shared" si="9"/>
-        <v>0000</v>
+        <v>0010</v>
       </c>
       <c r="AF22" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W22,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>E</v>
+        <v>3</v>
       </c>
       <c r="AG22" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X22,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AH22" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y22,'HEX GEN BACKEND'!L:L,0))</f>
@@ -3838,7 +3919,7 @@
       </c>
       <c r="AI22" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z22,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AJ22" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA22,'HEX GEN BACKEND'!L:L,0))</f>
@@ -3846,7 +3927,7 @@
       </c>
       <c r="AK22" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB22,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AL22" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC22,'HEX GEN BACKEND'!L:L,0))</f>
@@ -3854,11 +3935,11 @@
       </c>
       <c r="AM22" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD22,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO22" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>E2050200</v>
+        <v>38010902</v>
       </c>
     </row>
     <row r="23" spans="1:41" x14ac:dyDescent="0.25">
@@ -3868,116 +3949,130 @@
       <c r="B23" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="13" t="e">
+      <c r="C23" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="G23" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="H23" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="I23" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="J23" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M23" s="21" t="e">
+        <v>48020882</v>
+      </c>
+      <c r="M23" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C23,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N23" s="21">
+        <v>1001</v>
+      </c>
+      <c r="N23" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D23,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D23,'HEX GEN BACKEND'!G:G,0)),D23)</f>
-        <v>0</v>
-      </c>
-      <c r="O23" s="21" t="e">
+        <v>0000000</v>
+      </c>
+      <c r="O23" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E23,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P23" s="21">
+        <v>00</v>
+      </c>
+      <c r="P23" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F23,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F23,'HEX GEN BACKEND'!H:H,0)),F23)</f>
-        <v>0</v>
-      </c>
-      <c r="Q23" s="21" t="e">
+        <v>0000100</v>
+      </c>
+      <c r="Q23" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G23,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R23" s="21">
+        <v>10</v>
+      </c>
+      <c r="R23" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H23,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H23,'HEX GEN BACKEND'!I:I,0)),H23)</f>
-        <v>0</v>
-      </c>
-      <c r="S23" s="21" t="e">
+        <v>0000010</v>
+      </c>
+      <c r="S23" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I23,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U23" s="21" t="e">
+        <v>01</v>
+      </c>
+      <c r="U23" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W23" s="21" t="e">
+        <v>01001000000000100000100010000010</v>
+      </c>
+      <c r="W23" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X23" s="21" t="e">
+        <v>0100</v>
+      </c>
+      <c r="X23" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y23" s="21" t="e">
+        <v>1000</v>
+      </c>
+      <c r="Y23" s="21" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z23" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="Z23" s="21" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA23" s="21" t="e">
+        <v>0010</v>
+      </c>
+      <c r="AA23" s="21" t="str">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB23" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AB23" s="21" t="str">
         <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC23" s="21" t="e">
+        <v>1000</v>
+      </c>
+      <c r="AC23" s="21" t="str">
         <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AD23" s="21" t="e">
+        <v>1000</v>
+      </c>
+      <c r="AD23" s="21" t="str">
         <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AF23" s="21" t="e">
+        <v>0010</v>
+      </c>
+      <c r="AF23" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W23,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG23" s="21" t="e">
+        <v>4</v>
+      </c>
+      <c r="AG23" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X23,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH23" s="21" t="e">
+        <v>8</v>
+      </c>
+      <c r="AH23" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y23,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI23" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AI23" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z23,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ23" s="21" t="e">
+        <v>2</v>
+      </c>
+      <c r="AJ23" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA23,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK23" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AK23" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB23,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL23" s="21" t="e">
+        <v>8</v>
+      </c>
+      <c r="AL23" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC23,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM23" s="21" t="e">
+        <v>8</v>
+      </c>
+      <c r="AM23" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD23,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO23" s="21" t="e">
+        <v>2</v>
+      </c>
+      <c r="AO23" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>48020882</v>
       </c>
     </row>
     <row r="24" spans="1:41" x14ac:dyDescent="0.25">
@@ -3987,116 +4082,130 @@
       <c r="B24" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="13" t="e">
+      <c r="C24" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="H24" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="I24" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="J24" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M24" s="21" t="e">
+        <v>36010901</v>
+      </c>
+      <c r="M24" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C24,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N24" s="21">
+        <v>0110</v>
+      </c>
+      <c r="N24" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D24,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D24,'HEX GEN BACKEND'!G:G,0)),D24)</f>
-        <v>0</v>
-      </c>
-      <c r="O24" s="21" t="e">
+        <v>0000000</v>
+      </c>
+      <c r="O24" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E24,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P24" s="21">
+        <v>11</v>
+      </c>
+      <c r="P24" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F24,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F24,'HEX GEN BACKEND'!H:H,0)),F24)</f>
-        <v>0</v>
-      </c>
-      <c r="Q24" s="21" t="e">
+        <v>0000100</v>
+      </c>
+      <c r="Q24" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G24,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R24" s="21">
+        <v>01</v>
+      </c>
+      <c r="R24" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H24,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H24,'HEX GEN BACKEND'!I:I,0)),H24)</f>
-        <v>0</v>
-      </c>
-      <c r="S24" s="21" t="e">
+        <v>0000001</v>
+      </c>
+      <c r="S24" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I24,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U24" s="21" t="e">
+        <v>10</v>
+      </c>
+      <c r="U24" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W24" s="21" t="e">
+        <v>00110110000000010000100100000001</v>
+      </c>
+      <c r="W24" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X24" s="21" t="e">
+        <v>0011</v>
+      </c>
+      <c r="X24" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y24" s="21" t="e">
+        <v>0110</v>
+      </c>
+      <c r="Y24" s="21" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z24" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="Z24" s="21" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA24" s="21" t="e">
+        <v>0001</v>
+      </c>
+      <c r="AA24" s="21" t="str">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB24" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AB24" s="21" t="str">
         <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC24" s="21" t="e">
+        <v>1001</v>
+      </c>
+      <c r="AC24" s="21" t="str">
         <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AD24" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AD24" s="21" t="str">
         <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AF24" s="21" t="e">
+        <v>0001</v>
+      </c>
+      <c r="AF24" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W24,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG24" s="21" t="e">
+        <v>3</v>
+      </c>
+      <c r="AG24" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X24,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH24" s="21" t="e">
+        <v>6</v>
+      </c>
+      <c r="AH24" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y24,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI24" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AI24" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z24,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ24" s="21" t="e">
+        <v>1</v>
+      </c>
+      <c r="AJ24" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA24,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK24" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AK24" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB24,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL24" s="21" t="e">
+        <v>9</v>
+      </c>
+      <c r="AL24" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC24,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM24" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AM24" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD24,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO24" s="21" t="e">
+        <v>1</v>
+      </c>
+      <c r="AO24" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>36010901</v>
       </c>
     </row>
     <row r="25" spans="1:41" x14ac:dyDescent="0.25">
@@ -4106,116 +4215,130 @@
       <c r="B25" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="13" t="e">
+      <c r="C25" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="G25" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="H25" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="I25" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="J25" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M25" s="21" t="e">
+        <v>56433081</v>
+      </c>
+      <c r="M25" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C25,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N25" s="21">
+        <v>1010</v>
+      </c>
+      <c r="N25" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D25,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D25,'HEX GEN BACKEND'!G:G,0)),D25)</f>
-        <v>0</v>
-      </c>
-      <c r="O25" s="21" t="e">
+        <v>0010000</v>
+      </c>
+      <c r="O25" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E25,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P25" s="21">
+        <v>11</v>
+      </c>
+      <c r="P25" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F25,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F25,'HEX GEN BACKEND'!H:H,0)),F25)</f>
-        <v>0</v>
-      </c>
-      <c r="Q25" s="21" t="e">
+        <v>0011000</v>
+      </c>
+      <c r="Q25" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G25,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R25" s="21">
+        <v>11</v>
+      </c>
+      <c r="R25" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H25,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H25,'HEX GEN BACKEND'!I:I,0)),H25)</f>
-        <v>0</v>
-      </c>
-      <c r="S25" s="21" t="e">
+        <v>0000001</v>
+      </c>
+      <c r="S25" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I25,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U25" s="21" t="e">
+        <v>01</v>
+      </c>
+      <c r="U25" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W25" s="21" t="e">
+        <v>01010110010000110011000010000001</v>
+      </c>
+      <c r="W25" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X25" s="21" t="e">
+        <v>0101</v>
+      </c>
+      <c r="X25" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y25" s="21" t="e">
+        <v>0110</v>
+      </c>
+      <c r="Y25" s="21" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z25" s="21" t="e">
+        <v>0100</v>
+      </c>
+      <c r="Z25" s="21" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA25" s="21" t="e">
+        <v>0011</v>
+      </c>
+      <c r="AA25" s="21" t="str">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB25" s="21" t="e">
+        <v>0011</v>
+      </c>
+      <c r="AB25" s="21" t="str">
         <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC25" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AC25" s="21" t="str">
         <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AD25" s="21" t="e">
+        <v>1000</v>
+      </c>
+      <c r="AD25" s="21" t="str">
         <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AF25" s="21" t="e">
+        <v>0001</v>
+      </c>
+      <c r="AF25" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W25,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG25" s="21" t="e">
+        <v>5</v>
+      </c>
+      <c r="AG25" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X25,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH25" s="21" t="e">
+        <v>6</v>
+      </c>
+      <c r="AH25" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y25,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI25" s="21" t="e">
+        <v>4</v>
+      </c>
+      <c r="AI25" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z25,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ25" s="21" t="e">
+        <v>3</v>
+      </c>
+      <c r="AJ25" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA25,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK25" s="21" t="e">
+        <v>3</v>
+      </c>
+      <c r="AK25" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB25,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL25" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AL25" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC25,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM25" s="21" t="e">
+        <v>8</v>
+      </c>
+      <c r="AM25" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD25,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO25" s="21" t="e">
+        <v>1</v>
+      </c>
+      <c r="AO25" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>56433081</v>
       </c>
     </row>
     <row r="26" spans="1:41" x14ac:dyDescent="0.25">
@@ -4223,118 +4346,132 @@
         <v>61</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="13" t="e">
+        <v>17</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="G26" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="H26" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="I26" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="J26" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M26" s="21" t="e">
+        <v>E2040000</v>
+      </c>
+      <c r="M26" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C26,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N26" s="21">
+        <v>1100</v>
+      </c>
+      <c r="N26" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D26,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D26,'HEX GEN BACKEND'!G:G,0)),D26)</f>
-        <v>0</v>
-      </c>
-      <c r="O26" s="21" t="e">
+        <v>0000001</v>
+      </c>
+      <c r="O26" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E26,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P26" s="21">
+        <v>01</v>
+      </c>
+      <c r="P26" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F26,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F26,'HEX GEN BACKEND'!H:H,0)),F26)</f>
-        <v>0</v>
-      </c>
-      <c r="Q26" s="21" t="e">
+        <v>0000000</v>
+      </c>
+      <c r="Q26" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G26,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R26" s="21">
+        <v>00</v>
+      </c>
+      <c r="R26" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H26,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H26,'HEX GEN BACKEND'!I:I,0)),H26)</f>
-        <v>0</v>
-      </c>
-      <c r="S26" s="21" t="e">
+        <v>0000000</v>
+      </c>
+      <c r="S26" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I26,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U26" s="21" t="e">
+        <v>00</v>
+      </c>
+      <c r="U26" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W26" s="21" t="e">
+        <v>11100010000001000000000000000000</v>
+      </c>
+      <c r="W26" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X26" s="21" t="e">
+        <v>1110</v>
+      </c>
+      <c r="X26" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y26" s="21" t="e">
+        <v>0010</v>
+      </c>
+      <c r="Y26" s="21" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z26" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="Z26" s="21" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA26" s="21" t="e">
+        <v>0100</v>
+      </c>
+      <c r="AA26" s="21" t="str">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB26" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AB26" s="21" t="str">
         <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC26" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AC26" s="21" t="str">
         <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AD26" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AD26" s="21" t="str">
         <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AF26" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AF26" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W26,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG26" s="21" t="e">
+        <v>E</v>
+      </c>
+      <c r="AG26" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X26,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH26" s="21" t="e">
+        <v>2</v>
+      </c>
+      <c r="AH26" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y26,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI26" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AI26" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z26,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ26" s="21" t="e">
+        <v>4</v>
+      </c>
+      <c r="AJ26" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA26,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK26" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AK26" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB26,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL26" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AL26" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC26,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM26" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AM26" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD26,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO26" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AO26" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>E2040000</v>
       </c>
     </row>
     <row r="27" spans="1:41" x14ac:dyDescent="0.25">
@@ -13120,13 +13257,21 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B101">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",B2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C101">
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="STEP">
+      <formula>NOT(ISERROR(SEARCH("STEP",C2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="STEP">
+      <formula>NOT(ISERROR(SEARCH("STEP",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/INSTRUCTIONS/Binary Instructions.xlsx
+++ b/INSTRUCTIONS/Binary Instructions.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="187">
   <si>
     <t>0001</t>
   </si>
@@ -704,17 +704,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -722,66 +712,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1094,7 +1024,7 @@
   <dimension ref="A1:AO101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="J1" sqref="J1:J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4481,116 +4411,130 @@
       <c r="B27" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="13" t="e">
+      <c r="C27" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="G27" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="H27" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="I27" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="J27" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M27" s="21" t="e">
+        <v>38010701</v>
+      </c>
+      <c r="M27" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C27,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N27" s="21">
+        <v>0111</v>
+      </c>
+      <c r="N27" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D27,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D27,'HEX GEN BACKEND'!G:G,0)),D27)</f>
-        <v>0</v>
-      </c>
-      <c r="O27" s="21" t="e">
+        <v>0000000</v>
+      </c>
+      <c r="O27" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E27,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P27" s="21">
+        <v>00</v>
+      </c>
+      <c r="P27" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F27,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F27,'HEX GEN BACKEND'!H:H,0)),F27)</f>
-        <v>0</v>
-      </c>
-      <c r="Q27" s="21" t="e">
+        <v>0000011</v>
+      </c>
+      <c r="Q27" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G27,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R27" s="21">
+        <v>01</v>
+      </c>
+      <c r="R27" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H27,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H27,'HEX GEN BACKEND'!I:I,0)),H27)</f>
-        <v>0</v>
-      </c>
-      <c r="S27" s="21" t="e">
+        <v>0000001</v>
+      </c>
+      <c r="S27" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I27,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U27" s="21" t="e">
+        <v>10</v>
+      </c>
+      <c r="U27" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W27" s="21" t="e">
+        <v>00111000000000010000011100000001</v>
+      </c>
+      <c r="W27" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X27" s="21" t="e">
+        <v>0011</v>
+      </c>
+      <c r="X27" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y27" s="21" t="e">
+        <v>1000</v>
+      </c>
+      <c r="Y27" s="21" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z27" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="Z27" s="21" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA27" s="21" t="e">
+        <v>0001</v>
+      </c>
+      <c r="AA27" s="21" t="str">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB27" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AB27" s="21" t="str">
         <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC27" s="21" t="e">
+        <v>0111</v>
+      </c>
+      <c r="AC27" s="21" t="str">
         <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AD27" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AD27" s="21" t="str">
         <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AF27" s="21" t="e">
+        <v>0001</v>
+      </c>
+      <c r="AF27" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W27,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG27" s="21" t="e">
+        <v>3</v>
+      </c>
+      <c r="AG27" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X27,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH27" s="21" t="e">
+        <v>8</v>
+      </c>
+      <c r="AH27" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y27,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI27" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AI27" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z27,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ27" s="21" t="e">
+        <v>1</v>
+      </c>
+      <c r="AJ27" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA27,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK27" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AK27" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB27,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL27" s="21" t="e">
+        <v>7</v>
+      </c>
+      <c r="AL27" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC27,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM27" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AM27" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD27,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO27" s="21" t="e">
+        <v>1</v>
+      </c>
+      <c r="AO27" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>38010701</v>
       </c>
     </row>
     <row r="28" spans="1:41" x14ac:dyDescent="0.25">
@@ -4600,116 +4544,130 @@
       <c r="B28" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="13" t="e">
+      <c r="C28" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="F28" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="G28" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="H28" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="I28" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="J28" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M28" s="21" t="e">
+        <v>48020681</v>
+      </c>
+      <c r="M28" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C28,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N28" s="21">
+        <v>1001</v>
+      </c>
+      <c r="N28" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D28,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D28,'HEX GEN BACKEND'!G:G,0)),D28)</f>
-        <v>0</v>
-      </c>
-      <c r="O28" s="21" t="e">
+        <v>0000000</v>
+      </c>
+      <c r="O28" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E28,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P28" s="21">
+        <v>00</v>
+      </c>
+      <c r="P28" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F28,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F28,'HEX GEN BACKEND'!H:H,0)),F28)</f>
-        <v>0</v>
-      </c>
-      <c r="Q28" s="21" t="e">
+        <v>0000011</v>
+      </c>
+      <c r="Q28" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G28,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R28" s="21">
+        <v>10</v>
+      </c>
+      <c r="R28" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H28,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H28,'HEX GEN BACKEND'!I:I,0)),H28)</f>
-        <v>0</v>
-      </c>
-      <c r="S28" s="21" t="e">
+        <v>0000001</v>
+      </c>
+      <c r="S28" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I28,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U28" s="21" t="e">
+        <v>01</v>
+      </c>
+      <c r="U28" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W28" s="21" t="e">
+        <v>01001000000000100000011010000001</v>
+      </c>
+      <c r="W28" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X28" s="21" t="e">
+        <v>0100</v>
+      </c>
+      <c r="X28" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y28" s="21" t="e">
+        <v>1000</v>
+      </c>
+      <c r="Y28" s="21" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z28" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="Z28" s="21" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA28" s="21" t="e">
+        <v>0010</v>
+      </c>
+      <c r="AA28" s="21" t="str">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB28" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AB28" s="21" t="str">
         <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC28" s="21" t="e">
+        <v>0110</v>
+      </c>
+      <c r="AC28" s="21" t="str">
         <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AD28" s="21" t="e">
+        <v>1000</v>
+      </c>
+      <c r="AD28" s="21" t="str">
         <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AF28" s="21" t="e">
+        <v>0001</v>
+      </c>
+      <c r="AF28" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W28,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG28" s="21" t="e">
+        <v>4</v>
+      </c>
+      <c r="AG28" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X28,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH28" s="21" t="e">
+        <v>8</v>
+      </c>
+      <c r="AH28" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y28,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI28" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AI28" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z28,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ28" s="21" t="e">
+        <v>2</v>
+      </c>
+      <c r="AJ28" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA28,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK28" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AK28" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB28,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL28" s="21" t="e">
+        <v>6</v>
+      </c>
+      <c r="AL28" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC28,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM28" s="21" t="e">
+        <v>8</v>
+      </c>
+      <c r="AM28" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD28,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO28" s="21" t="e">
+        <v>1</v>
+      </c>
+      <c r="AO28" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>48020681</v>
       </c>
     </row>
     <row r="29" spans="1:41" x14ac:dyDescent="0.25">
@@ -4719,116 +4677,130 @@
       <c r="B29" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="23"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="13" t="e">
+      <c r="C29" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="F29" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="G29" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="H29" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="I29" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="J29" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M29" s="21" t="e">
+        <v>56140180</v>
+      </c>
+      <c r="M29" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C29,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N29" s="21">
+        <v>1010</v>
+      </c>
+      <c r="N29" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D29,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D29,'HEX GEN BACKEND'!G:G,0)),D29)</f>
-        <v>0</v>
-      </c>
-      <c r="O29" s="21" t="e">
+        <v>0000101</v>
+      </c>
+      <c r="O29" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E29,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P29" s="21">
+        <v>11</v>
+      </c>
+      <c r="P29" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F29,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F29,'HEX GEN BACKEND'!H:H,0)),F29)</f>
-        <v>0</v>
-      </c>
-      <c r="Q29" s="21" t="e">
+        <v>0000000</v>
+      </c>
+      <c r="Q29" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G29,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R29" s="21">
+        <v>00</v>
+      </c>
+      <c r="R29" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H29,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H29,'HEX GEN BACKEND'!I:I,0)),H29)</f>
-        <v>0</v>
-      </c>
-      <c r="S29" s="21" t="e">
+        <v>0000000</v>
+      </c>
+      <c r="S29" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I29,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U29" s="21" t="e">
+        <v>11</v>
+      </c>
+      <c r="U29" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W29" s="21" t="e">
+        <v>01010110000101000000000110000000</v>
+      </c>
+      <c r="W29" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X29" s="21" t="e">
+        <v>0101</v>
+      </c>
+      <c r="X29" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y29" s="21" t="e">
+        <v>0110</v>
+      </c>
+      <c r="Y29" s="21" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z29" s="21" t="e">
+        <v>0001</v>
+      </c>
+      <c r="Z29" s="21" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA29" s="21" t="e">
+        <v>0100</v>
+      </c>
+      <c r="AA29" s="21" t="str">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB29" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AB29" s="21" t="str">
         <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC29" s="21" t="e">
+        <v>0001</v>
+      </c>
+      <c r="AC29" s="21" t="str">
         <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AD29" s="21" t="e">
+        <v>1000</v>
+      </c>
+      <c r="AD29" s="21" t="str">
         <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AF29" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AF29" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W29,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG29" s="21" t="e">
+        <v>5</v>
+      </c>
+      <c r="AG29" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X29,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH29" s="21" t="e">
+        <v>6</v>
+      </c>
+      <c r="AH29" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y29,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI29" s="21" t="e">
+        <v>1</v>
+      </c>
+      <c r="AI29" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z29,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ29" s="21" t="e">
+        <v>4</v>
+      </c>
+      <c r="AJ29" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA29,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK29" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AK29" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB29,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL29" s="21" t="e">
+        <v>1</v>
+      </c>
+      <c r="AL29" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC29,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM29" s="21" t="e">
+        <v>8</v>
+      </c>
+      <c r="AM29" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD29,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO29" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AO29" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>56140180</v>
       </c>
     </row>
     <row r="30" spans="1:41" x14ac:dyDescent="0.25">
@@ -13257,20 +13229,20 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B101">
-    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",B2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C101">
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="STEP">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="STEP">
       <formula>NOT(ISERROR(SEARCH("STEP",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="STEP">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="STEP">
       <formula>NOT(ISERROR(SEARCH("STEP",C2)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/INSTRUCTIONS/Binary Instructions.xlsx
+++ b/INSTRUCTIONS/Binary Instructions.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="188">
   <si>
     <t>0001</t>
   </si>
@@ -586,6 +586,9 @@
   </si>
   <si>
     <t>0011000</t>
+  </si>
+  <si>
+    <t>0011101</t>
   </si>
 </sst>
 </file>
@@ -1024,7 +1027,7 @@
   <dimension ref="A1:AO101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J29"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4276,10 +4279,10 @@
         <v>61</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>2</v>
+        <v>98</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>76</v>
@@ -4301,11 +4304,11 @@
       </c>
       <c r="J26" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>E2040000</v>
+        <v>02040000</v>
       </c>
       <c r="M26" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C26,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>1100</v>
+        <v>0000</v>
       </c>
       <c r="N26" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D26,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D26,'HEX GEN BACKEND'!G:G,0)),D26)</f>
@@ -4333,11 +4336,11 @@
       </c>
       <c r="U26" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>11100010000001000000000000000000</v>
+        <v>00000010000001000000000000000000</v>
       </c>
       <c r="W26" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>1110</v>
+        <v>0000</v>
       </c>
       <c r="X26" s="21" t="str">
         <f t="shared" si="3"/>
@@ -4369,7 +4372,7 @@
       </c>
       <c r="AF26" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W26,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>E</v>
+        <v>0</v>
       </c>
       <c r="AG26" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X26,'HEX GEN BACKEND'!L:L,0))</f>
@@ -4401,7 +4404,7 @@
       </c>
       <c r="AO26" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>E2040000</v>
+        <v>02040000</v>
       </c>
     </row>
     <row r="27" spans="1:41" x14ac:dyDescent="0.25">
@@ -4678,41 +4681,41 @@
         <v>16</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>1</v>
+        <v>182</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>166</v>
+        <v>77</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F29" s="16" t="s">
         <v>98</v>
       </c>
       <c r="G29" s="17" t="s">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="H29" s="18" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="I29" s="19" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J29" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>56140180</v>
+        <v>320B0101</v>
       </c>
       <c r="M29" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C29,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>1010</v>
+        <v>0110</v>
       </c>
       <c r="N29" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D29,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D29,'HEX GEN BACKEND'!G:G,0)),D29)</f>
-        <v>0000101</v>
+        <v>0000010</v>
       </c>
       <c r="O29" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E29,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>11</v>
+        <v>01</v>
       </c>
       <c r="P29" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F29,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F29,'HEX GEN BACKEND'!H:H,0)),F29)</f>
@@ -4720,35 +4723,35 @@
       </c>
       <c r="Q29" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G29,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>00</v>
+        <v>11</v>
       </c>
       <c r="R29" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H29,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H29,'HEX GEN BACKEND'!I:I,0)),H29)</f>
-        <v>0000000</v>
+        <v>0000001</v>
       </c>
       <c r="S29" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I29,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U29" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>01010110000101000000000110000000</v>
+        <v>00110010000010110000000100000001</v>
       </c>
       <c r="W29" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>0101</v>
+        <v>0011</v>
       </c>
       <c r="X29" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>0110</v>
+        <v>0010</v>
       </c>
       <c r="Y29" s="21" t="str">
         <f t="shared" si="4"/>
-        <v>0001</v>
+        <v>0000</v>
       </c>
       <c r="Z29" s="21" t="str">
         <f t="shared" si="5"/>
-        <v>0100</v>
+        <v>1011</v>
       </c>
       <c r="AA29" s="21" t="str">
         <f t="shared" si="6"/>
@@ -4760,27 +4763,27 @@
       </c>
       <c r="AC29" s="21" t="str">
         <f t="shared" si="8"/>
-        <v>1000</v>
+        <v>0000</v>
       </c>
       <c r="AD29" s="21" t="str">
         <f t="shared" si="9"/>
-        <v>0000</v>
+        <v>0001</v>
       </c>
       <c r="AF29" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W29,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AG29" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X29,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AH29" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y29,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI29" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z29,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
+        <v>B</v>
       </c>
       <c r="AJ29" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA29,'HEX GEN BACKEND'!L:L,0))</f>
@@ -4792,15 +4795,15 @@
       </c>
       <c r="AL29" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC29,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AM29" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD29,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO29" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>56140180</v>
+        <v>320B0101</v>
       </c>
     </row>
     <row r="30" spans="1:41" x14ac:dyDescent="0.25">
@@ -4810,116 +4813,130 @@
       <c r="B30" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="13" t="e">
+      <c r="C30" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="G30" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="H30" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="I30" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="J30" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M30" s="21" t="e">
+        <v>56173A81</v>
+      </c>
+      <c r="M30" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C30,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N30" s="21">
+        <v>1010</v>
+      </c>
+      <c r="N30" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D30,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D30,'HEX GEN BACKEND'!G:G,0)),D30)</f>
-        <v>0</v>
-      </c>
-      <c r="O30" s="21" t="e">
+        <v>0000101</v>
+      </c>
+      <c r="O30" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E30,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P30" s="21">
+        <v>11</v>
+      </c>
+      <c r="P30" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F30,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F30,'HEX GEN BACKEND'!H:H,0)),F30)</f>
-        <v>0</v>
-      </c>
-      <c r="Q30" s="21" t="e">
+        <v>0011101</v>
+      </c>
+      <c r="Q30" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G30,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R30" s="21">
+        <v>11</v>
+      </c>
+      <c r="R30" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H30,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H30,'HEX GEN BACKEND'!I:I,0)),H30)</f>
-        <v>0</v>
-      </c>
-      <c r="S30" s="21" t="e">
+        <v>0000001</v>
+      </c>
+      <c r="S30" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I30,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U30" s="21" t="e">
+        <v>01</v>
+      </c>
+      <c r="U30" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W30" s="21" t="e">
+        <v>01010110000101110011101010000001</v>
+      </c>
+      <c r="W30" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X30" s="21" t="e">
+        <v>0101</v>
+      </c>
+      <c r="X30" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y30" s="21" t="e">
+        <v>0110</v>
+      </c>
+      <c r="Y30" s="21" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z30" s="21" t="e">
+        <v>0001</v>
+      </c>
+      <c r="Z30" s="21" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA30" s="21" t="e">
+        <v>0111</v>
+      </c>
+      <c r="AA30" s="21" t="str">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB30" s="21" t="e">
+        <v>0011</v>
+      </c>
+      <c r="AB30" s="21" t="str">
         <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC30" s="21" t="e">
+        <v>1010</v>
+      </c>
+      <c r="AC30" s="21" t="str">
         <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AD30" s="21" t="e">
+        <v>1000</v>
+      </c>
+      <c r="AD30" s="21" t="str">
         <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AF30" s="21" t="e">
+        <v>0001</v>
+      </c>
+      <c r="AF30" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W30,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG30" s="21" t="e">
+        <v>5</v>
+      </c>
+      <c r="AG30" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X30,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH30" s="21" t="e">
+        <v>6</v>
+      </c>
+      <c r="AH30" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y30,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI30" s="21" t="e">
+        <v>1</v>
+      </c>
+      <c r="AI30" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z30,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ30" s="21" t="e">
+        <v>7</v>
+      </c>
+      <c r="AJ30" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA30,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK30" s="21" t="e">
+        <v>3</v>
+      </c>
+      <c r="AK30" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB30,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL30" s="21" t="e">
+        <v>A</v>
+      </c>
+      <c r="AL30" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC30,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM30" s="21" t="e">
+        <v>8</v>
+      </c>
+      <c r="AM30" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD30,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO30" s="21" t="e">
+        <v>1</v>
+      </c>
+      <c r="AO30" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>56173A81</v>
       </c>
     </row>
     <row r="31" spans="1:41" x14ac:dyDescent="0.25">
@@ -4927,118 +4944,132 @@
         <v>66</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="13" t="e">
+        <v>17</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="G31" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="H31" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="I31" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="J31" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M31" s="21" t="e">
+        <v>E2040000</v>
+      </c>
+      <c r="M31" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C31,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N31" s="21">
+        <v>1100</v>
+      </c>
+      <c r="N31" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D31,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D31,'HEX GEN BACKEND'!G:G,0)),D31)</f>
-        <v>0</v>
-      </c>
-      <c r="O31" s="21" t="e">
+        <v>0000001</v>
+      </c>
+      <c r="O31" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E31,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P31" s="21">
+        <v>01</v>
+      </c>
+      <c r="P31" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F31,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F31,'HEX GEN BACKEND'!H:H,0)),F31)</f>
-        <v>0</v>
-      </c>
-      <c r="Q31" s="21" t="e">
+        <v>0000000</v>
+      </c>
+      <c r="Q31" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G31,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R31" s="21">
+        <v>00</v>
+      </c>
+      <c r="R31" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H31,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H31,'HEX GEN BACKEND'!I:I,0)),H31)</f>
-        <v>0</v>
-      </c>
-      <c r="S31" s="21" t="e">
+        <v>0000000</v>
+      </c>
+      <c r="S31" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I31,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U31" s="21" t="e">
+        <v>00</v>
+      </c>
+      <c r="U31" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W31" s="21" t="e">
+        <v>11100010000001000000000000000000</v>
+      </c>
+      <c r="W31" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X31" s="21" t="e">
+        <v>1110</v>
+      </c>
+      <c r="X31" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y31" s="21" t="e">
+        <v>0010</v>
+      </c>
+      <c r="Y31" s="21" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z31" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="Z31" s="21" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA31" s="21" t="e">
+        <v>0100</v>
+      </c>
+      <c r="AA31" s="21" t="str">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB31" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AB31" s="21" t="str">
         <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC31" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AC31" s="21" t="str">
         <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AD31" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AD31" s="21" t="str">
         <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AF31" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AF31" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W31,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG31" s="21" t="e">
+        <v>E</v>
+      </c>
+      <c r="AG31" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X31,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH31" s="21" t="e">
+        <v>2</v>
+      </c>
+      <c r="AH31" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y31,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI31" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AI31" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z31,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ31" s="21" t="e">
+        <v>4</v>
+      </c>
+      <c r="AJ31" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA31,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK31" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AK31" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB31,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL31" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AL31" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC31,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM31" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AM31" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD31,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO31" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AO31" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>E2040000</v>
       </c>
     </row>
     <row r="32" spans="1:41" x14ac:dyDescent="0.25">

--- a/INSTRUCTIONS/Binary Instructions.xlsx
+++ b/INSTRUCTIONS/Binary Instructions.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="187">
   <si>
     <t>0001</t>
   </si>
@@ -585,10 +585,7 @@
     <t>0010000</t>
   </si>
   <si>
-    <t>0011000</t>
-  </si>
-  <si>
-    <t>0011101</t>
+    <t>1000000</t>
   </si>
 </sst>
 </file>
@@ -1027,7 +1024,7 @@
   <dimension ref="A1:AO101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="J1" sqref="J1:J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1223,7 +1220,7 @@
         <v>16</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>76</v>
@@ -1232,10 +1229,10 @@
         <v>67</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>83</v>
+        <v>172</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H3" s="18" t="s">
         <v>98</v>
@@ -1245,11 +1242,11 @@
       </c>
       <c r="J3" s="13" t="str">
         <f t="shared" ref="J3:J32" si="0">AO3</f>
-        <v>5C060200</v>
+        <v>4C071600</v>
       </c>
       <c r="M3" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C3,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>1011</v>
+        <v>1001</v>
       </c>
       <c r="N3" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D3,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D3,'HEX GEN BACKEND'!G:G,0)),D3)</f>
@@ -1261,11 +1258,11 @@
       </c>
       <c r="P3" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F3,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F3,'HEX GEN BACKEND'!H:H,0)),F3)</f>
-        <v>0000001</v>
+        <v>0001011</v>
       </c>
       <c r="Q3" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G3,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="R3" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H3,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H3,'HEX GEN BACKEND'!I:I,0)),H3)</f>
@@ -1277,11 +1274,11 @@
       </c>
       <c r="U3" s="21" t="str">
         <f t="shared" ref="U3:U66" si="1">B3&amp;M3&amp;O3&amp;N3&amp;Q3&amp;P3&amp;S3&amp;R3</f>
-        <v>01011100000001100000001000000000</v>
+        <v>01001100000001110001011000000000</v>
       </c>
       <c r="W3" s="21" t="str">
         <f t="shared" ref="W3:W32" si="2">MID(U3,1,4)</f>
-        <v>0101</v>
+        <v>0100</v>
       </c>
       <c r="X3" s="21" t="str">
         <f t="shared" ref="X3:X32" si="3">MID(U3,5,4)</f>
@@ -1293,15 +1290,15 @@
       </c>
       <c r="Z3" s="21" t="str">
         <f t="shared" ref="Z3:Z32" si="5">MID(U3,13,4)</f>
-        <v>0110</v>
+        <v>0111</v>
       </c>
       <c r="AA3" s="21" t="str">
         <f t="shared" ref="AA3:AA32" si="6">MID(U3,17,4)</f>
-        <v>0000</v>
+        <v>0001</v>
       </c>
       <c r="AB3" s="21" t="str">
         <f t="shared" ref="AB3:AB32" si="7">MID(U3,21,4)</f>
-        <v>0010</v>
+        <v>0110</v>
       </c>
       <c r="AC3" s="21" t="str">
         <f t="shared" ref="AC3:AC32" si="8">MID(U3,25,4)</f>
@@ -1313,7 +1310,7 @@
       </c>
       <c r="AF3" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W3,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AG3" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X3,'HEX GEN BACKEND'!L:L,0))</f>
@@ -1325,15 +1322,15 @@
       </c>
       <c r="AI3" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z3,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AJ3" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA3,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK3" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB3,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AL3" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC3,'HEX GEN BACKEND'!L:L,0))</f>
@@ -1345,7 +1342,7 @@
       </c>
       <c r="AO3" s="21" t="str">
         <f t="shared" ref="AO3:AO66" si="10">AF3&amp;AG3&amp;AH3&amp;AI3&amp;AJ3&amp;AK3&amp;AL3&amp;AM3</f>
-        <v>5C060200</v>
+        <v>4C071600</v>
       </c>
     </row>
     <row r="4" spans="1:41" x14ac:dyDescent="0.25">
@@ -1359,16 +1356,16 @@
         <v>3</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>77</v>
+        <v>186</v>
       </c>
       <c r="E4" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="G4" s="17" t="s">
         <v>67</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>69</v>
       </c>
       <c r="H4" s="18" t="s">
         <v>98</v>
@@ -1378,7 +1375,7 @@
       </c>
       <c r="J4" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>4C0B0200</v>
+        <v>4F020400</v>
       </c>
       <c r="M4" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C4,'HEX GEN BACKEND'!A:A,0))</f>
@@ -1386,19 +1383,19 @@
       </c>
       <c r="N4" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D4,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D4,'HEX GEN BACKEND'!G:G,0)),D4)</f>
-        <v>0000010</v>
+        <v>1000000</v>
       </c>
       <c r="O4" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E4,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P4" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F4,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F4,'HEX GEN BACKEND'!H:H,0)),F4)</f>
-        <v>0000001</v>
+        <v>0000010</v>
       </c>
       <c r="Q4" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G4,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R4" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H4,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H4,'HEX GEN BACKEND'!I:I,0)),H4)</f>
@@ -1410,7 +1407,7 @@
       </c>
       <c r="U4" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>01001100000010110000001000000000</v>
+        <v>01001111000000100000010000000000</v>
       </c>
       <c r="W4" s="21" t="str">
         <f t="shared" si="2"/>
@@ -1418,7 +1415,7 @@
       </c>
       <c r="X4" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>1100</v>
+        <v>1111</v>
       </c>
       <c r="Y4" s="21" t="str">
         <f t="shared" si="4"/>
@@ -1426,7 +1423,7 @@
       </c>
       <c r="Z4" s="21" t="str">
         <f t="shared" si="5"/>
-        <v>1011</v>
+        <v>0010</v>
       </c>
       <c r="AA4" s="21" t="str">
         <f t="shared" si="6"/>
@@ -1434,7 +1431,7 @@
       </c>
       <c r="AB4" s="21" t="str">
         <f t="shared" si="7"/>
-        <v>0010</v>
+        <v>0100</v>
       </c>
       <c r="AC4" s="21" t="str">
         <f t="shared" si="8"/>
@@ -1450,7 +1447,7 @@
       </c>
       <c r="AG4" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X4,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>C</v>
+        <v>F</v>
       </c>
       <c r="AH4" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y4,'HEX GEN BACKEND'!L:L,0))</f>
@@ -1458,7 +1455,7 @@
       </c>
       <c r="AI4" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z4,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>B</v>
+        <v>2</v>
       </c>
       <c r="AJ4" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA4,'HEX GEN BACKEND'!L:L,0))</f>
@@ -1466,7 +1463,7 @@
       </c>
       <c r="AK4" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB4,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AL4" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC4,'HEX GEN BACKEND'!L:L,0))</f>
@@ -1478,7 +1475,7 @@
       </c>
       <c r="AO4" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>4C0B0200</v>
+        <v>4F020400</v>
       </c>
     </row>
     <row r="5" spans="1:41" x14ac:dyDescent="0.25">
@@ -1489,7 +1486,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>3</v>
+        <v>177</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>76</v>
@@ -1498,24 +1495,24 @@
         <v>68</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G5" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="I5" s="19" t="s">
         <v>67</v>
-      </c>
-      <c r="H5" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="I5" s="19" t="s">
-        <v>98</v>
       </c>
       <c r="J5" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>4A060600</v>
+        <v>0A050501</v>
       </c>
       <c r="M5" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C5,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>1001</v>
+        <v>0001</v>
       </c>
       <c r="N5" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D5,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D5,'HEX GEN BACKEND'!G:G,0)),D5)</f>
@@ -1527,27 +1524,27 @@
       </c>
       <c r="P5" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F5,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F5,'HEX GEN BACKEND'!H:H,0)),F5)</f>
-        <v>0000011</v>
+        <v>0000010</v>
       </c>
       <c r="Q5" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G5,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>10</v>
+        <v>01</v>
       </c>
       <c r="R5" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H5,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H5,'HEX GEN BACKEND'!I:I,0)),H5)</f>
-        <v>0000000</v>
+        <v>0000001</v>
       </c>
       <c r="S5" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I5,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>00</v>
+        <v>10</v>
       </c>
       <c r="U5" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>01001010000001100000011000000000</v>
+        <v>00001010000001010000010100000001</v>
       </c>
       <c r="W5" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>0100</v>
+        <v>0000</v>
       </c>
       <c r="X5" s="21" t="str">
         <f t="shared" si="3"/>
@@ -1559,7 +1556,7 @@
       </c>
       <c r="Z5" s="21" t="str">
         <f t="shared" si="5"/>
-        <v>0110</v>
+        <v>0101</v>
       </c>
       <c r="AA5" s="21" t="str">
         <f t="shared" si="6"/>
@@ -1567,7 +1564,7 @@
       </c>
       <c r="AB5" s="21" t="str">
         <f t="shared" si="7"/>
-        <v>0110</v>
+        <v>0101</v>
       </c>
       <c r="AC5" s="21" t="str">
         <f t="shared" si="8"/>
@@ -1575,11 +1572,11 @@
       </c>
       <c r="AD5" s="21" t="str">
         <f t="shared" si="9"/>
-        <v>0000</v>
+        <v>0001</v>
       </c>
       <c r="AF5" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W5,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AG5" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X5,'HEX GEN BACKEND'!L:L,0))</f>
@@ -1591,7 +1588,7 @@
       </c>
       <c r="AI5" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z5,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AJ5" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA5,'HEX GEN BACKEND'!L:L,0))</f>
@@ -1599,7 +1596,7 @@
       </c>
       <c r="AK5" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB5,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AL5" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC5,'HEX GEN BACKEND'!L:L,0))</f>
@@ -1607,11 +1604,11 @@
       </c>
       <c r="AM5" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD5,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO5" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>4A060600</v>
+        <v>0A050501</v>
       </c>
     </row>
     <row r="6" spans="1:41" x14ac:dyDescent="0.25">
@@ -1625,7 +1622,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E6" s="15" t="s">
         <v>67</v>
@@ -1634,17 +1631,17 @@
         <v>98</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="I6" s="19" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="J6" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>4C070000</v>
+        <v>4C080081</v>
       </c>
       <c r="M6" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C6,'HEX GEN BACKEND'!A:A,0))</f>
@@ -1652,7 +1649,7 @@
       </c>
       <c r="N6" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D6,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D6,'HEX GEN BACKEND'!G:G,0)),D6)</f>
-        <v>0000001</v>
+        <v>0000010</v>
       </c>
       <c r="O6" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E6,'HEX GEN BACKEND'!D:D,0))</f>
@@ -1664,19 +1661,19 @@
       </c>
       <c r="Q6" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G6,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>11</v>
+        <v>00</v>
       </c>
       <c r="R6" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H6,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H6,'HEX GEN BACKEND'!I:I,0)),H6)</f>
-        <v>0000000</v>
+        <v>0000001</v>
       </c>
       <c r="S6" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I6,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>00</v>
+        <v>01</v>
       </c>
       <c r="U6" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>01001100000001110000000000000000</v>
+        <v>01001100000010000000000010000001</v>
       </c>
       <c r="W6" s="21" t="str">
         <f t="shared" si="2"/>
@@ -1692,7 +1689,7 @@
       </c>
       <c r="Z6" s="21" t="str">
         <f t="shared" si="5"/>
-        <v>0111</v>
+        <v>1000</v>
       </c>
       <c r="AA6" s="21" t="str">
         <f t="shared" si="6"/>
@@ -1704,11 +1701,11 @@
       </c>
       <c r="AC6" s="21" t="str">
         <f t="shared" si="8"/>
-        <v>0000</v>
+        <v>1000</v>
       </c>
       <c r="AD6" s="21" t="str">
         <f t="shared" si="9"/>
-        <v>0000</v>
+        <v>0001</v>
       </c>
       <c r="AF6" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W6,'HEX GEN BACKEND'!L:L,0))</f>
@@ -1724,7 +1721,7 @@
       </c>
       <c r="AI6" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z6,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ6" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA6,'HEX GEN BACKEND'!L:L,0))</f>
@@ -1736,15 +1733,15 @@
       </c>
       <c r="AL6" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC6,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AM6" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD6,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO6" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>4C070000</v>
+        <v>4C080081</v>
       </c>
     </row>
     <row r="7" spans="1:41" x14ac:dyDescent="0.25">
@@ -1755,7 +1752,7 @@
         <v>16</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>77</v>
@@ -1764,7 +1761,7 @@
         <v>68</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G7" s="17" t="s">
         <v>68</v>
@@ -1777,11 +1774,11 @@
       </c>
       <c r="J7" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>0A090301</v>
+        <v>32090501</v>
       </c>
       <c r="M7" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C7,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>0001</v>
+        <v>0110</v>
       </c>
       <c r="N7" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D7,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D7,'HEX GEN BACKEND'!G:G,0)),D7)</f>
@@ -1793,7 +1790,7 @@
       </c>
       <c r="P7" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F7,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F7,'HEX GEN BACKEND'!H:H,0)),F7)</f>
-        <v>0000001</v>
+        <v>0000010</v>
       </c>
       <c r="Q7" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G7,'HEX GEN BACKEND'!D:D,0))</f>
@@ -1809,15 +1806,15 @@
       </c>
       <c r="U7" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>00001010000010010000001100000001</v>
+        <v>00110010000010010000010100000001</v>
       </c>
       <c r="W7" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>0000</v>
+        <v>0011</v>
       </c>
       <c r="X7" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>1010</v>
+        <v>0010</v>
       </c>
       <c r="Y7" s="21" t="str">
         <f t="shared" si="4"/>
@@ -1833,7 +1830,7 @@
       </c>
       <c r="AB7" s="21" t="str">
         <f t="shared" si="7"/>
-        <v>0011</v>
+        <v>0101</v>
       </c>
       <c r="AC7" s="21" t="str">
         <f t="shared" si="8"/>
@@ -1845,11 +1842,11 @@
       </c>
       <c r="AF7" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W7,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AG7" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X7,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>A</v>
+        <v>2</v>
       </c>
       <c r="AH7" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y7,'HEX GEN BACKEND'!L:L,0))</f>
@@ -1865,7 +1862,7 @@
       </c>
       <c r="AK7" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB7,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AL7" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC7,'HEX GEN BACKEND'!L:L,0))</f>
@@ -1877,7 +1874,7 @@
       </c>
       <c r="AO7" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>0A090301</v>
+        <v>32090501</v>
       </c>
     </row>
     <row r="8" spans="1:41" x14ac:dyDescent="0.25">
@@ -1888,19 +1885,19 @@
         <v>16</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>98</v>
+        <v>170</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>84</v>
+        <v>168</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H8" s="18" t="s">
         <v>90</v>
@@ -1910,27 +1907,27 @@
       </c>
       <c r="J8" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>48020481</v>
+        <v>56270E81</v>
       </c>
       <c r="M8" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C8,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>1001</v>
+        <v>1010</v>
       </c>
       <c r="N8" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D8,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D8,'HEX GEN BACKEND'!G:G,0)),D8)</f>
-        <v>0000000</v>
+        <v>0001001</v>
       </c>
       <c r="O8" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E8,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>00</v>
+        <v>11</v>
       </c>
       <c r="P8" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F8,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F8,'HEX GEN BACKEND'!H:H,0)),F8)</f>
-        <v>0000010</v>
+        <v>0000111</v>
       </c>
       <c r="Q8" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G8,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="R8" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H8,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H8,'HEX GEN BACKEND'!I:I,0)),H8)</f>
@@ -1942,23 +1939,23 @@
       </c>
       <c r="U8" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>01001000000000100000010010000001</v>
+        <v>01010110001001110000111010000001</v>
       </c>
       <c r="W8" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>0100</v>
+        <v>0101</v>
       </c>
       <c r="X8" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>1000</v>
+        <v>0110</v>
       </c>
       <c r="Y8" s="21" t="str">
         <f t="shared" si="4"/>
-        <v>0000</v>
+        <v>0010</v>
       </c>
       <c r="Z8" s="21" t="str">
         <f t="shared" si="5"/>
-        <v>0010</v>
+        <v>0111</v>
       </c>
       <c r="AA8" s="21" t="str">
         <f t="shared" si="6"/>
@@ -1966,7 +1963,7 @@
       </c>
       <c r="AB8" s="21" t="str">
         <f t="shared" si="7"/>
-        <v>0100</v>
+        <v>1110</v>
       </c>
       <c r="AC8" s="21" t="str">
         <f t="shared" si="8"/>
@@ -1978,19 +1975,19 @@
       </c>
       <c r="AF8" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W8,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG8" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X8,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AH8" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y8,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI8" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z8,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AJ8" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA8,'HEX GEN BACKEND'!L:L,0))</f>
@@ -1998,7 +1995,7 @@
       </c>
       <c r="AK8" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB8,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
+        <v>E</v>
       </c>
       <c r="AL8" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC8,'HEX GEN BACKEND'!L:L,0))</f>
@@ -2010,7 +2007,7 @@
       </c>
       <c r="AO8" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>48020481</v>
+        <v>56270E81</v>
       </c>
     </row>
     <row r="9" spans="1:41" x14ac:dyDescent="0.25">
@@ -2021,19 +2018,19 @@
         <v>16</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E9" s="15" t="s">
         <v>68</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>84</v>
+        <v>162</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H9" s="18" t="s">
         <v>90</v>
@@ -2043,15 +2040,15 @@
       </c>
       <c r="J9" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>32090501</v>
+        <v>120F0301</v>
       </c>
       <c r="M9" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C9,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>0110</v>
+        <v>0010</v>
       </c>
       <c r="N9" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D9,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D9,'HEX GEN BACKEND'!G:G,0)),D9)</f>
-        <v>0000010</v>
+        <v>0000011</v>
       </c>
       <c r="O9" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E9,'HEX GEN BACKEND'!D:D,0))</f>
@@ -2059,11 +2056,11 @@
       </c>
       <c r="P9" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F9,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F9,'HEX GEN BACKEND'!H:H,0)),F9)</f>
-        <v>0000010</v>
+        <v>0000001</v>
       </c>
       <c r="Q9" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G9,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>01</v>
+        <v>11</v>
       </c>
       <c r="R9" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H9,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H9,'HEX GEN BACKEND'!I:I,0)),H9)</f>
@@ -2075,11 +2072,11 @@
       </c>
       <c r="U9" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>00110010000010010000010100000001</v>
+        <v>00010010000011110000001100000001</v>
       </c>
       <c r="W9" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>0011</v>
+        <v>0001</v>
       </c>
       <c r="X9" s="21" t="str">
         <f t="shared" si="3"/>
@@ -2091,7 +2088,7 @@
       </c>
       <c r="Z9" s="21" t="str">
         <f t="shared" si="5"/>
-        <v>1001</v>
+        <v>1111</v>
       </c>
       <c r="AA9" s="21" t="str">
         <f t="shared" si="6"/>
@@ -2099,7 +2096,7 @@
       </c>
       <c r="AB9" s="21" t="str">
         <f t="shared" si="7"/>
-        <v>0101</v>
+        <v>0011</v>
       </c>
       <c r="AC9" s="21" t="str">
         <f t="shared" si="8"/>
@@ -2111,7 +2108,7 @@
       </c>
       <c r="AF9" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W9,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AG9" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X9,'HEX GEN BACKEND'!L:L,0))</f>
@@ -2123,7 +2120,7 @@
       </c>
       <c r="AI9" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z9,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>9</v>
+        <v>F</v>
       </c>
       <c r="AJ9" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA9,'HEX GEN BACKEND'!L:L,0))</f>
@@ -2131,7 +2128,7 @@
       </c>
       <c r="AK9" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB9,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AL9" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC9,'HEX GEN BACKEND'!L:L,0))</f>
@@ -2143,7 +2140,7 @@
       </c>
       <c r="AO9" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>32090501</v>
+        <v>120F0301</v>
       </c>
     </row>
     <row r="10" spans="1:41" x14ac:dyDescent="0.25">
@@ -2154,13 +2151,13 @@
         <v>16</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>183</v>
+        <v>3</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F10" s="16" t="s">
         <v>98</v>
@@ -2169,26 +2166,26 @@
         <v>98</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I10" s="19" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J10" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>3A080102</v>
+        <v>4C0C0081</v>
       </c>
       <c r="M10" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C10,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>0111</v>
+        <v>1001</v>
       </c>
       <c r="N10" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D10,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D10,'HEX GEN BACKEND'!G:G,0)),D10)</f>
-        <v>0000010</v>
+        <v>0000011</v>
       </c>
       <c r="O10" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E10,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>01</v>
+        <v>10</v>
       </c>
       <c r="P10" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F10,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F10,'HEX GEN BACKEND'!H:H,0)),F10)</f>
@@ -2200,23 +2197,23 @@
       </c>
       <c r="R10" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H10,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H10,'HEX GEN BACKEND'!I:I,0)),H10)</f>
-        <v>0000010</v>
+        <v>0000001</v>
       </c>
       <c r="S10" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I10,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>10</v>
+        <v>01</v>
       </c>
       <c r="U10" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>00111010000010000000000100000010</v>
+        <v>01001100000011000000000010000001</v>
       </c>
       <c r="W10" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>0011</v>
+        <v>0100</v>
       </c>
       <c r="X10" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>1010</v>
+        <v>1100</v>
       </c>
       <c r="Y10" s="21" t="str">
         <f t="shared" si="4"/>
@@ -2224,7 +2221,7 @@
       </c>
       <c r="Z10" s="21" t="str">
         <f t="shared" si="5"/>
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="AA10" s="21" t="str">
         <f t="shared" si="6"/>
@@ -2232,23 +2229,23 @@
       </c>
       <c r="AB10" s="21" t="str">
         <f t="shared" si="7"/>
-        <v>0001</v>
+        <v>0000</v>
       </c>
       <c r="AC10" s="21" t="str">
         <f t="shared" si="8"/>
-        <v>0000</v>
+        <v>1000</v>
       </c>
       <c r="AD10" s="21" t="str">
         <f t="shared" si="9"/>
-        <v>0010</v>
+        <v>0001</v>
       </c>
       <c r="AF10" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W10,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG10" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X10,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>A</v>
+        <v>C</v>
       </c>
       <c r="AH10" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y10,'HEX GEN BACKEND'!L:L,0))</f>
@@ -2256,7 +2253,7 @@
       </c>
       <c r="AI10" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z10,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
+        <v>C</v>
       </c>
       <c r="AJ10" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA10,'HEX GEN BACKEND'!L:L,0))</f>
@@ -2264,19 +2261,19 @@
       </c>
       <c r="AK10" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB10,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL10" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC10,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AM10" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD10,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO10" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>3A080102</v>
+        <v>4C0C0081</v>
       </c>
     </row>
     <row r="11" spans="1:41" x14ac:dyDescent="0.25">
@@ -2284,16 +2281,16 @@
         <v>46</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F11" s="16" t="s">
         <v>98</v>
@@ -2302,26 +2299,26 @@
         <v>98</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="I11" s="19" t="s">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="J11" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>4C080082</v>
+        <v>E20C0000</v>
       </c>
       <c r="M11" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C11,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>1001</v>
+        <v>1100</v>
       </c>
       <c r="N11" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D11,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D11,'HEX GEN BACKEND'!G:G,0)),D11)</f>
-        <v>0000010</v>
+        <v>0000011</v>
       </c>
       <c r="O11" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E11,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>10</v>
+        <v>01</v>
       </c>
       <c r="P11" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F11,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F11,'HEX GEN BACKEND'!H:H,0)),F11)</f>
@@ -2333,23 +2330,23 @@
       </c>
       <c r="R11" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H11,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H11,'HEX GEN BACKEND'!I:I,0)),H11)</f>
-        <v>0000010</v>
+        <v>0000000</v>
       </c>
       <c r="S11" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I11,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>01</v>
+        <v>00</v>
       </c>
       <c r="U11" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>01001100000010000000000010000010</v>
+        <v>11100010000011000000000000000000</v>
       </c>
       <c r="W11" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>0100</v>
+        <v>1110</v>
       </c>
       <c r="X11" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>1100</v>
+        <v>0010</v>
       </c>
       <c r="Y11" s="21" t="str">
         <f t="shared" si="4"/>
@@ -2357,7 +2354,7 @@
       </c>
       <c r="Z11" s="21" t="str">
         <f t="shared" si="5"/>
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="AA11" s="21" t="str">
         <f t="shared" si="6"/>
@@ -2369,19 +2366,19 @@
       </c>
       <c r="AC11" s="21" t="str">
         <f t="shared" si="8"/>
-        <v>1000</v>
+        <v>0000</v>
       </c>
       <c r="AD11" s="21" t="str">
         <f t="shared" si="9"/>
-        <v>0010</v>
+        <v>0000</v>
       </c>
       <c r="AF11" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W11,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
+        <v>E</v>
       </c>
       <c r="AG11" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X11,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>C</v>
+        <v>2</v>
       </c>
       <c r="AH11" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y11,'HEX GEN BACKEND'!L:L,0))</f>
@@ -2389,7 +2386,7 @@
       </c>
       <c r="AI11" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z11,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
+        <v>C</v>
       </c>
       <c r="AJ11" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA11,'HEX GEN BACKEND'!L:L,0))</f>
@@ -2401,15 +2398,15 @@
       </c>
       <c r="AL11" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC11,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AM11" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD11,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>4C080082</v>
+        <v>E20C0000</v>
       </c>
     </row>
     <row r="12" spans="1:41" x14ac:dyDescent="0.25">
@@ -2420,49 +2417,49 @@
         <v>16</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>1</v>
+        <v>183</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>175</v>
+        <v>78</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>172</v>
+        <v>98</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="H12" s="18" t="s">
         <v>90</v>
       </c>
       <c r="I12" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J12" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>563B1681</v>
+        <v>3A0C0101</v>
       </c>
       <c r="M12" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C12,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>1010</v>
+        <v>0111</v>
       </c>
       <c r="N12" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D12,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D12,'HEX GEN BACKEND'!G:G,0)),D12)</f>
-        <v>0001110</v>
+        <v>0000011</v>
       </c>
       <c r="O12" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E12,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>11</v>
+        <v>01</v>
       </c>
       <c r="P12" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F12,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F12,'HEX GEN BACKEND'!H:H,0)),F12)</f>
-        <v>0001011</v>
+        <v>0000000</v>
       </c>
       <c r="Q12" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G12,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>11</v>
+        <v>00</v>
       </c>
       <c r="R12" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H12,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H12,'HEX GEN BACKEND'!I:I,0)),H12)</f>
@@ -2470,39 +2467,39 @@
       </c>
       <c r="S12" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I12,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>01</v>
+        <v>10</v>
       </c>
       <c r="U12" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>01010110001110110001011010000001</v>
+        <v>00111010000011000000000100000001</v>
       </c>
       <c r="W12" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>0101</v>
+        <v>0011</v>
       </c>
       <c r="X12" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>0110</v>
+        <v>1010</v>
       </c>
       <c r="Y12" s="21" t="str">
         <f t="shared" si="4"/>
-        <v>0011</v>
+        <v>0000</v>
       </c>
       <c r="Z12" s="21" t="str">
         <f t="shared" si="5"/>
-        <v>1011</v>
+        <v>1100</v>
       </c>
       <c r="AA12" s="21" t="str">
         <f t="shared" si="6"/>
-        <v>0001</v>
+        <v>0000</v>
       </c>
       <c r="AB12" s="21" t="str">
         <f t="shared" si="7"/>
-        <v>0110</v>
+        <v>0001</v>
       </c>
       <c r="AC12" s="21" t="str">
         <f t="shared" si="8"/>
-        <v>1000</v>
+        <v>0000</v>
       </c>
       <c r="AD12" s="21" t="str">
         <f t="shared" si="9"/>
@@ -2510,31 +2507,31 @@
       </c>
       <c r="AF12" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W12,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AG12" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X12,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>6</v>
+        <v>A</v>
       </c>
       <c r="AH12" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y12,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AI12" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z12,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="AJ12" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA12,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK12" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB12,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AL12" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC12,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AM12" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD12,'HEX GEN BACKEND'!L:L,0))</f>
@@ -2542,7 +2539,7 @@
       </c>
       <c r="AO12" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>563B1681</v>
+        <v>3A0C0101</v>
       </c>
     </row>
     <row r="13" spans="1:41" x14ac:dyDescent="0.25">
@@ -2556,26 +2553,26 @@
         <v>3</v>
       </c>
       <c r="D13" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="G13" s="17" t="s">
         <v>98</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="G13" s="17" t="s">
-        <v>68</v>
       </c>
       <c r="H13" s="18" t="s">
         <v>90</v>
       </c>
       <c r="I13" s="19" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J13" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>48010701</v>
+        <v>4C0C0081</v>
       </c>
       <c r="M13" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C13,'HEX GEN BACKEND'!A:A,0))</f>
@@ -2583,19 +2580,19 @@
       </c>
       <c r="N13" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D13,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D13,'HEX GEN BACKEND'!G:G,0)),D13)</f>
-        <v>0000000</v>
+        <v>0000011</v>
       </c>
       <c r="O13" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E13,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>00</v>
+        <v>10</v>
       </c>
       <c r="P13" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F13,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F13,'HEX GEN BACKEND'!H:H,0)),F13)</f>
-        <v>0000011</v>
+        <v>0000000</v>
       </c>
       <c r="Q13" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G13,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>01</v>
+        <v>00</v>
       </c>
       <c r="R13" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H13,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H13,'HEX GEN BACKEND'!I:I,0)),H13)</f>
@@ -2603,11 +2600,11 @@
       </c>
       <c r="S13" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I13,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>10</v>
+        <v>01</v>
       </c>
       <c r="U13" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>01001000000000010000011100000001</v>
+        <v>01001100000011000000000010000001</v>
       </c>
       <c r="W13" s="21" t="str">
         <f t="shared" si="2"/>
@@ -2615,7 +2612,7 @@
       </c>
       <c r="X13" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="Y13" s="21" t="str">
         <f t="shared" si="4"/>
@@ -2623,7 +2620,7 @@
       </c>
       <c r="Z13" s="21" t="str">
         <f t="shared" si="5"/>
-        <v>0001</v>
+        <v>1100</v>
       </c>
       <c r="AA13" s="21" t="str">
         <f t="shared" si="6"/>
@@ -2631,11 +2628,11 @@
       </c>
       <c r="AB13" s="21" t="str">
         <f t="shared" si="7"/>
-        <v>0111</v>
+        <v>0000</v>
       </c>
       <c r="AC13" s="21" t="str">
         <f t="shared" si="8"/>
-        <v>0000</v>
+        <v>1000</v>
       </c>
       <c r="AD13" s="21" t="str">
         <f t="shared" si="9"/>
@@ -2647,7 +2644,7 @@
       </c>
       <c r="AG13" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X13,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
+        <v>C</v>
       </c>
       <c r="AH13" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y13,'HEX GEN BACKEND'!L:L,0))</f>
@@ -2655,7 +2652,7 @@
       </c>
       <c r="AI13" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z13,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>1</v>
+        <v>C</v>
       </c>
       <c r="AJ13" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA13,'HEX GEN BACKEND'!L:L,0))</f>
@@ -2663,11 +2660,11 @@
       </c>
       <c r="AK13" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB13,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AL13" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC13,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AM13" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD13,'HEX GEN BACKEND'!L:L,0))</f>
@@ -2675,7 +2672,7 @@
       </c>
       <c r="AO13" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>48010701</v>
+        <v>4C0C0081</v>
       </c>
     </row>
     <row r="14" spans="1:41" x14ac:dyDescent="0.25">
@@ -2686,7 +2683,7 @@
         <v>16</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>3</v>
+        <v>184</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>98</v>
@@ -2695,24 +2692,24 @@
         <v>98</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H14" s="18" t="s">
         <v>90</v>
       </c>
       <c r="I14" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J14" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>48020881</v>
+        <v>40010501</v>
       </c>
       <c r="M14" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C14,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="N14" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D14,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D14,'HEX GEN BACKEND'!G:G,0)),D14)</f>
@@ -2724,11 +2721,11 @@
       </c>
       <c r="P14" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F14,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F14,'HEX GEN BACKEND'!H:H,0)),F14)</f>
-        <v>0000100</v>
+        <v>0000010</v>
       </c>
       <c r="Q14" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G14,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>10</v>
+        <v>01</v>
       </c>
       <c r="R14" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H14,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H14,'HEX GEN BACKEND'!I:I,0)),H14)</f>
@@ -2736,11 +2733,11 @@
       </c>
       <c r="S14" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I14,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>01</v>
+        <v>10</v>
       </c>
       <c r="U14" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>01001000000000100000100010000001</v>
+        <v>01000000000000010000010100000001</v>
       </c>
       <c r="W14" s="21" t="str">
         <f t="shared" si="2"/>
@@ -2748,7 +2745,7 @@
       </c>
       <c r="X14" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>1000</v>
+        <v>0000</v>
       </c>
       <c r="Y14" s="21" t="str">
         <f t="shared" si="4"/>
@@ -2756,7 +2753,7 @@
       </c>
       <c r="Z14" s="21" t="str">
         <f t="shared" si="5"/>
-        <v>0010</v>
+        <v>0001</v>
       </c>
       <c r="AA14" s="21" t="str">
         <f t="shared" si="6"/>
@@ -2764,11 +2761,11 @@
       </c>
       <c r="AB14" s="21" t="str">
         <f t="shared" si="7"/>
-        <v>1000</v>
+        <v>0101</v>
       </c>
       <c r="AC14" s="21" t="str">
         <f t="shared" si="8"/>
-        <v>1000</v>
+        <v>0000</v>
       </c>
       <c r="AD14" s="21" t="str">
         <f t="shared" si="9"/>
@@ -2780,7 +2777,7 @@
       </c>
       <c r="AG14" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X14,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AH14" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y14,'HEX GEN BACKEND'!L:L,0))</f>
@@ -2788,7 +2785,7 @@
       </c>
       <c r="AI14" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z14,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ14" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA14,'HEX GEN BACKEND'!L:L,0))</f>
@@ -2796,11 +2793,11 @@
       </c>
       <c r="AK14" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB14,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AL14" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC14,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AM14" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD14,'HEX GEN BACKEND'!L:L,0))</f>
@@ -2808,7 +2805,7 @@
       </c>
       <c r="AO14" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>48020881</v>
+        <v>40010501</v>
       </c>
     </row>
     <row r="15" spans="1:41" x14ac:dyDescent="0.25">
@@ -2819,77 +2816,77 @@
         <v>16</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>185</v>
+        <v>98</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="I15" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J15" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>56400180</v>
+        <v>48020481</v>
       </c>
       <c r="M15" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C15,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>1010</v>
+        <v>1001</v>
       </c>
       <c r="N15" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D15,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D15,'HEX GEN BACKEND'!G:G,0)),D15)</f>
-        <v>0010000</v>
+        <v>0000000</v>
       </c>
       <c r="O15" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E15,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>11</v>
+        <v>00</v>
       </c>
       <c r="P15" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F15,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F15,'HEX GEN BACKEND'!H:H,0)),F15)</f>
-        <v>0000000</v>
+        <v>0000010</v>
       </c>
       <c r="Q15" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G15,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>00</v>
+        <v>10</v>
       </c>
       <c r="R15" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H15,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H15,'HEX GEN BACKEND'!I:I,0)),H15)</f>
-        <v>0000000</v>
+        <v>0000001</v>
       </c>
       <c r="S15" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I15,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>11</v>
+        <v>01</v>
       </c>
       <c r="U15" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>01010110010000000000000110000000</v>
+        <v>01001000000000100000010010000001</v>
       </c>
       <c r="W15" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>0101</v>
+        <v>0100</v>
       </c>
       <c r="X15" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>0110</v>
+        <v>1000</v>
       </c>
       <c r="Y15" s="21" t="str">
         <f t="shared" si="4"/>
-        <v>0100</v>
+        <v>0000</v>
       </c>
       <c r="Z15" s="21" t="str">
         <f t="shared" si="5"/>
-        <v>0000</v>
+        <v>0010</v>
       </c>
       <c r="AA15" s="21" t="str">
         <f t="shared" si="6"/>
@@ -2897,7 +2894,7 @@
       </c>
       <c r="AB15" s="21" t="str">
         <f t="shared" si="7"/>
-        <v>0001</v>
+        <v>0100</v>
       </c>
       <c r="AC15" s="21" t="str">
         <f t="shared" si="8"/>
@@ -2905,23 +2902,23 @@
       </c>
       <c r="AD15" s="21" t="str">
         <f t="shared" si="9"/>
-        <v>0000</v>
+        <v>0001</v>
       </c>
       <c r="AF15" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W15,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AG15" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X15,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AH15" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y15,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AI15" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z15,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ15" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA15,'HEX GEN BACKEND'!L:L,0))</f>
@@ -2929,7 +2926,7 @@
       </c>
       <c r="AK15" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB15,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AL15" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC15,'HEX GEN BACKEND'!L:L,0))</f>
@@ -2937,11 +2934,11 @@
       </c>
       <c r="AM15" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD15,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO15" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>56400180</v>
+        <v>48020481</v>
       </c>
     </row>
     <row r="16" spans="1:41" x14ac:dyDescent="0.25">
@@ -2952,33 +2949,33 @@
         <v>16</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>3</v>
+        <v>182</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>98</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G16" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="H16" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="I16" s="19" t="s">
         <v>67</v>
-      </c>
-      <c r="H16" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="I16" s="19" t="s">
-        <v>69</v>
       </c>
       <c r="J16" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>48020980</v>
+        <v>36010501</v>
       </c>
       <c r="M16" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C16,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>1001</v>
+        <v>0110</v>
       </c>
       <c r="N16" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D16,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D16,'HEX GEN BACKEND'!G:G,0)),D16)</f>
@@ -2986,35 +2983,35 @@
       </c>
       <c r="O16" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E16,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>00</v>
+        <v>11</v>
       </c>
       <c r="P16" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F16,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F16,'HEX GEN BACKEND'!H:H,0)),F16)</f>
-        <v>0000100</v>
+        <v>0000010</v>
       </c>
       <c r="Q16" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G16,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>10</v>
+        <v>01</v>
       </c>
       <c r="R16" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H16,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H16,'HEX GEN BACKEND'!I:I,0)),H16)</f>
-        <v>0000000</v>
+        <v>0000001</v>
       </c>
       <c r="S16" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I16,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U16" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>01001000000000100000100110000000</v>
+        <v>00110110000000010000010100000001</v>
       </c>
       <c r="W16" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>0100</v>
+        <v>0011</v>
       </c>
       <c r="X16" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>1000</v>
+        <v>0110</v>
       </c>
       <c r="Y16" s="21" t="str">
         <f t="shared" si="4"/>
@@ -3022,7 +3019,7 @@
       </c>
       <c r="Z16" s="21" t="str">
         <f t="shared" si="5"/>
-        <v>0010</v>
+        <v>0001</v>
       </c>
       <c r="AA16" s="21" t="str">
         <f t="shared" si="6"/>
@@ -3030,23 +3027,23 @@
       </c>
       <c r="AB16" s="21" t="str">
         <f t="shared" si="7"/>
-        <v>1001</v>
+        <v>0101</v>
       </c>
       <c r="AC16" s="21" t="str">
         <f t="shared" si="8"/>
-        <v>1000</v>
+        <v>0000</v>
       </c>
       <c r="AD16" s="21" t="str">
         <f t="shared" si="9"/>
-        <v>0000</v>
+        <v>0001</v>
       </c>
       <c r="AF16" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W16,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG16" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X16,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AH16" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y16,'HEX GEN BACKEND'!L:L,0))</f>
@@ -3054,7 +3051,7 @@
       </c>
       <c r="AI16" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z16,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ16" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA16,'HEX GEN BACKEND'!L:L,0))</f>
@@ -3062,19 +3059,19 @@
       </c>
       <c r="AK16" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB16,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AL16" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC16,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AM16" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD16,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO16" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>48020980</v>
+        <v>36010501</v>
       </c>
     </row>
     <row r="17" spans="1:41" x14ac:dyDescent="0.25">
@@ -3088,26 +3085,26 @@
         <v>1</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="E17" s="15" t="s">
         <v>69</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>98</v>
+        <v>185</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="H17" s="18" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="I17" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J17" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>56400180</v>
+        <v>560F2081</v>
       </c>
       <c r="M17" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C17,'HEX GEN BACKEND'!A:A,0))</f>
@@ -3115,7 +3112,7 @@
       </c>
       <c r="N17" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D17,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D17,'HEX GEN BACKEND'!G:G,0)),D17)</f>
-        <v>0010000</v>
+        <v>0000011</v>
       </c>
       <c r="O17" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E17,'HEX GEN BACKEND'!D:D,0))</f>
@@ -3123,23 +3120,23 @@
       </c>
       <c r="P17" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F17,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F17,'HEX GEN BACKEND'!H:H,0)),F17)</f>
-        <v>0000000</v>
+        <v>0010000</v>
       </c>
       <c r="Q17" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G17,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>00</v>
+        <v>11</v>
       </c>
       <c r="R17" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H17,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H17,'HEX GEN BACKEND'!I:I,0)),H17)</f>
-        <v>0000000</v>
+        <v>0000001</v>
       </c>
       <c r="S17" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I17,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>11</v>
+        <v>01</v>
       </c>
       <c r="U17" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>01010110010000000000000110000000</v>
+        <v>01010110000011110010000010000001</v>
       </c>
       <c r="W17" s="21" t="str">
         <f t="shared" si="2"/>
@@ -3151,19 +3148,19 @@
       </c>
       <c r="Y17" s="21" t="str">
         <f t="shared" si="4"/>
-        <v>0100</v>
+        <v>0000</v>
       </c>
       <c r="Z17" s="21" t="str">
         <f t="shared" si="5"/>
-        <v>0000</v>
+        <v>1111</v>
       </c>
       <c r="AA17" s="21" t="str">
         <f t="shared" si="6"/>
-        <v>0000</v>
+        <v>0010</v>
       </c>
       <c r="AB17" s="21" t="str">
         <f t="shared" si="7"/>
-        <v>0001</v>
+        <v>0000</v>
       </c>
       <c r="AC17" s="21" t="str">
         <f t="shared" si="8"/>
@@ -3171,7 +3168,7 @@
       </c>
       <c r="AD17" s="21" t="str">
         <f t="shared" si="9"/>
-        <v>0000</v>
+        <v>0001</v>
       </c>
       <c r="AF17" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W17,'HEX GEN BACKEND'!L:L,0))</f>
@@ -3183,19 +3180,19 @@
       </c>
       <c r="AH17" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y17,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AI17" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z17,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>F</v>
       </c>
       <c r="AJ17" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA17,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK17" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB17,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL17" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC17,'HEX GEN BACKEND'!L:L,0))</f>
@@ -3203,11 +3200,11 @@
       </c>
       <c r="AM17" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD17,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO17" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>56400180</v>
+        <v>560F2081</v>
       </c>
     </row>
     <row r="18" spans="1:41" x14ac:dyDescent="0.25">
@@ -3215,72 +3212,72 @@
         <v>53</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>181</v>
+        <v>2</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="H18" s="18" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="I18" s="19" t="s">
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="J18" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>2A050901</v>
+        <v>E0000000</v>
       </c>
       <c r="M18" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C18,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>0101</v>
+        <v>1100</v>
       </c>
       <c r="N18" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D18,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D18,'HEX GEN BACKEND'!G:G,0)),D18)</f>
-        <v>0000001</v>
+        <v>0000000</v>
       </c>
       <c r="O18" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E18,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>01</v>
+        <v>00</v>
       </c>
       <c r="P18" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F18,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F18,'HEX GEN BACKEND'!H:H,0)),F18)</f>
-        <v>0000100</v>
+        <v>0000000</v>
       </c>
       <c r="Q18" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G18,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>01</v>
+        <v>00</v>
       </c>
       <c r="R18" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H18,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H18,'HEX GEN BACKEND'!I:I,0)),H18)</f>
-        <v>0000001</v>
+        <v>0000000</v>
       </c>
       <c r="S18" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I18,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>10</v>
+        <v>00</v>
       </c>
       <c r="U18" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>00101010000001010000100100000001</v>
+        <v>11100000000000000000000000000000</v>
       </c>
       <c r="W18" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>0010</v>
+        <v>1110</v>
       </c>
       <c r="X18" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>1010</v>
+        <v>0000</v>
       </c>
       <c r="Y18" s="21" t="str">
         <f t="shared" si="4"/>
@@ -3288,7 +3285,7 @@
       </c>
       <c r="Z18" s="21" t="str">
         <f t="shared" si="5"/>
-        <v>0101</v>
+        <v>0000</v>
       </c>
       <c r="AA18" s="21" t="str">
         <f t="shared" si="6"/>
@@ -3296,7 +3293,7 @@
       </c>
       <c r="AB18" s="21" t="str">
         <f t="shared" si="7"/>
-        <v>1001</v>
+        <v>0000</v>
       </c>
       <c r="AC18" s="21" t="str">
         <f t="shared" si="8"/>
@@ -3304,15 +3301,15 @@
       </c>
       <c r="AD18" s="21" t="str">
         <f t="shared" si="9"/>
-        <v>0001</v>
+        <v>0000</v>
       </c>
       <c r="AF18" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W18,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
+        <v>E</v>
       </c>
       <c r="AG18" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X18,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>A</v>
+        <v>0</v>
       </c>
       <c r="AH18" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y18,'HEX GEN BACKEND'!L:L,0))</f>
@@ -3320,7 +3317,7 @@
       </c>
       <c r="AI18" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z18,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA18,'HEX GEN BACKEND'!L:L,0))</f>
@@ -3328,7 +3325,7 @@
       </c>
       <c r="AK18" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB18,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AL18" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC18,'HEX GEN BACKEND'!L:L,0))</f>
@@ -3336,11 +3333,11 @@
       </c>
       <c r="AM18" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD18,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>2A050901</v>
+        <v>E0000000</v>
       </c>
     </row>
     <row r="19" spans="1:41" x14ac:dyDescent="0.25">
@@ -3350,130 +3347,116 @@
       <c r="B19" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="F19" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="G19" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="H19" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="I19" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="J19" s="13" t="str">
+      <c r="C19" s="13"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="13" t="e">
         <f t="shared" si="0"/>
-        <v>0A050902</v>
-      </c>
-      <c r="M19" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="M19" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C19,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>0001</v>
-      </c>
-      <c r="N19" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="N19" s="21">
         <f>IF(ISNUMBER(MATCH(D19,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D19,'HEX GEN BACKEND'!G:G,0)),D19)</f>
-        <v>0000001</v>
-      </c>
-      <c r="O19" s="21" t="str">
+        <v>0</v>
+      </c>
+      <c r="O19" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E19,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>01</v>
-      </c>
-      <c r="P19" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="P19" s="21">
         <f>IF(ISNUMBER(MATCH(F19,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F19,'HEX GEN BACKEND'!H:H,0)),F19)</f>
-        <v>0000100</v>
-      </c>
-      <c r="Q19" s="21" t="str">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G19,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>01</v>
-      </c>
-      <c r="R19" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="R19" s="21">
         <f>IF(ISNUMBER(MATCH(H19,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H19,'HEX GEN BACKEND'!I:I,0)),H19)</f>
-        <v>0000010</v>
-      </c>
-      <c r="S19" s="21" t="str">
+        <v>0</v>
+      </c>
+      <c r="S19" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I19,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>10</v>
-      </c>
-      <c r="U19" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="U19" s="21" t="e">
         <f t="shared" si="1"/>
-        <v>00001010000001010000100100000010</v>
-      </c>
-      <c r="W19" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="W19" s="21" t="e">
         <f t="shared" si="2"/>
-        <v>0000</v>
-      </c>
-      <c r="X19" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="X19" s="21" t="e">
         <f t="shared" si="3"/>
-        <v>1010</v>
-      </c>
-      <c r="Y19" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Y19" s="21" t="e">
         <f t="shared" si="4"/>
-        <v>0000</v>
-      </c>
-      <c r="Z19" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Z19" s="21" t="e">
         <f t="shared" si="5"/>
-        <v>0101</v>
-      </c>
-      <c r="AA19" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AA19" s="21" t="e">
         <f t="shared" si="6"/>
-        <v>0000</v>
-      </c>
-      <c r="AB19" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AB19" s="21" t="e">
         <f t="shared" si="7"/>
-        <v>1001</v>
-      </c>
-      <c r="AC19" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AC19" s="21" t="e">
         <f t="shared" si="8"/>
-        <v>0000</v>
-      </c>
-      <c r="AD19" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AD19" s="21" t="e">
         <f t="shared" si="9"/>
-        <v>0010</v>
-      </c>
-      <c r="AF19" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AF19" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W19,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AG19" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AG19" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X19,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>A</v>
-      </c>
-      <c r="AH19" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AH19" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y19,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AI19" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AI19" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z19,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>5</v>
-      </c>
-      <c r="AJ19" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ19" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA19,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AK19" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AK19" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB19,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>9</v>
-      </c>
-      <c r="AL19" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AL19" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC19,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AM19" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AM19" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD19,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
-      </c>
-      <c r="AO19" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AO19" s="21" t="e">
         <f t="shared" si="10"/>
-        <v>0A050902</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="20" spans="1:41" x14ac:dyDescent="0.25">
@@ -3483,130 +3466,116 @@
       <c r="B20" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="F20" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="G20" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="H20" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="I20" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="J20" s="13" t="str">
+      <c r="C20" s="13"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="13" t="e">
         <f t="shared" si="0"/>
-        <v>4C040081</v>
-      </c>
-      <c r="M20" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="M20" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C20,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>1001</v>
-      </c>
-      <c r="N20" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="N20" s="21">
         <f>IF(ISNUMBER(MATCH(D20,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D20,'HEX GEN BACKEND'!G:G,0)),D20)</f>
-        <v>0000001</v>
-      </c>
-      <c r="O20" s="21" t="str">
+        <v>0</v>
+      </c>
+      <c r="O20" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E20,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>10</v>
-      </c>
-      <c r="P20" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="P20" s="21">
         <f>IF(ISNUMBER(MATCH(F20,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F20,'HEX GEN BACKEND'!H:H,0)),F20)</f>
-        <v>0000000</v>
-      </c>
-      <c r="Q20" s="21" t="str">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G20,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>00</v>
-      </c>
-      <c r="R20" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="R20" s="21">
         <f>IF(ISNUMBER(MATCH(H20,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H20,'HEX GEN BACKEND'!I:I,0)),H20)</f>
-        <v>0000001</v>
-      </c>
-      <c r="S20" s="21" t="str">
+        <v>0</v>
+      </c>
+      <c r="S20" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I20,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>01</v>
-      </c>
-      <c r="U20" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="U20" s="21" t="e">
         <f t="shared" si="1"/>
-        <v>01001100000001000000000010000001</v>
-      </c>
-      <c r="W20" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="W20" s="21" t="e">
         <f t="shared" si="2"/>
-        <v>0100</v>
-      </c>
-      <c r="X20" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="X20" s="21" t="e">
         <f t="shared" si="3"/>
-        <v>1100</v>
-      </c>
-      <c r="Y20" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Y20" s="21" t="e">
         <f t="shared" si="4"/>
-        <v>0000</v>
-      </c>
-      <c r="Z20" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Z20" s="21" t="e">
         <f t="shared" si="5"/>
-        <v>0100</v>
-      </c>
-      <c r="AA20" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AA20" s="21" t="e">
         <f t="shared" si="6"/>
-        <v>0000</v>
-      </c>
-      <c r="AB20" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AB20" s="21" t="e">
         <f t="shared" si="7"/>
-        <v>0000</v>
-      </c>
-      <c r="AC20" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AC20" s="21" t="e">
         <f t="shared" si="8"/>
-        <v>1000</v>
-      </c>
-      <c r="AD20" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AD20" s="21" t="e">
         <f t="shared" si="9"/>
-        <v>0001</v>
-      </c>
-      <c r="AF20" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AF20" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W20,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
-      </c>
-      <c r="AG20" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AG20" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X20,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>C</v>
-      </c>
-      <c r="AH20" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AH20" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y20,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AI20" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AI20" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z20,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
-      </c>
-      <c r="AJ20" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ20" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA20,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AK20" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AK20" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB20,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AL20" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AL20" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC20,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
-      </c>
-      <c r="AM20" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AM20" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD20,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>1</v>
-      </c>
-      <c r="AO20" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AO20" s="21" t="e">
         <f t="shared" si="10"/>
-        <v>4C040081</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="21" spans="1:41" x14ac:dyDescent="0.25">
@@ -3616,130 +3585,116 @@
       <c r="B21" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="F21" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="G21" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="H21" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="I21" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="J21" s="13" t="str">
+      <c r="C21" s="23"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="13" t="e">
         <f t="shared" si="0"/>
-        <v>48020882</v>
-      </c>
-      <c r="M21" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="M21" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C21,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>1001</v>
-      </c>
-      <c r="N21" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="N21" s="21">
         <f>IF(ISNUMBER(MATCH(D21,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D21,'HEX GEN BACKEND'!G:G,0)),D21)</f>
-        <v>0000000</v>
-      </c>
-      <c r="O21" s="21" t="str">
+        <v>0</v>
+      </c>
+      <c r="O21" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E21,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>00</v>
-      </c>
-      <c r="P21" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="P21" s="21">
         <f>IF(ISNUMBER(MATCH(F21,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F21,'HEX GEN BACKEND'!H:H,0)),F21)</f>
-        <v>0000100</v>
-      </c>
-      <c r="Q21" s="21" t="str">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G21,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>10</v>
-      </c>
-      <c r="R21" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="R21" s="21">
         <f>IF(ISNUMBER(MATCH(H21,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H21,'HEX GEN BACKEND'!I:I,0)),H21)</f>
-        <v>0000010</v>
-      </c>
-      <c r="S21" s="21" t="str">
+        <v>0</v>
+      </c>
+      <c r="S21" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I21,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>01</v>
-      </c>
-      <c r="U21" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="U21" s="21" t="e">
         <f t="shared" si="1"/>
-        <v>01001000000000100000100010000010</v>
-      </c>
-      <c r="W21" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="W21" s="21" t="e">
         <f t="shared" si="2"/>
-        <v>0100</v>
-      </c>
-      <c r="X21" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="X21" s="21" t="e">
         <f t="shared" si="3"/>
-        <v>1000</v>
-      </c>
-      <c r="Y21" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Y21" s="21" t="e">
         <f t="shared" si="4"/>
-        <v>0000</v>
-      </c>
-      <c r="Z21" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Z21" s="21" t="e">
         <f t="shared" si="5"/>
-        <v>0010</v>
-      </c>
-      <c r="AA21" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AA21" s="21" t="e">
         <f t="shared" si="6"/>
-        <v>0000</v>
-      </c>
-      <c r="AB21" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AB21" s="21" t="e">
         <f t="shared" si="7"/>
-        <v>1000</v>
-      </c>
-      <c r="AC21" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AC21" s="21" t="e">
         <f t="shared" si="8"/>
-        <v>1000</v>
-      </c>
-      <c r="AD21" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AD21" s="21" t="e">
         <f t="shared" si="9"/>
-        <v>0010</v>
-      </c>
-      <c r="AF21" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AF21" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W21,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
-      </c>
-      <c r="AG21" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AG21" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X21,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
-      </c>
-      <c r="AH21" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AH21" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y21,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AI21" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AI21" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z21,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
-      </c>
-      <c r="AJ21" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ21" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA21,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AK21" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AK21" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB21,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
-      </c>
-      <c r="AL21" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AL21" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC21,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
-      </c>
-      <c r="AM21" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AM21" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD21,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
-      </c>
-      <c r="AO21" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AO21" s="21" t="e">
         <f t="shared" si="10"/>
-        <v>48020882</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="22" spans="1:41" x14ac:dyDescent="0.25">
@@ -3749,130 +3704,116 @@
       <c r="B22" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="F22" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="G22" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="H22" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="I22" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="J22" s="13" t="str">
+      <c r="C22" s="13"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="13" t="e">
         <f t="shared" si="0"/>
-        <v>38010902</v>
-      </c>
-      <c r="M22" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="M22" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C22,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>0111</v>
-      </c>
-      <c r="N22" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="N22" s="21">
         <f>IF(ISNUMBER(MATCH(D22,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D22,'HEX GEN BACKEND'!G:G,0)),D22)</f>
-        <v>0000000</v>
-      </c>
-      <c r="O22" s="21" t="str">
+        <v>0</v>
+      </c>
+      <c r="O22" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E22,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>00</v>
-      </c>
-      <c r="P22" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="P22" s="21">
         <f>IF(ISNUMBER(MATCH(F22,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F22,'HEX GEN BACKEND'!H:H,0)),F22)</f>
-        <v>0000100</v>
-      </c>
-      <c r="Q22" s="21" t="str">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G22,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>01</v>
-      </c>
-      <c r="R22" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="R22" s="21">
         <f>IF(ISNUMBER(MATCH(H22,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H22,'HEX GEN BACKEND'!I:I,0)),H22)</f>
-        <v>0000010</v>
-      </c>
-      <c r="S22" s="21" t="str">
+        <v>0</v>
+      </c>
+      <c r="S22" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I22,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>10</v>
-      </c>
-      <c r="U22" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="U22" s="21" t="e">
         <f t="shared" si="1"/>
-        <v>00111000000000010000100100000010</v>
-      </c>
-      <c r="W22" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="W22" s="21" t="e">
         <f t="shared" si="2"/>
-        <v>0011</v>
-      </c>
-      <c r="X22" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="X22" s="21" t="e">
         <f t="shared" si="3"/>
-        <v>1000</v>
-      </c>
-      <c r="Y22" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Y22" s="21" t="e">
         <f t="shared" si="4"/>
-        <v>0000</v>
-      </c>
-      <c r="Z22" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Z22" s="21" t="e">
         <f t="shared" si="5"/>
-        <v>0001</v>
-      </c>
-      <c r="AA22" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AA22" s="21" t="e">
         <f t="shared" si="6"/>
-        <v>0000</v>
-      </c>
-      <c r="AB22" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AB22" s="21" t="e">
         <f t="shared" si="7"/>
-        <v>1001</v>
-      </c>
-      <c r="AC22" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AC22" s="21" t="e">
         <f t="shared" si="8"/>
-        <v>0000</v>
-      </c>
-      <c r="AD22" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AD22" s="21" t="e">
         <f t="shared" si="9"/>
-        <v>0010</v>
-      </c>
-      <c r="AF22" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AF22" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W22,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>3</v>
-      </c>
-      <c r="AG22" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AG22" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X22,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
-      </c>
-      <c r="AH22" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AH22" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y22,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AI22" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AI22" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z22,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>1</v>
-      </c>
-      <c r="AJ22" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ22" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA22,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AK22" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AK22" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB22,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>9</v>
-      </c>
-      <c r="AL22" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AL22" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC22,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AM22" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AM22" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD22,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
-      </c>
-      <c r="AO22" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AO22" s="21" t="e">
         <f t="shared" si="10"/>
-        <v>38010902</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="23" spans="1:41" x14ac:dyDescent="0.25">
@@ -3882,130 +3823,116 @@
       <c r="B23" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="F23" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="G23" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="H23" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="I23" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="J23" s="13" t="str">
+      <c r="C23" s="13"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="13" t="e">
         <f t="shared" si="0"/>
-        <v>48020882</v>
-      </c>
-      <c r="M23" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="M23" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C23,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>1001</v>
-      </c>
-      <c r="N23" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="N23" s="21">
         <f>IF(ISNUMBER(MATCH(D23,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D23,'HEX GEN BACKEND'!G:G,0)),D23)</f>
-        <v>0000000</v>
-      </c>
-      <c r="O23" s="21" t="str">
+        <v>0</v>
+      </c>
+      <c r="O23" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E23,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>00</v>
-      </c>
-      <c r="P23" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="P23" s="21">
         <f>IF(ISNUMBER(MATCH(F23,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F23,'HEX GEN BACKEND'!H:H,0)),F23)</f>
-        <v>0000100</v>
-      </c>
-      <c r="Q23" s="21" t="str">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G23,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>10</v>
-      </c>
-      <c r="R23" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="R23" s="21">
         <f>IF(ISNUMBER(MATCH(H23,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H23,'HEX GEN BACKEND'!I:I,0)),H23)</f>
-        <v>0000010</v>
-      </c>
-      <c r="S23" s="21" t="str">
+        <v>0</v>
+      </c>
+      <c r="S23" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I23,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>01</v>
-      </c>
-      <c r="U23" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="U23" s="21" t="e">
         <f t="shared" si="1"/>
-        <v>01001000000000100000100010000010</v>
-      </c>
-      <c r="W23" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="W23" s="21" t="e">
         <f t="shared" si="2"/>
-        <v>0100</v>
-      </c>
-      <c r="X23" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="X23" s="21" t="e">
         <f t="shared" si="3"/>
-        <v>1000</v>
-      </c>
-      <c r="Y23" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Y23" s="21" t="e">
         <f t="shared" si="4"/>
-        <v>0000</v>
-      </c>
-      <c r="Z23" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Z23" s="21" t="e">
         <f t="shared" si="5"/>
-        <v>0010</v>
-      </c>
-      <c r="AA23" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AA23" s="21" t="e">
         <f t="shared" si="6"/>
-        <v>0000</v>
-      </c>
-      <c r="AB23" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AB23" s="21" t="e">
         <f t="shared" si="7"/>
-        <v>1000</v>
-      </c>
-      <c r="AC23" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AC23" s="21" t="e">
         <f t="shared" si="8"/>
-        <v>1000</v>
-      </c>
-      <c r="AD23" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AD23" s="21" t="e">
         <f t="shared" si="9"/>
-        <v>0010</v>
-      </c>
-      <c r="AF23" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AF23" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W23,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
-      </c>
-      <c r="AG23" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AG23" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X23,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
-      </c>
-      <c r="AH23" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AH23" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y23,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AI23" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AI23" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z23,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
-      </c>
-      <c r="AJ23" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ23" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA23,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AK23" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AK23" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB23,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
-      </c>
-      <c r="AL23" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AL23" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC23,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
-      </c>
-      <c r="AM23" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AM23" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD23,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
-      </c>
-      <c r="AO23" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AO23" s="21" t="e">
         <f t="shared" si="10"/>
-        <v>48020882</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="24" spans="1:41" x14ac:dyDescent="0.25">
@@ -4015,130 +3942,116 @@
       <c r="B24" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="F24" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="G24" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="H24" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="I24" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="J24" s="13" t="str">
+      <c r="C24" s="13"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="13" t="e">
         <f t="shared" si="0"/>
-        <v>36010901</v>
-      </c>
-      <c r="M24" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="M24" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C24,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>0110</v>
-      </c>
-      <c r="N24" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="N24" s="21">
         <f>IF(ISNUMBER(MATCH(D24,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D24,'HEX GEN BACKEND'!G:G,0)),D24)</f>
-        <v>0000000</v>
-      </c>
-      <c r="O24" s="21" t="str">
+        <v>0</v>
+      </c>
+      <c r="O24" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E24,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>11</v>
-      </c>
-      <c r="P24" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="P24" s="21">
         <f>IF(ISNUMBER(MATCH(F24,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F24,'HEX GEN BACKEND'!H:H,0)),F24)</f>
-        <v>0000100</v>
-      </c>
-      <c r="Q24" s="21" t="str">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G24,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>01</v>
-      </c>
-      <c r="R24" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="R24" s="21">
         <f>IF(ISNUMBER(MATCH(H24,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H24,'HEX GEN BACKEND'!I:I,0)),H24)</f>
-        <v>0000001</v>
-      </c>
-      <c r="S24" s="21" t="str">
+        <v>0</v>
+      </c>
+      <c r="S24" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I24,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>10</v>
-      </c>
-      <c r="U24" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="U24" s="21" t="e">
         <f t="shared" si="1"/>
-        <v>00110110000000010000100100000001</v>
-      </c>
-      <c r="W24" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="W24" s="21" t="e">
         <f t="shared" si="2"/>
-        <v>0011</v>
-      </c>
-      <c r="X24" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="X24" s="21" t="e">
         <f t="shared" si="3"/>
-        <v>0110</v>
-      </c>
-      <c r="Y24" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Y24" s="21" t="e">
         <f t="shared" si="4"/>
-        <v>0000</v>
-      </c>
-      <c r="Z24" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Z24" s="21" t="e">
         <f t="shared" si="5"/>
-        <v>0001</v>
-      </c>
-      <c r="AA24" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AA24" s="21" t="e">
         <f t="shared" si="6"/>
-        <v>0000</v>
-      </c>
-      <c r="AB24" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AB24" s="21" t="e">
         <f t="shared" si="7"/>
-        <v>1001</v>
-      </c>
-      <c r="AC24" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AC24" s="21" t="e">
         <f t="shared" si="8"/>
-        <v>0000</v>
-      </c>
-      <c r="AD24" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AD24" s="21" t="e">
         <f t="shared" si="9"/>
-        <v>0001</v>
-      </c>
-      <c r="AF24" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AF24" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W24,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>3</v>
-      </c>
-      <c r="AG24" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AG24" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X24,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>6</v>
-      </c>
-      <c r="AH24" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AH24" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y24,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AI24" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AI24" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z24,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>1</v>
-      </c>
-      <c r="AJ24" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ24" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA24,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AK24" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AK24" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB24,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>9</v>
-      </c>
-      <c r="AL24" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AL24" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC24,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AM24" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AM24" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD24,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>1</v>
-      </c>
-      <c r="AO24" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AO24" s="21" t="e">
         <f t="shared" si="10"/>
-        <v>36010901</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="25" spans="1:41" x14ac:dyDescent="0.25">
@@ -4148,130 +4061,116 @@
       <c r="B25" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="F25" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="G25" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="H25" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="I25" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="J25" s="13" t="str">
+      <c r="C25" s="13"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="13" t="e">
         <f t="shared" si="0"/>
-        <v>56433081</v>
-      </c>
-      <c r="M25" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="M25" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C25,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>1010</v>
-      </c>
-      <c r="N25" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="N25" s="21">
         <f>IF(ISNUMBER(MATCH(D25,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D25,'HEX GEN BACKEND'!G:G,0)),D25)</f>
-        <v>0010000</v>
-      </c>
-      <c r="O25" s="21" t="str">
+        <v>0</v>
+      </c>
+      <c r="O25" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E25,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>11</v>
-      </c>
-      <c r="P25" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="P25" s="21">
         <f>IF(ISNUMBER(MATCH(F25,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F25,'HEX GEN BACKEND'!H:H,0)),F25)</f>
-        <v>0011000</v>
-      </c>
-      <c r="Q25" s="21" t="str">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G25,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>11</v>
-      </c>
-      <c r="R25" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="R25" s="21">
         <f>IF(ISNUMBER(MATCH(H25,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H25,'HEX GEN BACKEND'!I:I,0)),H25)</f>
-        <v>0000001</v>
-      </c>
-      <c r="S25" s="21" t="str">
+        <v>0</v>
+      </c>
+      <c r="S25" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I25,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>01</v>
-      </c>
-      <c r="U25" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="U25" s="21" t="e">
         <f t="shared" si="1"/>
-        <v>01010110010000110011000010000001</v>
-      </c>
-      <c r="W25" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="W25" s="21" t="e">
         <f t="shared" si="2"/>
-        <v>0101</v>
-      </c>
-      <c r="X25" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="X25" s="21" t="e">
         <f t="shared" si="3"/>
-        <v>0110</v>
-      </c>
-      <c r="Y25" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Y25" s="21" t="e">
         <f t="shared" si="4"/>
-        <v>0100</v>
-      </c>
-      <c r="Z25" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Z25" s="21" t="e">
         <f t="shared" si="5"/>
-        <v>0011</v>
-      </c>
-      <c r="AA25" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AA25" s="21" t="e">
         <f t="shared" si="6"/>
-        <v>0011</v>
-      </c>
-      <c r="AB25" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AB25" s="21" t="e">
         <f t="shared" si="7"/>
-        <v>0000</v>
-      </c>
-      <c r="AC25" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AC25" s="21" t="e">
         <f t="shared" si="8"/>
-        <v>1000</v>
-      </c>
-      <c r="AD25" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AD25" s="21" t="e">
         <f t="shared" si="9"/>
-        <v>0001</v>
-      </c>
-      <c r="AF25" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AF25" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W25,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>5</v>
-      </c>
-      <c r="AG25" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AG25" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X25,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>6</v>
-      </c>
-      <c r="AH25" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AH25" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y25,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
-      </c>
-      <c r="AI25" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AI25" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z25,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>3</v>
-      </c>
-      <c r="AJ25" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ25" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA25,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>3</v>
-      </c>
-      <c r="AK25" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AK25" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB25,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AL25" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AL25" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC25,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
-      </c>
-      <c r="AM25" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AM25" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD25,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>1</v>
-      </c>
-      <c r="AO25" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AO25" s="21" t="e">
         <f t="shared" si="10"/>
-        <v>56433081</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="26" spans="1:41" x14ac:dyDescent="0.25">
@@ -4281,130 +4180,116 @@
       <c r="B26" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="F26" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="G26" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="H26" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="I26" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="J26" s="13" t="str">
+      <c r="C26" s="13"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="13" t="e">
         <f t="shared" si="0"/>
-        <v>02040000</v>
-      </c>
-      <c r="M26" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="M26" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C26,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>0000</v>
-      </c>
-      <c r="N26" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="N26" s="21">
         <f>IF(ISNUMBER(MATCH(D26,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D26,'HEX GEN BACKEND'!G:G,0)),D26)</f>
-        <v>0000001</v>
-      </c>
-      <c r="O26" s="21" t="str">
+        <v>0</v>
+      </c>
+      <c r="O26" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E26,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>01</v>
-      </c>
-      <c r="P26" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="P26" s="21">
         <f>IF(ISNUMBER(MATCH(F26,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F26,'HEX GEN BACKEND'!H:H,0)),F26)</f>
-        <v>0000000</v>
-      </c>
-      <c r="Q26" s="21" t="str">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G26,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>00</v>
-      </c>
-      <c r="R26" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="R26" s="21">
         <f>IF(ISNUMBER(MATCH(H26,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H26,'HEX GEN BACKEND'!I:I,0)),H26)</f>
-        <v>0000000</v>
-      </c>
-      <c r="S26" s="21" t="str">
+        <v>0</v>
+      </c>
+      <c r="S26" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I26,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>00</v>
-      </c>
-      <c r="U26" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="U26" s="21" t="e">
         <f t="shared" si="1"/>
-        <v>00000010000001000000000000000000</v>
-      </c>
-      <c r="W26" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="W26" s="21" t="e">
         <f t="shared" si="2"/>
-        <v>0000</v>
-      </c>
-      <c r="X26" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="X26" s="21" t="e">
         <f t="shared" si="3"/>
-        <v>0010</v>
-      </c>
-      <c r="Y26" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Y26" s="21" t="e">
         <f t="shared" si="4"/>
-        <v>0000</v>
-      </c>
-      <c r="Z26" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Z26" s="21" t="e">
         <f t="shared" si="5"/>
-        <v>0100</v>
-      </c>
-      <c r="AA26" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AA26" s="21" t="e">
         <f t="shared" si="6"/>
-        <v>0000</v>
-      </c>
-      <c r="AB26" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AB26" s="21" t="e">
         <f t="shared" si="7"/>
-        <v>0000</v>
-      </c>
-      <c r="AC26" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AC26" s="21" t="e">
         <f t="shared" si="8"/>
-        <v>0000</v>
-      </c>
-      <c r="AD26" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AD26" s="21" t="e">
         <f t="shared" si="9"/>
-        <v>0000</v>
-      </c>
-      <c r="AF26" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AF26" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W26,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AG26" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AG26" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X26,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
-      </c>
-      <c r="AH26" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AH26" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y26,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AI26" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AI26" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z26,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
-      </c>
-      <c r="AJ26" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ26" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA26,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AK26" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AK26" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB26,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AL26" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AL26" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC26,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AM26" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AM26" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD26,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AO26" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AO26" s="21" t="e">
         <f t="shared" si="10"/>
-        <v>02040000</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="27" spans="1:41" x14ac:dyDescent="0.25">
@@ -4414,130 +4299,116 @@
       <c r="B27" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="E27" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="F27" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="G27" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="H27" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="I27" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="J27" s="13" t="str">
+      <c r="C27" s="13"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="13" t="e">
         <f t="shared" si="0"/>
-        <v>38010701</v>
-      </c>
-      <c r="M27" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="M27" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C27,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>0111</v>
-      </c>
-      <c r="N27" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="N27" s="21">
         <f>IF(ISNUMBER(MATCH(D27,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D27,'HEX GEN BACKEND'!G:G,0)),D27)</f>
-        <v>0000000</v>
-      </c>
-      <c r="O27" s="21" t="str">
+        <v>0</v>
+      </c>
+      <c r="O27" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E27,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>00</v>
-      </c>
-      <c r="P27" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="P27" s="21">
         <f>IF(ISNUMBER(MATCH(F27,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F27,'HEX GEN BACKEND'!H:H,0)),F27)</f>
-        <v>0000011</v>
-      </c>
-      <c r="Q27" s="21" t="str">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G27,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>01</v>
-      </c>
-      <c r="R27" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="R27" s="21">
         <f>IF(ISNUMBER(MATCH(H27,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H27,'HEX GEN BACKEND'!I:I,0)),H27)</f>
-        <v>0000001</v>
-      </c>
-      <c r="S27" s="21" t="str">
+        <v>0</v>
+      </c>
+      <c r="S27" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I27,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>10</v>
-      </c>
-      <c r="U27" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="U27" s="21" t="e">
         <f t="shared" si="1"/>
-        <v>00111000000000010000011100000001</v>
-      </c>
-      <c r="W27" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="W27" s="21" t="e">
         <f t="shared" si="2"/>
-        <v>0011</v>
-      </c>
-      <c r="X27" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="X27" s="21" t="e">
         <f t="shared" si="3"/>
-        <v>1000</v>
-      </c>
-      <c r="Y27" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Y27" s="21" t="e">
         <f t="shared" si="4"/>
-        <v>0000</v>
-      </c>
-      <c r="Z27" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Z27" s="21" t="e">
         <f t="shared" si="5"/>
-        <v>0001</v>
-      </c>
-      <c r="AA27" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AA27" s="21" t="e">
         <f t="shared" si="6"/>
-        <v>0000</v>
-      </c>
-      <c r="AB27" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AB27" s="21" t="e">
         <f t="shared" si="7"/>
-        <v>0111</v>
-      </c>
-      <c r="AC27" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AC27" s="21" t="e">
         <f t="shared" si="8"/>
-        <v>0000</v>
-      </c>
-      <c r="AD27" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AD27" s="21" t="e">
         <f t="shared" si="9"/>
-        <v>0001</v>
-      </c>
-      <c r="AF27" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AF27" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W27,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>3</v>
-      </c>
-      <c r="AG27" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AG27" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X27,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
-      </c>
-      <c r="AH27" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AH27" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y27,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AI27" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AI27" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z27,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>1</v>
-      </c>
-      <c r="AJ27" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ27" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA27,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AK27" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AK27" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB27,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>7</v>
-      </c>
-      <c r="AL27" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AL27" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC27,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AM27" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AM27" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD27,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>1</v>
-      </c>
-      <c r="AO27" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AO27" s="21" t="e">
         <f t="shared" si="10"/>
-        <v>38010701</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="28" spans="1:41" x14ac:dyDescent="0.25">
@@ -4547,130 +4418,116 @@
       <c r="B28" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="F28" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="G28" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="H28" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="I28" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="J28" s="13" t="str">
+      <c r="C28" s="13"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="13" t="e">
         <f t="shared" si="0"/>
-        <v>48020681</v>
-      </c>
-      <c r="M28" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="M28" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C28,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>1001</v>
-      </c>
-      <c r="N28" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="N28" s="21">
         <f>IF(ISNUMBER(MATCH(D28,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D28,'HEX GEN BACKEND'!G:G,0)),D28)</f>
-        <v>0000000</v>
-      </c>
-      <c r="O28" s="21" t="str">
+        <v>0</v>
+      </c>
+      <c r="O28" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E28,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>00</v>
-      </c>
-      <c r="P28" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="P28" s="21">
         <f>IF(ISNUMBER(MATCH(F28,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F28,'HEX GEN BACKEND'!H:H,0)),F28)</f>
-        <v>0000011</v>
-      </c>
-      <c r="Q28" s="21" t="str">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G28,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>10</v>
-      </c>
-      <c r="R28" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="R28" s="21">
         <f>IF(ISNUMBER(MATCH(H28,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H28,'HEX GEN BACKEND'!I:I,0)),H28)</f>
-        <v>0000001</v>
-      </c>
-      <c r="S28" s="21" t="str">
+        <v>0</v>
+      </c>
+      <c r="S28" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I28,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>01</v>
-      </c>
-      <c r="U28" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="U28" s="21" t="e">
         <f t="shared" si="1"/>
-        <v>01001000000000100000011010000001</v>
-      </c>
-      <c r="W28" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="W28" s="21" t="e">
         <f t="shared" si="2"/>
-        <v>0100</v>
-      </c>
-      <c r="X28" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="X28" s="21" t="e">
         <f t="shared" si="3"/>
-        <v>1000</v>
-      </c>
-      <c r="Y28" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Y28" s="21" t="e">
         <f t="shared" si="4"/>
-        <v>0000</v>
-      </c>
-      <c r="Z28" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Z28" s="21" t="e">
         <f t="shared" si="5"/>
-        <v>0010</v>
-      </c>
-      <c r="AA28" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AA28" s="21" t="e">
         <f t="shared" si="6"/>
-        <v>0000</v>
-      </c>
-      <c r="AB28" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AB28" s="21" t="e">
         <f t="shared" si="7"/>
-        <v>0110</v>
-      </c>
-      <c r="AC28" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AC28" s="21" t="e">
         <f t="shared" si="8"/>
-        <v>1000</v>
-      </c>
-      <c r="AD28" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AD28" s="21" t="e">
         <f t="shared" si="9"/>
-        <v>0001</v>
-      </c>
-      <c r="AF28" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AF28" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W28,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
-      </c>
-      <c r="AG28" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AG28" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X28,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
-      </c>
-      <c r="AH28" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AH28" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y28,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AI28" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AI28" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z28,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
-      </c>
-      <c r="AJ28" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ28" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA28,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AK28" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AK28" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB28,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>6</v>
-      </c>
-      <c r="AL28" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AL28" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC28,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
-      </c>
-      <c r="AM28" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AM28" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD28,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>1</v>
-      </c>
-      <c r="AO28" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AO28" s="21" t="e">
         <f t="shared" si="10"/>
-        <v>48020681</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="29" spans="1:41" x14ac:dyDescent="0.25">
@@ -4680,130 +4537,116 @@
       <c r="B29" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="23" t="s">
-        <v>182</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="E29" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="F29" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="G29" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="H29" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="I29" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="J29" s="13" t="str">
+      <c r="C29" s="23"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="13" t="e">
         <f t="shared" si="0"/>
-        <v>320B0101</v>
-      </c>
-      <c r="M29" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="M29" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C29,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>0110</v>
-      </c>
-      <c r="N29" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="N29" s="21">
         <f>IF(ISNUMBER(MATCH(D29,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D29,'HEX GEN BACKEND'!G:G,0)),D29)</f>
-        <v>0000010</v>
-      </c>
-      <c r="O29" s="21" t="str">
+        <v>0</v>
+      </c>
+      <c r="O29" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E29,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>01</v>
-      </c>
-      <c r="P29" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="P29" s="21">
         <f>IF(ISNUMBER(MATCH(F29,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F29,'HEX GEN BACKEND'!H:H,0)),F29)</f>
-        <v>0000000</v>
-      </c>
-      <c r="Q29" s="21" t="str">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G29,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>11</v>
-      </c>
-      <c r="R29" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="R29" s="21">
         <f>IF(ISNUMBER(MATCH(H29,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H29,'HEX GEN BACKEND'!I:I,0)),H29)</f>
-        <v>0000001</v>
-      </c>
-      <c r="S29" s="21" t="str">
+        <v>0</v>
+      </c>
+      <c r="S29" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I29,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>10</v>
-      </c>
-      <c r="U29" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="U29" s="21" t="e">
         <f t="shared" si="1"/>
-        <v>00110010000010110000000100000001</v>
-      </c>
-      <c r="W29" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="W29" s="21" t="e">
         <f t="shared" si="2"/>
-        <v>0011</v>
-      </c>
-      <c r="X29" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="X29" s="21" t="e">
         <f t="shared" si="3"/>
-        <v>0010</v>
-      </c>
-      <c r="Y29" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Y29" s="21" t="e">
         <f t="shared" si="4"/>
-        <v>0000</v>
-      </c>
-      <c r="Z29" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Z29" s="21" t="e">
         <f t="shared" si="5"/>
-        <v>1011</v>
-      </c>
-      <c r="AA29" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AA29" s="21" t="e">
         <f t="shared" si="6"/>
-        <v>0000</v>
-      </c>
-      <c r="AB29" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AB29" s="21" t="e">
         <f t="shared" si="7"/>
-        <v>0001</v>
-      </c>
-      <c r="AC29" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AC29" s="21" t="e">
         <f t="shared" si="8"/>
-        <v>0000</v>
-      </c>
-      <c r="AD29" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AD29" s="21" t="e">
         <f t="shared" si="9"/>
-        <v>0001</v>
-      </c>
-      <c r="AF29" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AF29" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W29,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>3</v>
-      </c>
-      <c r="AG29" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AG29" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X29,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
-      </c>
-      <c r="AH29" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AH29" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y29,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AI29" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AI29" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z29,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>B</v>
-      </c>
-      <c r="AJ29" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ29" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA29,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AK29" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AK29" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB29,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>1</v>
-      </c>
-      <c r="AL29" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AL29" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC29,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AM29" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AM29" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD29,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>1</v>
-      </c>
-      <c r="AO29" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AO29" s="21" t="e">
         <f t="shared" si="10"/>
-        <v>320B0101</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="30" spans="1:41" x14ac:dyDescent="0.25">
@@ -4813,130 +4656,116 @@
       <c r="B30" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="E30" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="F30" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="G30" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="H30" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="I30" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="J30" s="13" t="str">
+      <c r="C30" s="13"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="13" t="e">
         <f t="shared" si="0"/>
-        <v>56173A81</v>
-      </c>
-      <c r="M30" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="M30" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C30,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>1010</v>
-      </c>
-      <c r="N30" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="N30" s="21">
         <f>IF(ISNUMBER(MATCH(D30,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D30,'HEX GEN BACKEND'!G:G,0)),D30)</f>
-        <v>0000101</v>
-      </c>
-      <c r="O30" s="21" t="str">
+        <v>0</v>
+      </c>
+      <c r="O30" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E30,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>11</v>
-      </c>
-      <c r="P30" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="P30" s="21">
         <f>IF(ISNUMBER(MATCH(F30,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F30,'HEX GEN BACKEND'!H:H,0)),F30)</f>
-        <v>0011101</v>
-      </c>
-      <c r="Q30" s="21" t="str">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G30,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>11</v>
-      </c>
-      <c r="R30" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="R30" s="21">
         <f>IF(ISNUMBER(MATCH(H30,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H30,'HEX GEN BACKEND'!I:I,0)),H30)</f>
-        <v>0000001</v>
-      </c>
-      <c r="S30" s="21" t="str">
+        <v>0</v>
+      </c>
+      <c r="S30" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I30,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>01</v>
-      </c>
-      <c r="U30" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="U30" s="21" t="e">
         <f t="shared" si="1"/>
-        <v>01010110000101110011101010000001</v>
-      </c>
-      <c r="W30" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="W30" s="21" t="e">
         <f t="shared" si="2"/>
-        <v>0101</v>
-      </c>
-      <c r="X30" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="X30" s="21" t="e">
         <f t="shared" si="3"/>
-        <v>0110</v>
-      </c>
-      <c r="Y30" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Y30" s="21" t="e">
         <f t="shared" si="4"/>
-        <v>0001</v>
-      </c>
-      <c r="Z30" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Z30" s="21" t="e">
         <f t="shared" si="5"/>
-        <v>0111</v>
-      </c>
-      <c r="AA30" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AA30" s="21" t="e">
         <f t="shared" si="6"/>
-        <v>0011</v>
-      </c>
-      <c r="AB30" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AB30" s="21" t="e">
         <f t="shared" si="7"/>
-        <v>1010</v>
-      </c>
-      <c r="AC30" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AC30" s="21" t="e">
         <f t="shared" si="8"/>
-        <v>1000</v>
-      </c>
-      <c r="AD30" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AD30" s="21" t="e">
         <f t="shared" si="9"/>
-        <v>0001</v>
-      </c>
-      <c r="AF30" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AF30" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W30,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>5</v>
-      </c>
-      <c r="AG30" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AG30" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X30,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>6</v>
-      </c>
-      <c r="AH30" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AH30" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y30,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>1</v>
-      </c>
-      <c r="AI30" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AI30" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z30,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>7</v>
-      </c>
-      <c r="AJ30" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ30" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA30,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>3</v>
-      </c>
-      <c r="AK30" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AK30" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB30,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>A</v>
-      </c>
-      <c r="AL30" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AL30" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC30,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
-      </c>
-      <c r="AM30" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AM30" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD30,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>1</v>
-      </c>
-      <c r="AO30" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AO30" s="21" t="e">
         <f t="shared" si="10"/>
-        <v>56173A81</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="31" spans="1:41" x14ac:dyDescent="0.25">
@@ -4944,132 +4773,118 @@
         <v>66</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D31" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="E31" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="F31" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="G31" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="H31" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="I31" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="J31" s="13" t="str">
+        <v>16</v>
+      </c>
+      <c r="C31" s="13"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="13" t="e">
         <f t="shared" si="0"/>
-        <v>E2040000</v>
-      </c>
-      <c r="M31" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="M31" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C31,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>1100</v>
-      </c>
-      <c r="N31" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="N31" s="21">
         <f>IF(ISNUMBER(MATCH(D31,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D31,'HEX GEN BACKEND'!G:G,0)),D31)</f>
-        <v>0000001</v>
-      </c>
-      <c r="O31" s="21" t="str">
+        <v>0</v>
+      </c>
+      <c r="O31" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E31,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>01</v>
-      </c>
-      <c r="P31" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="P31" s="21">
         <f>IF(ISNUMBER(MATCH(F31,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F31,'HEX GEN BACKEND'!H:H,0)),F31)</f>
-        <v>0000000</v>
-      </c>
-      <c r="Q31" s="21" t="str">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G31,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>00</v>
-      </c>
-      <c r="R31" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="R31" s="21">
         <f>IF(ISNUMBER(MATCH(H31,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H31,'HEX GEN BACKEND'!I:I,0)),H31)</f>
-        <v>0000000</v>
-      </c>
-      <c r="S31" s="21" t="str">
+        <v>0</v>
+      </c>
+      <c r="S31" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I31,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>00</v>
-      </c>
-      <c r="U31" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="U31" s="21" t="e">
         <f t="shared" si="1"/>
-        <v>11100010000001000000000000000000</v>
-      </c>
-      <c r="W31" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="W31" s="21" t="e">
         <f t="shared" si="2"/>
-        <v>1110</v>
-      </c>
-      <c r="X31" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="X31" s="21" t="e">
         <f t="shared" si="3"/>
-        <v>0010</v>
-      </c>
-      <c r="Y31" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Y31" s="21" t="e">
         <f t="shared" si="4"/>
-        <v>0000</v>
-      </c>
-      <c r="Z31" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Z31" s="21" t="e">
         <f t="shared" si="5"/>
-        <v>0100</v>
-      </c>
-      <c r="AA31" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AA31" s="21" t="e">
         <f t="shared" si="6"/>
-        <v>0000</v>
-      </c>
-      <c r="AB31" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AB31" s="21" t="e">
         <f t="shared" si="7"/>
-        <v>0000</v>
-      </c>
-      <c r="AC31" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AC31" s="21" t="e">
         <f t="shared" si="8"/>
-        <v>0000</v>
-      </c>
-      <c r="AD31" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AD31" s="21" t="e">
         <f t="shared" si="9"/>
-        <v>0000</v>
-      </c>
-      <c r="AF31" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AF31" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W31,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>E</v>
-      </c>
-      <c r="AG31" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AG31" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X31,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
-      </c>
-      <c r="AH31" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AH31" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y31,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AI31" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AI31" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z31,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
-      </c>
-      <c r="AJ31" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ31" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA31,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AK31" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AK31" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB31,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AL31" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AL31" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC31,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AM31" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AM31" s="21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD31,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AO31" s="21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AO31" s="21" t="e">
         <f t="shared" si="10"/>
-        <v>E2040000</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="32" spans="1:41" x14ac:dyDescent="0.25">

--- a/INSTRUCTIONS/Binary Instructions.xlsx
+++ b/INSTRUCTIONS/Binary Instructions.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="197">
   <si>
     <t>0001</t>
   </si>
@@ -582,17 +582,47 @@
     <t>STRIG</t>
   </si>
   <si>
-    <t>0010000</t>
-  </si>
-  <si>
     <t>1000000</t>
+  </si>
+  <si>
+    <t>0010010</t>
+  </si>
+  <si>
+    <t>0010001</t>
+  </si>
+  <si>
+    <t>0010100</t>
+  </si>
+  <si>
+    <t>1111111</t>
+  </si>
+  <si>
+    <t>0011011</t>
+  </si>
+  <si>
+    <t>0011100</t>
+  </si>
+  <si>
+    <t>0011101</t>
+  </si>
+  <si>
+    <t>0100011</t>
+  </si>
+  <si>
+    <t>0100010</t>
+  </si>
+  <si>
+    <t>0100001</t>
+  </si>
+  <si>
+    <t>0100100</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -604,6 +634,20 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -668,7 +712,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -691,7 +735,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -700,6 +743,24 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1023,21 +1084,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J18"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="24"/>
-    <col min="2" max="2" width="6.140625" style="24" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="23"/>
+    <col min="2" max="2" width="6.140625" style="23" customWidth="1"/>
     <col min="3" max="3" width="18.85546875" style="21" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="25"/>
-    <col min="5" max="5" width="9.140625" style="26"/>
-    <col min="6" max="6" width="9.140625" style="27"/>
-    <col min="7" max="7" width="9.140625" style="28"/>
-    <col min="8" max="8" width="9.140625" style="29"/>
-    <col min="9" max="9" width="9.140625" style="30"/>
+    <col min="4" max="4" width="9.140625" style="24"/>
+    <col min="5" max="5" width="9.140625" style="25"/>
+    <col min="6" max="6" width="9.140625" style="26"/>
+    <col min="7" max="7" width="9.140625" style="27"/>
+    <col min="8" max="8" width="9.140625" style="28"/>
+    <col min="9" max="9" width="9.140625" style="29"/>
     <col min="10" max="10" width="11.85546875" style="21" customWidth="1"/>
     <col min="11" max="11" width="6.7109375" style="21" customWidth="1"/>
     <col min="12" max="20" width="9.140625" style="21"/>
@@ -1086,25 +1147,25 @@
       <c r="B2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="I2" s="36" t="s">
         <v>98</v>
       </c>
       <c r="J2" s="13" t="str">
@@ -1219,30 +1280,30 @@
       <c r="B3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="F3" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="G3" s="17" t="s">
+      <c r="F3" s="33" t="s">
+        <v>187</v>
+      </c>
+      <c r="G3" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="I3" s="36" t="s">
         <v>98</v>
       </c>
       <c r="J3" s="13" t="str">
         <f t="shared" ref="J3:J32" si="0">AO3</f>
-        <v>4C071600</v>
+        <v>4C072200</v>
       </c>
       <c r="M3" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C3,'HEX GEN BACKEND'!A:A,0))</f>
@@ -1258,7 +1319,7 @@
       </c>
       <c r="P3" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F3,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F3,'HEX GEN BACKEND'!H:H,0)),F3)</f>
-        <v>0001011</v>
+        <v>0010001</v>
       </c>
       <c r="Q3" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G3,'HEX GEN BACKEND'!D:D,0))</f>
@@ -1274,7 +1335,7 @@
       </c>
       <c r="U3" s="21" t="str">
         <f t="shared" ref="U3:U66" si="1">B3&amp;M3&amp;O3&amp;N3&amp;Q3&amp;P3&amp;S3&amp;R3</f>
-        <v>01001100000001110001011000000000</v>
+        <v>01001100000001110010001000000000</v>
       </c>
       <c r="W3" s="21" t="str">
         <f t="shared" ref="W3:W32" si="2">MID(U3,1,4)</f>
@@ -1294,11 +1355,11 @@
       </c>
       <c r="AA3" s="21" t="str">
         <f t="shared" ref="AA3:AA32" si="6">MID(U3,17,4)</f>
-        <v>0001</v>
+        <v>0010</v>
       </c>
       <c r="AB3" s="21" t="str">
         <f t="shared" ref="AB3:AB32" si="7">MID(U3,21,4)</f>
-        <v>0110</v>
+        <v>0010</v>
       </c>
       <c r="AC3" s="21" t="str">
         <f t="shared" ref="AC3:AC32" si="8">MID(U3,25,4)</f>
@@ -1326,11 +1387,11 @@
       </c>
       <c r="AJ3" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA3,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK3" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB3,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AL3" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC3,'HEX GEN BACKEND'!L:L,0))</f>
@@ -1342,7 +1403,7 @@
       </c>
       <c r="AO3" s="21" t="str">
         <f t="shared" ref="AO3:AO66" si="10">AF3&amp;AG3&amp;AH3&amp;AI3&amp;AJ3&amp;AK3&amp;AL3&amp;AM3</f>
-        <v>4C071600</v>
+        <v>4C072200</v>
       </c>
     </row>
     <row r="4" spans="1:41" x14ac:dyDescent="0.25">
@@ -1352,25 +1413,25 @@
       <c r="B4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="E4" s="15" t="s">
+      <c r="D4" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="E4" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="I4" s="19" t="s">
+      <c r="I4" s="36" t="s">
         <v>98</v>
       </c>
       <c r="J4" s="13" t="str">
@@ -1485,25 +1546,25 @@
       <c r="B5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="30" t="s">
         <v>177</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="I5" s="36" t="s">
         <v>67</v>
       </c>
       <c r="J5" s="13" t="str">
@@ -1618,25 +1679,25 @@
       <c r="B6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="H6" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="I6" s="19" t="s">
+      <c r="I6" s="36" t="s">
         <v>68</v>
       </c>
       <c r="J6" s="13" t="str">
@@ -1751,25 +1812,25 @@
       <c r="B7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="37" t="s">
         <v>182</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="G7" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="H7" s="18" t="s">
+      <c r="H7" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="I7" s="19" t="s">
+      <c r="I7" s="36" t="s">
         <v>67</v>
       </c>
       <c r="J7" s="13" t="str">
@@ -1884,25 +1945,25 @@
       <c r="B8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="31" t="s">
         <v>170</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="33" t="s">
         <v>168</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="G8" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="H8" s="18" t="s">
+      <c r="H8" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="I8" s="19" t="s">
+      <c r="I8" s="36" t="s">
         <v>68</v>
       </c>
       <c r="J8" s="13" t="str">
@@ -2017,25 +2078,25 @@
       <c r="B9" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="30" t="s">
         <v>178</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="H9" s="18" t="s">
+      <c r="H9" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="I9" s="19" t="s">
+      <c r="I9" s="36" t="s">
         <v>67</v>
       </c>
       <c r="J9" s="13" t="str">
@@ -2150,25 +2211,25 @@
       <c r="B10" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="G10" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="H10" s="18" t="s">
+      <c r="H10" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="I10" s="19" t="s">
+      <c r="I10" s="36" t="s">
         <v>68</v>
       </c>
       <c r="J10" s="13" t="str">
@@ -2283,25 +2344,25 @@
       <c r="B11" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="H11" s="18" t="s">
+      <c r="H11" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="I11" s="19" t="s">
+      <c r="I11" s="36" t="s">
         <v>98</v>
       </c>
       <c r="J11" s="13" t="str">
@@ -2416,42 +2477,42 @@
       <c r="B12" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="F12" s="16" t="s">
+      <c r="C12" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="E12" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="G12" s="17" t="s">
+      <c r="G12" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="H12" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="I12" s="19" t="s">
-        <v>67</v>
+      <c r="H12" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="I12" s="36" t="s">
+        <v>98</v>
       </c>
       <c r="J12" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>3A0C0101</v>
+        <v>56480000</v>
       </c>
       <c r="M12" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C12,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>0111</v>
+        <v>1010</v>
       </c>
       <c r="N12" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D12,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D12,'HEX GEN BACKEND'!G:G,0)),D12)</f>
-        <v>0000011</v>
+        <v>0010010</v>
       </c>
       <c r="O12" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E12,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>01</v>
+        <v>11</v>
       </c>
       <c r="P12" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F12,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F12,'HEX GEN BACKEND'!H:H,0)),F12)</f>
@@ -2463,31 +2524,31 @@
       </c>
       <c r="R12" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H12,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H12,'HEX GEN BACKEND'!I:I,0)),H12)</f>
-        <v>0000001</v>
+        <v>0000000</v>
       </c>
       <c r="S12" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I12,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>10</v>
+        <v>00</v>
       </c>
       <c r="U12" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>00111010000011000000000100000001</v>
+        <v>01010110010010000000000000000000</v>
       </c>
       <c r="W12" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>0011</v>
+        <v>0101</v>
       </c>
       <c r="X12" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>1010</v>
+        <v>0110</v>
       </c>
       <c r="Y12" s="21" t="str">
         <f t="shared" si="4"/>
-        <v>0000</v>
+        <v>0100</v>
       </c>
       <c r="Z12" s="21" t="str">
         <f t="shared" si="5"/>
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="AA12" s="21" t="str">
         <f t="shared" si="6"/>
@@ -2495,7 +2556,7 @@
       </c>
       <c r="AB12" s="21" t="str">
         <f t="shared" si="7"/>
-        <v>0001</v>
+        <v>0000</v>
       </c>
       <c r="AC12" s="21" t="str">
         <f t="shared" si="8"/>
@@ -2503,23 +2564,23 @@
       </c>
       <c r="AD12" s="21" t="str">
         <f t="shared" si="9"/>
-        <v>0001</v>
+        <v>0000</v>
       </c>
       <c r="AF12" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W12,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AG12" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X12,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>A</v>
+        <v>6</v>
       </c>
       <c r="AH12" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y12,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AI12" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z12,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>C</v>
+        <v>8</v>
       </c>
       <c r="AJ12" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA12,'HEX GEN BACKEND'!L:L,0))</f>
@@ -2527,7 +2588,7 @@
       </c>
       <c r="AK12" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB12,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL12" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC12,'HEX GEN BACKEND'!L:L,0))</f>
@@ -2535,11 +2596,11 @@
       </c>
       <c r="AM12" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD12,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>3A0C0101</v>
+        <v>56480000</v>
       </c>
     </row>
     <row r="13" spans="1:41" x14ac:dyDescent="0.25">
@@ -2549,34 +2610,34 @@
       <c r="B13" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="14" t="s">
+      <c r="C13" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="D13" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="G13" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="H13" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="I13" s="36" t="s">
         <v>67</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="G13" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="H13" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="I13" s="19" t="s">
-        <v>68</v>
       </c>
       <c r="J13" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>4C0C0081</v>
+        <v>3A0C0101</v>
       </c>
       <c r="M13" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C13,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>1001</v>
+        <v>0111</v>
       </c>
       <c r="N13" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D13,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D13,'HEX GEN BACKEND'!G:G,0)),D13)</f>
@@ -2584,7 +2645,7 @@
       </c>
       <c r="O13" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E13,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>10</v>
+        <v>01</v>
       </c>
       <c r="P13" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F13,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F13,'HEX GEN BACKEND'!H:H,0)),F13)</f>
@@ -2600,19 +2661,19 @@
       </c>
       <c r="S13" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I13,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>01</v>
+        <v>10</v>
       </c>
       <c r="U13" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>01001100000011000000000010000001</v>
+        <v>00111010000011000000000100000001</v>
       </c>
       <c r="W13" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>0100</v>
+        <v>0011</v>
       </c>
       <c r="X13" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>1100</v>
+        <v>1010</v>
       </c>
       <c r="Y13" s="21" t="str">
         <f t="shared" si="4"/>
@@ -2628,11 +2689,11 @@
       </c>
       <c r="AB13" s="21" t="str">
         <f t="shared" si="7"/>
-        <v>0000</v>
+        <v>0001</v>
       </c>
       <c r="AC13" s="21" t="str">
         <f t="shared" si="8"/>
-        <v>1000</v>
+        <v>0000</v>
       </c>
       <c r="AD13" s="21" t="str">
         <f t="shared" si="9"/>
@@ -2640,11 +2701,11 @@
       </c>
       <c r="AF13" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W13,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG13" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X13,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>C</v>
+        <v>A</v>
       </c>
       <c r="AH13" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y13,'HEX GEN BACKEND'!L:L,0))</f>
@@ -2660,11 +2721,11 @@
       </c>
       <c r="AK13" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB13,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL13" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC13,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AM13" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD13,'HEX GEN BACKEND'!L:L,0))</f>
@@ -2672,7 +2733,7 @@
       </c>
       <c r="AO13" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>4C0C0081</v>
+        <v>3A0C0101</v>
       </c>
     </row>
     <row r="14" spans="1:41" x14ac:dyDescent="0.25">
@@ -2682,50 +2743,50 @@
       <c r="B14" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="D14" s="14" t="s">
+      <c r="C14" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="G14" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="F14" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="G14" s="17" t="s">
+      <c r="H14" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="I14" s="36" t="s">
         <v>68</v>
-      </c>
-      <c r="H14" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="I14" s="19" t="s">
-        <v>67</v>
       </c>
       <c r="J14" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>40010501</v>
+        <v>4C0C0081</v>
       </c>
       <c r="M14" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C14,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="N14" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D14,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D14,'HEX GEN BACKEND'!G:G,0)),D14)</f>
-        <v>0000000</v>
+        <v>0000011</v>
       </c>
       <c r="O14" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E14,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>00</v>
+        <v>10</v>
       </c>
       <c r="P14" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F14,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F14,'HEX GEN BACKEND'!H:H,0)),F14)</f>
-        <v>0000010</v>
+        <v>0000000</v>
       </c>
       <c r="Q14" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G14,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>01</v>
+        <v>00</v>
       </c>
       <c r="R14" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H14,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H14,'HEX GEN BACKEND'!I:I,0)),H14)</f>
@@ -2733,11 +2794,11 @@
       </c>
       <c r="S14" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I14,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>10</v>
+        <v>01</v>
       </c>
       <c r="U14" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>01000000000000010000010100000001</v>
+        <v>01001100000011000000000010000001</v>
       </c>
       <c r="W14" s="21" t="str">
         <f t="shared" si="2"/>
@@ -2745,7 +2806,7 @@
       </c>
       <c r="X14" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>0000</v>
+        <v>1100</v>
       </c>
       <c r="Y14" s="21" t="str">
         <f t="shared" si="4"/>
@@ -2753,7 +2814,7 @@
       </c>
       <c r="Z14" s="21" t="str">
         <f t="shared" si="5"/>
-        <v>0001</v>
+        <v>1100</v>
       </c>
       <c r="AA14" s="21" t="str">
         <f t="shared" si="6"/>
@@ -2761,11 +2822,11 @@
       </c>
       <c r="AB14" s="21" t="str">
         <f t="shared" si="7"/>
-        <v>0101</v>
+        <v>0000</v>
       </c>
       <c r="AC14" s="21" t="str">
         <f t="shared" si="8"/>
-        <v>0000</v>
+        <v>1000</v>
       </c>
       <c r="AD14" s="21" t="str">
         <f t="shared" si="9"/>
@@ -2777,7 +2838,7 @@
       </c>
       <c r="AG14" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X14,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>C</v>
       </c>
       <c r="AH14" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y14,'HEX GEN BACKEND'!L:L,0))</f>
@@ -2785,7 +2846,7 @@
       </c>
       <c r="AI14" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z14,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>1</v>
+        <v>C</v>
       </c>
       <c r="AJ14" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA14,'HEX GEN BACKEND'!L:L,0))</f>
@@ -2793,11 +2854,11 @@
       </c>
       <c r="AK14" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB14,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AL14" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC14,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AM14" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD14,'HEX GEN BACKEND'!L:L,0))</f>
@@ -2805,7 +2866,7 @@
       </c>
       <c r="AO14" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>40010501</v>
+        <v>4C0C0081</v>
       </c>
     </row>
     <row r="15" spans="1:41" x14ac:dyDescent="0.25">
@@ -2815,34 +2876,34 @@
       <c r="B15" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="14" t="s">
+      <c r="C15" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="D15" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="E15" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="F15" s="16" t="s">
+      <c r="F15" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="G15" s="17" t="s">
+      <c r="G15" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="H15" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="I15" s="36" t="s">
         <v>67</v>
-      </c>
-      <c r="H15" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="I15" s="19" t="s">
-        <v>68</v>
       </c>
       <c r="J15" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>48020481</v>
+        <v>40010501</v>
       </c>
       <c r="M15" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C15,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="N15" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D15,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D15,'HEX GEN BACKEND'!G:G,0)),D15)</f>
@@ -2858,7 +2919,7 @@
       </c>
       <c r="Q15" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G15,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>10</v>
+        <v>01</v>
       </c>
       <c r="R15" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H15,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H15,'HEX GEN BACKEND'!I:I,0)),H15)</f>
@@ -2866,11 +2927,11 @@
       </c>
       <c r="S15" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I15,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>01</v>
+        <v>10</v>
       </c>
       <c r="U15" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>01001000000000100000010010000001</v>
+        <v>01000000000000010000010100000001</v>
       </c>
       <c r="W15" s="21" t="str">
         <f t="shared" si="2"/>
@@ -2878,7 +2939,7 @@
       </c>
       <c r="X15" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>1000</v>
+        <v>0000</v>
       </c>
       <c r="Y15" s="21" t="str">
         <f t="shared" si="4"/>
@@ -2886,7 +2947,7 @@
       </c>
       <c r="Z15" s="21" t="str">
         <f t="shared" si="5"/>
-        <v>0010</v>
+        <v>0001</v>
       </c>
       <c r="AA15" s="21" t="str">
         <f t="shared" si="6"/>
@@ -2894,11 +2955,11 @@
       </c>
       <c r="AB15" s="21" t="str">
         <f t="shared" si="7"/>
-        <v>0100</v>
+        <v>0101</v>
       </c>
       <c r="AC15" s="21" t="str">
         <f t="shared" si="8"/>
-        <v>1000</v>
+        <v>0000</v>
       </c>
       <c r="AD15" s="21" t="str">
         <f t="shared" si="9"/>
@@ -2910,7 +2971,7 @@
       </c>
       <c r="AG15" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X15,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AH15" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y15,'HEX GEN BACKEND'!L:L,0))</f>
@@ -2918,7 +2979,7 @@
       </c>
       <c r="AI15" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z15,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ15" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA15,'HEX GEN BACKEND'!L:L,0))</f>
@@ -2926,11 +2987,11 @@
       </c>
       <c r="AK15" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB15,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AL15" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC15,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AM15" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD15,'HEX GEN BACKEND'!L:L,0))</f>
@@ -2938,7 +2999,7 @@
       </c>
       <c r="AO15" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>48020481</v>
+        <v>40010501</v>
       </c>
     </row>
     <row r="16" spans="1:41" x14ac:dyDescent="0.25">
@@ -2948,34 +3009,34 @@
       <c r="B16" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="D16" s="14" t="s">
+      <c r="C16" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="E16" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="F16" s="16" t="s">
+      <c r="E16" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="F16" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="G16" s="17" t="s">
+      <c r="G16" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="H16" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="I16" s="36" t="s">
         <v>68</v>
-      </c>
-      <c r="H16" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="I16" s="19" t="s">
-        <v>67</v>
       </c>
       <c r="J16" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>36010501</v>
+        <v>48020481</v>
       </c>
       <c r="M16" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C16,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>0110</v>
+        <v>1001</v>
       </c>
       <c r="N16" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D16,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D16,'HEX GEN BACKEND'!G:G,0)),D16)</f>
@@ -2983,7 +3044,7 @@
       </c>
       <c r="O16" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E16,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>11</v>
+        <v>00</v>
       </c>
       <c r="P16" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F16,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F16,'HEX GEN BACKEND'!H:H,0)),F16)</f>
@@ -2991,7 +3052,7 @@
       </c>
       <c r="Q16" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G16,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>01</v>
+        <v>10</v>
       </c>
       <c r="R16" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H16,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H16,'HEX GEN BACKEND'!I:I,0)),H16)</f>
@@ -2999,19 +3060,19 @@
       </c>
       <c r="S16" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I16,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>10</v>
+        <v>01</v>
       </c>
       <c r="U16" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>00110110000000010000010100000001</v>
+        <v>01001000000000100000010010000001</v>
       </c>
       <c r="W16" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>0011</v>
+        <v>0100</v>
       </c>
       <c r="X16" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>0110</v>
+        <v>1000</v>
       </c>
       <c r="Y16" s="21" t="str">
         <f t="shared" si="4"/>
@@ -3019,7 +3080,7 @@
       </c>
       <c r="Z16" s="21" t="str">
         <f t="shared" si="5"/>
-        <v>0001</v>
+        <v>0010</v>
       </c>
       <c r="AA16" s="21" t="str">
         <f t="shared" si="6"/>
@@ -3027,11 +3088,11 @@
       </c>
       <c r="AB16" s="21" t="str">
         <f t="shared" si="7"/>
-        <v>0101</v>
+        <v>0100</v>
       </c>
       <c r="AC16" s="21" t="str">
         <f t="shared" si="8"/>
-        <v>0000</v>
+        <v>1000</v>
       </c>
       <c r="AD16" s="21" t="str">
         <f t="shared" si="9"/>
@@ -3039,11 +3100,11 @@
       </c>
       <c r="AF16" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W16,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG16" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X16,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AH16" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y16,'HEX GEN BACKEND'!L:L,0))</f>
@@ -3051,7 +3112,7 @@
       </c>
       <c r="AI16" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z16,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ16" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA16,'HEX GEN BACKEND'!L:L,0))</f>
@@ -3059,11 +3120,11 @@
       </c>
       <c r="AK16" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB16,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AL16" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC16,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AM16" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD16,'HEX GEN BACKEND'!L:L,0))</f>
@@ -3071,7 +3132,7 @@
       </c>
       <c r="AO16" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>36010501</v>
+        <v>48020481</v>
       </c>
     </row>
     <row r="17" spans="1:41" x14ac:dyDescent="0.25">
@@ -3081,38 +3142,38 @@
       <c r="B17" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="E17" s="15" t="s">
+      <c r="C17" s="30" t="s">
+        <v>182</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="E17" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="F17" s="16" t="s">
-        <v>185</v>
-      </c>
-      <c r="G17" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="H17" s="18" t="s">
+      <c r="F17" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="G17" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="H17" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="I17" s="19" t="s">
-        <v>68</v>
+      <c r="I17" s="36" t="s">
+        <v>67</v>
       </c>
       <c r="J17" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>560F2081</v>
+        <v>36010501</v>
       </c>
       <c r="M17" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C17,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>1010</v>
+        <v>0110</v>
       </c>
       <c r="N17" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D17,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D17,'HEX GEN BACKEND'!G:G,0)),D17)</f>
-        <v>0000011</v>
+        <v>0000000</v>
       </c>
       <c r="O17" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E17,'HEX GEN BACKEND'!D:D,0))</f>
@@ -3120,11 +3181,11 @@
       </c>
       <c r="P17" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F17,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F17,'HEX GEN BACKEND'!H:H,0)),F17)</f>
-        <v>0010000</v>
+        <v>0000010</v>
       </c>
       <c r="Q17" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G17,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>11</v>
+        <v>01</v>
       </c>
       <c r="R17" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H17,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H17,'HEX GEN BACKEND'!I:I,0)),H17)</f>
@@ -3132,15 +3193,15 @@
       </c>
       <c r="S17" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I17,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>01</v>
+        <v>10</v>
       </c>
       <c r="U17" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>01010110000011110010000010000001</v>
+        <v>00110110000000010000010100000001</v>
       </c>
       <c r="W17" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>0101</v>
+        <v>0011</v>
       </c>
       <c r="X17" s="21" t="str">
         <f t="shared" si="3"/>
@@ -3152,19 +3213,19 @@
       </c>
       <c r="Z17" s="21" t="str">
         <f t="shared" si="5"/>
-        <v>1111</v>
+        <v>0001</v>
       </c>
       <c r="AA17" s="21" t="str">
         <f t="shared" si="6"/>
-        <v>0010</v>
+        <v>0000</v>
       </c>
       <c r="AB17" s="21" t="str">
         <f t="shared" si="7"/>
-        <v>0000</v>
+        <v>0101</v>
       </c>
       <c r="AC17" s="21" t="str">
         <f t="shared" si="8"/>
-        <v>1000</v>
+        <v>0000</v>
       </c>
       <c r="AD17" s="21" t="str">
         <f t="shared" si="9"/>
@@ -3172,7 +3233,7 @@
       </c>
       <c r="AF17" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W17,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AG17" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X17,'HEX GEN BACKEND'!L:L,0))</f>
@@ -3184,19 +3245,19 @@
       </c>
       <c r="AI17" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z17,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>F</v>
+        <v>1</v>
       </c>
       <c r="AJ17" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA17,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK17" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB17,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AL17" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC17,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AM17" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD17,'HEX GEN BACKEND'!L:L,0))</f>
@@ -3204,7 +3265,7 @@
       </c>
       <c r="AO17" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>560F2081</v>
+        <v>36010501</v>
       </c>
     </row>
     <row r="18" spans="1:41" x14ac:dyDescent="0.25">
@@ -3212,72 +3273,72 @@
         <v>53</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="F18" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="G18" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="H18" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="I18" s="19" t="s">
-        <v>98</v>
+        <v>16</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="E18" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" s="33" t="s">
+        <v>187</v>
+      </c>
+      <c r="G18" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="H18" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="I18" s="36" t="s">
+        <v>68</v>
       </c>
       <c r="J18" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>E0000000</v>
+        <v>560F2281</v>
       </c>
       <c r="M18" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C18,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>1100</v>
+        <v>1010</v>
       </c>
       <c r="N18" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D18,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D18,'HEX GEN BACKEND'!G:G,0)),D18)</f>
-        <v>0000000</v>
+        <v>0000011</v>
       </c>
       <c r="O18" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E18,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>00</v>
+        <v>11</v>
       </c>
       <c r="P18" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F18,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F18,'HEX GEN BACKEND'!H:H,0)),F18)</f>
-        <v>0000000</v>
+        <v>0010001</v>
       </c>
       <c r="Q18" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G18,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>00</v>
+        <v>11</v>
       </c>
       <c r="R18" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H18,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H18,'HEX GEN BACKEND'!I:I,0)),H18)</f>
-        <v>0000000</v>
+        <v>0000001</v>
       </c>
       <c r="S18" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I18,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>00</v>
+        <v>01</v>
       </c>
       <c r="U18" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>11100000000000000000000000000000</v>
+        <v>01010110000011110010001010000001</v>
       </c>
       <c r="W18" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>1110</v>
+        <v>0101</v>
       </c>
       <c r="X18" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>0000</v>
+        <v>0110</v>
       </c>
       <c r="Y18" s="21" t="str">
         <f t="shared" si="4"/>
@@ -3285,31 +3346,31 @@
       </c>
       <c r="Z18" s="21" t="str">
         <f t="shared" si="5"/>
-        <v>0000</v>
+        <v>1111</v>
       </c>
       <c r="AA18" s="21" t="str">
         <f t="shared" si="6"/>
-        <v>0000</v>
+        <v>0010</v>
       </c>
       <c r="AB18" s="21" t="str">
         <f t="shared" si="7"/>
-        <v>0000</v>
+        <v>0010</v>
       </c>
       <c r="AC18" s="21" t="str">
         <f t="shared" si="8"/>
-        <v>0000</v>
+        <v>1000</v>
       </c>
       <c r="AD18" s="21" t="str">
         <f t="shared" si="9"/>
-        <v>0000</v>
+        <v>0001</v>
       </c>
       <c r="AF18" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W18,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>E</v>
+        <v>5</v>
       </c>
       <c r="AG18" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X18,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AH18" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y18,'HEX GEN BACKEND'!L:L,0))</f>
@@ -3317,27 +3378,27 @@
       </c>
       <c r="AI18" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z18,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>F</v>
       </c>
       <c r="AJ18" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA18,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK18" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB18,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL18" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC18,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AM18" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD18,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO18" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>E0000000</v>
+        <v>560F2281</v>
       </c>
     </row>
     <row r="19" spans="1:41" x14ac:dyDescent="0.25">
@@ -3345,2379 +3406,2659 @@
         <v>54</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="13" t="e">
+        <v>17</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="E19" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="F19" s="33" t="s">
+        <v>189</v>
+      </c>
+      <c r="G19" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="H19" s="35" t="s">
+        <v>189</v>
+      </c>
+      <c r="I19" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="J19" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M19" s="21" t="e">
+        <v>E7FFFFFF</v>
+      </c>
+      <c r="M19" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C19,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N19" s="21">
+        <v>1100</v>
+      </c>
+      <c r="N19" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D19,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D19,'HEX GEN BACKEND'!G:G,0)),D19)</f>
-        <v>0</v>
-      </c>
-      <c r="O19" s="21" t="e">
+        <v>1111111</v>
+      </c>
+      <c r="O19" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E19,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P19" s="21">
+        <v>11</v>
+      </c>
+      <c r="P19" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F19,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F19,'HEX GEN BACKEND'!H:H,0)),F19)</f>
-        <v>0</v>
-      </c>
-      <c r="Q19" s="21" t="e">
+        <v>1111111</v>
+      </c>
+      <c r="Q19" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G19,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R19" s="21">
+        <v>11</v>
+      </c>
+      <c r="R19" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H19,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H19,'HEX GEN BACKEND'!I:I,0)),H19)</f>
-        <v>0</v>
-      </c>
-      <c r="S19" s="21" t="e">
+        <v>1111111</v>
+      </c>
+      <c r="S19" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I19,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U19" s="21" t="e">
+        <v>11</v>
+      </c>
+      <c r="U19" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W19" s="21" t="e">
+        <v>11100111111111111111111111111111</v>
+      </c>
+      <c r="W19" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X19" s="21" t="e">
+        <v>1110</v>
+      </c>
+      <c r="X19" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y19" s="21" t="e">
+        <v>0111</v>
+      </c>
+      <c r="Y19" s="21" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z19" s="21" t="e">
+        <v>1111</v>
+      </c>
+      <c r="Z19" s="21" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA19" s="21" t="e">
+        <v>1111</v>
+      </c>
+      <c r="AA19" s="21" t="str">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB19" s="21" t="e">
+        <v>1111</v>
+      </c>
+      <c r="AB19" s="21" t="str">
         <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC19" s="21" t="e">
+        <v>1111</v>
+      </c>
+      <c r="AC19" s="21" t="str">
         <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AD19" s="21" t="e">
+        <v>1111</v>
+      </c>
+      <c r="AD19" s="21" t="str">
         <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AF19" s="21" t="e">
+        <v>1111</v>
+      </c>
+      <c r="AF19" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W19,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG19" s="21" t="e">
+        <v>E</v>
+      </c>
+      <c r="AG19" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X19,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH19" s="21" t="e">
+        <v>7</v>
+      </c>
+      <c r="AH19" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y19,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI19" s="21" t="e">
+        <v>F</v>
+      </c>
+      <c r="AI19" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z19,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ19" s="21" t="e">
+        <v>F</v>
+      </c>
+      <c r="AJ19" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA19,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK19" s="21" t="e">
+        <v>F</v>
+      </c>
+      <c r="AK19" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB19,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL19" s="21" t="e">
+        <v>F</v>
+      </c>
+      <c r="AL19" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC19,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM19" s="21" t="e">
+        <v>F</v>
+      </c>
+      <c r="AM19" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD19,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO19" s="21" t="e">
+        <v>F</v>
+      </c>
+      <c r="AO19" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>E7FFFFFF</v>
       </c>
     </row>
     <row r="20" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="13" t="e">
+      <c r="C20" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="E20" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="F20" s="42" t="s">
+        <v>164</v>
+      </c>
+      <c r="G20" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="H20" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="I20" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="J20" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M20" s="21" t="e">
+        <v>4C170600</v>
+      </c>
+      <c r="M20" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C20,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N20" s="21">
+        <v>1001</v>
+      </c>
+      <c r="N20" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D20,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D20,'HEX GEN BACKEND'!G:G,0)),D20)</f>
-        <v>0</v>
-      </c>
-      <c r="O20" s="21" t="e">
+        <v>0000101</v>
+      </c>
+      <c r="O20" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E20,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P20" s="21">
+        <v>10</v>
+      </c>
+      <c r="P20" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F20,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F20,'HEX GEN BACKEND'!H:H,0)),F20)</f>
-        <v>0</v>
-      </c>
-      <c r="Q20" s="21" t="e">
+        <v>0000011</v>
+      </c>
+      <c r="Q20" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G20,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R20" s="21">
+        <v>11</v>
+      </c>
+      <c r="R20" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H20,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H20,'HEX GEN BACKEND'!I:I,0)),H20)</f>
-        <v>0</v>
-      </c>
-      <c r="S20" s="21" t="e">
+        <v>0000000</v>
+      </c>
+      <c r="S20" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I20,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U20" s="21" t="e">
+        <v>00</v>
+      </c>
+      <c r="U20" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W20" s="21" t="e">
+        <v>01001100000101110000011000000000</v>
+      </c>
+      <c r="W20" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X20" s="21" t="e">
+        <v>0100</v>
+      </c>
+      <c r="X20" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y20" s="21" t="e">
+        <v>1100</v>
+      </c>
+      <c r="Y20" s="21" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z20" s="21" t="e">
+        <v>0001</v>
+      </c>
+      <c r="Z20" s="21" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA20" s="21" t="e">
+        <v>0111</v>
+      </c>
+      <c r="AA20" s="21" t="str">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB20" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AB20" s="21" t="str">
         <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC20" s="21" t="e">
+        <v>0110</v>
+      </c>
+      <c r="AC20" s="21" t="str">
         <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AD20" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AD20" s="21" t="str">
         <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AF20" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AF20" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W20,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG20" s="21" t="e">
+        <v>4</v>
+      </c>
+      <c r="AG20" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X20,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH20" s="21" t="e">
+        <v>C</v>
+      </c>
+      <c r="AH20" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y20,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI20" s="21" t="e">
+        <v>1</v>
+      </c>
+      <c r="AI20" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z20,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ20" s="21" t="e">
+        <v>7</v>
+      </c>
+      <c r="AJ20" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA20,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK20" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AK20" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB20,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL20" s="21" t="e">
+        <v>6</v>
+      </c>
+      <c r="AL20" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC20,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM20" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AM20" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD20,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO20" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AO20" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>4C170600</v>
       </c>
     </row>
     <row r="21" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="23"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="13" t="e">
+      <c r="C21" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="40" t="s">
+        <v>185</v>
+      </c>
+      <c r="E21" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="F21" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="G21" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="H21" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="I21" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="J21" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M21" s="21" t="e">
+        <v>4F020600</v>
+      </c>
+      <c r="M21" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C21,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N21" s="21">
+        <v>1001</v>
+      </c>
+      <c r="N21" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D21,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D21,'HEX GEN BACKEND'!G:G,0)),D21)</f>
-        <v>0</v>
-      </c>
-      <c r="O21" s="21" t="e">
+        <v>1000000</v>
+      </c>
+      <c r="O21" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E21,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P21" s="21">
+        <v>11</v>
+      </c>
+      <c r="P21" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F21,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F21,'HEX GEN BACKEND'!H:H,0)),F21)</f>
-        <v>0</v>
-      </c>
-      <c r="Q21" s="21" t="e">
+        <v>0000011</v>
+      </c>
+      <c r="Q21" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G21,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R21" s="21">
+        <v>10</v>
+      </c>
+      <c r="R21" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H21,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H21,'HEX GEN BACKEND'!I:I,0)),H21)</f>
-        <v>0</v>
-      </c>
-      <c r="S21" s="21" t="e">
+        <v>0000000</v>
+      </c>
+      <c r="S21" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I21,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U21" s="21" t="e">
+        <v>00</v>
+      </c>
+      <c r="U21" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W21" s="21" t="e">
+        <v>01001111000000100000011000000000</v>
+      </c>
+      <c r="W21" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X21" s="21" t="e">
+        <v>0100</v>
+      </c>
+      <c r="X21" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y21" s="21" t="e">
+        <v>1111</v>
+      </c>
+      <c r="Y21" s="21" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z21" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="Z21" s="21" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA21" s="21" t="e">
+        <v>0010</v>
+      </c>
+      <c r="AA21" s="21" t="str">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB21" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AB21" s="21" t="str">
         <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC21" s="21" t="e">
+        <v>0110</v>
+      </c>
+      <c r="AC21" s="21" t="str">
         <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AD21" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AD21" s="21" t="str">
         <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AF21" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AF21" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W21,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG21" s="21" t="e">
+        <v>4</v>
+      </c>
+      <c r="AG21" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X21,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH21" s="21" t="e">
+        <v>F</v>
+      </c>
+      <c r="AH21" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y21,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI21" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z21,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ21" s="21" t="e">
+        <v>2</v>
+      </c>
+      <c r="AJ21" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA21,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK21" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AK21" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB21,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL21" s="21" t="e">
+        <v>6</v>
+      </c>
+      <c r="AL21" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC21,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM21" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AM21" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD21,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO21" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AO21" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>4F020600</v>
       </c>
     </row>
     <row r="22" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="13" t="e">
+      <c r="C22" s="39" t="s">
+        <v>177</v>
+      </c>
+      <c r="D22" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="E22" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="F22" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="G22" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="H22" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="I22" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="J22" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M22" s="21" t="e">
+        <v>0A0D0701</v>
+      </c>
+      <c r="M22" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C22,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N22" s="21">
+        <v>0001</v>
+      </c>
+      <c r="N22" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D22,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D22,'HEX GEN BACKEND'!G:G,0)),D22)</f>
-        <v>0</v>
-      </c>
-      <c r="O22" s="21" t="e">
+        <v>0000011</v>
+      </c>
+      <c r="O22" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E22,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P22" s="21">
+        <v>01</v>
+      </c>
+      <c r="P22" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F22,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F22,'HEX GEN BACKEND'!H:H,0)),F22)</f>
-        <v>0</v>
-      </c>
-      <c r="Q22" s="21" t="e">
+        <v>0000011</v>
+      </c>
+      <c r="Q22" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G22,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R22" s="21">
+        <v>01</v>
+      </c>
+      <c r="R22" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H22,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H22,'HEX GEN BACKEND'!I:I,0)),H22)</f>
-        <v>0</v>
-      </c>
-      <c r="S22" s="21" t="e">
+        <v>0000001</v>
+      </c>
+      <c r="S22" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I22,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U22" s="21" t="e">
+        <v>10</v>
+      </c>
+      <c r="U22" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W22" s="21" t="e">
+        <v>00001010000011010000011100000001</v>
+      </c>
+      <c r="W22" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X22" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="X22" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y22" s="21" t="e">
+        <v>1010</v>
+      </c>
+      <c r="Y22" s="21" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z22" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="Z22" s="21" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA22" s="21" t="e">
+        <v>1101</v>
+      </c>
+      <c r="AA22" s="21" t="str">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB22" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AB22" s="21" t="str">
         <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC22" s="21" t="e">
+        <v>0111</v>
+      </c>
+      <c r="AC22" s="21" t="str">
         <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AD22" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AD22" s="21" t="str">
         <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AF22" s="21" t="e">
+        <v>0001</v>
+      </c>
+      <c r="AF22" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W22,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG22" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AG22" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X22,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH22" s="21" t="e">
+        <v>A</v>
+      </c>
+      <c r="AH22" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y22,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI22" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AI22" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z22,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ22" s="21" t="e">
+        <v>D</v>
+      </c>
+      <c r="AJ22" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA22,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK22" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AK22" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB22,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL22" s="21" t="e">
+        <v>7</v>
+      </c>
+      <c r="AL22" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC22,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM22" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AM22" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD22,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO22" s="21" t="e">
+        <v>1</v>
+      </c>
+      <c r="AO22" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>0A0D0701</v>
       </c>
     </row>
     <row r="23" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="13" t="e">
+      <c r="C23" s="39" t="s">
+        <v>177</v>
+      </c>
+      <c r="D23" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="E23" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="F23" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="G23" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="H23" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="I23" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="J23" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M23" s="21" t="e">
+        <v>0A150702</v>
+      </c>
+      <c r="M23" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C23,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N23" s="21">
+        <v>0001</v>
+      </c>
+      <c r="N23" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D23,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D23,'HEX GEN BACKEND'!G:G,0)),D23)</f>
-        <v>0</v>
-      </c>
-      <c r="O23" s="21" t="e">
+        <v>0000101</v>
+      </c>
+      <c r="O23" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E23,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P23" s="21">
+        <v>01</v>
+      </c>
+      <c r="P23" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F23,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F23,'HEX GEN BACKEND'!H:H,0)),F23)</f>
-        <v>0</v>
-      </c>
-      <c r="Q23" s="21" t="e">
+        <v>0000011</v>
+      </c>
+      <c r="Q23" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G23,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R23" s="21">
+        <v>01</v>
+      </c>
+      <c r="R23" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H23,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H23,'HEX GEN BACKEND'!I:I,0)),H23)</f>
-        <v>0</v>
-      </c>
-      <c r="S23" s="21" t="e">
+        <v>0000010</v>
+      </c>
+      <c r="S23" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I23,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U23" s="21" t="e">
+        <v>10</v>
+      </c>
+      <c r="U23" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W23" s="21" t="e">
+        <v>00001010000101010000011100000010</v>
+      </c>
+      <c r="W23" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X23" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="X23" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y23" s="21" t="e">
+        <v>1010</v>
+      </c>
+      <c r="Y23" s="21" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z23" s="21" t="e">
+        <v>0001</v>
+      </c>
+      <c r="Z23" s="21" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA23" s="21" t="e">
+        <v>0101</v>
+      </c>
+      <c r="AA23" s="21" t="str">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB23" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AB23" s="21" t="str">
         <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC23" s="21" t="e">
+        <v>0111</v>
+      </c>
+      <c r="AC23" s="21" t="str">
         <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AD23" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AD23" s="21" t="str">
         <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AF23" s="21" t="e">
+        <v>0010</v>
+      </c>
+      <c r="AF23" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W23,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG23" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AG23" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X23,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH23" s="21" t="e">
+        <v>A</v>
+      </c>
+      <c r="AH23" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y23,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI23" s="21" t="e">
+        <v>1</v>
+      </c>
+      <c r="AI23" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z23,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ23" s="21" t="e">
+        <v>5</v>
+      </c>
+      <c r="AJ23" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA23,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK23" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AK23" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB23,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL23" s="21" t="e">
+        <v>7</v>
+      </c>
+      <c r="AL23" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC23,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM23" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AM23" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD23,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO23" s="21" t="e">
+        <v>2</v>
+      </c>
+      <c r="AO23" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>0A150702</v>
       </c>
     </row>
     <row r="24" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="13" t="e">
+      <c r="C24" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="E24" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="F24" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="G24" s="43" t="s">
+        <v>98</v>
+      </c>
+      <c r="H24" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="I24" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="J24" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M24" s="21" t="e">
+        <v>4C1C0081</v>
+      </c>
+      <c r="M24" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C24,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N24" s="21">
+        <v>1001</v>
+      </c>
+      <c r="N24" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D24,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D24,'HEX GEN BACKEND'!G:G,0)),D24)</f>
-        <v>0</v>
-      </c>
-      <c r="O24" s="21" t="e">
+        <v>0000111</v>
+      </c>
+      <c r="O24" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E24,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P24" s="21">
+        <v>10</v>
+      </c>
+      <c r="P24" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F24,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F24,'HEX GEN BACKEND'!H:H,0)),F24)</f>
-        <v>0</v>
-      </c>
-      <c r="Q24" s="21" t="e">
+        <v>0000000</v>
+      </c>
+      <c r="Q24" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G24,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R24" s="21">
+        <v>00</v>
+      </c>
+      <c r="R24" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H24,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H24,'HEX GEN BACKEND'!I:I,0)),H24)</f>
-        <v>0</v>
-      </c>
-      <c r="S24" s="21" t="e">
+        <v>0000001</v>
+      </c>
+      <c r="S24" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I24,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U24" s="21" t="e">
+        <v>01</v>
+      </c>
+      <c r="U24" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W24" s="21" t="e">
+        <v>01001100000111000000000010000001</v>
+      </c>
+      <c r="W24" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X24" s="21" t="e">
+        <v>0100</v>
+      </c>
+      <c r="X24" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y24" s="21" t="e">
+        <v>1100</v>
+      </c>
+      <c r="Y24" s="21" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z24" s="21" t="e">
+        <v>0001</v>
+      </c>
+      <c r="Z24" s="21" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA24" s="21" t="e">
+        <v>1100</v>
+      </c>
+      <c r="AA24" s="21" t="str">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB24" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AB24" s="21" t="str">
         <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC24" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AC24" s="21" t="str">
         <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AD24" s="21" t="e">
+        <v>1000</v>
+      </c>
+      <c r="AD24" s="21" t="str">
         <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AF24" s="21" t="e">
+        <v>0001</v>
+      </c>
+      <c r="AF24" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W24,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG24" s="21" t="e">
+        <v>4</v>
+      </c>
+      <c r="AG24" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X24,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH24" s="21" t="e">
+        <v>C</v>
+      </c>
+      <c r="AH24" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y24,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI24" s="21" t="e">
+        <v>1</v>
+      </c>
+      <c r="AI24" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z24,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ24" s="21" t="e">
+        <v>C</v>
+      </c>
+      <c r="AJ24" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA24,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK24" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AK24" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB24,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL24" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AL24" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC24,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM24" s="21" t="e">
+        <v>8</v>
+      </c>
+      <c r="AM24" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD24,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO24" s="21" t="e">
+        <v>1</v>
+      </c>
+      <c r="AO24" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>4C1C0081</v>
       </c>
     </row>
     <row r="25" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="13" t="e">
+      <c r="C25" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="E25" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="F25" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="G25" s="43" t="s">
+        <v>98</v>
+      </c>
+      <c r="H25" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="I25" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="J25" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M25" s="21" t="e">
+        <v>4C100082</v>
+      </c>
+      <c r="M25" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C25,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N25" s="21">
+        <v>1001</v>
+      </c>
+      <c r="N25" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D25,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D25,'HEX GEN BACKEND'!G:G,0)),D25)</f>
-        <v>0</v>
-      </c>
-      <c r="O25" s="21" t="e">
+        <v>0000100</v>
+      </c>
+      <c r="O25" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E25,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P25" s="21">
+        <v>10</v>
+      </c>
+      <c r="P25" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F25,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F25,'HEX GEN BACKEND'!H:H,0)),F25)</f>
-        <v>0</v>
-      </c>
-      <c r="Q25" s="21" t="e">
+        <v>0000000</v>
+      </c>
+      <c r="Q25" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G25,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R25" s="21">
+        <v>00</v>
+      </c>
+      <c r="R25" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H25,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H25,'HEX GEN BACKEND'!I:I,0)),H25)</f>
-        <v>0</v>
-      </c>
-      <c r="S25" s="21" t="e">
+        <v>0000010</v>
+      </c>
+      <c r="S25" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I25,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U25" s="21" t="e">
+        <v>01</v>
+      </c>
+      <c r="U25" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W25" s="21" t="e">
+        <v>01001100000100000000000010000010</v>
+      </c>
+      <c r="W25" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X25" s="21" t="e">
+        <v>0100</v>
+      </c>
+      <c r="X25" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y25" s="21" t="e">
+        <v>1100</v>
+      </c>
+      <c r="Y25" s="21" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z25" s="21" t="e">
+        <v>0001</v>
+      </c>
+      <c r="Z25" s="21" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA25" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AA25" s="21" t="str">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB25" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AB25" s="21" t="str">
         <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC25" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AC25" s="21" t="str">
         <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AD25" s="21" t="e">
+        <v>1000</v>
+      </c>
+      <c r="AD25" s="21" t="str">
         <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AF25" s="21" t="e">
+        <v>0010</v>
+      </c>
+      <c r="AF25" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W25,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG25" s="21" t="e">
+        <v>4</v>
+      </c>
+      <c r="AG25" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X25,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH25" s="21" t="e">
+        <v>C</v>
+      </c>
+      <c r="AH25" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y25,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI25" s="21" t="e">
+        <v>1</v>
+      </c>
+      <c r="AI25" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z25,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ25" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AJ25" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA25,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK25" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AK25" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB25,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL25" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AL25" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC25,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM25" s="21" t="e">
+        <v>8</v>
+      </c>
+      <c r="AM25" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD25,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO25" s="21" t="e">
+        <v>2</v>
+      </c>
+      <c r="AO25" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>4C100082</v>
       </c>
     </row>
     <row r="26" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A26" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="13" t="e">
+      <c r="C26" s="39" t="s">
+        <v>182</v>
+      </c>
+      <c r="D26" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="E26" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="F26" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="G26" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="H26" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="I26" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="J26" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M26" s="21" t="e">
+        <v>321D0701</v>
+      </c>
+      <c r="M26" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C26,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N26" s="21">
+        <v>0110</v>
+      </c>
+      <c r="N26" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D26,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D26,'HEX GEN BACKEND'!G:G,0)),D26)</f>
-        <v>0</v>
-      </c>
-      <c r="O26" s="21" t="e">
+        <v>0000111</v>
+      </c>
+      <c r="O26" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E26,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P26" s="21">
+        <v>01</v>
+      </c>
+      <c r="P26" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F26,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F26,'HEX GEN BACKEND'!H:H,0)),F26)</f>
-        <v>0</v>
-      </c>
-      <c r="Q26" s="21" t="e">
+        <v>0000011</v>
+      </c>
+      <c r="Q26" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G26,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R26" s="21">
+        <v>01</v>
+      </c>
+      <c r="R26" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H26,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H26,'HEX GEN BACKEND'!I:I,0)),H26)</f>
-        <v>0</v>
-      </c>
-      <c r="S26" s="21" t="e">
+        <v>0000001</v>
+      </c>
+      <c r="S26" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I26,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U26" s="21" t="e">
+        <v>10</v>
+      </c>
+      <c r="U26" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W26" s="21" t="e">
+        <v>00110010000111010000011100000001</v>
+      </c>
+      <c r="W26" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X26" s="21" t="e">
+        <v>0011</v>
+      </c>
+      <c r="X26" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y26" s="21" t="e">
+        <v>0010</v>
+      </c>
+      <c r="Y26" s="21" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z26" s="21" t="e">
+        <v>0001</v>
+      </c>
+      <c r="Z26" s="21" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA26" s="21" t="e">
+        <v>1101</v>
+      </c>
+      <c r="AA26" s="21" t="str">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB26" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AB26" s="21" t="str">
         <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC26" s="21" t="e">
+        <v>0111</v>
+      </c>
+      <c r="AC26" s="21" t="str">
         <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AD26" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AD26" s="21" t="str">
         <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AF26" s="21" t="e">
+        <v>0001</v>
+      </c>
+      <c r="AF26" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W26,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG26" s="21" t="e">
+        <v>3</v>
+      </c>
+      <c r="AG26" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X26,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH26" s="21" t="e">
+        <v>2</v>
+      </c>
+      <c r="AH26" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y26,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI26" s="21" t="e">
+        <v>1</v>
+      </c>
+      <c r="AI26" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z26,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ26" s="21" t="e">
+        <v>D</v>
+      </c>
+      <c r="AJ26" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA26,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK26" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AK26" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB26,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL26" s="21" t="e">
+        <v>7</v>
+      </c>
+      <c r="AL26" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC26,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM26" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AM26" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD26,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO26" s="21" t="e">
+        <v>1</v>
+      </c>
+      <c r="AO26" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>321D0701</v>
       </c>
     </row>
     <row r="27" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A27" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="13" t="e">
+      <c r="C27" s="39" t="s">
+        <v>182</v>
+      </c>
+      <c r="D27" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="E27" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="F27" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="G27" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="H27" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="I27" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="J27" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M27" s="21" t="e">
+        <v>32110702</v>
+      </c>
+      <c r="M27" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C27,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N27" s="21">
+        <v>0110</v>
+      </c>
+      <c r="N27" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D27,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D27,'HEX GEN BACKEND'!G:G,0)),D27)</f>
-        <v>0</v>
-      </c>
-      <c r="O27" s="21" t="e">
+        <v>0000100</v>
+      </c>
+      <c r="O27" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E27,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P27" s="21">
+        <v>01</v>
+      </c>
+      <c r="P27" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F27,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F27,'HEX GEN BACKEND'!H:H,0)),F27)</f>
-        <v>0</v>
-      </c>
-      <c r="Q27" s="21" t="e">
+        <v>0000011</v>
+      </c>
+      <c r="Q27" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G27,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R27" s="21">
+        <v>01</v>
+      </c>
+      <c r="R27" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H27,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H27,'HEX GEN BACKEND'!I:I,0)),H27)</f>
-        <v>0</v>
-      </c>
-      <c r="S27" s="21" t="e">
+        <v>0000010</v>
+      </c>
+      <c r="S27" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I27,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U27" s="21" t="e">
+        <v>10</v>
+      </c>
+      <c r="U27" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W27" s="21" t="e">
+        <v>00110010000100010000011100000010</v>
+      </c>
+      <c r="W27" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X27" s="21" t="e">
+        <v>0011</v>
+      </c>
+      <c r="X27" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y27" s="21" t="e">
+        <v>0010</v>
+      </c>
+      <c r="Y27" s="21" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z27" s="21" t="e">
+        <v>0001</v>
+      </c>
+      <c r="Z27" s="21" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA27" s="21" t="e">
+        <v>0001</v>
+      </c>
+      <c r="AA27" s="21" t="str">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB27" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AB27" s="21" t="str">
         <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC27" s="21" t="e">
+        <v>0111</v>
+      </c>
+      <c r="AC27" s="21" t="str">
         <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AD27" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AD27" s="21" t="str">
         <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AF27" s="21" t="e">
+        <v>0010</v>
+      </c>
+      <c r="AF27" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W27,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG27" s="21" t="e">
+        <v>3</v>
+      </c>
+      <c r="AG27" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X27,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH27" s="21" t="e">
+        <v>2</v>
+      </c>
+      <c r="AH27" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y27,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI27" s="21" t="e">
+        <v>1</v>
+      </c>
+      <c r="AI27" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z27,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ27" s="21" t="e">
+        <v>1</v>
+      </c>
+      <c r="AJ27" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA27,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK27" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AK27" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB27,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL27" s="21" t="e">
+        <v>7</v>
+      </c>
+      <c r="AL27" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC27,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM27" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AM27" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD27,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO27" s="21" t="e">
+        <v>2</v>
+      </c>
+      <c r="AO27" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>32110702</v>
       </c>
     </row>
     <row r="28" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="13" t="e">
+      <c r="C28" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" s="40" t="s">
+        <v>190</v>
+      </c>
+      <c r="E28" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="F28" s="42" t="s">
+        <v>191</v>
+      </c>
+      <c r="G28" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="H28" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="I28" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="J28" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M28" s="21" t="e">
+        <v>566F3881</v>
+      </c>
+      <c r="M28" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C28,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N28" s="21">
+        <v>1010</v>
+      </c>
+      <c r="N28" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D28,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D28,'HEX GEN BACKEND'!G:G,0)),D28)</f>
-        <v>0</v>
-      </c>
-      <c r="O28" s="21" t="e">
+        <v>0011011</v>
+      </c>
+      <c r="O28" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E28,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P28" s="21">
+        <v>11</v>
+      </c>
+      <c r="P28" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F28,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F28,'HEX GEN BACKEND'!H:H,0)),F28)</f>
-        <v>0</v>
-      </c>
-      <c r="Q28" s="21" t="e">
+        <v>0011100</v>
+      </c>
+      <c r="Q28" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G28,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R28" s="21">
+        <v>11</v>
+      </c>
+      <c r="R28" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H28,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H28,'HEX GEN BACKEND'!I:I,0)),H28)</f>
-        <v>0</v>
-      </c>
-      <c r="S28" s="21" t="e">
+        <v>0000001</v>
+      </c>
+      <c r="S28" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I28,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U28" s="21" t="e">
+        <v>01</v>
+      </c>
+      <c r="U28" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W28" s="21" t="e">
+        <v>01010110011011110011100010000001</v>
+      </c>
+      <c r="W28" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X28" s="21" t="e">
+        <v>0101</v>
+      </c>
+      <c r="X28" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y28" s="21" t="e">
+        <v>0110</v>
+      </c>
+      <c r="Y28" s="21" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z28" s="21" t="e">
+        <v>0110</v>
+      </c>
+      <c r="Z28" s="21" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA28" s="21" t="e">
+        <v>1111</v>
+      </c>
+      <c r="AA28" s="21" t="str">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB28" s="21" t="e">
+        <v>0011</v>
+      </c>
+      <c r="AB28" s="21" t="str">
         <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC28" s="21" t="e">
+        <v>1000</v>
+      </c>
+      <c r="AC28" s="21" t="str">
         <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AD28" s="21" t="e">
+        <v>1000</v>
+      </c>
+      <c r="AD28" s="21" t="str">
         <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AF28" s="21" t="e">
+        <v>0001</v>
+      </c>
+      <c r="AF28" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W28,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG28" s="21" t="e">
+        <v>5</v>
+      </c>
+      <c r="AG28" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X28,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH28" s="21" t="e">
+        <v>6</v>
+      </c>
+      <c r="AH28" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y28,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI28" s="21" t="e">
+        <v>6</v>
+      </c>
+      <c r="AI28" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z28,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ28" s="21" t="e">
+        <v>F</v>
+      </c>
+      <c r="AJ28" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA28,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK28" s="21" t="e">
+        <v>3</v>
+      </c>
+      <c r="AK28" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB28,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL28" s="21" t="e">
+        <v>8</v>
+      </c>
+      <c r="AL28" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC28,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM28" s="21" t="e">
+        <v>8</v>
+      </c>
+      <c r="AM28" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD28,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO28" s="21" t="e">
+        <v>1</v>
+      </c>
+      <c r="AO28" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>566F3881</v>
       </c>
     </row>
     <row r="29" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="23"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="13" t="e">
+      <c r="C29" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" s="40" t="s">
+        <v>192</v>
+      </c>
+      <c r="E29" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="F29" s="42" t="s">
+        <v>193</v>
+      </c>
+      <c r="G29" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="H29" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="I29" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="J29" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M29" s="21" t="e">
+        <v>56774682</v>
+      </c>
+      <c r="M29" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C29,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N29" s="21">
+        <v>1010</v>
+      </c>
+      <c r="N29" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D29,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D29,'HEX GEN BACKEND'!G:G,0)),D29)</f>
-        <v>0</v>
-      </c>
-      <c r="O29" s="21" t="e">
+        <v>0011101</v>
+      </c>
+      <c r="O29" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E29,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P29" s="21">
+        <v>11</v>
+      </c>
+      <c r="P29" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F29,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F29,'HEX GEN BACKEND'!H:H,0)),F29)</f>
-        <v>0</v>
-      </c>
-      <c r="Q29" s="21" t="e">
+        <v>0100011</v>
+      </c>
+      <c r="Q29" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G29,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R29" s="21">
+        <v>11</v>
+      </c>
+      <c r="R29" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H29,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H29,'HEX GEN BACKEND'!I:I,0)),H29)</f>
-        <v>0</v>
-      </c>
-      <c r="S29" s="21" t="e">
+        <v>0000010</v>
+      </c>
+      <c r="S29" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I29,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U29" s="21" t="e">
+        <v>01</v>
+      </c>
+      <c r="U29" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W29" s="21" t="e">
+        <v>01010110011101110100011010000010</v>
+      </c>
+      <c r="W29" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X29" s="21" t="e">
+        <v>0101</v>
+      </c>
+      <c r="X29" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y29" s="21" t="e">
+        <v>0110</v>
+      </c>
+      <c r="Y29" s="21" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z29" s="21" t="e">
+        <v>0111</v>
+      </c>
+      <c r="Z29" s="21" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA29" s="21" t="e">
+        <v>0111</v>
+      </c>
+      <c r="AA29" s="21" t="str">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB29" s="21" t="e">
+        <v>0100</v>
+      </c>
+      <c r="AB29" s="21" t="str">
         <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC29" s="21" t="e">
+        <v>0110</v>
+      </c>
+      <c r="AC29" s="21" t="str">
         <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AD29" s="21" t="e">
+        <v>1000</v>
+      </c>
+      <c r="AD29" s="21" t="str">
         <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AF29" s="21" t="e">
+        <v>0010</v>
+      </c>
+      <c r="AF29" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W29,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG29" s="21" t="e">
+        <v>5</v>
+      </c>
+      <c r="AG29" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X29,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH29" s="21" t="e">
+        <v>6</v>
+      </c>
+      <c r="AH29" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y29,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI29" s="21" t="e">
+        <v>7</v>
+      </c>
+      <c r="AI29" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z29,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ29" s="21" t="e">
+        <v>7</v>
+      </c>
+      <c r="AJ29" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA29,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK29" s="21" t="e">
+        <v>4</v>
+      </c>
+      <c r="AK29" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB29,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL29" s="21" t="e">
+        <v>6</v>
+      </c>
+      <c r="AL29" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC29,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM29" s="21" t="e">
+        <v>8</v>
+      </c>
+      <c r="AM29" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD29,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO29" s="21" t="e">
+        <v>2</v>
+      </c>
+      <c r="AO29" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>56774682</v>
       </c>
     </row>
     <row r="30" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A30" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="13" t="e">
+      <c r="C30" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" s="40" t="s">
+        <v>194</v>
+      </c>
+      <c r="E30" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="F30" s="42" t="s">
+        <v>192</v>
+      </c>
+      <c r="G30" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="H30" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="I30" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="J30" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M30" s="21" t="e">
+        <v>568B3A82</v>
+      </c>
+      <c r="M30" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C30,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N30" s="21">
+        <v>1010</v>
+      </c>
+      <c r="N30" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D30,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D30,'HEX GEN BACKEND'!G:G,0)),D30)</f>
-        <v>0</v>
-      </c>
-      <c r="O30" s="21" t="e">
+        <v>0100010</v>
+      </c>
+      <c r="O30" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E30,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P30" s="21">
+        <v>11</v>
+      </c>
+      <c r="P30" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F30,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F30,'HEX GEN BACKEND'!H:H,0)),F30)</f>
-        <v>0</v>
-      </c>
-      <c r="Q30" s="21" t="e">
+        <v>0011101</v>
+      </c>
+      <c r="Q30" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G30,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R30" s="21">
+        <v>11</v>
+      </c>
+      <c r="R30" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H30,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H30,'HEX GEN BACKEND'!I:I,0)),H30)</f>
-        <v>0</v>
-      </c>
-      <c r="S30" s="21" t="e">
+        <v>0000010</v>
+      </c>
+      <c r="S30" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I30,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U30" s="21" t="e">
+        <v>01</v>
+      </c>
+      <c r="U30" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W30" s="21" t="e">
+        <v>01010110100010110011101010000010</v>
+      </c>
+      <c r="W30" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X30" s="21" t="e">
+        <v>0101</v>
+      </c>
+      <c r="X30" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y30" s="21" t="e">
+        <v>0110</v>
+      </c>
+      <c r="Y30" s="21" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z30" s="21" t="e">
+        <v>1000</v>
+      </c>
+      <c r="Z30" s="21" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA30" s="21" t="e">
+        <v>1011</v>
+      </c>
+      <c r="AA30" s="21" t="str">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB30" s="21" t="e">
+        <v>0011</v>
+      </c>
+      <c r="AB30" s="21" t="str">
         <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC30" s="21" t="e">
+        <v>1010</v>
+      </c>
+      <c r="AC30" s="21" t="str">
         <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AD30" s="21" t="e">
+        <v>1000</v>
+      </c>
+      <c r="AD30" s="21" t="str">
         <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AF30" s="21" t="e">
+        <v>0010</v>
+      </c>
+      <c r="AF30" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W30,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG30" s="21" t="e">
+        <v>5</v>
+      </c>
+      <c r="AG30" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X30,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH30" s="21" t="e">
+        <v>6</v>
+      </c>
+      <c r="AH30" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y30,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI30" s="21" t="e">
+        <v>8</v>
+      </c>
+      <c r="AI30" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z30,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ30" s="21" t="e">
+        <v>B</v>
+      </c>
+      <c r="AJ30" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA30,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK30" s="21" t="e">
+        <v>3</v>
+      </c>
+      <c r="AK30" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB30,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL30" s="21" t="e">
+        <v>A</v>
+      </c>
+      <c r="AL30" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC30,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM30" s="21" t="e">
+        <v>8</v>
+      </c>
+      <c r="AM30" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD30,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO30" s="21" t="e">
+        <v>2</v>
+      </c>
+      <c r="AO30" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>568B3A82</v>
       </c>
     </row>
     <row r="31" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="13" t="e">
+      <c r="C31" s="39" t="s">
+        <v>184</v>
+      </c>
+      <c r="D31" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="E31" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="F31" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="G31" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="H31" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="I31" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="J31" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M31" s="21" t="e">
+        <v>40010703</v>
+      </c>
+      <c r="M31" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C31,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N31" s="21">
+        <v>1000</v>
+      </c>
+      <c r="N31" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D31,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D31,'HEX GEN BACKEND'!G:G,0)),D31)</f>
-        <v>0</v>
-      </c>
-      <c r="O31" s="21" t="e">
+        <v>0000000</v>
+      </c>
+      <c r="O31" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E31,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P31" s="21">
+        <v>00</v>
+      </c>
+      <c r="P31" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F31,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F31,'HEX GEN BACKEND'!H:H,0)),F31)</f>
-        <v>0</v>
-      </c>
-      <c r="Q31" s="21" t="e">
+        <v>0000011</v>
+      </c>
+      <c r="Q31" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G31,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R31" s="21">
+        <v>01</v>
+      </c>
+      <c r="R31" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H31,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H31,'HEX GEN BACKEND'!I:I,0)),H31)</f>
-        <v>0</v>
-      </c>
-      <c r="S31" s="21" t="e">
+        <v>0000011</v>
+      </c>
+      <c r="S31" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I31,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U31" s="21" t="e">
+        <v>10</v>
+      </c>
+      <c r="U31" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W31" s="21" t="e">
+        <v>01000000000000010000011100000011</v>
+      </c>
+      <c r="W31" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X31" s="21" t="e">
+        <v>0100</v>
+      </c>
+      <c r="X31" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y31" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="Y31" s="21" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z31" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="Z31" s="21" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA31" s="21" t="e">
+        <v>0001</v>
+      </c>
+      <c r="AA31" s="21" t="str">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB31" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AB31" s="21" t="str">
         <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC31" s="21" t="e">
+        <v>0111</v>
+      </c>
+      <c r="AC31" s="21" t="str">
         <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AD31" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AD31" s="21" t="str">
         <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AF31" s="21" t="e">
+        <v>0011</v>
+      </c>
+      <c r="AF31" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W31,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG31" s="21" t="e">
+        <v>4</v>
+      </c>
+      <c r="AG31" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X31,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH31" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AH31" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y31,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI31" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AI31" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z31,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ31" s="21" t="e">
+        <v>1</v>
+      </c>
+      <c r="AJ31" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA31,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK31" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AK31" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB31,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL31" s="21" t="e">
+        <v>7</v>
+      </c>
+      <c r="AL31" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC31,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM31" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AM31" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD31,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO31" s="21" t="e">
+        <v>3</v>
+      </c>
+      <c r="AO31" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>40010703</v>
       </c>
     </row>
     <row r="32" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="13" t="e">
+      <c r="C32" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="E32" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="F32" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="G32" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="H32" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="I32" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="J32" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M32" s="21" t="e">
+        <v>48020683</v>
+      </c>
+      <c r="M32" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C32,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N32" s="21">
+        <v>1001</v>
+      </c>
+      <c r="N32" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D32,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D32,'HEX GEN BACKEND'!G:G,0)),D32)</f>
-        <v>0</v>
-      </c>
-      <c r="O32" s="21" t="e">
+        <v>0000000</v>
+      </c>
+      <c r="O32" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E32,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P32" s="21">
+        <v>00</v>
+      </c>
+      <c r="P32" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F32,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F32,'HEX GEN BACKEND'!H:H,0)),F32)</f>
-        <v>0</v>
-      </c>
-      <c r="Q32" s="21" t="e">
+        <v>0000011</v>
+      </c>
+      <c r="Q32" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G32,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R32" s="21">
+        <v>10</v>
+      </c>
+      <c r="R32" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H32,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H32,'HEX GEN BACKEND'!I:I,0)),H32)</f>
-        <v>0</v>
-      </c>
-      <c r="S32" s="21" t="e">
+        <v>0000011</v>
+      </c>
+      <c r="S32" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I32,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U32" s="21" t="e">
+        <v>01</v>
+      </c>
+      <c r="U32" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W32" s="21" t="e">
+        <v>01001000000000100000011010000011</v>
+      </c>
+      <c r="W32" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X32" s="21" t="e">
+        <v>0100</v>
+      </c>
+      <c r="X32" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y32" s="21" t="e">
+        <v>1000</v>
+      </c>
+      <c r="Y32" s="21" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z32" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="Z32" s="21" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA32" s="21" t="e">
+        <v>0010</v>
+      </c>
+      <c r="AA32" s="21" t="str">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB32" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AB32" s="21" t="str">
         <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC32" s="21" t="e">
+        <v>0110</v>
+      </c>
+      <c r="AC32" s="21" t="str">
         <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AD32" s="21" t="e">
+        <v>1000</v>
+      </c>
+      <c r="AD32" s="21" t="str">
         <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AF32" s="21" t="e">
+        <v>0011</v>
+      </c>
+      <c r="AF32" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W32,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG32" s="21" t="e">
+        <v>4</v>
+      </c>
+      <c r="AG32" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X32,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH32" s="21" t="e">
+        <v>8</v>
+      </c>
+      <c r="AH32" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y32,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI32" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AI32" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z32,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ32" s="21" t="e">
+        <v>2</v>
+      </c>
+      <c r="AJ32" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA32,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK32" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AK32" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB32,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL32" s="21" t="e">
+        <v>6</v>
+      </c>
+      <c r="AL32" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC32,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM32" s="21" t="e">
+        <v>8</v>
+      </c>
+      <c r="AM32" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD32,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO32" s="21" t="e">
+        <v>3</v>
+      </c>
+      <c r="AO32" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>48020683</v>
       </c>
     </row>
     <row r="33" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="23" t="e">
+      <c r="C33" s="39" t="s">
+        <v>182</v>
+      </c>
+      <c r="D33" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="E33" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="F33" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="G33" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="H33" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="I33" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="J33" s="22" t="str">
         <f>AO33</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M33" s="21" t="e">
+        <v>36010703</v>
+      </c>
+      <c r="M33" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C33,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N33" s="21">
+        <v>0110</v>
+      </c>
+      <c r="N33" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D33,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D33,'HEX GEN BACKEND'!G:G,0)),D33)</f>
-        <v>0</v>
-      </c>
-      <c r="O33" s="21" t="e">
+        <v>0000000</v>
+      </c>
+      <c r="O33" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E33,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P33" s="21">
+        <v>11</v>
+      </c>
+      <c r="P33" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F33,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F33,'HEX GEN BACKEND'!H:H,0)),F33)</f>
-        <v>0</v>
-      </c>
-      <c r="Q33" s="21" t="e">
+        <v>0000011</v>
+      </c>
+      <c r="Q33" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G33,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R33" s="21">
+        <v>01</v>
+      </c>
+      <c r="R33" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H33,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H33,'HEX GEN BACKEND'!I:I,0)),H33)</f>
-        <v>0</v>
-      </c>
-      <c r="S33" s="21" t="e">
+        <v>0000011</v>
+      </c>
+      <c r="S33" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I33,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U33" s="21" t="e">
+        <v>10</v>
+      </c>
+      <c r="U33" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W33" s="21" t="e">
+        <v>00110110000000010000011100000011</v>
+      </c>
+      <c r="W33" s="21" t="str">
         <f t="shared" ref="W33:W96" si="11">MID(U33,1,4)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="X33" s="21" t="e">
+        <v>0011</v>
+      </c>
+      <c r="X33" s="21" t="str">
         <f t="shared" ref="X33:X96" si="12">MID(U33,5,4)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y33" s="21" t="e">
+        <v>0110</v>
+      </c>
+      <c r="Y33" s="21" t="str">
         <f t="shared" ref="Y33:Y96" si="13">MID(U33,9,4)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Z33" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="Z33" s="21" t="str">
         <f t="shared" ref="Z33:Z96" si="14">MID(U33,13,4)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AA33" s="21" t="e">
+        <v>0001</v>
+      </c>
+      <c r="AA33" s="21" t="str">
         <f t="shared" ref="AA33:AA96" si="15">MID(U33,17,4)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AB33" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AB33" s="21" t="str">
         <f t="shared" ref="AB33:AB96" si="16">MID(U33,21,4)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AC33" s="21" t="e">
+        <v>0111</v>
+      </c>
+      <c r="AC33" s="21" t="str">
         <f t="shared" ref="AC33:AC96" si="17">MID(U33,25,4)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AD33" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AD33" s="21" t="str">
         <f t="shared" ref="AD33:AD96" si="18">MID(U33,29,4)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AF33" s="21" t="e">
+        <v>0011</v>
+      </c>
+      <c r="AF33" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W33,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG33" s="21" t="e">
+        <v>3</v>
+      </c>
+      <c r="AG33" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X33,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH33" s="21" t="e">
+        <v>6</v>
+      </c>
+      <c r="AH33" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y33,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI33" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AI33" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z33,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ33" s="21" t="e">
+        <v>1</v>
+      </c>
+      <c r="AJ33" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA33,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK33" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AK33" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB33,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL33" s="21" t="e">
+        <v>7</v>
+      </c>
+      <c r="AL33" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC33,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM33" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AM33" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD33,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO33" s="21" t="e">
+        <v>3</v>
+      </c>
+      <c r="AO33" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>36010703</v>
       </c>
     </row>
     <row r="34" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A34" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="C34" s="22"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="23" t="e">
+      <c r="C34" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" s="40" t="s">
+        <v>195</v>
+      </c>
+      <c r="E34" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="F34" s="42" t="s">
+        <v>196</v>
+      </c>
+      <c r="G34" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="H34" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="I34" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="J34" s="22" t="str">
         <f t="shared" ref="J34:J97" si="19">AO34</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M34" s="21" t="e">
+        <v>56874883</v>
+      </c>
+      <c r="M34" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C34,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N34" s="21">
+        <v>1010</v>
+      </c>
+      <c r="N34" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D34,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D34,'HEX GEN BACKEND'!G:G,0)),D34)</f>
-        <v>0</v>
-      </c>
-      <c r="O34" s="21" t="e">
+        <v>0100001</v>
+      </c>
+      <c r="O34" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E34,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P34" s="21">
+        <v>11</v>
+      </c>
+      <c r="P34" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F34,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F34,'HEX GEN BACKEND'!H:H,0)),F34)</f>
-        <v>0</v>
-      </c>
-      <c r="Q34" s="21" t="e">
+        <v>0100100</v>
+      </c>
+      <c r="Q34" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G34,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R34" s="21">
+        <v>11</v>
+      </c>
+      <c r="R34" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H34,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H34,'HEX GEN BACKEND'!I:I,0)),H34)</f>
-        <v>0</v>
-      </c>
-      <c r="S34" s="21" t="e">
+        <v>0000011</v>
+      </c>
+      <c r="S34" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I34,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U34" s="21" t="e">
+        <v>01</v>
+      </c>
+      <c r="U34" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W34" s="21" t="e">
+        <v>01010110100001110100100010000011</v>
+      </c>
+      <c r="W34" s="21" t="str">
         <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X34" s="21" t="e">
+        <v>0101</v>
+      </c>
+      <c r="X34" s="21" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y34" s="21" t="e">
+        <v>0110</v>
+      </c>
+      <c r="Y34" s="21" t="str">
         <f t="shared" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z34" s="21" t="e">
+        <v>1000</v>
+      </c>
+      <c r="Z34" s="21" t="str">
         <f t="shared" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA34" s="21" t="e">
+        <v>0111</v>
+      </c>
+      <c r="AA34" s="21" t="str">
         <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB34" s="21" t="e">
+        <v>0100</v>
+      </c>
+      <c r="AB34" s="21" t="str">
         <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC34" s="21" t="e">
+        <v>1000</v>
+      </c>
+      <c r="AC34" s="21" t="str">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AD34" s="21" t="e">
+        <v>1000</v>
+      </c>
+      <c r="AD34" s="21" t="str">
         <f t="shared" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AF34" s="21" t="e">
+        <v>0011</v>
+      </c>
+      <c r="AF34" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W34,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG34" s="21" t="e">
+        <v>5</v>
+      </c>
+      <c r="AG34" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X34,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH34" s="21" t="e">
+        <v>6</v>
+      </c>
+      <c r="AH34" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y34,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI34" s="21" t="e">
+        <v>8</v>
+      </c>
+      <c r="AI34" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z34,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ34" s="21" t="e">
+        <v>7</v>
+      </c>
+      <c r="AJ34" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA34,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK34" s="21" t="e">
+        <v>4</v>
+      </c>
+      <c r="AK34" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB34,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL34" s="21" t="e">
+        <v>8</v>
+      </c>
+      <c r="AL34" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC34,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM34" s="21" t="e">
+        <v>8</v>
+      </c>
+      <c r="AM34" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD34,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO34" s="21" t="e">
+        <v>3</v>
+      </c>
+      <c r="AO34" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>56874883</v>
       </c>
     </row>
     <row r="35" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A35" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="C35" s="23"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="23" t="e">
+      <c r="C35" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" s="40" t="s">
+        <v>188</v>
+      </c>
+      <c r="E35" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="F35" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="G35" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="H35" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="I35" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="J35" s="22" t="str">
         <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M35" s="21" t="e">
+        <v>56530180</v>
+      </c>
+      <c r="M35" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C35,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N35" s="21">
+        <v>1010</v>
+      </c>
+      <c r="N35" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D35,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D35,'HEX GEN BACKEND'!G:G,0)),D35)</f>
-        <v>0</v>
-      </c>
-      <c r="O35" s="21" t="e">
+        <v>0010100</v>
+      </c>
+      <c r="O35" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E35,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P35" s="21">
+        <v>11</v>
+      </c>
+      <c r="P35" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F35,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F35,'HEX GEN BACKEND'!H:H,0)),F35)</f>
-        <v>0</v>
-      </c>
-      <c r="Q35" s="21" t="e">
+        <v>0000000</v>
+      </c>
+      <c r="Q35" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G35,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R35" s="21">
+        <v>11</v>
+      </c>
+      <c r="R35" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H35,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H35,'HEX GEN BACKEND'!I:I,0)),H35)</f>
-        <v>0</v>
-      </c>
-      <c r="S35" s="21" t="e">
+        <v>0000000</v>
+      </c>
+      <c r="S35" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I35,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U35" s="21" t="e">
+        <v>11</v>
+      </c>
+      <c r="U35" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W35" s="21" t="e">
+        <v>01010110010100110000000110000000</v>
+      </c>
+      <c r="W35" s="21" t="str">
         <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X35" s="21" t="e">
+        <v>0101</v>
+      </c>
+      <c r="X35" s="21" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y35" s="21" t="e">
+        <v>0110</v>
+      </c>
+      <c r="Y35" s="21" t="str">
         <f t="shared" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z35" s="21" t="e">
+        <v>0101</v>
+      </c>
+      <c r="Z35" s="21" t="str">
         <f t="shared" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA35" s="21" t="e">
+        <v>0011</v>
+      </c>
+      <c r="AA35" s="21" t="str">
         <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB35" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AB35" s="21" t="str">
         <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC35" s="21" t="e">
+        <v>0001</v>
+      </c>
+      <c r="AC35" s="21" t="str">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AD35" s="21" t="e">
+        <v>1000</v>
+      </c>
+      <c r="AD35" s="21" t="str">
         <f t="shared" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AF35" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AF35" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W35,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG35" s="21" t="e">
+        <v>5</v>
+      </c>
+      <c r="AG35" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X35,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH35" s="21" t="e">
+        <v>6</v>
+      </c>
+      <c r="AH35" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y35,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI35" s="21" t="e">
+        <v>5</v>
+      </c>
+      <c r="AI35" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z35,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ35" s="21" t="e">
+        <v>3</v>
+      </c>
+      <c r="AJ35" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA35,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK35" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AK35" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB35,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL35" s="21" t="e">
+        <v>1</v>
+      </c>
+      <c r="AL35" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC35,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM35" s="21" t="e">
+        <v>8</v>
+      </c>
+      <c r="AM35" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD35,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO35" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AO35" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>56530180</v>
       </c>
     </row>
     <row r="36" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A36" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="B36" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C36" s="13"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="23" t="e">
+      <c r="B36" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="E36" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="F36" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="G36" s="43" t="s">
+        <v>98</v>
+      </c>
+      <c r="H36" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="I36" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="J36" s="22" t="str">
         <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M36" s="21" t="e">
+        <v>E20C0000</v>
+      </c>
+      <c r="M36" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C36,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N36" s="21">
+        <v>1100</v>
+      </c>
+      <c r="N36" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D36,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D36,'HEX GEN BACKEND'!G:G,0)),D36)</f>
-        <v>0</v>
-      </c>
-      <c r="O36" s="21" t="e">
+        <v>0000011</v>
+      </c>
+      <c r="O36" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E36,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P36" s="21">
+        <v>01</v>
+      </c>
+      <c r="P36" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F36,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F36,'HEX GEN BACKEND'!H:H,0)),F36)</f>
-        <v>0</v>
-      </c>
-      <c r="Q36" s="21" t="e">
+        <v>0000000</v>
+      </c>
+      <c r="Q36" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G36,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R36" s="21">
+        <v>00</v>
+      </c>
+      <c r="R36" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H36,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H36,'HEX GEN BACKEND'!I:I,0)),H36)</f>
-        <v>0</v>
-      </c>
-      <c r="S36" s="21" t="e">
+        <v>0000000</v>
+      </c>
+      <c r="S36" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I36,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U36" s="21" t="e">
+        <v>00</v>
+      </c>
+      <c r="U36" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W36" s="21" t="e">
+        <v>11100010000011000000000000000000</v>
+      </c>
+      <c r="W36" s="21" t="str">
         <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X36" s="21" t="e">
+        <v>1110</v>
+      </c>
+      <c r="X36" s="21" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y36" s="21" t="e">
+        <v>0010</v>
+      </c>
+      <c r="Y36" s="21" t="str">
         <f t="shared" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z36" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="Z36" s="21" t="str">
         <f t="shared" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA36" s="21" t="e">
+        <v>1100</v>
+      </c>
+      <c r="AA36" s="21" t="str">
         <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB36" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AB36" s="21" t="str">
         <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC36" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AC36" s="21" t="str">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AD36" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AD36" s="21" t="str">
         <f t="shared" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AF36" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AF36" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W36,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG36" s="21" t="e">
+        <v>E</v>
+      </c>
+      <c r="AG36" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X36,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH36" s="21" t="e">
+        <v>2</v>
+      </c>
+      <c r="AH36" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y36,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI36" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AI36" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z36,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ36" s="21" t="e">
+        <v>C</v>
+      </c>
+      <c r="AJ36" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA36,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK36" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AK36" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB36,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL36" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AL36" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC36,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM36" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AM36" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD36,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO36" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AO36" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>E20C0000</v>
       </c>
     </row>
     <row r="37" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A37" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="B37" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="18"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="23" t="e">
+      <c r="B37" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="E37" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="F37" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="G37" s="43" t="s">
+        <v>98</v>
+      </c>
+      <c r="H37" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="I37" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="J37" s="22" t="str">
         <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M37" s="21" t="e">
+        <v>E2140000</v>
+      </c>
+      <c r="M37" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C37,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N37" s="21">
+        <v>1100</v>
+      </c>
+      <c r="N37" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D37,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D37,'HEX GEN BACKEND'!G:G,0)),D37)</f>
-        <v>0</v>
-      </c>
-      <c r="O37" s="21" t="e">
+        <v>0000101</v>
+      </c>
+      <c r="O37" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E37,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P37" s="21">
+        <v>01</v>
+      </c>
+      <c r="P37" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F37,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F37,'HEX GEN BACKEND'!H:H,0)),F37)</f>
-        <v>0</v>
-      </c>
-      <c r="Q37" s="21" t="e">
+        <v>0000000</v>
+      </c>
+      <c r="Q37" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G37,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R37" s="21">
+        <v>00</v>
+      </c>
+      <c r="R37" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H37,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H37,'HEX GEN BACKEND'!I:I,0)),H37)</f>
-        <v>0</v>
-      </c>
-      <c r="S37" s="21" t="e">
+        <v>0000000</v>
+      </c>
+      <c r="S37" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I37,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U37" s="21" t="e">
+        <v>00</v>
+      </c>
+      <c r="U37" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W37" s="21" t="e">
+        <v>11100010000101000000000000000000</v>
+      </c>
+      <c r="W37" s="21" t="str">
         <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X37" s="21" t="e">
+        <v>1110</v>
+      </c>
+      <c r="X37" s="21" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y37" s="21" t="e">
+        <v>0010</v>
+      </c>
+      <c r="Y37" s="21" t="str">
         <f t="shared" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z37" s="21" t="e">
+        <v>0001</v>
+      </c>
+      <c r="Z37" s="21" t="str">
         <f t="shared" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA37" s="21" t="e">
+        <v>0100</v>
+      </c>
+      <c r="AA37" s="21" t="str">
         <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB37" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AB37" s="21" t="str">
         <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC37" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AC37" s="21" t="str">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AD37" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AD37" s="21" t="str">
         <f t="shared" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AF37" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AF37" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W37,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG37" s="21" t="e">
+        <v>E</v>
+      </c>
+      <c r="AG37" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X37,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH37" s="21" t="e">
+        <v>2</v>
+      </c>
+      <c r="AH37" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y37,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI37" s="21" t="e">
+        <v>1</v>
+      </c>
+      <c r="AI37" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z37,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ37" s="21" t="e">
+        <v>4</v>
+      </c>
+      <c r="AJ37" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA37,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK37" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AK37" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB37,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL37" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AL37" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC37,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM37" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AM37" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD37,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO37" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AO37" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>E2140000</v>
       </c>
     </row>
     <row r="38" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A38" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="B38" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C38" s="13"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="18"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="23" t="e">
+      <c r="B38" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="E38" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="F38" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="G38" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="H38" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="I38" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="J38" s="22" t="str">
         <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M38" s="21" t="e">
+        <v>E20D0200</v>
+      </c>
+      <c r="M38" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C38,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N38" s="21">
+        <v>1100</v>
+      </c>
+      <c r="N38" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D38,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D38,'HEX GEN BACKEND'!G:G,0)),D38)</f>
-        <v>0</v>
-      </c>
-      <c r="O38" s="21" t="e">
+        <v>0000011</v>
+      </c>
+      <c r="O38" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E38,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P38" s="21">
+        <v>01</v>
+      </c>
+      <c r="P38" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F38,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F38,'HEX GEN BACKEND'!H:H,0)),F38)</f>
-        <v>0</v>
-      </c>
-      <c r="Q38" s="21" t="e">
+        <v>0000001</v>
+      </c>
+      <c r="Q38" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G38,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R38" s="21">
+        <v>01</v>
+      </c>
+      <c r="R38" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H38,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H38,'HEX GEN BACKEND'!I:I,0)),H38)</f>
-        <v>0</v>
-      </c>
-      <c r="S38" s="21" t="e">
+        <v>0000000</v>
+      </c>
+      <c r="S38" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I38,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U38" s="21" t="e">
+        <v>00</v>
+      </c>
+      <c r="U38" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W38" s="21" t="e">
+        <v>11100010000011010000001000000000</v>
+      </c>
+      <c r="W38" s="21" t="str">
         <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X38" s="21" t="e">
+        <v>1110</v>
+      </c>
+      <c r="X38" s="21" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y38" s="21" t="e">
+        <v>0010</v>
+      </c>
+      <c r="Y38" s="21" t="str">
         <f t="shared" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z38" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="Z38" s="21" t="str">
         <f t="shared" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA38" s="21" t="e">
+        <v>1101</v>
+      </c>
+      <c r="AA38" s="21" t="str">
         <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB38" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AB38" s="21" t="str">
         <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC38" s="21" t="e">
+        <v>0010</v>
+      </c>
+      <c r="AC38" s="21" t="str">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AD38" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AD38" s="21" t="str">
         <f t="shared" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AF38" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AF38" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W38,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG38" s="21" t="e">
+        <v>E</v>
+      </c>
+      <c r="AG38" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X38,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH38" s="21" t="e">
+        <v>2</v>
+      </c>
+      <c r="AH38" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y38,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI38" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AI38" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z38,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ38" s="21" t="e">
+        <v>D</v>
+      </c>
+      <c r="AJ38" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA38,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK38" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AK38" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB38,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL38" s="21" t="e">
+        <v>2</v>
+      </c>
+      <c r="AL38" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC38,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM38" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AM38" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD38,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO38" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AO38" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>E20D0200</v>
       </c>
     </row>
     <row r="39" spans="1:41" x14ac:dyDescent="0.25">
@@ -5727,116 +6068,130 @@
       <c r="B39" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="13"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="23" t="e">
+      <c r="C39" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="E39" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="F39" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="G39" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="H39" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="I39" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="J39" s="22" t="str">
         <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M39" s="21" t="e">
+        <v>562C0000</v>
+      </c>
+      <c r="M39" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C39,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N39" s="21">
+        <v>1010</v>
+      </c>
+      <c r="N39" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D39,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D39,'HEX GEN BACKEND'!G:G,0)),D39)</f>
-        <v>0</v>
-      </c>
-      <c r="O39" s="21" t="e">
+        <v>0001011</v>
+      </c>
+      <c r="O39" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E39,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P39" s="21">
+        <v>11</v>
+      </c>
+      <c r="P39" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F39,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F39,'HEX GEN BACKEND'!H:H,0)),F39)</f>
-        <v>0</v>
-      </c>
-      <c r="Q39" s="21" t="e">
+        <v>0000000</v>
+      </c>
+      <c r="Q39" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G39,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R39" s="21">
+        <v>00</v>
+      </c>
+      <c r="R39" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H39,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H39,'HEX GEN BACKEND'!I:I,0)),H39)</f>
-        <v>0</v>
-      </c>
-      <c r="S39" s="21" t="e">
+        <v>0000000</v>
+      </c>
+      <c r="S39" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I39,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U39" s="21" t="e">
+        <v>00</v>
+      </c>
+      <c r="U39" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W39" s="21" t="e">
+        <v>01010110001011000000000000000000</v>
+      </c>
+      <c r="W39" s="21" t="str">
         <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X39" s="21" t="e">
+        <v>0101</v>
+      </c>
+      <c r="X39" s="21" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y39" s="21" t="e">
+        <v>0110</v>
+      </c>
+      <c r="Y39" s="21" t="str">
         <f t="shared" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z39" s="21" t="e">
+        <v>0010</v>
+      </c>
+      <c r="Z39" s="21" t="str">
         <f t="shared" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA39" s="21" t="e">
+        <v>1100</v>
+      </c>
+      <c r="AA39" s="21" t="str">
         <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB39" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AB39" s="21" t="str">
         <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC39" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AC39" s="21" t="str">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AD39" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AD39" s="21" t="str">
         <f t="shared" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AF39" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AF39" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W39,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG39" s="21" t="e">
+        <v>5</v>
+      </c>
+      <c r="AG39" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X39,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH39" s="21" t="e">
+        <v>6</v>
+      </c>
+      <c r="AH39" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y39,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI39" s="21" t="e">
+        <v>2</v>
+      </c>
+      <c r="AI39" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z39,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ39" s="21" t="e">
+        <v>C</v>
+      </c>
+      <c r="AJ39" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA39,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK39" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AK39" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB39,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL39" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AL39" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC39,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM39" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AM39" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD39,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO39" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AO39" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>562C0000</v>
       </c>
     </row>
     <row r="40" spans="1:41" x14ac:dyDescent="0.25">
@@ -5853,7 +6208,7 @@
       <c r="G40" s="17"/>
       <c r="H40" s="18"/>
       <c r="I40" s="19"/>
-      <c r="J40" s="23" t="e">
+      <c r="J40" s="22" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
@@ -5972,7 +6327,7 @@
       <c r="G41" s="17"/>
       <c r="H41" s="18"/>
       <c r="I41" s="19"/>
-      <c r="J41" s="23" t="e">
+      <c r="J41" s="22" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
@@ -6091,7 +6446,7 @@
       <c r="G42" s="17"/>
       <c r="H42" s="18"/>
       <c r="I42" s="19"/>
-      <c r="J42" s="23" t="e">
+      <c r="J42" s="22" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
@@ -6210,7 +6565,7 @@
       <c r="G43" s="17"/>
       <c r="H43" s="18"/>
       <c r="I43" s="19"/>
-      <c r="J43" s="23" t="e">
+      <c r="J43" s="22" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
@@ -6329,7 +6684,7 @@
       <c r="G44" s="17"/>
       <c r="H44" s="18"/>
       <c r="I44" s="19"/>
-      <c r="J44" s="23" t="e">
+      <c r="J44" s="22" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
@@ -6448,7 +6803,7 @@
       <c r="G45" s="17"/>
       <c r="H45" s="18"/>
       <c r="I45" s="19"/>
-      <c r="J45" s="23" t="e">
+      <c r="J45" s="22" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
@@ -6567,7 +6922,7 @@
       <c r="G46" s="17"/>
       <c r="H46" s="18"/>
       <c r="I46" s="19"/>
-      <c r="J46" s="23" t="e">
+      <c r="J46" s="22" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
@@ -6686,7 +7041,7 @@
       <c r="G47" s="17"/>
       <c r="H47" s="18"/>
       <c r="I47" s="19"/>
-      <c r="J47" s="23" t="e">
+      <c r="J47" s="22" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
@@ -6805,7 +7160,7 @@
       <c r="G48" s="17"/>
       <c r="H48" s="18"/>
       <c r="I48" s="19"/>
-      <c r="J48" s="23" t="e">
+      <c r="J48" s="22" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
@@ -6924,7 +7279,7 @@
       <c r="G49" s="17"/>
       <c r="H49" s="18"/>
       <c r="I49" s="19"/>
-      <c r="J49" s="23" t="e">
+      <c r="J49" s="22" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
@@ -7043,7 +7398,7 @@
       <c r="G50" s="17"/>
       <c r="H50" s="18"/>
       <c r="I50" s="19"/>
-      <c r="J50" s="23" t="e">
+      <c r="J50" s="22" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
@@ -7162,7 +7517,7 @@
       <c r="G51" s="17"/>
       <c r="H51" s="18"/>
       <c r="I51" s="19"/>
-      <c r="J51" s="23" t="e">
+      <c r="J51" s="22" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
@@ -7281,7 +7636,7 @@
       <c r="G52" s="17"/>
       <c r="H52" s="18"/>
       <c r="I52" s="19"/>
-      <c r="J52" s="23" t="e">
+      <c r="J52" s="22" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
@@ -7400,7 +7755,7 @@
       <c r="G53" s="17"/>
       <c r="H53" s="18"/>
       <c r="I53" s="19"/>
-      <c r="J53" s="23" t="e">
+      <c r="J53" s="22" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
@@ -7519,7 +7874,7 @@
       <c r="G54" s="17"/>
       <c r="H54" s="18"/>
       <c r="I54" s="19"/>
-      <c r="J54" s="23" t="e">
+      <c r="J54" s="22" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
@@ -7638,7 +7993,7 @@
       <c r="G55" s="17"/>
       <c r="H55" s="18"/>
       <c r="I55" s="19"/>
-      <c r="J55" s="23" t="e">
+      <c r="J55" s="22" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
@@ -7757,7 +8112,7 @@
       <c r="G56" s="17"/>
       <c r="H56" s="18"/>
       <c r="I56" s="19"/>
-      <c r="J56" s="23" t="e">
+      <c r="J56" s="22" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
@@ -7876,7 +8231,7 @@
       <c r="G57" s="17"/>
       <c r="H57" s="18"/>
       <c r="I57" s="19"/>
-      <c r="J57" s="23" t="e">
+      <c r="J57" s="22" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
@@ -7995,7 +8350,7 @@
       <c r="G58" s="17"/>
       <c r="H58" s="18"/>
       <c r="I58" s="19"/>
-      <c r="J58" s="23" t="e">
+      <c r="J58" s="22" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
@@ -8114,7 +8469,7 @@
       <c r="G59" s="17"/>
       <c r="H59" s="18"/>
       <c r="I59" s="19"/>
-      <c r="J59" s="23" t="e">
+      <c r="J59" s="22" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
@@ -8233,7 +8588,7 @@
       <c r="G60" s="17"/>
       <c r="H60" s="18"/>
       <c r="I60" s="19"/>
-      <c r="J60" s="23" t="e">
+      <c r="J60" s="22" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
@@ -8352,7 +8707,7 @@
       <c r="G61" s="17"/>
       <c r="H61" s="18"/>
       <c r="I61" s="19"/>
-      <c r="J61" s="23" t="e">
+      <c r="J61" s="22" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
@@ -8471,7 +8826,7 @@
       <c r="G62" s="17"/>
       <c r="H62" s="18"/>
       <c r="I62" s="19"/>
-      <c r="J62" s="23" t="e">
+      <c r="J62" s="22" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
@@ -8590,7 +8945,7 @@
       <c r="G63" s="17"/>
       <c r="H63" s="18"/>
       <c r="I63" s="19"/>
-      <c r="J63" s="23" t="e">
+      <c r="J63" s="22" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
@@ -8709,7 +9064,7 @@
       <c r="G64" s="17"/>
       <c r="H64" s="18"/>
       <c r="I64" s="19"/>
-      <c r="J64" s="23" t="e">
+      <c r="J64" s="22" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
@@ -8828,7 +9183,7 @@
       <c r="G65" s="17"/>
       <c r="H65" s="18"/>
       <c r="I65" s="19"/>
-      <c r="J65" s="23" t="e">
+      <c r="J65" s="22" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
@@ -8943,7 +9298,7 @@
       <c r="G66" s="17"/>
       <c r="H66" s="18"/>
       <c r="I66" s="19"/>
-      <c r="J66" s="23" t="e">
+      <c r="J66" s="22" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
@@ -9058,7 +9413,7 @@
       <c r="G67" s="17"/>
       <c r="H67" s="18"/>
       <c r="I67" s="19"/>
-      <c r="J67" s="23" t="e">
+      <c r="J67" s="22" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
@@ -9173,7 +9528,7 @@
       <c r="G68" s="17"/>
       <c r="H68" s="18"/>
       <c r="I68" s="19"/>
-      <c r="J68" s="23" t="e">
+      <c r="J68" s="22" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
@@ -9288,7 +9643,7 @@
       <c r="G69" s="17"/>
       <c r="H69" s="18"/>
       <c r="I69" s="19"/>
-      <c r="J69" s="23" t="e">
+      <c r="J69" s="22" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
@@ -9403,7 +9758,7 @@
       <c r="G70" s="17"/>
       <c r="H70" s="18"/>
       <c r="I70" s="19"/>
-      <c r="J70" s="23" t="e">
+      <c r="J70" s="22" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
@@ -9518,7 +9873,7 @@
       <c r="G71" s="17"/>
       <c r="H71" s="18"/>
       <c r="I71" s="19"/>
-      <c r="J71" s="23" t="e">
+      <c r="J71" s="22" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
@@ -9633,7 +9988,7 @@
       <c r="G72" s="17"/>
       <c r="H72" s="18"/>
       <c r="I72" s="19"/>
-      <c r="J72" s="23" t="e">
+      <c r="J72" s="22" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
@@ -9748,7 +10103,7 @@
       <c r="G73" s="17"/>
       <c r="H73" s="18"/>
       <c r="I73" s="19"/>
-      <c r="J73" s="23" t="e">
+      <c r="J73" s="22" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
@@ -9863,7 +10218,7 @@
       <c r="G74" s="17"/>
       <c r="H74" s="18"/>
       <c r="I74" s="19"/>
-      <c r="J74" s="23" t="e">
+      <c r="J74" s="22" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
@@ -9978,7 +10333,7 @@
       <c r="G75" s="17"/>
       <c r="H75" s="18"/>
       <c r="I75" s="19"/>
-      <c r="J75" s="23" t="e">
+      <c r="J75" s="22" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
@@ -10093,7 +10448,7 @@
       <c r="G76" s="17"/>
       <c r="H76" s="18"/>
       <c r="I76" s="19"/>
-      <c r="J76" s="23" t="e">
+      <c r="J76" s="22" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
@@ -10208,7 +10563,7 @@
       <c r="G77" s="17"/>
       <c r="H77" s="18"/>
       <c r="I77" s="19"/>
-      <c r="J77" s="23" t="e">
+      <c r="J77" s="22" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
@@ -10323,7 +10678,7 @@
       <c r="G78" s="17"/>
       <c r="H78" s="18"/>
       <c r="I78" s="19"/>
-      <c r="J78" s="23" t="e">
+      <c r="J78" s="22" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
@@ -10438,7 +10793,7 @@
       <c r="G79" s="17"/>
       <c r="H79" s="18"/>
       <c r="I79" s="19"/>
-      <c r="J79" s="23" t="e">
+      <c r="J79" s="22" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
@@ -10553,7 +10908,7 @@
       <c r="G80" s="17"/>
       <c r="H80" s="18"/>
       <c r="I80" s="19"/>
-      <c r="J80" s="23" t="e">
+      <c r="J80" s="22" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
@@ -10668,7 +11023,7 @@
       <c r="G81" s="17"/>
       <c r="H81" s="18"/>
       <c r="I81" s="19"/>
-      <c r="J81" s="23" t="e">
+      <c r="J81" s="22" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
@@ -10783,7 +11138,7 @@
       <c r="G82" s="17"/>
       <c r="H82" s="18"/>
       <c r="I82" s="19"/>
-      <c r="J82" s="23" t="e">
+      <c r="J82" s="22" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
@@ -10898,7 +11253,7 @@
       <c r="G83" s="17"/>
       <c r="H83" s="18"/>
       <c r="I83" s="19"/>
-      <c r="J83" s="23" t="e">
+      <c r="J83" s="22" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
@@ -11013,7 +11368,7 @@
       <c r="G84" s="17"/>
       <c r="H84" s="18"/>
       <c r="I84" s="19"/>
-      <c r="J84" s="23" t="e">
+      <c r="J84" s="22" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
@@ -11128,7 +11483,7 @@
       <c r="G85" s="17"/>
       <c r="H85" s="18"/>
       <c r="I85" s="19"/>
-      <c r="J85" s="23" t="e">
+      <c r="J85" s="22" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
@@ -11243,7 +11598,7 @@
       <c r="G86" s="17"/>
       <c r="H86" s="18"/>
       <c r="I86" s="19"/>
-      <c r="J86" s="23" t="e">
+      <c r="J86" s="22" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
@@ -11358,7 +11713,7 @@
       <c r="G87" s="17"/>
       <c r="H87" s="18"/>
       <c r="I87" s="19"/>
-      <c r="J87" s="23" t="e">
+      <c r="J87" s="22" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
@@ -11473,7 +11828,7 @@
       <c r="G88" s="17"/>
       <c r="H88" s="18"/>
       <c r="I88" s="19"/>
-      <c r="J88" s="23" t="e">
+      <c r="J88" s="22" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
@@ -11588,7 +11943,7 @@
       <c r="G89" s="17"/>
       <c r="H89" s="18"/>
       <c r="I89" s="19"/>
-      <c r="J89" s="23" t="e">
+      <c r="J89" s="22" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
@@ -11703,7 +12058,7 @@
       <c r="G90" s="17"/>
       <c r="H90" s="18"/>
       <c r="I90" s="19"/>
-      <c r="J90" s="23" t="e">
+      <c r="J90" s="22" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
@@ -11818,7 +12173,7 @@
       <c r="G91" s="17"/>
       <c r="H91" s="18"/>
       <c r="I91" s="19"/>
-      <c r="J91" s="23" t="e">
+      <c r="J91" s="22" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
@@ -11933,7 +12288,7 @@
       <c r="G92" s="17"/>
       <c r="H92" s="18"/>
       <c r="I92" s="19"/>
-      <c r="J92" s="23" t="e">
+      <c r="J92" s="22" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
@@ -12048,7 +12403,7 @@
       <c r="G93" s="17"/>
       <c r="H93" s="18"/>
       <c r="I93" s="19"/>
-      <c r="J93" s="23" t="e">
+      <c r="J93" s="22" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
@@ -12163,7 +12518,7 @@
       <c r="G94" s="17"/>
       <c r="H94" s="18"/>
       <c r="I94" s="19"/>
-      <c r="J94" s="23" t="e">
+      <c r="J94" s="22" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
@@ -12278,7 +12633,7 @@
       <c r="G95" s="17"/>
       <c r="H95" s="18"/>
       <c r="I95" s="19"/>
-      <c r="J95" s="23" t="e">
+      <c r="J95" s="22" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
@@ -12393,7 +12748,7 @@
       <c r="G96" s="17"/>
       <c r="H96" s="18"/>
       <c r="I96" s="19"/>
-      <c r="J96" s="23" t="e">
+      <c r="J96" s="22" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
@@ -12508,7 +12863,7 @@
       <c r="G97" s="17"/>
       <c r="H97" s="18"/>
       <c r="I97" s="19"/>
-      <c r="J97" s="23" t="e">
+      <c r="J97" s="22" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
@@ -12623,7 +12978,7 @@
       <c r="G98" s="17"/>
       <c r="H98" s="18"/>
       <c r="I98" s="19"/>
-      <c r="J98" s="23" t="e">
+      <c r="J98" s="22" t="e">
         <f t="shared" ref="J98:J101" si="30">AO98</f>
         <v>#N/A</v>
       </c>
@@ -12738,7 +13093,7 @@
       <c r="G99" s="17"/>
       <c r="H99" s="18"/>
       <c r="I99" s="19"/>
-      <c r="J99" s="23" t="e">
+      <c r="J99" s="22" t="e">
         <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
@@ -12853,7 +13208,7 @@
       <c r="G100" s="17"/>
       <c r="H100" s="18"/>
       <c r="I100" s="19"/>
-      <c r="J100" s="23" t="e">
+      <c r="J100" s="22" t="e">
         <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
@@ -12968,7 +13323,7 @@
       <c r="G101" s="17"/>
       <c r="H101" s="18"/>
       <c r="I101" s="19"/>
-      <c r="J101" s="23" t="e">
+      <c r="J101" s="22" t="e">
         <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>

--- a/INSTRUCTIONS/Binary Instructions.xlsx
+++ b/INSTRUCTIONS/Binary Instructions.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="200">
   <si>
     <t>0001</t>
   </si>
@@ -606,23 +606,32 @@
     <t>0011101</t>
   </si>
   <si>
-    <t>0100011</t>
-  </si>
-  <si>
     <t>0100010</t>
   </si>
   <si>
     <t>0100001</t>
   </si>
   <si>
-    <t>0100100</t>
+    <t>0111011</t>
+  </si>
+  <si>
+    <t>0101001</t>
+  </si>
+  <si>
+    <t>0110001</t>
+  </si>
+  <si>
+    <t>0110010</t>
+  </si>
+  <si>
+    <t>0111010</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -648,6 +657,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -712,7 +728,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -761,6 +777,14 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1084,8 +1108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J39"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4748,7 +4772,7 @@
         <v>69</v>
       </c>
       <c r="F29" s="42" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="G29" s="43" t="s">
         <v>69</v>
@@ -4761,7 +4785,7 @@
       </c>
       <c r="J29" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>56774682</v>
+        <v>56777682</v>
       </c>
       <c r="M29" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C29,'HEX GEN BACKEND'!A:A,0))</f>
@@ -4777,7 +4801,7 @@
       </c>
       <c r="P29" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F29,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F29,'HEX GEN BACKEND'!H:H,0)),F29)</f>
-        <v>0100011</v>
+        <v>0111011</v>
       </c>
       <c r="Q29" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G29,'HEX GEN BACKEND'!D:D,0))</f>
@@ -4793,7 +4817,7 @@
       </c>
       <c r="U29" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>01010110011101110100011010000010</v>
+        <v>01010110011101110111011010000010</v>
       </c>
       <c r="W29" s="21" t="str">
         <f t="shared" si="2"/>
@@ -4813,7 +4837,7 @@
       </c>
       <c r="AA29" s="21" t="str">
         <f t="shared" si="6"/>
-        <v>0100</v>
+        <v>0111</v>
       </c>
       <c r="AB29" s="21" t="str">
         <f t="shared" si="7"/>
@@ -4845,7 +4869,7 @@
       </c>
       <c r="AJ29" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA29,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AK29" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB29,'HEX GEN BACKEND'!L:L,0))</f>
@@ -4861,7 +4885,7 @@
       </c>
       <c r="AO29" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>56774682</v>
+        <v>56777682</v>
       </c>
     </row>
     <row r="30" spans="1:41" x14ac:dyDescent="0.25">
@@ -4875,7 +4899,7 @@
         <v>1</v>
       </c>
       <c r="D30" s="40" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E30" s="41" t="s">
         <v>69</v>
@@ -5407,13 +5431,13 @@
         <v>1</v>
       </c>
       <c r="D34" s="40" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E34" s="41" t="s">
         <v>69</v>
       </c>
       <c r="F34" s="42" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G34" s="43" t="s">
         <v>69</v>
@@ -5426,7 +5450,7 @@
       </c>
       <c r="J34" s="22" t="str">
         <f t="shared" ref="J34:J97" si="19">AO34</f>
-        <v>56874883</v>
+        <v>56874483</v>
       </c>
       <c r="M34" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C34,'HEX GEN BACKEND'!A:A,0))</f>
@@ -5442,7 +5466,7 @@
       </c>
       <c r="P34" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F34,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F34,'HEX GEN BACKEND'!H:H,0)),F34)</f>
-        <v>0100100</v>
+        <v>0100010</v>
       </c>
       <c r="Q34" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G34,'HEX GEN BACKEND'!D:D,0))</f>
@@ -5458,7 +5482,7 @@
       </c>
       <c r="U34" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>01010110100001110100100010000011</v>
+        <v>01010110100001110100010010000011</v>
       </c>
       <c r="W34" s="21" t="str">
         <f t="shared" si="11"/>
@@ -5482,7 +5506,7 @@
       </c>
       <c r="AB34" s="21" t="str">
         <f t="shared" si="16"/>
-        <v>1000</v>
+        <v>0100</v>
       </c>
       <c r="AC34" s="21" t="str">
         <f t="shared" si="17"/>
@@ -5514,7 +5538,7 @@
       </c>
       <c r="AK34" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB34,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AL34" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC34,'HEX GEN BACKEND'!L:L,0))</f>
@@ -5526,7 +5550,7 @@
       </c>
       <c r="AO34" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>56874883</v>
+        <v>56874483</v>
       </c>
     </row>
     <row r="35" spans="1:41" x14ac:dyDescent="0.25">
@@ -5667,10 +5691,10 @@
         <v>102</v>
       </c>
       <c r="B36" s="38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C36" s="39" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36" s="40" t="s">
         <v>78</v>
@@ -5685,18 +5709,18 @@
         <v>98</v>
       </c>
       <c r="H36" s="44" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="I36" s="45" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="J36" s="22" t="str">
         <f t="shared" si="19"/>
-        <v>E20C0000</v>
+        <v>4A0C0106</v>
       </c>
       <c r="M36" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C36,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>1100</v>
+        <v>1001</v>
       </c>
       <c r="N36" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D36,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D36,'HEX GEN BACKEND'!G:G,0)),D36)</f>
@@ -5716,23 +5740,23 @@
       </c>
       <c r="R36" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H36,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H36,'HEX GEN BACKEND'!I:I,0)),H36)</f>
-        <v>0000000</v>
+        <v>0000110</v>
       </c>
       <c r="S36" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I36,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>00</v>
+        <v>10</v>
       </c>
       <c r="U36" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>11100010000011000000000000000000</v>
+        <v>01001010000011000000000100000110</v>
       </c>
       <c r="W36" s="21" t="str">
         <f t="shared" si="11"/>
-        <v>1110</v>
+        <v>0100</v>
       </c>
       <c r="X36" s="21" t="str">
         <f t="shared" si="12"/>
-        <v>0010</v>
+        <v>1010</v>
       </c>
       <c r="Y36" s="21" t="str">
         <f t="shared" si="13"/>
@@ -5748,7 +5772,7 @@
       </c>
       <c r="AB36" s="21" t="str">
         <f t="shared" si="16"/>
-        <v>0000</v>
+        <v>0001</v>
       </c>
       <c r="AC36" s="21" t="str">
         <f t="shared" si="17"/>
@@ -5756,15 +5780,15 @@
       </c>
       <c r="AD36" s="21" t="str">
         <f t="shared" si="18"/>
-        <v>0000</v>
+        <v>0110</v>
       </c>
       <c r="AF36" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W36,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>E</v>
+        <v>4</v>
       </c>
       <c r="AG36" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X36,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
+        <v>A</v>
       </c>
       <c r="AH36" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y36,'HEX GEN BACKEND'!L:L,0))</f>
@@ -5780,7 +5804,7 @@
       </c>
       <c r="AK36" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB36,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL36" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC36,'HEX GEN BACKEND'!L:L,0))</f>
@@ -5788,11 +5812,11 @@
       </c>
       <c r="AM36" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD36,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AO36" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>E20C0000</v>
+        <v>4A0C0106</v>
       </c>
     </row>
     <row r="37" spans="1:41" x14ac:dyDescent="0.25">
@@ -5800,16 +5824,16 @@
         <v>103</v>
       </c>
       <c r="B37" s="38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C37" s="39" t="s">
-        <v>2</v>
+        <v>98</v>
       </c>
       <c r="D37" s="40" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="E37" s="41" t="s">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="F37" s="42" t="s">
         <v>98</v>
@@ -5825,19 +5849,19 @@
       </c>
       <c r="J37" s="22" t="str">
         <f t="shared" si="19"/>
-        <v>E2140000</v>
+        <v>00000000</v>
       </c>
       <c r="M37" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C37,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>1100</v>
+        <v>0000</v>
       </c>
       <c r="N37" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D37,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D37,'HEX GEN BACKEND'!G:G,0)),D37)</f>
-        <v>0000101</v>
+        <v>0000000</v>
       </c>
       <c r="O37" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E37,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>01</v>
+        <v>00</v>
       </c>
       <c r="P37" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F37,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F37,'HEX GEN BACKEND'!H:H,0)),F37)</f>
@@ -5857,23 +5881,23 @@
       </c>
       <c r="U37" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>11100010000101000000000000000000</v>
+        <v>00000000000000000000000000000000</v>
       </c>
       <c r="W37" s="21" t="str">
         <f t="shared" si="11"/>
-        <v>1110</v>
+        <v>0000</v>
       </c>
       <c r="X37" s="21" t="str">
         <f t="shared" si="12"/>
-        <v>0010</v>
+        <v>0000</v>
       </c>
       <c r="Y37" s="21" t="str">
         <f t="shared" si="13"/>
-        <v>0001</v>
+        <v>0000</v>
       </c>
       <c r="Z37" s="21" t="str">
         <f t="shared" si="14"/>
-        <v>0100</v>
+        <v>0000</v>
       </c>
       <c r="AA37" s="21" t="str">
         <f t="shared" si="15"/>
@@ -5893,19 +5917,19 @@
       </c>
       <c r="AF37" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W37,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>E</v>
+        <v>0</v>
       </c>
       <c r="AG37" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X37,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH37" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y37,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI37" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z37,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AJ37" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA37,'HEX GEN BACKEND'!L:L,0))</f>
@@ -5925,88 +5949,88 @@
       </c>
       <c r="AO37" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>E2140000</v>
+        <v>00000000</v>
       </c>
     </row>
     <row r="38" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A38" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="B38" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="C38" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="D38" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="E38" s="41" t="s">
+      <c r="B38" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38" s="50" t="s">
+        <v>137</v>
+      </c>
+      <c r="E38" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="F38" s="52" t="s">
+        <v>98</v>
+      </c>
+      <c r="G38" s="53" t="s">
+        <v>98</v>
+      </c>
+      <c r="H38" s="54" t="s">
+        <v>95</v>
+      </c>
+      <c r="I38" s="55" t="s">
         <v>68</v>
-      </c>
-      <c r="F38" s="42" t="s">
-        <v>83</v>
-      </c>
-      <c r="G38" s="43" t="s">
-        <v>68</v>
-      </c>
-      <c r="H38" s="44" t="s">
-        <v>98</v>
-      </c>
-      <c r="I38" s="45" t="s">
-        <v>98</v>
       </c>
       <c r="J38" s="22" t="str">
         <f t="shared" si="19"/>
-        <v>E20D0200</v>
+        <v>4C200086</v>
       </c>
       <c r="M38" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C38,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>1100</v>
+        <v>1001</v>
       </c>
       <c r="N38" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D38,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D38,'HEX GEN BACKEND'!G:G,0)),D38)</f>
-        <v>0000011</v>
+        <v>0001000</v>
       </c>
       <c r="O38" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E38,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>01</v>
+        <v>10</v>
       </c>
       <c r="P38" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F38,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F38,'HEX GEN BACKEND'!H:H,0)),F38)</f>
-        <v>0000001</v>
+        <v>0000000</v>
       </c>
       <c r="Q38" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G38,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>01</v>
+        <v>00</v>
       </c>
       <c r="R38" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H38,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H38,'HEX GEN BACKEND'!I:I,0)),H38)</f>
-        <v>0000000</v>
+        <v>0000110</v>
       </c>
       <c r="S38" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I38,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>00</v>
+        <v>01</v>
       </c>
       <c r="U38" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>11100010000011010000001000000000</v>
+        <v>01001100001000000000000010000110</v>
       </c>
       <c r="W38" s="21" t="str">
         <f t="shared" si="11"/>
-        <v>1110</v>
+        <v>0100</v>
       </c>
       <c r="X38" s="21" t="str">
         <f t="shared" si="12"/>
-        <v>0010</v>
+        <v>1100</v>
       </c>
       <c r="Y38" s="21" t="str">
         <f t="shared" si="13"/>
-        <v>0000</v>
+        <v>0010</v>
       </c>
       <c r="Z38" s="21" t="str">
         <f t="shared" si="14"/>
-        <v>1101</v>
+        <v>0000</v>
       </c>
       <c r="AA38" s="21" t="str">
         <f t="shared" si="15"/>
@@ -6014,31 +6038,31 @@
       </c>
       <c r="AB38" s="21" t="str">
         <f t="shared" si="16"/>
-        <v>0010</v>
+        <v>0000</v>
       </c>
       <c r="AC38" s="21" t="str">
         <f t="shared" si="17"/>
-        <v>0000</v>
+        <v>1000</v>
       </c>
       <c r="AD38" s="21" t="str">
         <f t="shared" si="18"/>
-        <v>0000</v>
+        <v>0110</v>
       </c>
       <c r="AF38" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W38,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>E</v>
+        <v>4</v>
       </c>
       <c r="AG38" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X38,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
+        <v>C</v>
       </c>
       <c r="AH38" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y38,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI38" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z38,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>D</v>
+        <v>0</v>
       </c>
       <c r="AJ38" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA38,'HEX GEN BACKEND'!L:L,0))</f>
@@ -6046,72 +6070,72 @@
       </c>
       <c r="AK38" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB38,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL38" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC38,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AM38" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD38,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AO38" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>E20D0200</v>
+        <v>4C200086</v>
       </c>
     </row>
     <row r="39" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A39" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D39" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="E39" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="F39" s="16" t="s">
+      <c r="C39" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="D39" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="E39" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="F39" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="G39" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="H39" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="G39" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="H39" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="I39" s="19" t="s">
+      <c r="I39" s="55" t="s">
         <v>98</v>
       </c>
       <c r="J39" s="22" t="str">
         <f t="shared" si="19"/>
-        <v>562C0000</v>
+        <v>4A160800</v>
       </c>
       <c r="M39" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C39,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>1010</v>
+        <v>1001</v>
       </c>
       <c r="N39" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D39,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D39,'HEX GEN BACKEND'!G:G,0)),D39)</f>
-        <v>0001011</v>
+        <v>0000101</v>
       </c>
       <c r="O39" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E39,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>11</v>
+        <v>01</v>
       </c>
       <c r="P39" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F39,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F39,'HEX GEN BACKEND'!H:H,0)),F39)</f>
-        <v>0000000</v>
+        <v>0000100</v>
       </c>
       <c r="Q39" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G39,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>00</v>
+        <v>10</v>
       </c>
       <c r="R39" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H39,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H39,'HEX GEN BACKEND'!I:I,0)),H39)</f>
@@ -6123,23 +6147,23 @@
       </c>
       <c r="U39" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>01010110001011000000000000000000</v>
+        <v>01001010000101100000100000000000</v>
       </c>
       <c r="W39" s="21" t="str">
         <f t="shared" si="11"/>
-        <v>0101</v>
+        <v>0100</v>
       </c>
       <c r="X39" s="21" t="str">
         <f t="shared" si="12"/>
-        <v>0110</v>
+        <v>1010</v>
       </c>
       <c r="Y39" s="21" t="str">
         <f t="shared" si="13"/>
-        <v>0010</v>
+        <v>0001</v>
       </c>
       <c r="Z39" s="21" t="str">
         <f t="shared" si="14"/>
-        <v>1100</v>
+        <v>0110</v>
       </c>
       <c r="AA39" s="21" t="str">
         <f t="shared" si="15"/>
@@ -6147,7 +6171,7 @@
       </c>
       <c r="AB39" s="21" t="str">
         <f t="shared" si="16"/>
-        <v>0000</v>
+        <v>1000</v>
       </c>
       <c r="AC39" s="21" t="str">
         <f t="shared" si="17"/>
@@ -6159,19 +6183,19 @@
       </c>
       <c r="AF39" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W39,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AG39" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X39,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>6</v>
+        <v>A</v>
       </c>
       <c r="AH39" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y39,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI39" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z39,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>C</v>
+        <v>6</v>
       </c>
       <c r="AJ39" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA39,'HEX GEN BACKEND'!L:L,0))</f>
@@ -6179,7 +6203,7 @@
       </c>
       <c r="AK39" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB39,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AL39" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC39,'HEX GEN BACKEND'!L:L,0))</f>
@@ -6191,2506 +6215,2800 @@
       </c>
       <c r="AO39" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>562C0000</v>
+        <v>4A160800</v>
       </c>
     </row>
     <row r="40" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A40" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="C40" s="13"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="18"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="22" t="e">
+      <c r="C40" s="49" t="s">
+        <v>180</v>
+      </c>
+      <c r="D40" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="E40" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="F40" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="G40" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="H40" s="54" t="s">
+        <v>93</v>
+      </c>
+      <c r="I40" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="J40" s="22" t="str">
         <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M40" s="21" t="e">
+        <v>26010904</v>
+      </c>
+      <c r="M40" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C40,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N40" s="21">
+        <v>0100</v>
+      </c>
+      <c r="N40" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D40,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D40,'HEX GEN BACKEND'!G:G,0)),D40)</f>
-        <v>0</v>
-      </c>
-      <c r="O40" s="21" t="e">
+        <v>0000000</v>
+      </c>
+      <c r="O40" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E40,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P40" s="21">
+        <v>11</v>
+      </c>
+      <c r="P40" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F40,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F40,'HEX GEN BACKEND'!H:H,0)),F40)</f>
-        <v>0</v>
-      </c>
-      <c r="Q40" s="21" t="e">
+        <v>0000100</v>
+      </c>
+      <c r="Q40" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G40,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R40" s="21">
+        <v>01</v>
+      </c>
+      <c r="R40" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H40,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H40,'HEX GEN BACKEND'!I:I,0)),H40)</f>
-        <v>0</v>
-      </c>
-      <c r="S40" s="21" t="e">
+        <v>0000100</v>
+      </c>
+      <c r="S40" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I40,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U40" s="21" t="e">
+        <v>10</v>
+      </c>
+      <c r="U40" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W40" s="21" t="e">
+        <v>00100110000000010000100100000100</v>
+      </c>
+      <c r="W40" s="21" t="str">
         <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X40" s="21" t="e">
+        <v>0010</v>
+      </c>
+      <c r="X40" s="21" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y40" s="21" t="e">
+        <v>0110</v>
+      </c>
+      <c r="Y40" s="21" t="str">
         <f t="shared" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z40" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="Z40" s="21" t="str">
         <f t="shared" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA40" s="21" t="e">
+        <v>0001</v>
+      </c>
+      <c r="AA40" s="21" t="str">
         <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB40" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AB40" s="21" t="str">
         <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC40" s="21" t="e">
+        <v>1001</v>
+      </c>
+      <c r="AC40" s="21" t="str">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AD40" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AD40" s="21" t="str">
         <f t="shared" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AF40" s="21" t="e">
+        <v>0100</v>
+      </c>
+      <c r="AF40" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W40,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG40" s="21" t="e">
+        <v>2</v>
+      </c>
+      <c r="AG40" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X40,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH40" s="21" t="e">
+        <v>6</v>
+      </c>
+      <c r="AH40" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y40,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI40" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AI40" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z40,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ40" s="21" t="e">
+        <v>1</v>
+      </c>
+      <c r="AJ40" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA40,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK40" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AK40" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB40,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL40" s="21" t="e">
+        <v>9</v>
+      </c>
+      <c r="AL40" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC40,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM40" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AM40" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD40,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO40" s="21" t="e">
+        <v>4</v>
+      </c>
+      <c r="AO40" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>26010904</v>
       </c>
     </row>
     <row r="41" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A41" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="C41" s="13"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="18"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="22" t="e">
+      <c r="C41" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="D41" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="E41" s="51" t="s">
+        <v>98</v>
+      </c>
+      <c r="F41" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="G41" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="H41" s="54" t="s">
+        <v>93</v>
+      </c>
+      <c r="I41" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="J41" s="22" t="str">
         <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M41" s="21" t="e">
+        <v>48020884</v>
+      </c>
+      <c r="M41" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C41,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N41" s="21">
+        <v>1001</v>
+      </c>
+      <c r="N41" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D41,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D41,'HEX GEN BACKEND'!G:G,0)),D41)</f>
-        <v>0</v>
-      </c>
-      <c r="O41" s="21" t="e">
+        <v>0000000</v>
+      </c>
+      <c r="O41" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E41,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P41" s="21">
+        <v>00</v>
+      </c>
+      <c r="P41" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F41,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F41,'HEX GEN BACKEND'!H:H,0)),F41)</f>
-        <v>0</v>
-      </c>
-      <c r="Q41" s="21" t="e">
+        <v>0000100</v>
+      </c>
+      <c r="Q41" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G41,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R41" s="21">
+        <v>10</v>
+      </c>
+      <c r="R41" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H41,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H41,'HEX GEN BACKEND'!I:I,0)),H41)</f>
-        <v>0</v>
-      </c>
-      <c r="S41" s="21" t="e">
+        <v>0000100</v>
+      </c>
+      <c r="S41" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I41,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U41" s="21" t="e">
+        <v>01</v>
+      </c>
+      <c r="U41" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W41" s="21" t="e">
+        <v>01001000000000100000100010000100</v>
+      </c>
+      <c r="W41" s="21" t="str">
         <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X41" s="21" t="e">
+        <v>0100</v>
+      </c>
+      <c r="X41" s="21" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y41" s="21" t="e">
+        <v>1000</v>
+      </c>
+      <c r="Y41" s="21" t="str">
         <f t="shared" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z41" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="Z41" s="21" t="str">
         <f t="shared" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA41" s="21" t="e">
+        <v>0010</v>
+      </c>
+      <c r="AA41" s="21" t="str">
         <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB41" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AB41" s="21" t="str">
         <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC41" s="21" t="e">
+        <v>1000</v>
+      </c>
+      <c r="AC41" s="21" t="str">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AD41" s="21" t="e">
+        <v>1000</v>
+      </c>
+      <c r="AD41" s="21" t="str">
         <f t="shared" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AF41" s="21" t="e">
+        <v>0100</v>
+      </c>
+      <c r="AF41" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W41,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG41" s="21" t="e">
+        <v>4</v>
+      </c>
+      <c r="AG41" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X41,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH41" s="21" t="e">
+        <v>8</v>
+      </c>
+      <c r="AH41" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y41,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI41" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AI41" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z41,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ41" s="21" t="e">
+        <v>2</v>
+      </c>
+      <c r="AJ41" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA41,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK41" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AK41" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB41,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL41" s="21" t="e">
+        <v>8</v>
+      </c>
+      <c r="AL41" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC41,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM41" s="21" t="e">
+        <v>8</v>
+      </c>
+      <c r="AM41" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD41,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO41" s="21" t="e">
+        <v>4</v>
+      </c>
+      <c r="AO41" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>48020884</v>
       </c>
     </row>
     <row r="42" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A42" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="C42" s="13"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="18"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="22" t="e">
+      <c r="C42" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="D42" s="50" t="s">
+        <v>138</v>
+      </c>
+      <c r="E42" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="F42" s="52" t="s">
+        <v>98</v>
+      </c>
+      <c r="G42" s="53" t="s">
+        <v>98</v>
+      </c>
+      <c r="H42" s="54" t="s">
+        <v>162</v>
+      </c>
+      <c r="I42" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="J42" s="22" t="str">
         <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M42" s="21" t="e">
+        <v>4C240181</v>
+      </c>
+      <c r="M42" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C42,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N42" s="21">
+        <v>1001</v>
+      </c>
+      <c r="N42" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D42,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D42,'HEX GEN BACKEND'!G:G,0)),D42)</f>
-        <v>0</v>
-      </c>
-      <c r="O42" s="21" t="e">
+        <v>0001001</v>
+      </c>
+      <c r="O42" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E42,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P42" s="21">
+        <v>10</v>
+      </c>
+      <c r="P42" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F42,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F42,'HEX GEN BACKEND'!H:H,0)),F42)</f>
-        <v>0</v>
-      </c>
-      <c r="Q42" s="21" t="e">
+        <v>0000000</v>
+      </c>
+      <c r="Q42" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G42,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R42" s="21">
+        <v>00</v>
+      </c>
+      <c r="R42" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H42,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H42,'HEX GEN BACKEND'!I:I,0)),H42)</f>
-        <v>0</v>
-      </c>
-      <c r="S42" s="21" t="e">
+        <v>0000001</v>
+      </c>
+      <c r="S42" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I42,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U42" s="21" t="e">
+        <v>11</v>
+      </c>
+      <c r="U42" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W42" s="21" t="e">
+        <v>01001100001001000000000110000001</v>
+      </c>
+      <c r="W42" s="21" t="str">
         <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X42" s="21" t="e">
+        <v>0100</v>
+      </c>
+      <c r="X42" s="21" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y42" s="21" t="e">
+        <v>1100</v>
+      </c>
+      <c r="Y42" s="21" t="str">
         <f t="shared" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z42" s="21" t="e">
+        <v>0010</v>
+      </c>
+      <c r="Z42" s="21" t="str">
         <f t="shared" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA42" s="21" t="e">
+        <v>0100</v>
+      </c>
+      <c r="AA42" s="21" t="str">
         <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB42" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AB42" s="21" t="str">
         <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC42" s="21" t="e">
+        <v>0001</v>
+      </c>
+      <c r="AC42" s="21" t="str">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AD42" s="21" t="e">
+        <v>1000</v>
+      </c>
+      <c r="AD42" s="21" t="str">
         <f t="shared" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AF42" s="21" t="e">
+        <v>0001</v>
+      </c>
+      <c r="AF42" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W42,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG42" s="21" t="e">
+        <v>4</v>
+      </c>
+      <c r="AG42" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X42,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH42" s="21" t="e">
+        <v>C</v>
+      </c>
+      <c r="AH42" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y42,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI42" s="21" t="e">
+        <v>2</v>
+      </c>
+      <c r="AI42" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z42,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ42" s="21" t="e">
+        <v>4</v>
+      </c>
+      <c r="AJ42" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA42,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK42" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AK42" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB42,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL42" s="21" t="e">
+        <v>1</v>
+      </c>
+      <c r="AL42" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC42,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM42" s="21" t="e">
+        <v>8</v>
+      </c>
+      <c r="AM42" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD42,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO42" s="21" t="e">
+        <v>1</v>
+      </c>
+      <c r="AO42" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>4C240181</v>
       </c>
     </row>
     <row r="43" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A43" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="C43" s="13"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="18"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="22" t="e">
+      <c r="C43" s="49" t="s">
+        <v>181</v>
+      </c>
+      <c r="D43" s="50" t="s">
+        <v>138</v>
+      </c>
+      <c r="E43" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="F43" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="G43" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="H43" s="54" t="s">
+        <v>93</v>
+      </c>
+      <c r="I43" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="J43" s="22" t="str">
         <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M43" s="21" t="e">
+        <v>2A250904</v>
+      </c>
+      <c r="M43" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C43,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N43" s="21">
+        <v>0101</v>
+      </c>
+      <c r="N43" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D43,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D43,'HEX GEN BACKEND'!G:G,0)),D43)</f>
-        <v>0</v>
-      </c>
-      <c r="O43" s="21" t="e">
+        <v>0001001</v>
+      </c>
+      <c r="O43" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E43,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P43" s="21">
+        <v>01</v>
+      </c>
+      <c r="P43" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F43,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F43,'HEX GEN BACKEND'!H:H,0)),F43)</f>
-        <v>0</v>
-      </c>
-      <c r="Q43" s="21" t="e">
+        <v>0000100</v>
+      </c>
+      <c r="Q43" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G43,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R43" s="21">
+        <v>01</v>
+      </c>
+      <c r="R43" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H43,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H43,'HEX GEN BACKEND'!I:I,0)),H43)</f>
-        <v>0</v>
-      </c>
-      <c r="S43" s="21" t="e">
+        <v>0000100</v>
+      </c>
+      <c r="S43" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I43,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U43" s="21" t="e">
+        <v>10</v>
+      </c>
+      <c r="U43" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W43" s="21" t="e">
+        <v>00101010001001010000100100000100</v>
+      </c>
+      <c r="W43" s="21" t="str">
         <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X43" s="21" t="e">
+        <v>0010</v>
+      </c>
+      <c r="X43" s="21" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y43" s="21" t="e">
+        <v>1010</v>
+      </c>
+      <c r="Y43" s="21" t="str">
         <f t="shared" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z43" s="21" t="e">
+        <v>0010</v>
+      </c>
+      <c r="Z43" s="21" t="str">
         <f t="shared" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA43" s="21" t="e">
+        <v>0101</v>
+      </c>
+      <c r="AA43" s="21" t="str">
         <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB43" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AB43" s="21" t="str">
         <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC43" s="21" t="e">
+        <v>1001</v>
+      </c>
+      <c r="AC43" s="21" t="str">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AD43" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AD43" s="21" t="str">
         <f t="shared" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AF43" s="21" t="e">
+        <v>0100</v>
+      </c>
+      <c r="AF43" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W43,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG43" s="21" t="e">
+        <v>2</v>
+      </c>
+      <c r="AG43" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X43,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH43" s="21" t="e">
+        <v>A</v>
+      </c>
+      <c r="AH43" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y43,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI43" s="21" t="e">
+        <v>2</v>
+      </c>
+      <c r="AI43" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z43,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ43" s="21" t="e">
+        <v>5</v>
+      </c>
+      <c r="AJ43" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA43,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK43" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AK43" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB43,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL43" s="21" t="e">
+        <v>9</v>
+      </c>
+      <c r="AL43" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC43,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM43" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AM43" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD43,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO43" s="21" t="e">
+        <v>4</v>
+      </c>
+      <c r="AO43" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>2A250904</v>
       </c>
     </row>
     <row r="44" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A44" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="C44" s="13"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="16"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="18"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="22" t="e">
+      <c r="C44" s="49" t="s">
+        <v>177</v>
+      </c>
+      <c r="D44" s="50" t="s">
+        <v>138</v>
+      </c>
+      <c r="E44" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="F44" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="G44" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="H44" s="54" t="s">
+        <v>94</v>
+      </c>
+      <c r="I44" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="J44" s="22" t="str">
         <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M44" s="21" t="e">
+        <v>0A250905</v>
+      </c>
+      <c r="M44" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C44,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N44" s="21">
+        <v>0001</v>
+      </c>
+      <c r="N44" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D44,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D44,'HEX GEN BACKEND'!G:G,0)),D44)</f>
-        <v>0</v>
-      </c>
-      <c r="O44" s="21" t="e">
+        <v>0001001</v>
+      </c>
+      <c r="O44" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E44,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P44" s="21">
+        <v>01</v>
+      </c>
+      <c r="P44" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F44,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F44,'HEX GEN BACKEND'!H:H,0)),F44)</f>
-        <v>0</v>
-      </c>
-      <c r="Q44" s="21" t="e">
+        <v>0000100</v>
+      </c>
+      <c r="Q44" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G44,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R44" s="21">
+        <v>01</v>
+      </c>
+      <c r="R44" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H44,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H44,'HEX GEN BACKEND'!I:I,0)),H44)</f>
-        <v>0</v>
-      </c>
-      <c r="S44" s="21" t="e">
+        <v>0000101</v>
+      </c>
+      <c r="S44" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I44,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U44" s="21" t="e">
+        <v>10</v>
+      </c>
+      <c r="U44" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W44" s="21" t="e">
+        <v>00001010001001010000100100000101</v>
+      </c>
+      <c r="W44" s="21" t="str">
         <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X44" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="X44" s="21" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y44" s="21" t="e">
+        <v>1010</v>
+      </c>
+      <c r="Y44" s="21" t="str">
         <f t="shared" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z44" s="21" t="e">
+        <v>0010</v>
+      </c>
+      <c r="Z44" s="21" t="str">
         <f t="shared" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA44" s="21" t="e">
+        <v>0101</v>
+      </c>
+      <c r="AA44" s="21" t="str">
         <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB44" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AB44" s="21" t="str">
         <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC44" s="21" t="e">
+        <v>1001</v>
+      </c>
+      <c r="AC44" s="21" t="str">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AD44" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AD44" s="21" t="str">
         <f t="shared" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AF44" s="21" t="e">
+        <v>0101</v>
+      </c>
+      <c r="AF44" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W44,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG44" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AG44" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X44,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH44" s="21" t="e">
+        <v>A</v>
+      </c>
+      <c r="AH44" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y44,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI44" s="21" t="e">
+        <v>2</v>
+      </c>
+      <c r="AI44" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z44,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ44" s="21" t="e">
+        <v>5</v>
+      </c>
+      <c r="AJ44" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA44,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK44" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AK44" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB44,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL44" s="21" t="e">
+        <v>9</v>
+      </c>
+      <c r="AL44" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC44,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM44" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AM44" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD44,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO44" s="21" t="e">
+        <v>5</v>
+      </c>
+      <c r="AO44" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>0A250905</v>
       </c>
     </row>
     <row r="45" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A45" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="C45" s="13"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="17"/>
-      <c r="H45" s="18"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="22" t="e">
+      <c r="C45" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="D45" s="50" t="s">
+        <v>138</v>
+      </c>
+      <c r="E45" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="F45" s="52" t="s">
+        <v>98</v>
+      </c>
+      <c r="G45" s="53" t="s">
+        <v>98</v>
+      </c>
+      <c r="H45" s="54" t="s">
+        <v>93</v>
+      </c>
+      <c r="I45" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="J45" s="22" t="str">
         <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M45" s="21" t="e">
+        <v>4C240084</v>
+      </c>
+      <c r="M45" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C45,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N45" s="21">
+        <v>1001</v>
+      </c>
+      <c r="N45" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D45,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D45,'HEX GEN BACKEND'!G:G,0)),D45)</f>
-        <v>0</v>
-      </c>
-      <c r="O45" s="21" t="e">
+        <v>0001001</v>
+      </c>
+      <c r="O45" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E45,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P45" s="21">
+        <v>10</v>
+      </c>
+      <c r="P45" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F45,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F45,'HEX GEN BACKEND'!H:H,0)),F45)</f>
-        <v>0</v>
-      </c>
-      <c r="Q45" s="21" t="e">
+        <v>0000000</v>
+      </c>
+      <c r="Q45" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G45,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R45" s="21">
+        <v>00</v>
+      </c>
+      <c r="R45" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H45,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H45,'HEX GEN BACKEND'!I:I,0)),H45)</f>
-        <v>0</v>
-      </c>
-      <c r="S45" s="21" t="e">
+        <v>0000100</v>
+      </c>
+      <c r="S45" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I45,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U45" s="21" t="e">
+        <v>01</v>
+      </c>
+      <c r="U45" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W45" s="21" t="e">
+        <v>01001100001001000000000010000100</v>
+      </c>
+      <c r="W45" s="21" t="str">
         <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X45" s="21" t="e">
+        <v>0100</v>
+      </c>
+      <c r="X45" s="21" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y45" s="21" t="e">
+        <v>1100</v>
+      </c>
+      <c r="Y45" s="21" t="str">
         <f t="shared" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z45" s="21" t="e">
+        <v>0010</v>
+      </c>
+      <c r="Z45" s="21" t="str">
         <f t="shared" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA45" s="21" t="e">
+        <v>0100</v>
+      </c>
+      <c r="AA45" s="21" t="str">
         <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB45" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AB45" s="21" t="str">
         <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC45" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AC45" s="21" t="str">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AD45" s="21" t="e">
+        <v>1000</v>
+      </c>
+      <c r="AD45" s="21" t="str">
         <f t="shared" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AF45" s="21" t="e">
+        <v>0100</v>
+      </c>
+      <c r="AF45" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W45,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG45" s="21" t="e">
+        <v>4</v>
+      </c>
+      <c r="AG45" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X45,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH45" s="21" t="e">
+        <v>C</v>
+      </c>
+      <c r="AH45" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y45,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI45" s="21" t="e">
+        <v>2</v>
+      </c>
+      <c r="AI45" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z45,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ45" s="21" t="e">
+        <v>4</v>
+      </c>
+      <c r="AJ45" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA45,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK45" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AK45" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB45,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL45" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AL45" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC45,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM45" s="21" t="e">
+        <v>8</v>
+      </c>
+      <c r="AM45" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD45,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO45" s="21" t="e">
+        <v>4</v>
+      </c>
+      <c r="AO45" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>4C240084</v>
       </c>
     </row>
     <row r="46" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A46" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="C46" s="13"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="17"/>
-      <c r="H46" s="18"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="22" t="e">
+      <c r="C46" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="D46" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="E46" s="51" t="s">
+        <v>98</v>
+      </c>
+      <c r="F46" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="G46" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="H46" s="54" t="s">
+        <v>94</v>
+      </c>
+      <c r="I46" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="J46" s="22" t="str">
         <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M46" s="21" t="e">
+        <v>48020885</v>
+      </c>
+      <c r="M46" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C46,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N46" s="21">
+        <v>1001</v>
+      </c>
+      <c r="N46" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D46,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D46,'HEX GEN BACKEND'!G:G,0)),D46)</f>
-        <v>0</v>
-      </c>
-      <c r="O46" s="21" t="e">
+        <v>0000000</v>
+      </c>
+      <c r="O46" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E46,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P46" s="21">
+        <v>00</v>
+      </c>
+      <c r="P46" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F46,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F46,'HEX GEN BACKEND'!H:H,0)),F46)</f>
-        <v>0</v>
-      </c>
-      <c r="Q46" s="21" t="e">
+        <v>0000100</v>
+      </c>
+      <c r="Q46" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G46,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R46" s="21">
+        <v>10</v>
+      </c>
+      <c r="R46" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H46,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H46,'HEX GEN BACKEND'!I:I,0)),H46)</f>
-        <v>0</v>
-      </c>
-      <c r="S46" s="21" t="e">
+        <v>0000101</v>
+      </c>
+      <c r="S46" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I46,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U46" s="21" t="e">
+        <v>01</v>
+      </c>
+      <c r="U46" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W46" s="21" t="e">
+        <v>01001000000000100000100010000101</v>
+      </c>
+      <c r="W46" s="21" t="str">
         <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X46" s="21" t="e">
+        <v>0100</v>
+      </c>
+      <c r="X46" s="21" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y46" s="21" t="e">
+        <v>1000</v>
+      </c>
+      <c r="Y46" s="21" t="str">
         <f t="shared" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z46" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="Z46" s="21" t="str">
         <f t="shared" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA46" s="21" t="e">
+        <v>0010</v>
+      </c>
+      <c r="AA46" s="21" t="str">
         <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB46" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AB46" s="21" t="str">
         <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC46" s="21" t="e">
+        <v>1000</v>
+      </c>
+      <c r="AC46" s="21" t="str">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AD46" s="21" t="e">
+        <v>1000</v>
+      </c>
+      <c r="AD46" s="21" t="str">
         <f t="shared" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AF46" s="21" t="e">
+        <v>0101</v>
+      </c>
+      <c r="AF46" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W46,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG46" s="21" t="e">
+        <v>4</v>
+      </c>
+      <c r="AG46" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X46,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH46" s="21" t="e">
+        <v>8</v>
+      </c>
+      <c r="AH46" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y46,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI46" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AI46" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z46,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ46" s="21" t="e">
+        <v>2</v>
+      </c>
+      <c r="AJ46" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA46,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK46" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AK46" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB46,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL46" s="21" t="e">
+        <v>8</v>
+      </c>
+      <c r="AL46" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC46,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM46" s="21" t="e">
+        <v>8</v>
+      </c>
+      <c r="AM46" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD46,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO46" s="21" t="e">
+        <v>5</v>
+      </c>
+      <c r="AO46" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>48020885</v>
       </c>
     </row>
     <row r="47" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A47" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="B47" s="9" t="s">
+      <c r="B47" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="13"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="18"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="22" t="e">
+      <c r="C47" s="49" t="s">
+        <v>183</v>
+      </c>
+      <c r="D47" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="E47" s="51" t="s">
+        <v>98</v>
+      </c>
+      <c r="F47" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="G47" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="H47" s="54" t="s">
+        <v>94</v>
+      </c>
+      <c r="I47" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="J47" s="22" t="str">
         <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M47" s="21" t="e">
+        <v>38010905</v>
+      </c>
+      <c r="M47" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C47,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N47" s="21">
+        <v>0111</v>
+      </c>
+      <c r="N47" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D47,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D47,'HEX GEN BACKEND'!G:G,0)),D47)</f>
-        <v>0</v>
-      </c>
-      <c r="O47" s="21" t="e">
+        <v>0000000</v>
+      </c>
+      <c r="O47" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E47,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P47" s="21">
+        <v>00</v>
+      </c>
+      <c r="P47" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F47,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F47,'HEX GEN BACKEND'!H:H,0)),F47)</f>
-        <v>0</v>
-      </c>
-      <c r="Q47" s="21" t="e">
+        <v>0000100</v>
+      </c>
+      <c r="Q47" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G47,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R47" s="21">
+        <v>01</v>
+      </c>
+      <c r="R47" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H47,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H47,'HEX GEN BACKEND'!I:I,0)),H47)</f>
-        <v>0</v>
-      </c>
-      <c r="S47" s="21" t="e">
+        <v>0000101</v>
+      </c>
+      <c r="S47" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I47,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U47" s="21" t="e">
+        <v>10</v>
+      </c>
+      <c r="U47" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W47" s="21" t="e">
+        <v>00111000000000010000100100000101</v>
+      </c>
+      <c r="W47" s="21" t="str">
         <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X47" s="21" t="e">
+        <v>0011</v>
+      </c>
+      <c r="X47" s="21" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y47" s="21" t="e">
+        <v>1000</v>
+      </c>
+      <c r="Y47" s="21" t="str">
         <f t="shared" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z47" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="Z47" s="21" t="str">
         <f t="shared" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA47" s="21" t="e">
+        <v>0001</v>
+      </c>
+      <c r="AA47" s="21" t="str">
         <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB47" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AB47" s="21" t="str">
         <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC47" s="21" t="e">
+        <v>1001</v>
+      </c>
+      <c r="AC47" s="21" t="str">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AD47" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AD47" s="21" t="str">
         <f t="shared" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AF47" s="21" t="e">
+        <v>0101</v>
+      </c>
+      <c r="AF47" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W47,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG47" s="21" t="e">
+        <v>3</v>
+      </c>
+      <c r="AG47" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X47,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH47" s="21" t="e">
+        <v>8</v>
+      </c>
+      <c r="AH47" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y47,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI47" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AI47" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z47,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ47" s="21" t="e">
+        <v>1</v>
+      </c>
+      <c r="AJ47" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA47,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK47" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AK47" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB47,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL47" s="21" t="e">
+        <v>9</v>
+      </c>
+      <c r="AL47" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC47,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM47" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AM47" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD47,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO47" s="21" t="e">
+        <v>5</v>
+      </c>
+      <c r="AO47" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>38010905</v>
       </c>
     </row>
     <row r="48" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A48" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="B48" s="9" t="s">
+      <c r="B48" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="C48" s="13"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="15"/>
-      <c r="F48" s="16"/>
-      <c r="G48" s="17"/>
-      <c r="H48" s="18"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="22" t="e">
+      <c r="C48" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="D48" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="E48" s="51" t="s">
+        <v>98</v>
+      </c>
+      <c r="F48" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="G48" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="H48" s="54" t="s">
+        <v>94</v>
+      </c>
+      <c r="I48" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="J48" s="22" t="str">
         <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M48" s="21" t="e">
+        <v>48020885</v>
+      </c>
+      <c r="M48" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C48,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N48" s="21">
+        <v>1001</v>
+      </c>
+      <c r="N48" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D48,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D48,'HEX GEN BACKEND'!G:G,0)),D48)</f>
-        <v>0</v>
-      </c>
-      <c r="O48" s="21" t="e">
+        <v>0000000</v>
+      </c>
+      <c r="O48" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E48,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P48" s="21">
+        <v>00</v>
+      </c>
+      <c r="P48" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F48,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F48,'HEX GEN BACKEND'!H:H,0)),F48)</f>
-        <v>0</v>
-      </c>
-      <c r="Q48" s="21" t="e">
+        <v>0000100</v>
+      </c>
+      <c r="Q48" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G48,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R48" s="21">
+        <v>10</v>
+      </c>
+      <c r="R48" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H48,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H48,'HEX GEN BACKEND'!I:I,0)),H48)</f>
-        <v>0</v>
-      </c>
-      <c r="S48" s="21" t="e">
+        <v>0000101</v>
+      </c>
+      <c r="S48" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I48,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U48" s="21" t="e">
+        <v>01</v>
+      </c>
+      <c r="U48" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W48" s="21" t="e">
+        <v>01001000000000100000100010000101</v>
+      </c>
+      <c r="W48" s="21" t="str">
         <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X48" s="21" t="e">
+        <v>0100</v>
+      </c>
+      <c r="X48" s="21" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y48" s="21" t="e">
+        <v>1000</v>
+      </c>
+      <c r="Y48" s="21" t="str">
         <f t="shared" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z48" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="Z48" s="21" t="str">
         <f t="shared" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA48" s="21" t="e">
+        <v>0010</v>
+      </c>
+      <c r="AA48" s="21" t="str">
         <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB48" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AB48" s="21" t="str">
         <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC48" s="21" t="e">
+        <v>1000</v>
+      </c>
+      <c r="AC48" s="21" t="str">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AD48" s="21" t="e">
+        <v>1000</v>
+      </c>
+      <c r="AD48" s="21" t="str">
         <f t="shared" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AF48" s="21" t="e">
+        <v>0101</v>
+      </c>
+      <c r="AF48" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W48,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG48" s="21" t="e">
+        <v>4</v>
+      </c>
+      <c r="AG48" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X48,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH48" s="21" t="e">
+        <v>8</v>
+      </c>
+      <c r="AH48" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y48,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI48" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AI48" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z48,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ48" s="21" t="e">
+        <v>2</v>
+      </c>
+      <c r="AJ48" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA48,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK48" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AK48" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB48,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL48" s="21" t="e">
+        <v>8</v>
+      </c>
+      <c r="AL48" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC48,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM48" s="21" t="e">
+        <v>8</v>
+      </c>
+      <c r="AM48" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD48,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO48" s="21" t="e">
+        <v>5</v>
+      </c>
+      <c r="AO48" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>48020885</v>
       </c>
     </row>
     <row r="49" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A49" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="B49" s="9" t="s">
+      <c r="B49" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="C49" s="13"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="15"/>
-      <c r="F49" s="16"/>
-      <c r="G49" s="17"/>
-      <c r="H49" s="18"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="22" t="e">
+      <c r="C49" s="49" t="s">
+        <v>182</v>
+      </c>
+      <c r="D49" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="E49" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="F49" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="G49" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="H49" s="54" t="s">
+        <v>93</v>
+      </c>
+      <c r="I49" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="J49" s="22" t="str">
         <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M49" s="21" t="e">
+        <v>36010904</v>
+      </c>
+      <c r="M49" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C49,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N49" s="21">
+        <v>0110</v>
+      </c>
+      <c r="N49" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D49,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D49,'HEX GEN BACKEND'!G:G,0)),D49)</f>
-        <v>0</v>
-      </c>
-      <c r="O49" s="21" t="e">
+        <v>0000000</v>
+      </c>
+      <c r="O49" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E49,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P49" s="21">
+        <v>11</v>
+      </c>
+      <c r="P49" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F49,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F49,'HEX GEN BACKEND'!H:H,0)),F49)</f>
-        <v>0</v>
-      </c>
-      <c r="Q49" s="21" t="e">
+        <v>0000100</v>
+      </c>
+      <c r="Q49" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G49,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R49" s="21">
+        <v>01</v>
+      </c>
+      <c r="R49" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H49,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H49,'HEX GEN BACKEND'!I:I,0)),H49)</f>
-        <v>0</v>
-      </c>
-      <c r="S49" s="21" t="e">
+        <v>0000100</v>
+      </c>
+      <c r="S49" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I49,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U49" s="21" t="e">
+        <v>10</v>
+      </c>
+      <c r="U49" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W49" s="21" t="e">
+        <v>00110110000000010000100100000100</v>
+      </c>
+      <c r="W49" s="21" t="str">
         <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X49" s="21" t="e">
+        <v>0011</v>
+      </c>
+      <c r="X49" s="21" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y49" s="21" t="e">
+        <v>0110</v>
+      </c>
+      <c r="Y49" s="21" t="str">
         <f t="shared" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z49" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="Z49" s="21" t="str">
         <f t="shared" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA49" s="21" t="e">
+        <v>0001</v>
+      </c>
+      <c r="AA49" s="21" t="str">
         <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB49" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AB49" s="21" t="str">
         <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC49" s="21" t="e">
+        <v>1001</v>
+      </c>
+      <c r="AC49" s="21" t="str">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AD49" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AD49" s="21" t="str">
         <f t="shared" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AF49" s="21" t="e">
+        <v>0100</v>
+      </c>
+      <c r="AF49" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W49,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG49" s="21" t="e">
+        <v>3</v>
+      </c>
+      <c r="AG49" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X49,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH49" s="21" t="e">
+        <v>6</v>
+      </c>
+      <c r="AH49" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y49,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI49" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AI49" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z49,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ49" s="21" t="e">
+        <v>1</v>
+      </c>
+      <c r="AJ49" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA49,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK49" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AK49" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB49,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL49" s="21" t="e">
+        <v>9</v>
+      </c>
+      <c r="AL49" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC49,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM49" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AM49" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD49,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO49" s="21" t="e">
+        <v>4</v>
+      </c>
+      <c r="AO49" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>36010904</v>
       </c>
     </row>
     <row r="50" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A50" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="B50" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="C50" s="13"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="15"/>
-      <c r="F50" s="16"/>
-      <c r="G50" s="17"/>
-      <c r="H50" s="18"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="22" t="e">
+      <c r="C50" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="D50" s="50" t="s">
+        <v>196</v>
+      </c>
+      <c r="E50" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="F50" s="52" t="s">
+        <v>197</v>
+      </c>
+      <c r="G50" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="H50" s="54" t="s">
+        <v>93</v>
+      </c>
+      <c r="I50" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="J50" s="22" t="str">
         <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M50" s="21" t="e">
+        <v>56A76284</v>
+      </c>
+      <c r="M50" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C50,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N50" s="21">
+        <v>1010</v>
+      </c>
+      <c r="N50" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D50,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D50,'HEX GEN BACKEND'!G:G,0)),D50)</f>
-        <v>0</v>
-      </c>
-      <c r="O50" s="21" t="e">
+        <v>0101001</v>
+      </c>
+      <c r="O50" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E50,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P50" s="21">
+        <v>11</v>
+      </c>
+      <c r="P50" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F50,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F50,'HEX GEN BACKEND'!H:H,0)),F50)</f>
-        <v>0</v>
-      </c>
-      <c r="Q50" s="21" t="e">
+        <v>0110001</v>
+      </c>
+      <c r="Q50" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G50,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R50" s="21">
+        <v>11</v>
+      </c>
+      <c r="R50" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H50,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H50,'HEX GEN BACKEND'!I:I,0)),H50)</f>
-        <v>0</v>
-      </c>
-      <c r="S50" s="21" t="e">
+        <v>0000100</v>
+      </c>
+      <c r="S50" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I50,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U50" s="21" t="e">
+        <v>01</v>
+      </c>
+      <c r="U50" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W50" s="21" t="e">
+        <v>01010110101001110110001010000100</v>
+      </c>
+      <c r="W50" s="21" t="str">
         <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X50" s="21" t="e">
+        <v>0101</v>
+      </c>
+      <c r="X50" s="21" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y50" s="21" t="e">
+        <v>0110</v>
+      </c>
+      <c r="Y50" s="21" t="str">
         <f t="shared" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z50" s="21" t="e">
+        <v>1010</v>
+      </c>
+      <c r="Z50" s="21" t="str">
         <f t="shared" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA50" s="21" t="e">
+        <v>0111</v>
+      </c>
+      <c r="AA50" s="21" t="str">
         <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB50" s="21" t="e">
+        <v>0110</v>
+      </c>
+      <c r="AB50" s="21" t="str">
         <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC50" s="21" t="e">
+        <v>0010</v>
+      </c>
+      <c r="AC50" s="21" t="str">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AD50" s="21" t="e">
+        <v>1000</v>
+      </c>
+      <c r="AD50" s="21" t="str">
         <f t="shared" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AF50" s="21" t="e">
+        <v>0100</v>
+      </c>
+      <c r="AF50" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W50,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG50" s="21" t="e">
+        <v>5</v>
+      </c>
+      <c r="AG50" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X50,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH50" s="21" t="e">
+        <v>6</v>
+      </c>
+      <c r="AH50" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y50,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI50" s="21" t="e">
+        <v>A</v>
+      </c>
+      <c r="AI50" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z50,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ50" s="21" t="e">
+        <v>7</v>
+      </c>
+      <c r="AJ50" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA50,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK50" s="21" t="e">
+        <v>6</v>
+      </c>
+      <c r="AK50" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB50,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL50" s="21" t="e">
+        <v>2</v>
+      </c>
+      <c r="AL50" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC50,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM50" s="21" t="e">
+        <v>8</v>
+      </c>
+      <c r="AM50" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD50,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO50" s="21" t="e">
+        <v>4</v>
+      </c>
+      <c r="AO50" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>56A76284</v>
       </c>
     </row>
     <row r="51" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A51" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="B51" s="9" t="s">
+      <c r="B51" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="C51" s="13"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="15"/>
-      <c r="F51" s="16"/>
-      <c r="G51" s="17"/>
-      <c r="H51" s="18"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="22" t="e">
+      <c r="C51" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="D51" s="50" t="s">
+        <v>138</v>
+      </c>
+      <c r="E51" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="F51" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="G51" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="H51" s="54" t="s">
+        <v>98</v>
+      </c>
+      <c r="I51" s="55" t="s">
+        <v>98</v>
+      </c>
+      <c r="J51" s="22" t="str">
         <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M51" s="21" t="e">
+        <v>4A260800</v>
+      </c>
+      <c r="M51" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C51,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N51" s="21">
+        <v>1001</v>
+      </c>
+      <c r="N51" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D51,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D51,'HEX GEN BACKEND'!G:G,0)),D51)</f>
-        <v>0</v>
-      </c>
-      <c r="O51" s="21" t="e">
+        <v>0001001</v>
+      </c>
+      <c r="O51" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E51,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P51" s="21">
+        <v>01</v>
+      </c>
+      <c r="P51" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F51,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F51,'HEX GEN BACKEND'!H:H,0)),F51)</f>
-        <v>0</v>
-      </c>
-      <c r="Q51" s="21" t="e">
+        <v>0000100</v>
+      </c>
+      <c r="Q51" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G51,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R51" s="21">
+        <v>10</v>
+      </c>
+      <c r="R51" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H51,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H51,'HEX GEN BACKEND'!I:I,0)),H51)</f>
-        <v>0</v>
-      </c>
-      <c r="S51" s="21" t="e">
+        <v>0000000</v>
+      </c>
+      <c r="S51" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I51,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U51" s="21" t="e">
+        <v>00</v>
+      </c>
+      <c r="U51" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W51" s="21" t="e">
+        <v>01001010001001100000100000000000</v>
+      </c>
+      <c r="W51" s="21" t="str">
         <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X51" s="21" t="e">
+        <v>0100</v>
+      </c>
+      <c r="X51" s="21" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y51" s="21" t="e">
+        <v>1010</v>
+      </c>
+      <c r="Y51" s="21" t="str">
         <f t="shared" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z51" s="21" t="e">
+        <v>0010</v>
+      </c>
+      <c r="Z51" s="21" t="str">
         <f t="shared" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA51" s="21" t="e">
+        <v>0110</v>
+      </c>
+      <c r="AA51" s="21" t="str">
         <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB51" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AB51" s="21" t="str">
         <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC51" s="21" t="e">
+        <v>1000</v>
+      </c>
+      <c r="AC51" s="21" t="str">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AD51" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AD51" s="21" t="str">
         <f t="shared" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AF51" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AF51" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W51,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG51" s="21" t="e">
+        <v>4</v>
+      </c>
+      <c r="AG51" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X51,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH51" s="21" t="e">
+        <v>A</v>
+      </c>
+      <c r="AH51" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y51,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI51" s="21" t="e">
+        <v>2</v>
+      </c>
+      <c r="AI51" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z51,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ51" s="21" t="e">
+        <v>6</v>
+      </c>
+      <c r="AJ51" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA51,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK51" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AK51" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB51,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL51" s="21" t="e">
+        <v>8</v>
+      </c>
+      <c r="AL51" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC51,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM51" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AM51" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD51,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO51" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AO51" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>4A260800</v>
       </c>
     </row>
     <row r="52" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A52" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="B52" s="9" t="s">
+      <c r="B52" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="C52" s="13"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="15"/>
-      <c r="F52" s="16"/>
-      <c r="G52" s="17"/>
-      <c r="H52" s="18"/>
-      <c r="I52" s="19"/>
-      <c r="J52" s="22" t="e">
+      <c r="C52" s="49" t="s">
+        <v>181</v>
+      </c>
+      <c r="D52" s="50" t="s">
+        <v>137</v>
+      </c>
+      <c r="E52" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="F52" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="G52" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="H52" s="54" t="s">
+        <v>93</v>
+      </c>
+      <c r="I52" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="J52" s="22" t="str">
         <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M52" s="21" t="e">
+        <v>2A210904</v>
+      </c>
+      <c r="M52" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C52,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N52" s="21">
+        <v>0101</v>
+      </c>
+      <c r="N52" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D52,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D52,'HEX GEN BACKEND'!G:G,0)),D52)</f>
-        <v>0</v>
-      </c>
-      <c r="O52" s="21" t="e">
+        <v>0001000</v>
+      </c>
+      <c r="O52" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E52,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P52" s="21">
+        <v>01</v>
+      </c>
+      <c r="P52" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F52,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F52,'HEX GEN BACKEND'!H:H,0)),F52)</f>
-        <v>0</v>
-      </c>
-      <c r="Q52" s="21" t="e">
+        <v>0000100</v>
+      </c>
+      <c r="Q52" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G52,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R52" s="21">
+        <v>01</v>
+      </c>
+      <c r="R52" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H52,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H52,'HEX GEN BACKEND'!I:I,0)),H52)</f>
-        <v>0</v>
-      </c>
-      <c r="S52" s="21" t="e">
+        <v>0000100</v>
+      </c>
+      <c r="S52" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I52,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U52" s="21" t="e">
+        <v>10</v>
+      </c>
+      <c r="U52" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W52" s="21" t="e">
+        <v>00101010001000010000100100000100</v>
+      </c>
+      <c r="W52" s="21" t="str">
         <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X52" s="21" t="e">
+        <v>0010</v>
+      </c>
+      <c r="X52" s="21" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y52" s="21" t="e">
+        <v>1010</v>
+      </c>
+      <c r="Y52" s="21" t="str">
         <f t="shared" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z52" s="21" t="e">
+        <v>0010</v>
+      </c>
+      <c r="Z52" s="21" t="str">
         <f t="shared" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA52" s="21" t="e">
+        <v>0001</v>
+      </c>
+      <c r="AA52" s="21" t="str">
         <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB52" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AB52" s="21" t="str">
         <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC52" s="21" t="e">
+        <v>1001</v>
+      </c>
+      <c r="AC52" s="21" t="str">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AD52" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AD52" s="21" t="str">
         <f t="shared" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AF52" s="21" t="e">
+        <v>0100</v>
+      </c>
+      <c r="AF52" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W52,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG52" s="21" t="e">
+        <v>2</v>
+      </c>
+      <c r="AG52" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X52,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH52" s="21" t="e">
+        <v>A</v>
+      </c>
+      <c r="AH52" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y52,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI52" s="21" t="e">
+        <v>2</v>
+      </c>
+      <c r="AI52" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z52,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ52" s="21" t="e">
+        <v>1</v>
+      </c>
+      <c r="AJ52" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA52,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK52" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AK52" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB52,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL52" s="21" t="e">
+        <v>9</v>
+      </c>
+      <c r="AL52" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC52,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM52" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AM52" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD52,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO52" s="21" t="e">
+        <v>4</v>
+      </c>
+      <c r="AO52" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>2A210904</v>
       </c>
     </row>
     <row r="53" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A53" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="B53" s="9" t="s">
+      <c r="B53" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="C53" s="13"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="15"/>
-      <c r="F53" s="16"/>
-      <c r="G53" s="17"/>
-      <c r="H53" s="18"/>
-      <c r="I53" s="19"/>
-      <c r="J53" s="22" t="e">
+      <c r="C53" s="49" t="s">
+        <v>177</v>
+      </c>
+      <c r="D53" s="50" t="s">
+        <v>137</v>
+      </c>
+      <c r="E53" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="F53" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="G53" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="H53" s="54" t="s">
+        <v>94</v>
+      </c>
+      <c r="I53" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="J53" s="22" t="str">
         <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M53" s="21" t="e">
+        <v>0A210905</v>
+      </c>
+      <c r="M53" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C53,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N53" s="21">
+        <v>0001</v>
+      </c>
+      <c r="N53" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D53,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D53,'HEX GEN BACKEND'!G:G,0)),D53)</f>
-        <v>0</v>
-      </c>
-      <c r="O53" s="21" t="e">
+        <v>0001000</v>
+      </c>
+      <c r="O53" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E53,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P53" s="21">
+        <v>01</v>
+      </c>
+      <c r="P53" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F53,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F53,'HEX GEN BACKEND'!H:H,0)),F53)</f>
-        <v>0</v>
-      </c>
-      <c r="Q53" s="21" t="e">
+        <v>0000100</v>
+      </c>
+      <c r="Q53" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G53,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R53" s="21">
+        <v>01</v>
+      </c>
+      <c r="R53" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H53,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H53,'HEX GEN BACKEND'!I:I,0)),H53)</f>
-        <v>0</v>
-      </c>
-      <c r="S53" s="21" t="e">
+        <v>0000101</v>
+      </c>
+      <c r="S53" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I53,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U53" s="21" t="e">
+        <v>10</v>
+      </c>
+      <c r="U53" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W53" s="21" t="e">
+        <v>00001010001000010000100100000101</v>
+      </c>
+      <c r="W53" s="21" t="str">
         <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X53" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="X53" s="21" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y53" s="21" t="e">
+        <v>1010</v>
+      </c>
+      <c r="Y53" s="21" t="str">
         <f t="shared" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z53" s="21" t="e">
+        <v>0010</v>
+      </c>
+      <c r="Z53" s="21" t="str">
         <f t="shared" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA53" s="21" t="e">
+        <v>0001</v>
+      </c>
+      <c r="AA53" s="21" t="str">
         <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB53" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AB53" s="21" t="str">
         <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC53" s="21" t="e">
+        <v>1001</v>
+      </c>
+      <c r="AC53" s="21" t="str">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AD53" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AD53" s="21" t="str">
         <f t="shared" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AF53" s="21" t="e">
+        <v>0101</v>
+      </c>
+      <c r="AF53" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W53,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG53" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AG53" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X53,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH53" s="21" t="e">
+        <v>A</v>
+      </c>
+      <c r="AH53" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y53,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI53" s="21" t="e">
+        <v>2</v>
+      </c>
+      <c r="AI53" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z53,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ53" s="21" t="e">
+        <v>1</v>
+      </c>
+      <c r="AJ53" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA53,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK53" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AK53" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB53,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL53" s="21" t="e">
+        <v>9</v>
+      </c>
+      <c r="AL53" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC53,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM53" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AM53" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD53,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO53" s="21" t="e">
+        <v>5</v>
+      </c>
+      <c r="AO53" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>0A210905</v>
       </c>
     </row>
     <row r="54" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A54" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="B54" s="9" t="s">
+      <c r="B54" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="C54" s="13"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="15"/>
-      <c r="F54" s="16"/>
-      <c r="G54" s="17"/>
-      <c r="H54" s="18"/>
-      <c r="I54" s="19"/>
-      <c r="J54" s="22" t="e">
+      <c r="C54" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="D54" s="50" t="s">
+        <v>137</v>
+      </c>
+      <c r="E54" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="F54" s="52" t="s">
+        <v>98</v>
+      </c>
+      <c r="G54" s="53" t="s">
+        <v>98</v>
+      </c>
+      <c r="H54" s="54" t="s">
+        <v>93</v>
+      </c>
+      <c r="I54" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="J54" s="22" t="str">
         <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M54" s="21" t="e">
+        <v>4C200084</v>
+      </c>
+      <c r="M54" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C54,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N54" s="21">
+        <v>1001</v>
+      </c>
+      <c r="N54" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D54,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D54,'HEX GEN BACKEND'!G:G,0)),D54)</f>
-        <v>0</v>
-      </c>
-      <c r="O54" s="21" t="e">
+        <v>0001000</v>
+      </c>
+      <c r="O54" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E54,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P54" s="21">
+        <v>10</v>
+      </c>
+      <c r="P54" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F54,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F54,'HEX GEN BACKEND'!H:H,0)),F54)</f>
-        <v>0</v>
-      </c>
-      <c r="Q54" s="21" t="e">
+        <v>0000000</v>
+      </c>
+      <c r="Q54" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G54,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R54" s="21">
+        <v>00</v>
+      </c>
+      <c r="R54" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H54,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H54,'HEX GEN BACKEND'!I:I,0)),H54)</f>
-        <v>0</v>
-      </c>
-      <c r="S54" s="21" t="e">
+        <v>0000100</v>
+      </c>
+      <c r="S54" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I54,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U54" s="21" t="e">
+        <v>01</v>
+      </c>
+      <c r="U54" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W54" s="21" t="e">
+        <v>01001100001000000000000010000100</v>
+      </c>
+      <c r="W54" s="21" t="str">
         <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X54" s="21" t="e">
+        <v>0100</v>
+      </c>
+      <c r="X54" s="21" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y54" s="21" t="e">
+        <v>1100</v>
+      </c>
+      <c r="Y54" s="21" t="str">
         <f t="shared" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z54" s="21" t="e">
+        <v>0010</v>
+      </c>
+      <c r="Z54" s="21" t="str">
         <f t="shared" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA54" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AA54" s="21" t="str">
         <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB54" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AB54" s="21" t="str">
         <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC54" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AC54" s="21" t="str">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AD54" s="21" t="e">
+        <v>1000</v>
+      </c>
+      <c r="AD54" s="21" t="str">
         <f t="shared" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AF54" s="21" t="e">
+        <v>0100</v>
+      </c>
+      <c r="AF54" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W54,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG54" s="21" t="e">
+        <v>4</v>
+      </c>
+      <c r="AG54" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X54,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH54" s="21" t="e">
+        <v>C</v>
+      </c>
+      <c r="AH54" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y54,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI54" s="21" t="e">
+        <v>2</v>
+      </c>
+      <c r="AI54" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z54,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ54" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AJ54" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA54,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK54" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AK54" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB54,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL54" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AL54" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC54,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM54" s="21" t="e">
+        <v>8</v>
+      </c>
+      <c r="AM54" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD54,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO54" s="21" t="e">
+        <v>4</v>
+      </c>
+      <c r="AO54" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>4C200084</v>
       </c>
     </row>
     <row r="55" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A55" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="B55" s="9" t="s">
+      <c r="B55" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="C55" s="13"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="15"/>
-      <c r="F55" s="16"/>
-      <c r="G55" s="17"/>
-      <c r="H55" s="18"/>
-      <c r="I55" s="19"/>
-      <c r="J55" s="22" t="e">
+      <c r="C55" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="D55" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="E55" s="51" t="s">
+        <v>98</v>
+      </c>
+      <c r="F55" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="G55" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="H55" s="54" t="s">
+        <v>94</v>
+      </c>
+      <c r="I55" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="J55" s="22" t="str">
         <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M55" s="21" t="e">
+        <v>48020885</v>
+      </c>
+      <c r="M55" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C55,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N55" s="21">
+        <v>1001</v>
+      </c>
+      <c r="N55" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D55,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D55,'HEX GEN BACKEND'!G:G,0)),D55)</f>
-        <v>0</v>
-      </c>
-      <c r="O55" s="21" t="e">
+        <v>0000000</v>
+      </c>
+      <c r="O55" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E55,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P55" s="21">
+        <v>00</v>
+      </c>
+      <c r="P55" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F55,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F55,'HEX GEN BACKEND'!H:H,0)),F55)</f>
-        <v>0</v>
-      </c>
-      <c r="Q55" s="21" t="e">
+        <v>0000100</v>
+      </c>
+      <c r="Q55" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G55,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R55" s="21">
+        <v>10</v>
+      </c>
+      <c r="R55" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H55,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H55,'HEX GEN BACKEND'!I:I,0)),H55)</f>
-        <v>0</v>
-      </c>
-      <c r="S55" s="21" t="e">
+        <v>0000101</v>
+      </c>
+      <c r="S55" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I55,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U55" s="21" t="e">
+        <v>01</v>
+      </c>
+      <c r="U55" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W55" s="21" t="e">
+        <v>01001000000000100000100010000101</v>
+      </c>
+      <c r="W55" s="21" t="str">
         <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X55" s="21" t="e">
+        <v>0100</v>
+      </c>
+      <c r="X55" s="21" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y55" s="21" t="e">
+        <v>1000</v>
+      </c>
+      <c r="Y55" s="21" t="str">
         <f t="shared" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z55" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="Z55" s="21" t="str">
         <f t="shared" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA55" s="21" t="e">
+        <v>0010</v>
+      </c>
+      <c r="AA55" s="21" t="str">
         <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB55" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AB55" s="21" t="str">
         <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC55" s="21" t="e">
+        <v>1000</v>
+      </c>
+      <c r="AC55" s="21" t="str">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AD55" s="21" t="e">
+        <v>1000</v>
+      </c>
+      <c r="AD55" s="21" t="str">
         <f t="shared" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AF55" s="21" t="e">
+        <v>0101</v>
+      </c>
+      <c r="AF55" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W55,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG55" s="21" t="e">
+        <v>4</v>
+      </c>
+      <c r="AG55" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X55,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH55" s="21" t="e">
+        <v>8</v>
+      </c>
+      <c r="AH55" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y55,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI55" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AI55" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z55,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ55" s="21" t="e">
+        <v>2</v>
+      </c>
+      <c r="AJ55" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA55,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK55" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AK55" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB55,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL55" s="21" t="e">
+        <v>8</v>
+      </c>
+      <c r="AL55" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC55,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM55" s="21" t="e">
+        <v>8</v>
+      </c>
+      <c r="AM55" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD55,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO55" s="21" t="e">
+        <v>5</v>
+      </c>
+      <c r="AO55" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>48020885</v>
       </c>
     </row>
     <row r="56" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A56" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="B56" s="9" t="s">
+      <c r="B56" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="C56" s="13"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="15"/>
-      <c r="F56" s="16"/>
-      <c r="G56" s="17"/>
-      <c r="H56" s="18"/>
-      <c r="I56" s="19"/>
-      <c r="J56" s="22" t="e">
+      <c r="C56" s="49" t="s">
+        <v>183</v>
+      </c>
+      <c r="D56" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="E56" s="51" t="s">
+        <v>98</v>
+      </c>
+      <c r="F56" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="G56" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="H56" s="54" t="s">
+        <v>94</v>
+      </c>
+      <c r="I56" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="J56" s="22" t="str">
         <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M56" s="21" t="e">
+        <v>38010905</v>
+      </c>
+      <c r="M56" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C56,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N56" s="21">
+        <v>0111</v>
+      </c>
+      <c r="N56" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D56,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D56,'HEX GEN BACKEND'!G:G,0)),D56)</f>
-        <v>0</v>
-      </c>
-      <c r="O56" s="21" t="e">
+        <v>0000000</v>
+      </c>
+      <c r="O56" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E56,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P56" s="21">
+        <v>00</v>
+      </c>
+      <c r="P56" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F56,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F56,'HEX GEN BACKEND'!H:H,0)),F56)</f>
-        <v>0</v>
-      </c>
-      <c r="Q56" s="21" t="e">
+        <v>0000100</v>
+      </c>
+      <c r="Q56" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G56,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R56" s="21">
+        <v>01</v>
+      </c>
+      <c r="R56" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H56,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H56,'HEX GEN BACKEND'!I:I,0)),H56)</f>
-        <v>0</v>
-      </c>
-      <c r="S56" s="21" t="e">
+        <v>0000101</v>
+      </c>
+      <c r="S56" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I56,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U56" s="21" t="e">
+        <v>10</v>
+      </c>
+      <c r="U56" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W56" s="21" t="e">
+        <v>00111000000000010000100100000101</v>
+      </c>
+      <c r="W56" s="21" t="str">
         <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X56" s="21" t="e">
+        <v>0011</v>
+      </c>
+      <c r="X56" s="21" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y56" s="21" t="e">
+        <v>1000</v>
+      </c>
+      <c r="Y56" s="21" t="str">
         <f t="shared" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z56" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="Z56" s="21" t="str">
         <f t="shared" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA56" s="21" t="e">
+        <v>0001</v>
+      </c>
+      <c r="AA56" s="21" t="str">
         <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB56" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AB56" s="21" t="str">
         <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC56" s="21" t="e">
+        <v>1001</v>
+      </c>
+      <c r="AC56" s="21" t="str">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AD56" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AD56" s="21" t="str">
         <f t="shared" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AF56" s="21" t="e">
+        <v>0101</v>
+      </c>
+      <c r="AF56" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W56,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG56" s="21" t="e">
+        <v>3</v>
+      </c>
+      <c r="AG56" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X56,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH56" s="21" t="e">
+        <v>8</v>
+      </c>
+      <c r="AH56" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y56,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI56" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AI56" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z56,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ56" s="21" t="e">
+        <v>1</v>
+      </c>
+      <c r="AJ56" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA56,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK56" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AK56" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB56,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL56" s="21" t="e">
+        <v>9</v>
+      </c>
+      <c r="AL56" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC56,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM56" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AM56" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD56,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO56" s="21" t="e">
+        <v>5</v>
+      </c>
+      <c r="AO56" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>38010905</v>
       </c>
     </row>
     <row r="57" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A57" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="B57" s="9" t="s">
+      <c r="B57" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="C57" s="13"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="15"/>
-      <c r="F57" s="16"/>
-      <c r="G57" s="17"/>
-      <c r="H57" s="18"/>
-      <c r="I57" s="19"/>
-      <c r="J57" s="22" t="e">
+      <c r="C57" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="D57" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="E57" s="51" t="s">
+        <v>98</v>
+      </c>
+      <c r="F57" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="G57" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="H57" s="54" t="s">
+        <v>94</v>
+      </c>
+      <c r="I57" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="J57" s="22" t="str">
         <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M57" s="21" t="e">
+        <v>48020885</v>
+      </c>
+      <c r="M57" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C57,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N57" s="21">
+        <v>1001</v>
+      </c>
+      <c r="N57" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D57,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D57,'HEX GEN BACKEND'!G:G,0)),D57)</f>
-        <v>0</v>
-      </c>
-      <c r="O57" s="21" t="e">
+        <v>0000000</v>
+      </c>
+      <c r="O57" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E57,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P57" s="21">
+        <v>00</v>
+      </c>
+      <c r="P57" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F57,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F57,'HEX GEN BACKEND'!H:H,0)),F57)</f>
-        <v>0</v>
-      </c>
-      <c r="Q57" s="21" t="e">
+        <v>0000100</v>
+      </c>
+      <c r="Q57" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G57,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R57" s="21">
+        <v>10</v>
+      </c>
+      <c r="R57" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H57,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H57,'HEX GEN BACKEND'!I:I,0)),H57)</f>
-        <v>0</v>
-      </c>
-      <c r="S57" s="21" t="e">
+        <v>0000101</v>
+      </c>
+      <c r="S57" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I57,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U57" s="21" t="e">
+        <v>01</v>
+      </c>
+      <c r="U57" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W57" s="21" t="e">
+        <v>01001000000000100000100010000101</v>
+      </c>
+      <c r="W57" s="21" t="str">
         <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X57" s="21" t="e">
+        <v>0100</v>
+      </c>
+      <c r="X57" s="21" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y57" s="21" t="e">
+        <v>1000</v>
+      </c>
+      <c r="Y57" s="21" t="str">
         <f t="shared" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z57" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="Z57" s="21" t="str">
         <f t="shared" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA57" s="21" t="e">
+        <v>0010</v>
+      </c>
+      <c r="AA57" s="21" t="str">
         <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB57" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AB57" s="21" t="str">
         <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC57" s="21" t="e">
+        <v>1000</v>
+      </c>
+      <c r="AC57" s="21" t="str">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AD57" s="21" t="e">
+        <v>1000</v>
+      </c>
+      <c r="AD57" s="21" t="str">
         <f t="shared" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AF57" s="21" t="e">
+        <v>0101</v>
+      </c>
+      <c r="AF57" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W57,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG57" s="21" t="e">
+        <v>4</v>
+      </c>
+      <c r="AG57" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X57,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH57" s="21" t="e">
+        <v>8</v>
+      </c>
+      <c r="AH57" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y57,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI57" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AI57" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z57,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ57" s="21" t="e">
+        <v>2</v>
+      </c>
+      <c r="AJ57" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA57,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK57" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AK57" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB57,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL57" s="21" t="e">
+        <v>8</v>
+      </c>
+      <c r="AL57" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC57,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM57" s="21" t="e">
+        <v>8</v>
+      </c>
+      <c r="AM57" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD57,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO57" s="21" t="e">
+        <v>5</v>
+      </c>
+      <c r="AO57" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>48020885</v>
       </c>
     </row>
     <row r="58" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A58" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="B58" s="9" t="s">
+      <c r="B58" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="C58" s="13"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="15"/>
-      <c r="F58" s="16"/>
-      <c r="G58" s="17"/>
-      <c r="H58" s="18"/>
-      <c r="I58" s="19"/>
-      <c r="J58" s="22" t="e">
+      <c r="C58" s="49" t="s">
+        <v>182</v>
+      </c>
+      <c r="D58" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="E58" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="F58" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="G58" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="H58" s="54" t="s">
+        <v>93</v>
+      </c>
+      <c r="I58" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="J58" s="22" t="str">
         <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M58" s="21" t="e">
+        <v>36010904</v>
+      </c>
+      <c r="M58" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C58,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N58" s="21">
+        <v>0110</v>
+      </c>
+      <c r="N58" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D58,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D58,'HEX GEN BACKEND'!G:G,0)),D58)</f>
-        <v>0</v>
-      </c>
-      <c r="O58" s="21" t="e">
+        <v>0000000</v>
+      </c>
+      <c r="O58" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E58,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P58" s="21">
+        <v>11</v>
+      </c>
+      <c r="P58" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F58,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F58,'HEX GEN BACKEND'!H:H,0)),F58)</f>
-        <v>0</v>
-      </c>
-      <c r="Q58" s="21" t="e">
+        <v>0000100</v>
+      </c>
+      <c r="Q58" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G58,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R58" s="21">
+        <v>01</v>
+      </c>
+      <c r="R58" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H58,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H58,'HEX GEN BACKEND'!I:I,0)),H58)</f>
-        <v>0</v>
-      </c>
-      <c r="S58" s="21" t="e">
+        <v>0000100</v>
+      </c>
+      <c r="S58" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I58,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U58" s="21" t="e">
+        <v>10</v>
+      </c>
+      <c r="U58" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W58" s="21" t="e">
+        <v>00110110000000010000100100000100</v>
+      </c>
+      <c r="W58" s="21" t="str">
         <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X58" s="21" t="e">
+        <v>0011</v>
+      </c>
+      <c r="X58" s="21" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y58" s="21" t="e">
+        <v>0110</v>
+      </c>
+      <c r="Y58" s="21" t="str">
         <f t="shared" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z58" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="Z58" s="21" t="str">
         <f t="shared" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA58" s="21" t="e">
+        <v>0001</v>
+      </c>
+      <c r="AA58" s="21" t="str">
         <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB58" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AB58" s="21" t="str">
         <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC58" s="21" t="e">
+        <v>1001</v>
+      </c>
+      <c r="AC58" s="21" t="str">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AD58" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AD58" s="21" t="str">
         <f t="shared" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AF58" s="21" t="e">
+        <v>0100</v>
+      </c>
+      <c r="AF58" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W58,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG58" s="21" t="e">
+        <v>3</v>
+      </c>
+      <c r="AG58" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X58,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH58" s="21" t="e">
+        <v>6</v>
+      </c>
+      <c r="AH58" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y58,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI58" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AI58" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z58,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ58" s="21" t="e">
+        <v>1</v>
+      </c>
+      <c r="AJ58" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA58,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK58" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AK58" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB58,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL58" s="21" t="e">
+        <v>9</v>
+      </c>
+      <c r="AL58" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC58,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM58" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AM58" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD58,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO58" s="21" t="e">
+        <v>4</v>
+      </c>
+      <c r="AO58" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>36010904</v>
       </c>
     </row>
     <row r="59" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A59" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="B59" s="9" t="s">
+      <c r="B59" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="C59" s="13"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="15"/>
-      <c r="F59" s="16"/>
-      <c r="G59" s="17"/>
-      <c r="H59" s="18"/>
-      <c r="I59" s="19"/>
-      <c r="J59" s="22" t="e">
+      <c r="C59" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="D59" s="50" t="s">
+        <v>198</v>
+      </c>
+      <c r="E59" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="F59" s="52" t="s">
+        <v>199</v>
+      </c>
+      <c r="G59" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="H59" s="54" t="s">
+        <v>93</v>
+      </c>
+      <c r="I59" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="J59" s="22" t="str">
         <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M59" s="21" t="e">
+        <v>56CB7484</v>
+      </c>
+      <c r="M59" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C59,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N59" s="21">
+        <v>1010</v>
+      </c>
+      <c r="N59" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D59,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D59,'HEX GEN BACKEND'!G:G,0)),D59)</f>
-        <v>0</v>
-      </c>
-      <c r="O59" s="21" t="e">
+        <v>0110010</v>
+      </c>
+      <c r="O59" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E59,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P59" s="21">
+        <v>11</v>
+      </c>
+      <c r="P59" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F59,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F59,'HEX GEN BACKEND'!H:H,0)),F59)</f>
-        <v>0</v>
-      </c>
-      <c r="Q59" s="21" t="e">
+        <v>0111010</v>
+      </c>
+      <c r="Q59" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G59,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R59" s="21">
+        <v>11</v>
+      </c>
+      <c r="R59" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H59,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H59,'HEX GEN BACKEND'!I:I,0)),H59)</f>
-        <v>0</v>
-      </c>
-      <c r="S59" s="21" t="e">
+        <v>0000100</v>
+      </c>
+      <c r="S59" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I59,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U59" s="21" t="e">
+        <v>01</v>
+      </c>
+      <c r="U59" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W59" s="21" t="e">
+        <v>01010110110010110111010010000100</v>
+      </c>
+      <c r="W59" s="21" t="str">
         <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X59" s="21" t="e">
+        <v>0101</v>
+      </c>
+      <c r="X59" s="21" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y59" s="21" t="e">
+        <v>0110</v>
+      </c>
+      <c r="Y59" s="21" t="str">
         <f t="shared" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z59" s="21" t="e">
+        <v>1100</v>
+      </c>
+      <c r="Z59" s="21" t="str">
         <f t="shared" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA59" s="21" t="e">
+        <v>1011</v>
+      </c>
+      <c r="AA59" s="21" t="str">
         <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB59" s="21" t="e">
+        <v>0111</v>
+      </c>
+      <c r="AB59" s="21" t="str">
         <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC59" s="21" t="e">
+        <v>0100</v>
+      </c>
+      <c r="AC59" s="21" t="str">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AD59" s="21" t="e">
+        <v>1000</v>
+      </c>
+      <c r="AD59" s="21" t="str">
         <f t="shared" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AF59" s="21" t="e">
+        <v>0100</v>
+      </c>
+      <c r="AF59" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W59,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG59" s="21" t="e">
+        <v>5</v>
+      </c>
+      <c r="AG59" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X59,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH59" s="21" t="e">
+        <v>6</v>
+      </c>
+      <c r="AH59" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y59,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI59" s="21" t="e">
+        <v>C</v>
+      </c>
+      <c r="AI59" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z59,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ59" s="21" t="e">
+        <v>B</v>
+      </c>
+      <c r="AJ59" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA59,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK59" s="21" t="e">
+        <v>7</v>
+      </c>
+      <c r="AK59" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB59,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL59" s="21" t="e">
+        <v>4</v>
+      </c>
+      <c r="AL59" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC59,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM59" s="21" t="e">
+        <v>8</v>
+      </c>
+      <c r="AM59" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD59,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO59" s="21" t="e">
+        <v>4</v>
+      </c>
+      <c r="AO59" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>56CB7484</v>
       </c>
     </row>
     <row r="60" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A60" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="B60" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C60" s="13"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="15"/>
-      <c r="F60" s="16"/>
-      <c r="G60" s="17"/>
-      <c r="H60" s="18"/>
-      <c r="I60" s="19"/>
-      <c r="J60" s="22" t="e">
+      <c r="B60" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="C60" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="D60" s="50" t="s">
+        <v>137</v>
+      </c>
+      <c r="E60" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="F60" s="52" t="s">
+        <v>98</v>
+      </c>
+      <c r="G60" s="53" t="s">
+        <v>98</v>
+      </c>
+      <c r="H60" s="54" t="s">
+        <v>98</v>
+      </c>
+      <c r="I60" s="55" t="s">
+        <v>98</v>
+      </c>
+      <c r="J60" s="22" t="str">
         <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M60" s="21" t="e">
+        <v>E2200000</v>
+      </c>
+      <c r="M60" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C60,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N60" s="21">
+        <v>1100</v>
+      </c>
+      <c r="N60" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D60,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D60,'HEX GEN BACKEND'!G:G,0)),D60)</f>
-        <v>0</v>
-      </c>
-      <c r="O60" s="21" t="e">
+        <v>0001000</v>
+      </c>
+      <c r="O60" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E60,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P60" s="21">
+        <v>01</v>
+      </c>
+      <c r="P60" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F60,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F60,'HEX GEN BACKEND'!H:H,0)),F60)</f>
-        <v>0</v>
-      </c>
-      <c r="Q60" s="21" t="e">
+        <v>0000000</v>
+      </c>
+      <c r="Q60" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G60,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R60" s="21">
+        <v>00</v>
+      </c>
+      <c r="R60" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H60,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H60,'HEX GEN BACKEND'!I:I,0)),H60)</f>
-        <v>0</v>
-      </c>
-      <c r="S60" s="21" t="e">
+        <v>0000000</v>
+      </c>
+      <c r="S60" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I60,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U60" s="21" t="e">
+        <v>00</v>
+      </c>
+      <c r="U60" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W60" s="21" t="e">
+        <v>11100010001000000000000000000000</v>
+      </c>
+      <c r="W60" s="21" t="str">
         <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X60" s="21" t="e">
+        <v>1110</v>
+      </c>
+      <c r="X60" s="21" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y60" s="21" t="e">
+        <v>0010</v>
+      </c>
+      <c r="Y60" s="21" t="str">
         <f t="shared" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z60" s="21" t="e">
+        <v>0010</v>
+      </c>
+      <c r="Z60" s="21" t="str">
         <f t="shared" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA60" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AA60" s="21" t="str">
         <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB60" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AB60" s="21" t="str">
         <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC60" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AC60" s="21" t="str">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AD60" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AD60" s="21" t="str">
         <f t="shared" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AF60" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AF60" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W60,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG60" s="21" t="e">
+        <v>E</v>
+      </c>
+      <c r="AG60" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X60,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH60" s="21" t="e">
+        <v>2</v>
+      </c>
+      <c r="AH60" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y60,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI60" s="21" t="e">
+        <v>2</v>
+      </c>
+      <c r="AI60" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z60,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ60" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AJ60" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA60,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK60" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AK60" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB60,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL60" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AL60" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC60,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM60" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AM60" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD60,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO60" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AO60" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>E2200000</v>
       </c>
     </row>
     <row r="61" spans="1:41" x14ac:dyDescent="0.25">
@@ -8700,116 +9018,130 @@
       <c r="B61" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C61" s="13"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="15"/>
-      <c r="F61" s="16"/>
-      <c r="G61" s="17"/>
-      <c r="H61" s="18"/>
-      <c r="I61" s="19"/>
-      <c r="J61" s="22" t="e">
+      <c r="C61" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D61" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="E61" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="F61" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="G61" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="H61" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="I61" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="J61" s="22" t="str">
         <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M61" s="21" t="e">
+        <v>562C0000</v>
+      </c>
+      <c r="M61" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C61,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N61" s="21">
+        <v>1010</v>
+      </c>
+      <c r="N61" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D61,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D61,'HEX GEN BACKEND'!G:G,0)),D61)</f>
-        <v>0</v>
-      </c>
-      <c r="O61" s="21" t="e">
+        <v>0001011</v>
+      </c>
+      <c r="O61" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E61,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P61" s="21">
+        <v>11</v>
+      </c>
+      <c r="P61" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F61,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F61,'HEX GEN BACKEND'!H:H,0)),F61)</f>
-        <v>0</v>
-      </c>
-      <c r="Q61" s="21" t="e">
+        <v>0000000</v>
+      </c>
+      <c r="Q61" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G61,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R61" s="21">
+        <v>00</v>
+      </c>
+      <c r="R61" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H61,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H61,'HEX GEN BACKEND'!I:I,0)),H61)</f>
-        <v>0</v>
-      </c>
-      <c r="S61" s="21" t="e">
+        <v>0000000</v>
+      </c>
+      <c r="S61" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I61,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U61" s="21" t="e">
+        <v>00</v>
+      </c>
+      <c r="U61" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W61" s="21" t="e">
+        <v>01010110001011000000000000000000</v>
+      </c>
+      <c r="W61" s="21" t="str">
         <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X61" s="21" t="e">
+        <v>0101</v>
+      </c>
+      <c r="X61" s="21" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y61" s="21" t="e">
+        <v>0110</v>
+      </c>
+      <c r="Y61" s="21" t="str">
         <f t="shared" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z61" s="21" t="e">
+        <v>0010</v>
+      </c>
+      <c r="Z61" s="21" t="str">
         <f t="shared" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA61" s="21" t="e">
+        <v>1100</v>
+      </c>
+      <c r="AA61" s="21" t="str">
         <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB61" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AB61" s="21" t="str">
         <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC61" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AC61" s="21" t="str">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AD61" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AD61" s="21" t="str">
         <f t="shared" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AF61" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AF61" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W61,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG61" s="21" t="e">
+        <v>5</v>
+      </c>
+      <c r="AG61" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X61,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH61" s="21" t="e">
+        <v>6</v>
+      </c>
+      <c r="AH61" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y61,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI61" s="21" t="e">
+        <v>2</v>
+      </c>
+      <c r="AI61" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z61,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ61" s="21" t="e">
+        <v>C</v>
+      </c>
+      <c r="AJ61" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA61,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK61" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AK61" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB61,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL61" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AL61" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC61,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM61" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AM61" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD61,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO61" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AO61" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>562C0000</v>
       </c>
     </row>
     <row r="62" spans="1:41" x14ac:dyDescent="0.25">
@@ -13462,7 +13794,7 @@
           <x14:formula1>
             <xm:f>'HEX GEN BACKEND'!$D:$D</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E101 G2:G101 I2:I101</xm:sqref>
+          <xm:sqref>I2:I101 G2:G101 E2:E101</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/INSTRUCTIONS/Binary Instructions.xlsx
+++ b/INSTRUCTIONS/Binary Instructions.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="200">
   <si>
     <t>0001</t>
   </si>
@@ -612,9 +612,6 @@
     <t>0100001</t>
   </si>
   <si>
-    <t>0111011</t>
-  </si>
-  <si>
     <t>0101001</t>
   </si>
   <si>
@@ -625,6 +622,9 @@
   </si>
   <si>
     <t>0111010</t>
+  </si>
+  <si>
+    <t>0111110</t>
   </si>
 </sst>
 </file>
@@ -1109,7 +1109,7 @@
   <dimension ref="A1:AO101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J61"/>
+      <selection activeCell="J1" sqref="J1:J64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4772,7 +4772,7 @@
         <v>69</v>
       </c>
       <c r="F29" s="42" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="G29" s="43" t="s">
         <v>69</v>
@@ -4785,7 +4785,7 @@
       </c>
       <c r="J29" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>56777682</v>
+        <v>56777C82</v>
       </c>
       <c r="M29" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C29,'HEX GEN BACKEND'!A:A,0))</f>
@@ -4801,7 +4801,7 @@
       </c>
       <c r="P29" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F29,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F29,'HEX GEN BACKEND'!H:H,0)),F29)</f>
-        <v>0111011</v>
+        <v>0111110</v>
       </c>
       <c r="Q29" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G29,'HEX GEN BACKEND'!D:D,0))</f>
@@ -4817,7 +4817,7 @@
       </c>
       <c r="U29" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>01010110011101110111011010000010</v>
+        <v>01010110011101110111110010000010</v>
       </c>
       <c r="W29" s="21" t="str">
         <f t="shared" si="2"/>
@@ -4841,7 +4841,7 @@
       </c>
       <c r="AB29" s="21" t="str">
         <f t="shared" si="7"/>
-        <v>0110</v>
+        <v>1100</v>
       </c>
       <c r="AC29" s="21" t="str">
         <f t="shared" si="8"/>
@@ -4873,7 +4873,7 @@
       </c>
       <c r="AK29" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB29,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>6</v>
+        <v>C</v>
       </c>
       <c r="AL29" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC29,'HEX GEN BACKEND'!L:L,0))</f>
@@ -4885,7 +4885,7 @@
       </c>
       <c r="AO29" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>56777682</v>
+        <v>56777C82</v>
       </c>
     </row>
     <row r="30" spans="1:41" x14ac:dyDescent="0.25">
@@ -7559,13 +7559,13 @@
         <v>1</v>
       </c>
       <c r="D50" s="50" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E50" s="51" t="s">
         <v>69</v>
       </c>
       <c r="F50" s="52" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G50" s="53" t="s">
         <v>69</v>
@@ -8756,13 +8756,13 @@
         <v>1</v>
       </c>
       <c r="D59" s="50" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E59" s="51" t="s">
         <v>69</v>
       </c>
       <c r="F59" s="52" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G59" s="53" t="s">
         <v>69</v>
@@ -9019,13 +9019,13 @@
         <v>16</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D61" s="14" t="s">
-        <v>172</v>
+        <v>137</v>
       </c>
       <c r="E61" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F61" s="16" t="s">
         <v>98</v>
@@ -9034,26 +9034,26 @@
         <v>98</v>
       </c>
       <c r="H61" s="18" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I61" s="19" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="J61" s="22" t="str">
         <f t="shared" si="19"/>
-        <v>562C0000</v>
+        <v>4A200107</v>
       </c>
       <c r="M61" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C61,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>1010</v>
+        <v>1001</v>
       </c>
       <c r="N61" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D61,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D61,'HEX GEN BACKEND'!G:G,0)),D61)</f>
-        <v>0001011</v>
+        <v>0001000</v>
       </c>
       <c r="O61" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E61,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>11</v>
+        <v>01</v>
       </c>
       <c r="P61" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F61,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F61,'HEX GEN BACKEND'!H:H,0)),F61)</f>
@@ -9065,23 +9065,23 @@
       </c>
       <c r="R61" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H61,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H61,'HEX GEN BACKEND'!I:I,0)),H61)</f>
-        <v>0000000</v>
+        <v>0000111</v>
       </c>
       <c r="S61" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I61,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>00</v>
+        <v>10</v>
       </c>
       <c r="U61" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>01010110001011000000000000000000</v>
+        <v>01001010001000000000000100000111</v>
       </c>
       <c r="W61" s="21" t="str">
         <f t="shared" si="11"/>
-        <v>0101</v>
+        <v>0100</v>
       </c>
       <c r="X61" s="21" t="str">
         <f t="shared" si="12"/>
-        <v>0110</v>
+        <v>1010</v>
       </c>
       <c r="Y61" s="21" t="str">
         <f t="shared" si="13"/>
@@ -9089,7 +9089,7 @@
       </c>
       <c r="Z61" s="21" t="str">
         <f t="shared" si="14"/>
-        <v>1100</v>
+        <v>0000</v>
       </c>
       <c r="AA61" s="21" t="str">
         <f t="shared" si="15"/>
@@ -9097,7 +9097,7 @@
       </c>
       <c r="AB61" s="21" t="str">
         <f t="shared" si="16"/>
-        <v>0000</v>
+        <v>0001</v>
       </c>
       <c r="AC61" s="21" t="str">
         <f t="shared" si="17"/>
@@ -9105,15 +9105,15 @@
       </c>
       <c r="AD61" s="21" t="str">
         <f t="shared" si="18"/>
-        <v>0000</v>
+        <v>0111</v>
       </c>
       <c r="AF61" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W61,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AG61" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X61,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>6</v>
+        <v>A</v>
       </c>
       <c r="AH61" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y61,'HEX GEN BACKEND'!L:L,0))</f>
@@ -9121,7 +9121,7 @@
       </c>
       <c r="AI61" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z61,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>C</v>
+        <v>0</v>
       </c>
       <c r="AJ61" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA61,'HEX GEN BACKEND'!L:L,0))</f>
@@ -9129,7 +9129,7 @@
       </c>
       <c r="AK61" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB61,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL61" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC61,'HEX GEN BACKEND'!L:L,0))</f>
@@ -9137,11 +9137,11 @@
       </c>
       <c r="AM61" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD61,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AO61" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>562C0000</v>
+        <v>4A200107</v>
       </c>
     </row>
     <row r="62" spans="1:41" x14ac:dyDescent="0.25">
@@ -9151,116 +9151,130 @@
       <c r="B62" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C62" s="13"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="15"/>
-      <c r="F62" s="16"/>
-      <c r="G62" s="17"/>
-      <c r="H62" s="18"/>
-      <c r="I62" s="19"/>
-      <c r="J62" s="22" t="e">
+      <c r="C62" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D62" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="E62" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F62" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="G62" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="H62" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="I62" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="J62" s="22" t="str">
         <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M62" s="21" t="e">
+        <v>4C0C0087</v>
+      </c>
+      <c r="M62" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C62,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N62" s="21">
+        <v>1001</v>
+      </c>
+      <c r="N62" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D62,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D62,'HEX GEN BACKEND'!G:G,0)),D62)</f>
-        <v>0</v>
-      </c>
-      <c r="O62" s="21" t="e">
+        <v>0000011</v>
+      </c>
+      <c r="O62" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E62,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P62" s="21">
+        <v>10</v>
+      </c>
+      <c r="P62" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F62,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F62,'HEX GEN BACKEND'!H:H,0)),F62)</f>
-        <v>0</v>
-      </c>
-      <c r="Q62" s="21" t="e">
+        <v>0000000</v>
+      </c>
+      <c r="Q62" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G62,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R62" s="21">
+        <v>00</v>
+      </c>
+      <c r="R62" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H62,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H62,'HEX GEN BACKEND'!I:I,0)),H62)</f>
-        <v>0</v>
-      </c>
-      <c r="S62" s="21" t="e">
+        <v>0000111</v>
+      </c>
+      <c r="S62" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I62,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U62" s="21" t="e">
+        <v>01</v>
+      </c>
+      <c r="U62" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W62" s="21" t="e">
+        <v>01001100000011000000000010000111</v>
+      </c>
+      <c r="W62" s="21" t="str">
         <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X62" s="21" t="e">
+        <v>0100</v>
+      </c>
+      <c r="X62" s="21" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y62" s="21" t="e">
+        <v>1100</v>
+      </c>
+      <c r="Y62" s="21" t="str">
         <f t="shared" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z62" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="Z62" s="21" t="str">
         <f t="shared" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA62" s="21" t="e">
+        <v>1100</v>
+      </c>
+      <c r="AA62" s="21" t="str">
         <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB62" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AB62" s="21" t="str">
         <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC62" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AC62" s="21" t="str">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AD62" s="21" t="e">
+        <v>1000</v>
+      </c>
+      <c r="AD62" s="21" t="str">
         <f t="shared" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AF62" s="21" t="e">
+        <v>0111</v>
+      </c>
+      <c r="AF62" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W62,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG62" s="21" t="e">
+        <v>4</v>
+      </c>
+      <c r="AG62" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X62,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH62" s="21" t="e">
+        <v>C</v>
+      </c>
+      <c r="AH62" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y62,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI62" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AI62" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z62,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ62" s="21" t="e">
+        <v>C</v>
+      </c>
+      <c r="AJ62" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA62,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK62" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AK62" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB62,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL62" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AL62" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC62,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM62" s="21" t="e">
+        <v>8</v>
+      </c>
+      <c r="AM62" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD62,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO62" s="21" t="e">
+        <v>7</v>
+      </c>
+      <c r="AO62" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>4C0C0087</v>
       </c>
     </row>
     <row r="63" spans="1:41" x14ac:dyDescent="0.25">
@@ -9270,116 +9284,130 @@
       <c r="B63" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C63" s="13"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="15"/>
-      <c r="F63" s="16"/>
-      <c r="G63" s="17"/>
-      <c r="H63" s="18"/>
-      <c r="I63" s="19"/>
-      <c r="J63" s="22" t="e">
+      <c r="C63" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D63" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="E63" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="F63" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="G63" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="H63" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="I63" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="J63" s="22" t="str">
         <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M63" s="21" t="e">
+        <v>562C0000</v>
+      </c>
+      <c r="M63" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C63,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N63" s="21">
+        <v>1010</v>
+      </c>
+      <c r="N63" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D63,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D63,'HEX GEN BACKEND'!G:G,0)),D63)</f>
-        <v>0</v>
-      </c>
-      <c r="O63" s="21" t="e">
+        <v>0001011</v>
+      </c>
+      <c r="O63" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E63,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P63" s="21">
+        <v>11</v>
+      </c>
+      <c r="P63" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F63,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F63,'HEX GEN BACKEND'!H:H,0)),F63)</f>
-        <v>0</v>
-      </c>
-      <c r="Q63" s="21" t="e">
+        <v>0000000</v>
+      </c>
+      <c r="Q63" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G63,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R63" s="21">
+        <v>00</v>
+      </c>
+      <c r="R63" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H63,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H63,'HEX GEN BACKEND'!I:I,0)),H63)</f>
-        <v>0</v>
-      </c>
-      <c r="S63" s="21" t="e">
+        <v>0000000</v>
+      </c>
+      <c r="S63" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I63,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U63" s="21" t="e">
+        <v>00</v>
+      </c>
+      <c r="U63" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W63" s="21" t="e">
+        <v>01010110001011000000000000000000</v>
+      </c>
+      <c r="W63" s="21" t="str">
         <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X63" s="21" t="e">
+        <v>0101</v>
+      </c>
+      <c r="X63" s="21" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y63" s="21" t="e">
+        <v>0110</v>
+      </c>
+      <c r="Y63" s="21" t="str">
         <f t="shared" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z63" s="21" t="e">
+        <v>0010</v>
+      </c>
+      <c r="Z63" s="21" t="str">
         <f t="shared" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA63" s="21" t="e">
+        <v>1100</v>
+      </c>
+      <c r="AA63" s="21" t="str">
         <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB63" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AB63" s="21" t="str">
         <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC63" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AC63" s="21" t="str">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AD63" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AD63" s="21" t="str">
         <f t="shared" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AF63" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AF63" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W63,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG63" s="21" t="e">
+        <v>5</v>
+      </c>
+      <c r="AG63" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X63,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH63" s="21" t="e">
+        <v>6</v>
+      </c>
+      <c r="AH63" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y63,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI63" s="21" t="e">
+        <v>2</v>
+      </c>
+      <c r="AI63" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z63,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ63" s="21" t="e">
+        <v>C</v>
+      </c>
+      <c r="AJ63" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA63,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK63" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AK63" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB63,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL63" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AL63" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC63,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM63" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AM63" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD63,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO63" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AO63" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>562C0000</v>
       </c>
     </row>
     <row r="64" spans="1:41" x14ac:dyDescent="0.25">
@@ -9389,116 +9417,130 @@
       <c r="B64" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C64" s="13"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="15"/>
-      <c r="F64" s="16"/>
-      <c r="G64" s="17"/>
-      <c r="H64" s="18"/>
-      <c r="I64" s="19"/>
-      <c r="J64" s="22" t="e">
+      <c r="C64" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D64" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="E64" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="F64" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="G64" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="H64" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="I64" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="J64" s="22" t="str">
         <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M64" s="21" t="e">
+        <v>562C0000</v>
+      </c>
+      <c r="M64" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C64,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N64" s="21">
+        <v>1010</v>
+      </c>
+      <c r="N64" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D64,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D64,'HEX GEN BACKEND'!G:G,0)),D64)</f>
-        <v>0</v>
-      </c>
-      <c r="O64" s="21" t="e">
+        <v>0001011</v>
+      </c>
+      <c r="O64" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E64,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P64" s="21">
+        <v>11</v>
+      </c>
+      <c r="P64" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F64,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F64,'HEX GEN BACKEND'!H:H,0)),F64)</f>
-        <v>0</v>
-      </c>
-      <c r="Q64" s="21" t="e">
+        <v>0000000</v>
+      </c>
+      <c r="Q64" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G64,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R64" s="21">
+        <v>00</v>
+      </c>
+      <c r="R64" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H64,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H64,'HEX GEN BACKEND'!I:I,0)),H64)</f>
-        <v>0</v>
-      </c>
-      <c r="S64" s="21" t="e">
+        <v>0000000</v>
+      </c>
+      <c r="S64" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I64,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U64" s="21" t="e">
+        <v>00</v>
+      </c>
+      <c r="U64" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W64" s="21" t="e">
+        <v>01010110001011000000000000000000</v>
+      </c>
+      <c r="W64" s="21" t="str">
         <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X64" s="21" t="e">
+        <v>0101</v>
+      </c>
+      <c r="X64" s="21" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y64" s="21" t="e">
+        <v>0110</v>
+      </c>
+      <c r="Y64" s="21" t="str">
         <f t="shared" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z64" s="21" t="e">
+        <v>0010</v>
+      </c>
+      <c r="Z64" s="21" t="str">
         <f t="shared" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA64" s="21" t="e">
+        <v>1100</v>
+      </c>
+      <c r="AA64" s="21" t="str">
         <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB64" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AB64" s="21" t="str">
         <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC64" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AC64" s="21" t="str">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AD64" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AD64" s="21" t="str">
         <f t="shared" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AF64" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AF64" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W64,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG64" s="21" t="e">
+        <v>5</v>
+      </c>
+      <c r="AG64" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X64,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH64" s="21" t="e">
+        <v>6</v>
+      </c>
+      <c r="AH64" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y64,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI64" s="21" t="e">
+        <v>2</v>
+      </c>
+      <c r="AI64" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z64,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ64" s="21" t="e">
+        <v>C</v>
+      </c>
+      <c r="AJ64" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA64,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK64" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AK64" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB64,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL64" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AL64" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC64,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM64" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AM64" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD64,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO64" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AO64" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>562C0000</v>
       </c>
     </row>
     <row r="65" spans="1:41" x14ac:dyDescent="0.25">

--- a/INSTRUCTIONS/Binary Instructions.xlsx
+++ b/INSTRUCTIONS/Binary Instructions.xlsx
@@ -13,7 +13,8 @@
   </bookViews>
   <sheets>
     <sheet name="HEX GEN" sheetId="4" r:id="rId1"/>
-    <sheet name="HEX GEN BACKEND" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId2"/>
+    <sheet name="HEX GEN BACKEND" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="238">
   <si>
     <t>0001</t>
   </si>
@@ -625,6 +626,120 @@
   </si>
   <si>
     <t>0111110</t>
+  </si>
+  <si>
+    <t>0111111</t>
+  </si>
+  <si>
+    <t>0010000</t>
+  </si>
+  <si>
+    <t>0010011</t>
+  </si>
+  <si>
+    <t>0010101</t>
+  </si>
+  <si>
+    <t>0010110</t>
+  </si>
+  <si>
+    <t>0010111</t>
+  </si>
+  <si>
+    <t>0011000</t>
+  </si>
+  <si>
+    <t>0011001</t>
+  </si>
+  <si>
+    <t>0011010</t>
+  </si>
+  <si>
+    <t>0011110</t>
+  </si>
+  <si>
+    <t>0011111</t>
+  </si>
+  <si>
+    <t>0100000</t>
+  </si>
+  <si>
+    <t>0100011</t>
+  </si>
+  <si>
+    <t>0100100</t>
+  </si>
+  <si>
+    <t>0100101</t>
+  </si>
+  <si>
+    <t>0100110</t>
+  </si>
+  <si>
+    <t>0100111</t>
+  </si>
+  <si>
+    <t>0101000</t>
+  </si>
+  <si>
+    <t>0101010</t>
+  </si>
+  <si>
+    <t>0101011</t>
+  </si>
+  <si>
+    <t>0101100</t>
+  </si>
+  <si>
+    <t>0101101</t>
+  </si>
+  <si>
+    <t>0101110</t>
+  </si>
+  <si>
+    <t>0101111</t>
+  </si>
+  <si>
+    <t>0110000</t>
+  </si>
+  <si>
+    <t>0110011</t>
+  </si>
+  <si>
+    <t>0110100</t>
+  </si>
+  <si>
+    <t>0110101</t>
+  </si>
+  <si>
+    <t>0110110</t>
+  </si>
+  <si>
+    <t>0110111</t>
+  </si>
+  <si>
+    <t>0111000</t>
+  </si>
+  <si>
+    <t>0111001</t>
+  </si>
+  <si>
+    <t>0111011</t>
+  </si>
+  <si>
+    <t>0111100</t>
+  </si>
+  <si>
+    <t>0111101</t>
+  </si>
+  <si>
+    <t>1000001</t>
+  </si>
+  <si>
+    <t>1000010</t>
+  </si>
+  <si>
+    <t>1000011</t>
   </si>
 </sst>
 </file>
@@ -1109,7 +1224,7 @@
   <dimension ref="A1:AO101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J64"/>
+      <selection activeCell="J1" sqref="J1:J69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1166,7 +1281,7 @@
     </row>
     <row r="2" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>97</v>
+        <v>161</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>17</v>
@@ -1299,7 +1414,7 @@
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>19</v>
+        <v>162</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>16</v>
@@ -1432,7 +1547,7 @@
     </row>
     <row r="4" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>20</v>
+        <v>163</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>16</v>
@@ -1565,7 +1680,7 @@
     </row>
     <row r="5" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
-        <v>22</v>
+        <v>164</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>16</v>
@@ -1698,7 +1813,7 @@
     </row>
     <row r="6" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
-        <v>21</v>
+        <v>165</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>16</v>
@@ -1831,7 +1946,7 @@
     </row>
     <row r="7" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
-        <v>23</v>
+        <v>166</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>16</v>
@@ -1964,7 +2079,7 @@
     </row>
     <row r="8" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
-        <v>24</v>
+        <v>167</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>16</v>
@@ -2097,7 +2212,7 @@
     </row>
     <row r="9" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
-        <v>25</v>
+        <v>168</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>16</v>
@@ -2230,7 +2345,7 @@
     </row>
     <row r="10" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
-        <v>26</v>
+        <v>169</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>16</v>
@@ -2363,7 +2478,7 @@
     </row>
     <row r="11" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
-        <v>46</v>
+        <v>170</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>17</v>
@@ -2496,7 +2611,7 @@
     </row>
     <row r="12" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
-        <v>47</v>
+        <v>171</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>16</v>
@@ -2629,7 +2744,7 @@
     </row>
     <row r="13" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
-        <v>48</v>
+        <v>172</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>16</v>
@@ -2762,7 +2877,7 @@
     </row>
     <row r="14" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
-        <v>49</v>
+        <v>173</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>16</v>
@@ -2895,7 +3010,7 @@
     </row>
     <row r="15" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
-        <v>50</v>
+        <v>174</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>16</v>
@@ -3028,7 +3143,7 @@
     </row>
     <row r="16" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
-        <v>51</v>
+        <v>175</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>16</v>
@@ -3161,7 +3276,7 @@
     </row>
     <row r="17" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
-        <v>52</v>
+        <v>176</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>16</v>
@@ -3294,7 +3409,7 @@
     </row>
     <row r="18" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
-        <v>53</v>
+        <v>201</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>16</v>
@@ -3427,7 +3542,7 @@
     </row>
     <row r="19" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
-        <v>54</v>
+        <v>187</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>17</v>
@@ -3560,7 +3675,7 @@
     </row>
     <row r="20" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
-        <v>55</v>
+        <v>186</v>
       </c>
       <c r="B20" s="38" t="s">
         <v>16</v>
@@ -3693,7 +3808,7 @@
     </row>
     <row r="21" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
-        <v>56</v>
+        <v>202</v>
       </c>
       <c r="B21" s="38" t="s">
         <v>16</v>
@@ -3826,7 +3941,7 @@
     </row>
     <row r="22" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
-        <v>57</v>
+        <v>188</v>
       </c>
       <c r="B22" s="38" t="s">
         <v>16</v>
@@ -3959,7 +4074,7 @@
     </row>
     <row r="23" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
-        <v>58</v>
+        <v>203</v>
       </c>
       <c r="B23" s="38" t="s">
         <v>16</v>
@@ -4092,7 +4207,7 @@
     </row>
     <row r="24" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">
-        <v>59</v>
+        <v>204</v>
       </c>
       <c r="B24" s="38" t="s">
         <v>16</v>
@@ -4225,7 +4340,7 @@
     </row>
     <row r="25" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
-        <v>60</v>
+        <v>205</v>
       </c>
       <c r="B25" s="38" t="s">
         <v>16</v>
@@ -4358,7 +4473,7 @@
     </row>
     <row r="26" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A26" s="20" t="s">
-        <v>61</v>
+        <v>206</v>
       </c>
       <c r="B26" s="38" t="s">
         <v>16</v>
@@ -4491,7 +4606,7 @@
     </row>
     <row r="27" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A27" s="20" t="s">
-        <v>62</v>
+        <v>207</v>
       </c>
       <c r="B27" s="38" t="s">
         <v>16</v>
@@ -4624,7 +4739,7 @@
     </row>
     <row r="28" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
-        <v>63</v>
+        <v>208</v>
       </c>
       <c r="B28" s="38" t="s">
         <v>16</v>
@@ -4757,7 +4872,7 @@
     </row>
     <row r="29" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
-        <v>64</v>
+        <v>190</v>
       </c>
       <c r="B29" s="38" t="s">
         <v>16</v>
@@ -4772,7 +4887,7 @@
         <v>69</v>
       </c>
       <c r="F29" s="42" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G29" s="43" t="s">
         <v>69</v>
@@ -4785,7 +4900,7 @@
       </c>
       <c r="J29" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>56777C82</v>
+        <v>56777E82</v>
       </c>
       <c r="M29" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C29,'HEX GEN BACKEND'!A:A,0))</f>
@@ -4801,7 +4916,7 @@
       </c>
       <c r="P29" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F29,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F29,'HEX GEN BACKEND'!H:H,0)),F29)</f>
-        <v>0111110</v>
+        <v>0111111</v>
       </c>
       <c r="Q29" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G29,'HEX GEN BACKEND'!D:D,0))</f>
@@ -4817,7 +4932,7 @@
       </c>
       <c r="U29" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>01010110011101110111110010000010</v>
+        <v>01010110011101110111111010000010</v>
       </c>
       <c r="W29" s="21" t="str">
         <f t="shared" si="2"/>
@@ -4841,7 +4956,7 @@
       </c>
       <c r="AB29" s="21" t="str">
         <f t="shared" si="7"/>
-        <v>1100</v>
+        <v>1110</v>
       </c>
       <c r="AC29" s="21" t="str">
         <f t="shared" si="8"/>
@@ -4873,7 +4988,7 @@
       </c>
       <c r="AK29" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB29,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>C</v>
+        <v>E</v>
       </c>
       <c r="AL29" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC29,'HEX GEN BACKEND'!L:L,0))</f>
@@ -4885,12 +5000,12 @@
       </c>
       <c r="AO29" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>56777C82</v>
+        <v>56777E82</v>
       </c>
     </row>
     <row r="30" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A30" s="20" t="s">
-        <v>65</v>
+        <v>191</v>
       </c>
       <c r="B30" s="38" t="s">
         <v>16</v>
@@ -5023,7 +5138,7 @@
     </row>
     <row r="31" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
-        <v>66</v>
+        <v>192</v>
       </c>
       <c r="B31" s="38" t="s">
         <v>16</v>
@@ -5156,7 +5271,7 @@
     </row>
     <row r="32" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>70</v>
+        <v>209</v>
       </c>
       <c r="B32" s="38" t="s">
         <v>16</v>
@@ -5289,7 +5404,7 @@
     </row>
     <row r="33" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
-        <v>99</v>
+        <v>210</v>
       </c>
       <c r="B33" s="38" t="s">
         <v>16</v>
@@ -5422,7 +5537,7 @@
     </row>
     <row r="34" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A34" s="20" t="s">
-        <v>100</v>
+        <v>211</v>
       </c>
       <c r="B34" s="38" t="s">
         <v>16</v>
@@ -5555,7 +5670,7 @@
     </row>
     <row r="35" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A35" s="20" t="s">
-        <v>101</v>
+        <v>194</v>
       </c>
       <c r="B35" s="38" t="s">
         <v>16</v>
@@ -5688,7 +5803,7 @@
     </row>
     <row r="36" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A36" s="20" t="s">
-        <v>102</v>
+        <v>193</v>
       </c>
       <c r="B36" s="38" t="s">
         <v>16</v>
@@ -5821,7 +5936,7 @@
     </row>
     <row r="37" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A37" s="20" t="s">
-        <v>103</v>
+        <v>212</v>
       </c>
       <c r="B37" s="38" t="s">
         <v>16</v>
@@ -5954,7 +6069,7 @@
     </row>
     <row r="38" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A38" s="20" t="s">
-        <v>104</v>
+        <v>213</v>
       </c>
       <c r="B38" s="48" t="s">
         <v>16</v>
@@ -6087,7 +6202,7 @@
     </row>
     <row r="39" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A39" s="20" t="s">
-        <v>105</v>
+        <v>214</v>
       </c>
       <c r="B39" s="48" t="s">
         <v>16</v>
@@ -6220,7 +6335,7 @@
     </row>
     <row r="40" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A40" s="20" t="s">
-        <v>106</v>
+        <v>215</v>
       </c>
       <c r="B40" s="48" t="s">
         <v>16</v>
@@ -6353,7 +6468,7 @@
     </row>
     <row r="41" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A41" s="20" t="s">
-        <v>107</v>
+        <v>216</v>
       </c>
       <c r="B41" s="48" t="s">
         <v>16</v>
@@ -6486,7 +6601,7 @@
     </row>
     <row r="42" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A42" s="20" t="s">
-        <v>108</v>
+        <v>217</v>
       </c>
       <c r="B42" s="48" t="s">
         <v>16</v>
@@ -6619,7 +6734,7 @@
     </row>
     <row r="43" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A43" s="20" t="s">
-        <v>109</v>
+        <v>195</v>
       </c>
       <c r="B43" s="48" t="s">
         <v>16</v>
@@ -6752,7 +6867,7 @@
     </row>
     <row r="44" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A44" s="20" t="s">
-        <v>110</v>
+        <v>218</v>
       </c>
       <c r="B44" s="48" t="s">
         <v>16</v>
@@ -6885,7 +7000,7 @@
     </row>
     <row r="45" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A45" s="20" t="s">
-        <v>111</v>
+        <v>219</v>
       </c>
       <c r="B45" s="48" t="s">
         <v>16</v>
@@ -7018,7 +7133,7 @@
     </row>
     <row r="46" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A46" s="20" t="s">
-        <v>112</v>
+        <v>220</v>
       </c>
       <c r="B46" s="48" t="s">
         <v>16</v>
@@ -7151,7 +7266,7 @@
     </row>
     <row r="47" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A47" s="20" t="s">
-        <v>113</v>
+        <v>221</v>
       </c>
       <c r="B47" s="48" t="s">
         <v>16</v>
@@ -7284,7 +7399,7 @@
     </row>
     <row r="48" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A48" s="20" t="s">
-        <v>114</v>
+        <v>222</v>
       </c>
       <c r="B48" s="48" t="s">
         <v>16</v>
@@ -7417,7 +7532,7 @@
     </row>
     <row r="49" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A49" s="20" t="s">
-        <v>115</v>
+        <v>223</v>
       </c>
       <c r="B49" s="48" t="s">
         <v>16</v>
@@ -7550,7 +7665,7 @@
     </row>
     <row r="50" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A50" s="20" t="s">
-        <v>116</v>
+        <v>224</v>
       </c>
       <c r="B50" s="48" t="s">
         <v>16</v>
@@ -7683,7 +7798,7 @@
     </row>
     <row r="51" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A51" s="20" t="s">
-        <v>117</v>
+        <v>196</v>
       </c>
       <c r="B51" s="48" t="s">
         <v>16</v>
@@ -7816,7 +7931,7 @@
     </row>
     <row r="52" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A52" s="20" t="s">
-        <v>118</v>
+        <v>197</v>
       </c>
       <c r="B52" s="48" t="s">
         <v>16</v>
@@ -7949,7 +8064,7 @@
     </row>
     <row r="53" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A53" s="20" t="s">
-        <v>119</v>
+        <v>225</v>
       </c>
       <c r="B53" s="48" t="s">
         <v>16</v>
@@ -8082,7 +8197,7 @@
     </row>
     <row r="54" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A54" s="20" t="s">
-        <v>120</v>
+        <v>226</v>
       </c>
       <c r="B54" s="48" t="s">
         <v>16</v>
@@ -8215,7 +8330,7 @@
     </row>
     <row r="55" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A55" s="20" t="s">
-        <v>121</v>
+        <v>227</v>
       </c>
       <c r="B55" s="48" t="s">
         <v>16</v>
@@ -8348,7 +8463,7 @@
     </row>
     <row r="56" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A56" s="20" t="s">
-        <v>122</v>
+        <v>228</v>
       </c>
       <c r="B56" s="48" t="s">
         <v>16</v>
@@ -8481,7 +8596,7 @@
     </row>
     <row r="57" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A57" s="20" t="s">
-        <v>123</v>
+        <v>229</v>
       </c>
       <c r="B57" s="48" t="s">
         <v>16</v>
@@ -8614,7 +8729,7 @@
     </row>
     <row r="58" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A58" s="20" t="s">
-        <v>124</v>
+        <v>230</v>
       </c>
       <c r="B58" s="48" t="s">
         <v>16</v>
@@ -8747,7 +8862,7 @@
     </row>
     <row r="59" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A59" s="20" t="s">
-        <v>125</v>
+        <v>231</v>
       </c>
       <c r="B59" s="48" t="s">
         <v>16</v>
@@ -8880,7 +8995,7 @@
     </row>
     <row r="60" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A60" s="20" t="s">
-        <v>126</v>
+        <v>198</v>
       </c>
       <c r="B60" s="48" t="s">
         <v>17</v>
@@ -9013,7 +9128,7 @@
     </row>
     <row r="61" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A61" s="20" t="s">
-        <v>127</v>
+        <v>232</v>
       </c>
       <c r="B61" s="9" t="s">
         <v>16</v>
@@ -9146,7 +9261,7 @@
     </row>
     <row r="62" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A62" s="20" t="s">
-        <v>128</v>
+        <v>233</v>
       </c>
       <c r="B62" s="9" t="s">
         <v>16</v>
@@ -9279,75 +9394,75 @@
     </row>
     <row r="63" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A63" s="20" t="s">
-        <v>129</v>
+        <v>234</v>
       </c>
       <c r="B63" s="9" t="s">
         <v>16</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>1</v>
+        <v>178</v>
       </c>
       <c r="D63" s="14" t="s">
-        <v>172</v>
+        <v>139</v>
       </c>
       <c r="E63" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="F63" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="G63" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="F63" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="G63" s="17" t="s">
-        <v>98</v>
-      </c>
       <c r="H63" s="18" t="s">
-        <v>98</v>
+        <v>145</v>
       </c>
       <c r="I63" s="19" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="J63" s="22" t="str">
         <f t="shared" si="19"/>
-        <v>562C0000</v>
+        <v>122B0308</v>
       </c>
       <c r="M63" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C63,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>1010</v>
+        <v>0010</v>
       </c>
       <c r="N63" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D63,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D63,'HEX GEN BACKEND'!G:G,0)),D63)</f>
-        <v>0001011</v>
+        <v>0001010</v>
       </c>
       <c r="O63" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E63,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>11</v>
+        <v>01</v>
       </c>
       <c r="P63" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F63,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F63,'HEX GEN BACKEND'!H:H,0)),F63)</f>
-        <v>0000000</v>
+        <v>0000001</v>
       </c>
       <c r="Q63" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G63,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>00</v>
+        <v>11</v>
       </c>
       <c r="R63" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H63,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H63,'HEX GEN BACKEND'!I:I,0)),H63)</f>
-        <v>0000000</v>
+        <v>0001000</v>
       </c>
       <c r="S63" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I63,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>00</v>
+        <v>10</v>
       </c>
       <c r="U63" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>01010110001011000000000000000000</v>
+        <v>00010010001010110000001100001000</v>
       </c>
       <c r="W63" s="21" t="str">
         <f t="shared" si="11"/>
-        <v>0101</v>
+        <v>0001</v>
       </c>
       <c r="X63" s="21" t="str">
         <f t="shared" si="12"/>
-        <v>0110</v>
+        <v>0010</v>
       </c>
       <c r="Y63" s="21" t="str">
         <f t="shared" si="13"/>
@@ -9355,7 +9470,7 @@
       </c>
       <c r="Z63" s="21" t="str">
         <f t="shared" si="14"/>
-        <v>1100</v>
+        <v>1011</v>
       </c>
       <c r="AA63" s="21" t="str">
         <f t="shared" si="15"/>
@@ -9363,7 +9478,7 @@
       </c>
       <c r="AB63" s="21" t="str">
         <f t="shared" si="16"/>
-        <v>0000</v>
+        <v>0011</v>
       </c>
       <c r="AC63" s="21" t="str">
         <f t="shared" si="17"/>
@@ -9371,15 +9486,15 @@
       </c>
       <c r="AD63" s="21" t="str">
         <f t="shared" si="18"/>
-        <v>0000</v>
+        <v>1000</v>
       </c>
       <c r="AF63" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W63,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AG63" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X63,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AH63" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y63,'HEX GEN BACKEND'!L:L,0))</f>
@@ -9387,7 +9502,7 @@
       </c>
       <c r="AI63" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z63,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="AJ63" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA63,'HEX GEN BACKEND'!L:L,0))</f>
@@ -9395,7 +9510,7 @@
       </c>
       <c r="AK63" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB63,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AL63" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC63,'HEX GEN BACKEND'!L:L,0))</f>
@@ -9403,28 +9518,28 @@
       </c>
       <c r="AM63" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD63,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AO63" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>562C0000</v>
+        <v>122B0308</v>
       </c>
     </row>
     <row r="64" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A64" s="20" t="s">
-        <v>130</v>
+        <v>199</v>
       </c>
       <c r="B64" s="9" t="s">
         <v>16</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D64" s="14" t="s">
-        <v>172</v>
+        <v>139</v>
       </c>
       <c r="E64" s="15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F64" s="16" t="s">
         <v>98</v>
@@ -9433,26 +9548,26 @@
         <v>98</v>
       </c>
       <c r="H64" s="18" t="s">
-        <v>98</v>
+        <v>145</v>
       </c>
       <c r="I64" s="19" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="J64" s="22" t="str">
         <f t="shared" si="19"/>
-        <v>562C0000</v>
+        <v>4C280088</v>
       </c>
       <c r="M64" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C64,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>1010</v>
+        <v>1001</v>
       </c>
       <c r="N64" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D64,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D64,'HEX GEN BACKEND'!G:G,0)),D64)</f>
-        <v>0001011</v>
+        <v>0001010</v>
       </c>
       <c r="O64" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E64,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P64" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F64,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F64,'HEX GEN BACKEND'!H:H,0)),F64)</f>
@@ -9464,23 +9579,23 @@
       </c>
       <c r="R64" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H64,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H64,'HEX GEN BACKEND'!I:I,0)),H64)</f>
-        <v>0000000</v>
+        <v>0001000</v>
       </c>
       <c r="S64" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I64,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>00</v>
+        <v>01</v>
       </c>
       <c r="U64" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>01010110001011000000000000000000</v>
+        <v>01001100001010000000000010001000</v>
       </c>
       <c r="W64" s="21" t="str">
         <f t="shared" si="11"/>
-        <v>0101</v>
+        <v>0100</v>
       </c>
       <c r="X64" s="21" t="str">
         <f t="shared" si="12"/>
-        <v>0110</v>
+        <v>1100</v>
       </c>
       <c r="Y64" s="21" t="str">
         <f t="shared" si="13"/>
@@ -9488,7 +9603,7 @@
       </c>
       <c r="Z64" s="21" t="str">
         <f t="shared" si="14"/>
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="AA64" s="21" t="str">
         <f t="shared" si="15"/>
@@ -9500,19 +9615,19 @@
       </c>
       <c r="AC64" s="21" t="str">
         <f t="shared" si="17"/>
-        <v>0000</v>
+        <v>1000</v>
       </c>
       <c r="AD64" s="21" t="str">
         <f t="shared" si="18"/>
-        <v>0000</v>
+        <v>1000</v>
       </c>
       <c r="AF64" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W64,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AG64" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X64,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>6</v>
+        <v>C</v>
       </c>
       <c r="AH64" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y64,'HEX GEN BACKEND'!L:L,0))</f>
@@ -9520,7 +9635,7 @@
       </c>
       <c r="AI64" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z64,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>C</v>
+        <v>8</v>
       </c>
       <c r="AJ64" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA64,'HEX GEN BACKEND'!L:L,0))</f>
@@ -9532,594 +9647,680 @@
       </c>
       <c r="AL64" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC64,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AM64" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD64,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AO64" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>562C0000</v>
+        <v>4C280088</v>
       </c>
     </row>
     <row r="65" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A65" s="20" t="s">
-        <v>131</v>
+        <v>200</v>
       </c>
       <c r="B65" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C65" s="13"/>
-      <c r="D65" s="14"/>
-      <c r="E65" s="15"/>
-      <c r="F65" s="16"/>
-      <c r="G65" s="17"/>
-      <c r="H65" s="18"/>
-      <c r="I65" s="19"/>
-      <c r="J65" s="22" t="e">
+      <c r="C65" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="D65" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="E65" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="F65" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="G65" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="H65" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="I65" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="J65" s="22" t="str">
         <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M65" s="21" t="e">
+        <v>00000000</v>
+      </c>
+      <c r="M65" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C65,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N65" s="21">
+        <v>0000</v>
+      </c>
+      <c r="N65" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D65,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D65,'HEX GEN BACKEND'!G:G,0)),D65)</f>
-        <v>0</v>
-      </c>
-      <c r="O65" s="21" t="e">
+        <v>0000000</v>
+      </c>
+      <c r="O65" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E65,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P65" s="21">
+        <v>00</v>
+      </c>
+      <c r="P65" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F65,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F65,'HEX GEN BACKEND'!H:H,0)),F65)</f>
-        <v>0</v>
-      </c>
-      <c r="Q65" s="21" t="e">
+        <v>0000000</v>
+      </c>
+      <c r="Q65" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G65,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R65" s="21">
+        <v>00</v>
+      </c>
+      <c r="R65" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H65,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H65,'HEX GEN BACKEND'!I:I,0)),H65)</f>
-        <v>0</v>
-      </c>
-      <c r="S65" s="21" t="e">
+        <v>0000000</v>
+      </c>
+      <c r="S65" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I65,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U65" s="21" t="e">
+        <v>00</v>
+      </c>
+      <c r="U65" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W65" s="21" t="e">
+        <v>00000000000000000000000000000000</v>
+      </c>
+      <c r="W65" s="21" t="str">
         <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X65" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="X65" s="21" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y65" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="Y65" s="21" t="str">
         <f t="shared" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z65" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="Z65" s="21" t="str">
         <f t="shared" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA65" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AA65" s="21" t="str">
         <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB65" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AB65" s="21" t="str">
         <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC65" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AC65" s="21" t="str">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AD65" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AD65" s="21" t="str">
         <f t="shared" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AF65" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AF65" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W65,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG65" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AG65" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X65,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH65" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AH65" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y65,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI65" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AI65" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z65,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ65" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AJ65" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA65,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK65" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AK65" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB65,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL65" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AL65" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC65,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM65" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AM65" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD65,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO65" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AO65" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>00000000</v>
       </c>
     </row>
     <row r="66" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A66" s="20"/>
-      <c r="B66" s="20"/>
-      <c r="C66" s="13"/>
-      <c r="D66" s="14"/>
-      <c r="E66" s="15"/>
-      <c r="F66" s="16"/>
-      <c r="G66" s="17"/>
-      <c r="H66" s="18"/>
-      <c r="I66" s="19"/>
-      <c r="J66" s="22" t="e">
+      <c r="A66" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C66" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="D66" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="E66" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="F66" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="G66" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="H66" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="I66" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="J66" s="22" t="str">
         <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M66" s="21" t="e">
+        <v>3A280108</v>
+      </c>
+      <c r="M66" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C66,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N66" s="21">
+        <v>0111</v>
+      </c>
+      <c r="N66" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D66,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D66,'HEX GEN BACKEND'!G:G,0)),D66)</f>
-        <v>0</v>
-      </c>
-      <c r="O66" s="21" t="e">
+        <v>0001010</v>
+      </c>
+      <c r="O66" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E66,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P66" s="21">
+        <v>01</v>
+      </c>
+      <c r="P66" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F66,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F66,'HEX GEN BACKEND'!H:H,0)),F66)</f>
-        <v>0</v>
-      </c>
-      <c r="Q66" s="21" t="e">
+        <v>0000000</v>
+      </c>
+      <c r="Q66" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G66,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R66" s="21">
+        <v>00</v>
+      </c>
+      <c r="R66" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H66,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H66,'HEX GEN BACKEND'!I:I,0)),H66)</f>
-        <v>0</v>
-      </c>
-      <c r="S66" s="21" t="e">
+        <v>0001000</v>
+      </c>
+      <c r="S66" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I66,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U66" s="21" t="e">
+        <v>10</v>
+      </c>
+      <c r="U66" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W66" s="21" t="e">
+        <v>00111010001010000000000100001000</v>
+      </c>
+      <c r="W66" s="21" t="str">
         <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X66" s="21" t="e">
+        <v>0011</v>
+      </c>
+      <c r="X66" s="21" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y66" s="21" t="e">
+        <v>1010</v>
+      </c>
+      <c r="Y66" s="21" t="str">
         <f t="shared" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z66" s="21" t="e">
+        <v>0010</v>
+      </c>
+      <c r="Z66" s="21" t="str">
         <f t="shared" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA66" s="21" t="e">
+        <v>1000</v>
+      </c>
+      <c r="AA66" s="21" t="str">
         <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB66" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AB66" s="21" t="str">
         <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC66" s="21" t="e">
+        <v>0001</v>
+      </c>
+      <c r="AC66" s="21" t="str">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AD66" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AD66" s="21" t="str">
         <f t="shared" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AF66" s="21" t="e">
+        <v>1000</v>
+      </c>
+      <c r="AF66" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W66,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG66" s="21" t="e">
+        <v>3</v>
+      </c>
+      <c r="AG66" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X66,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH66" s="21" t="e">
+        <v>A</v>
+      </c>
+      <c r="AH66" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y66,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI66" s="21" t="e">
+        <v>2</v>
+      </c>
+      <c r="AI66" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z66,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ66" s="21" t="e">
+        <v>8</v>
+      </c>
+      <c r="AJ66" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA66,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK66" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AK66" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB66,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL66" s="21" t="e">
+        <v>1</v>
+      </c>
+      <c r="AL66" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC66,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM66" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AM66" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD66,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO66" s="21" t="e">
+        <v>8</v>
+      </c>
+      <c r="AO66" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>3A280108</v>
       </c>
     </row>
     <row r="67" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A67" s="20"/>
-      <c r="B67" s="20"/>
-      <c r="C67" s="13"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="15"/>
-      <c r="F67" s="16"/>
-      <c r="G67" s="17"/>
-      <c r="H67" s="18"/>
-      <c r="I67" s="19"/>
-      <c r="J67" s="22" t="e">
+      <c r="A67" s="20" t="s">
+        <v>235</v>
+      </c>
+      <c r="B67" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C67" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D67" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="E67" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F67" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="G67" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="H67" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="I67" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="J67" s="22" t="str">
         <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M67" s="21" t="e">
+        <v>4C280088</v>
+      </c>
+      <c r="M67" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C67,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N67" s="21">
+        <v>1001</v>
+      </c>
+      <c r="N67" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D67,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D67,'HEX GEN BACKEND'!G:G,0)),D67)</f>
-        <v>0</v>
-      </c>
-      <c r="O67" s="21" t="e">
+        <v>0001010</v>
+      </c>
+      <c r="O67" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E67,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P67" s="21">
+        <v>10</v>
+      </c>
+      <c r="P67" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F67,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F67,'HEX GEN BACKEND'!H:H,0)),F67)</f>
-        <v>0</v>
-      </c>
-      <c r="Q67" s="21" t="e">
+        <v>0000000</v>
+      </c>
+      <c r="Q67" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G67,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R67" s="21">
+        <v>00</v>
+      </c>
+      <c r="R67" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H67,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H67,'HEX GEN BACKEND'!I:I,0)),H67)</f>
-        <v>0</v>
-      </c>
-      <c r="S67" s="21" t="e">
+        <v>0001000</v>
+      </c>
+      <c r="S67" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I67,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U67" s="21" t="e">
+        <v>01</v>
+      </c>
+      <c r="U67" s="21" t="str">
         <f t="shared" ref="U67:U101" si="20">B67&amp;M67&amp;O67&amp;N67&amp;Q67&amp;P67&amp;S67&amp;R67</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W67" s="21" t="e">
+        <v>01001100001010000000000010001000</v>
+      </c>
+      <c r="W67" s="21" t="str">
         <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X67" s="21" t="e">
+        <v>0100</v>
+      </c>
+      <c r="X67" s="21" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y67" s="21" t="e">
+        <v>1100</v>
+      </c>
+      <c r="Y67" s="21" t="str">
         <f t="shared" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z67" s="21" t="e">
+        <v>0010</v>
+      </c>
+      <c r="Z67" s="21" t="str">
         <f t="shared" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA67" s="21" t="e">
+        <v>1000</v>
+      </c>
+      <c r="AA67" s="21" t="str">
         <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB67" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AB67" s="21" t="str">
         <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC67" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AC67" s="21" t="str">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AD67" s="21" t="e">
+        <v>1000</v>
+      </c>
+      <c r="AD67" s="21" t="str">
         <f t="shared" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AF67" s="21" t="e">
+        <v>1000</v>
+      </c>
+      <c r="AF67" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W67,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG67" s="21" t="e">
+        <v>4</v>
+      </c>
+      <c r="AG67" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X67,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH67" s="21" t="e">
+        <v>C</v>
+      </c>
+      <c r="AH67" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y67,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI67" s="21" t="e">
+        <v>2</v>
+      </c>
+      <c r="AI67" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z67,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ67" s="21" t="e">
+        <v>8</v>
+      </c>
+      <c r="AJ67" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA67,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK67" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AK67" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB67,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL67" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AL67" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC67,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM67" s="21" t="e">
+        <v>8</v>
+      </c>
+      <c r="AM67" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD67,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO67" s="21" t="e">
+        <v>8</v>
+      </c>
+      <c r="AO67" s="21" t="str">
         <f t="shared" ref="AO67:AO101" si="21">AF67&amp;AG67&amp;AH67&amp;AI67&amp;AJ67&amp;AK67&amp;AL67&amp;AM67</f>
-        <v>#N/A</v>
+        <v>4C280088</v>
       </c>
     </row>
     <row r="68" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A68" s="20"/>
-      <c r="B68" s="20"/>
-      <c r="C68" s="13"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="15"/>
-      <c r="F68" s="16"/>
-      <c r="G68" s="17"/>
-      <c r="H68" s="18"/>
-      <c r="I68" s="19"/>
-      <c r="J68" s="22" t="e">
+      <c r="A68" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="B68" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C68" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D68" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="E68" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="F68" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="G68" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="H68" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="I68" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="J68" s="22" t="str">
         <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M68" s="21" t="e">
+        <v>E2280000</v>
+      </c>
+      <c r="M68" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C68,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N68" s="21">
+        <v>1100</v>
+      </c>
+      <c r="N68" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D68,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D68,'HEX GEN BACKEND'!G:G,0)),D68)</f>
-        <v>0</v>
-      </c>
-      <c r="O68" s="21" t="e">
+        <v>0001010</v>
+      </c>
+      <c r="O68" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E68,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P68" s="21">
+        <v>01</v>
+      </c>
+      <c r="P68" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F68,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F68,'HEX GEN BACKEND'!H:H,0)),F68)</f>
-        <v>0</v>
-      </c>
-      <c r="Q68" s="21" t="e">
+        <v>0000000</v>
+      </c>
+      <c r="Q68" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G68,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R68" s="21">
+        <v>00</v>
+      </c>
+      <c r="R68" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H68,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H68,'HEX GEN BACKEND'!I:I,0)),H68)</f>
-        <v>0</v>
-      </c>
-      <c r="S68" s="21" t="e">
+        <v>0000000</v>
+      </c>
+      <c r="S68" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I68,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U68" s="21" t="e">
+        <v>00</v>
+      </c>
+      <c r="U68" s="21" t="str">
         <f t="shared" si="20"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W68" s="21" t="e">
+        <v>11100010001010000000000000000000</v>
+      </c>
+      <c r="W68" s="21" t="str">
         <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X68" s="21" t="e">
+        <v>1110</v>
+      </c>
+      <c r="X68" s="21" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y68" s="21" t="e">
+        <v>0010</v>
+      </c>
+      <c r="Y68" s="21" t="str">
         <f t="shared" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z68" s="21" t="e">
+        <v>0010</v>
+      </c>
+      <c r="Z68" s="21" t="str">
         <f t="shared" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA68" s="21" t="e">
+        <v>1000</v>
+      </c>
+      <c r="AA68" s="21" t="str">
         <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB68" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AB68" s="21" t="str">
         <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC68" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AC68" s="21" t="str">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AD68" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AD68" s="21" t="str">
         <f t="shared" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AF68" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AF68" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W68,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG68" s="21" t="e">
+        <v>E</v>
+      </c>
+      <c r="AG68" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X68,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH68" s="21" t="e">
+        <v>2</v>
+      </c>
+      <c r="AH68" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y68,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI68" s="21" t="e">
+        <v>2</v>
+      </c>
+      <c r="AI68" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z68,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ68" s="21" t="e">
+        <v>8</v>
+      </c>
+      <c r="AJ68" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA68,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK68" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AK68" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB68,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL68" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AL68" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC68,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM68" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AM68" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD68,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO68" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AO68" s="21" t="str">
         <f t="shared" si="21"/>
-        <v>#N/A</v>
+        <v>E2280000</v>
       </c>
     </row>
     <row r="69" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A69" s="20"/>
-      <c r="B69" s="20"/>
-      <c r="C69" s="13"/>
-      <c r="D69" s="14"/>
-      <c r="E69" s="15"/>
-      <c r="F69" s="16"/>
-      <c r="G69" s="17"/>
-      <c r="H69" s="18"/>
-      <c r="I69" s="19"/>
-      <c r="J69" s="22" t="e">
+      <c r="A69" s="20" t="s">
+        <v>237</v>
+      </c>
+      <c r="B69" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C69" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D69" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="E69" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="F69" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="G69" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="H69" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="I69" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="J69" s="22" t="str">
         <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M69" s="21" t="e">
+        <v>562C0000</v>
+      </c>
+      <c r="M69" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C69,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N69" s="21">
+        <v>1010</v>
+      </c>
+      <c r="N69" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D69,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D69,'HEX GEN BACKEND'!G:G,0)),D69)</f>
-        <v>0</v>
-      </c>
-      <c r="O69" s="21" t="e">
+        <v>0001011</v>
+      </c>
+      <c r="O69" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E69,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P69" s="21">
+        <v>11</v>
+      </c>
+      <c r="P69" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F69,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F69,'HEX GEN BACKEND'!H:H,0)),F69)</f>
-        <v>0</v>
-      </c>
-      <c r="Q69" s="21" t="e">
+        <v>0000000</v>
+      </c>
+      <c r="Q69" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G69,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R69" s="21">
+        <v>00</v>
+      </c>
+      <c r="R69" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H69,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H69,'HEX GEN BACKEND'!I:I,0)),H69)</f>
-        <v>0</v>
-      </c>
-      <c r="S69" s="21" t="e">
+        <v>0000000</v>
+      </c>
+      <c r="S69" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I69,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U69" s="21" t="e">
+        <v>00</v>
+      </c>
+      <c r="U69" s="21" t="str">
         <f t="shared" si="20"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W69" s="21" t="e">
+        <v>01010110001011000000000000000000</v>
+      </c>
+      <c r="W69" s="21" t="str">
         <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X69" s="21" t="e">
+        <v>0101</v>
+      </c>
+      <c r="X69" s="21" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y69" s="21" t="e">
+        <v>0110</v>
+      </c>
+      <c r="Y69" s="21" t="str">
         <f t="shared" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z69" s="21" t="e">
+        <v>0010</v>
+      </c>
+      <c r="Z69" s="21" t="str">
         <f t="shared" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA69" s="21" t="e">
+        <v>1100</v>
+      </c>
+      <c r="AA69" s="21" t="str">
         <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB69" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AB69" s="21" t="str">
         <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC69" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AC69" s="21" t="str">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AD69" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AD69" s="21" t="str">
         <f t="shared" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AF69" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AF69" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W69,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG69" s="21" t="e">
+        <v>5</v>
+      </c>
+      <c r="AG69" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X69,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH69" s="21" t="e">
+        <v>6</v>
+      </c>
+      <c r="AH69" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y69,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI69" s="21" t="e">
+        <v>2</v>
+      </c>
+      <c r="AI69" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z69,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ69" s="21" t="e">
+        <v>C</v>
+      </c>
+      <c r="AJ69" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA69,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK69" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AK69" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB69,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL69" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AL69" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC69,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM69" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AM69" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD69,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO69" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AO69" s="21" t="str">
         <f t="shared" si="21"/>
-        <v>#N/A</v>
+        <v>562C0000</v>
       </c>
     </row>
     <row r="70" spans="1:41" x14ac:dyDescent="0.25">
@@ -13846,6 +14047,981 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D64"/>
+  <sheetViews>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D64"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1" t="str">
+        <f>B1&amp;A1</f>
+        <v>0000000</v>
+      </c>
+      <c r="D1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="str">
+        <f t="shared" ref="C2:C64" si="0">B2&amp;A2</f>
+        <v>0000001</v>
+      </c>
+      <c r="D2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" si="0"/>
+        <v>0000010</v>
+      </c>
+      <c r="D3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>0000011</v>
+      </c>
+      <c r="D4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>0000100</v>
+      </c>
+      <c r="D5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>0000101</v>
+      </c>
+      <c r="D6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>0000110</v>
+      </c>
+      <c r="D7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>0000111</v>
+      </c>
+      <c r="D8" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>0001000</v>
+      </c>
+      <c r="D9" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>0001001</v>
+      </c>
+      <c r="D10" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>0001010</v>
+      </c>
+      <c r="D11" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>0001011</v>
+      </c>
+      <c r="D12" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>0001100</v>
+      </c>
+      <c r="D13" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>0001101</v>
+      </c>
+      <c r="D14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v>0001110</v>
+      </c>
+      <c r="D15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v>0001111</v>
+      </c>
+      <c r="D16" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="0"/>
+        <v>0010000</v>
+      </c>
+      <c r="D17" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="0"/>
+        <v>0010001</v>
+      </c>
+      <c r="D18" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="0"/>
+        <v>0010010</v>
+      </c>
+      <c r="D19" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="0"/>
+        <v>0010011</v>
+      </c>
+      <c r="D20" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="0"/>
+        <v>0010100</v>
+      </c>
+      <c r="D21" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="0"/>
+        <v>0010101</v>
+      </c>
+      <c r="D22" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="0"/>
+        <v>0010110</v>
+      </c>
+      <c r="D23" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="0"/>
+        <v>0010111</v>
+      </c>
+      <c r="D24" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="0"/>
+        <v>0011000</v>
+      </c>
+      <c r="D25" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="0"/>
+        <v>0011001</v>
+      </c>
+      <c r="D26" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="0"/>
+        <v>0011010</v>
+      </c>
+      <c r="D27" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="0"/>
+        <v>0011011</v>
+      </c>
+      <c r="D28" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="0"/>
+        <v>0011100</v>
+      </c>
+      <c r="D29" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="0"/>
+        <v>0011101</v>
+      </c>
+      <c r="D30" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>70</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="0"/>
+        <v>0011110</v>
+      </c>
+      <c r="D31" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>99</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" si="0"/>
+        <v>0011111</v>
+      </c>
+      <c r="D32" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>100</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" si="0"/>
+        <v>0100000</v>
+      </c>
+      <c r="D33" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>101</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34" t="str">
+        <f t="shared" si="0"/>
+        <v>0100001</v>
+      </c>
+      <c r="D34" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>102</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35" t="str">
+        <f t="shared" si="0"/>
+        <v>0100010</v>
+      </c>
+      <c r="D35" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>103</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36" t="str">
+        <f t="shared" si="0"/>
+        <v>0100011</v>
+      </c>
+      <c r="D36" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>104</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37" t="str">
+        <f t="shared" si="0"/>
+        <v>0100100</v>
+      </c>
+      <c r="D37" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>105</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38" t="str">
+        <f t="shared" si="0"/>
+        <v>0100101</v>
+      </c>
+      <c r="D38" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>106</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39" t="str">
+        <f t="shared" si="0"/>
+        <v>0100110</v>
+      </c>
+      <c r="D39" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>107</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40" t="str">
+        <f t="shared" si="0"/>
+        <v>0100111</v>
+      </c>
+      <c r="D40" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>108</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41" t="str">
+        <f t="shared" si="0"/>
+        <v>0101000</v>
+      </c>
+      <c r="D41" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>109</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42" t="str">
+        <f t="shared" si="0"/>
+        <v>0101001</v>
+      </c>
+      <c r="D42" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>110</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43" t="str">
+        <f t="shared" si="0"/>
+        <v>0101010</v>
+      </c>
+      <c r="D43" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>111</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44" t="str">
+        <f t="shared" si="0"/>
+        <v>0101011</v>
+      </c>
+      <c r="D44" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>112</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45" t="str">
+        <f t="shared" si="0"/>
+        <v>0101100</v>
+      </c>
+      <c r="D45" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>113</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46" t="str">
+        <f t="shared" si="0"/>
+        <v>0101101</v>
+      </c>
+      <c r="D46" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>114</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47" t="str">
+        <f t="shared" si="0"/>
+        <v>0101110</v>
+      </c>
+      <c r="D47" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>115</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48" t="str">
+        <f t="shared" si="0"/>
+        <v>0101111</v>
+      </c>
+      <c r="D48" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>116</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49" t="str">
+        <f t="shared" si="0"/>
+        <v>0110000</v>
+      </c>
+      <c r="D49" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>117</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50" t="str">
+        <f t="shared" si="0"/>
+        <v>0110001</v>
+      </c>
+      <c r="D50" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>118</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51" t="str">
+        <f t="shared" si="0"/>
+        <v>0110010</v>
+      </c>
+      <c r="D51" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>119</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52" t="str">
+        <f t="shared" si="0"/>
+        <v>0110011</v>
+      </c>
+      <c r="D52" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>120</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53" t="str">
+        <f t="shared" si="0"/>
+        <v>0110100</v>
+      </c>
+      <c r="D53" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>121</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54" t="str">
+        <f t="shared" si="0"/>
+        <v>0110101</v>
+      </c>
+      <c r="D54" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>122</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55" t="str">
+        <f t="shared" si="0"/>
+        <v>0110110</v>
+      </c>
+      <c r="D55" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>123</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56" t="str">
+        <f t="shared" si="0"/>
+        <v>0110111</v>
+      </c>
+      <c r="D56" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>124</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57" t="str">
+        <f t="shared" si="0"/>
+        <v>0111000</v>
+      </c>
+      <c r="D57" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>125</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58" t="str">
+        <f t="shared" si="0"/>
+        <v>0111001</v>
+      </c>
+      <c r="D58" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>126</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59" t="str">
+        <f t="shared" si="0"/>
+        <v>0111010</v>
+      </c>
+      <c r="D59" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>127</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60" t="str">
+        <f t="shared" si="0"/>
+        <v>0111011</v>
+      </c>
+      <c r="D60" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>128</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61" t="str">
+        <f t="shared" si="0"/>
+        <v>0111100</v>
+      </c>
+      <c r="D61" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>129</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="C62" t="str">
+        <f t="shared" si="0"/>
+        <v>0111101</v>
+      </c>
+      <c r="D62" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>130</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63" t="str">
+        <f t="shared" si="0"/>
+        <v>0111110</v>
+      </c>
+      <c r="D63" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>131</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64" t="str">
+        <f t="shared" si="0"/>
+        <v>0111111</v>
+      </c>
+      <c r="D64" t="s">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/INSTRUCTIONS/Binary Instructions.xlsx
+++ b/INSTRUCTIONS/Binary Instructions.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="242">
   <si>
     <t>0001</t>
   </si>
@@ -595,9 +595,6 @@
     <t>0010100</t>
   </si>
   <si>
-    <t>1111111</t>
-  </si>
-  <si>
     <t>0011011</t>
   </si>
   <si>
@@ -740,6 +737,21 @@
   </si>
   <si>
     <t>1000011</t>
+  </si>
+  <si>
+    <t>1000100</t>
+  </si>
+  <si>
+    <t>1000101</t>
+  </si>
+  <si>
+    <t>1000110</t>
+  </si>
+  <si>
+    <t>1000111</t>
+  </si>
+  <si>
+    <t>1001000</t>
   </si>
 </sst>
 </file>
@@ -907,11 +919,11 @@
   <dxfs count="4">
     <dxf>
       <font>
-        <color rgb="FF006100"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -927,11 +939,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1224,7 +1236,7 @@
   <dimension ref="A1:AO101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J69"/>
+      <selection activeCell="J1" sqref="J1:J74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3409,7 +3421,7 @@
     </row>
     <row r="18" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>16</v>
@@ -3545,40 +3557,40 @@
         <v>187</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C19" s="30" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19" s="31" t="s">
-        <v>189</v>
+        <v>237</v>
       </c>
       <c r="E19" s="32" t="s">
         <v>69</v>
       </c>
       <c r="F19" s="33" t="s">
-        <v>189</v>
+        <v>98</v>
       </c>
       <c r="G19" s="34" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="H19" s="35" t="s">
-        <v>189</v>
+        <v>98</v>
       </c>
       <c r="I19" s="36" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="J19" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>E7FFFFFF</v>
+        <v>57100000</v>
       </c>
       <c r="M19" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C19,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>1100</v>
+        <v>1010</v>
       </c>
       <c r="N19" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D19,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D19,'HEX GEN BACKEND'!G:G,0)),D19)</f>
-        <v>1111111</v>
+        <v>1000100</v>
       </c>
       <c r="O19" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E19,'HEX GEN BACKEND'!D:D,0))</f>
@@ -3586,27 +3598,27 @@
       </c>
       <c r="P19" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F19,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F19,'HEX GEN BACKEND'!H:H,0)),F19)</f>
-        <v>1111111</v>
+        <v>0000000</v>
       </c>
       <c r="Q19" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G19,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>11</v>
+        <v>00</v>
       </c>
       <c r="R19" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H19,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H19,'HEX GEN BACKEND'!I:I,0)),H19)</f>
-        <v>1111111</v>
+        <v>0000000</v>
       </c>
       <c r="S19" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I19,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>11</v>
+        <v>00</v>
       </c>
       <c r="U19" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>11100111111111111111111111111111</v>
+        <v>01010111000100000000000000000000</v>
       </c>
       <c r="W19" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>1110</v>
+        <v>0101</v>
       </c>
       <c r="X19" s="21" t="str">
         <f t="shared" si="3"/>
@@ -3614,31 +3626,31 @@
       </c>
       <c r="Y19" s="21" t="str">
         <f t="shared" si="4"/>
-        <v>1111</v>
+        <v>0001</v>
       </c>
       <c r="Z19" s="21" t="str">
         <f t="shared" si="5"/>
-        <v>1111</v>
+        <v>0000</v>
       </c>
       <c r="AA19" s="21" t="str">
         <f t="shared" si="6"/>
-        <v>1111</v>
+        <v>0000</v>
       </c>
       <c r="AB19" s="21" t="str">
         <f t="shared" si="7"/>
-        <v>1111</v>
+        <v>0000</v>
       </c>
       <c r="AC19" s="21" t="str">
         <f t="shared" si="8"/>
-        <v>1111</v>
+        <v>0000</v>
       </c>
       <c r="AD19" s="21" t="str">
         <f t="shared" si="9"/>
-        <v>1111</v>
+        <v>0000</v>
       </c>
       <c r="AF19" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W19,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>E</v>
+        <v>5</v>
       </c>
       <c r="AG19" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X19,'HEX GEN BACKEND'!L:L,0))</f>
@@ -3646,31 +3658,31 @@
       </c>
       <c r="AH19" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y19,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>F</v>
+        <v>1</v>
       </c>
       <c r="AI19" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z19,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>F</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA19,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>F</v>
+        <v>0</v>
       </c>
       <c r="AK19" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB19,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>F</v>
+        <v>0</v>
       </c>
       <c r="AL19" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC19,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>F</v>
+        <v>0</v>
       </c>
       <c r="AM19" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD19,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>F</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>E7FFFFFF</v>
+        <v>57100000</v>
       </c>
     </row>
     <row r="20" spans="1:41" x14ac:dyDescent="0.25">
@@ -3808,7 +3820,7 @@
     </row>
     <row r="21" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B21" s="38" t="s">
         <v>16</v>
@@ -4074,7 +4086,7 @@
     </row>
     <row r="23" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B23" s="38" t="s">
         <v>16</v>
@@ -4207,7 +4219,7 @@
     </row>
     <row r="24" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B24" s="38" t="s">
         <v>16</v>
@@ -4340,7 +4352,7 @@
     </row>
     <row r="25" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B25" s="38" t="s">
         <v>16</v>
@@ -4473,7 +4485,7 @@
     </row>
     <row r="26" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A26" s="20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B26" s="38" t="s">
         <v>16</v>
@@ -4606,7 +4618,7 @@
     </row>
     <row r="27" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A27" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B27" s="38" t="s">
         <v>16</v>
@@ -4739,7 +4751,7 @@
     </row>
     <row r="28" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B28" s="38" t="s">
         <v>16</v>
@@ -4748,13 +4760,13 @@
         <v>1</v>
       </c>
       <c r="D28" s="40" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E28" s="41" t="s">
         <v>69</v>
       </c>
       <c r="F28" s="42" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G28" s="43" t="s">
         <v>69</v>
@@ -4872,7 +4884,7 @@
     </row>
     <row r="29" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B29" s="38" t="s">
         <v>16</v>
@@ -4881,13 +4893,13 @@
         <v>1</v>
       </c>
       <c r="D29" s="40" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E29" s="41" t="s">
         <v>69</v>
       </c>
       <c r="F29" s="42" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G29" s="43" t="s">
         <v>69</v>
@@ -5005,7 +5017,7 @@
     </row>
     <row r="30" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A30" s="20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B30" s="38" t="s">
         <v>16</v>
@@ -5014,13 +5026,13 @@
         <v>1</v>
       </c>
       <c r="D30" s="40" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E30" s="41" t="s">
         <v>69</v>
       </c>
       <c r="F30" s="42" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G30" s="43" t="s">
         <v>69</v>
@@ -5138,7 +5150,7 @@
     </row>
     <row r="31" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B31" s="38" t="s">
         <v>16</v>
@@ -5271,7 +5283,7 @@
     </row>
     <row r="32" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B32" s="38" t="s">
         <v>16</v>
@@ -5404,7 +5416,7 @@
     </row>
     <row r="33" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B33" s="38" t="s">
         <v>16</v>
@@ -5537,7 +5549,7 @@
     </row>
     <row r="34" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A34" s="20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B34" s="38" t="s">
         <v>16</v>
@@ -5546,13 +5558,13 @@
         <v>1</v>
       </c>
       <c r="D34" s="40" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E34" s="41" t="s">
         <v>69</v>
       </c>
       <c r="F34" s="42" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G34" s="43" t="s">
         <v>69</v>
@@ -5670,7 +5682,7 @@
     </row>
     <row r="35" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A35" s="20" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B35" s="38" t="s">
         <v>16</v>
@@ -5803,7 +5815,7 @@
     </row>
     <row r="36" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A36" s="20" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B36" s="38" t="s">
         <v>16</v>
@@ -5936,7 +5948,7 @@
     </row>
     <row r="37" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A37" s="20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B37" s="38" t="s">
         <v>16</v>
@@ -6069,7 +6081,7 @@
     </row>
     <row r="38" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A38" s="20" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B38" s="48" t="s">
         <v>16</v>
@@ -6202,7 +6214,7 @@
     </row>
     <row r="39" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A39" s="20" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B39" s="48" t="s">
         <v>16</v>
@@ -6335,7 +6347,7 @@
     </row>
     <row r="40" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A40" s="20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B40" s="48" t="s">
         <v>16</v>
@@ -6468,7 +6480,7 @@
     </row>
     <row r="41" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A41" s="20" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B41" s="48" t="s">
         <v>16</v>
@@ -6601,7 +6613,7 @@
     </row>
     <row r="42" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A42" s="20" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B42" s="48" t="s">
         <v>16</v>
@@ -6734,7 +6746,7 @@
     </row>
     <row r="43" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A43" s="20" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B43" s="48" t="s">
         <v>16</v>
@@ -6867,7 +6879,7 @@
     </row>
     <row r="44" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A44" s="20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B44" s="48" t="s">
         <v>16</v>
@@ -7000,7 +7012,7 @@
     </row>
     <row r="45" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A45" s="20" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B45" s="48" t="s">
         <v>16</v>
@@ -7133,7 +7145,7 @@
     </row>
     <row r="46" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A46" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B46" s="48" t="s">
         <v>16</v>
@@ -7266,7 +7278,7 @@
     </row>
     <row r="47" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A47" s="20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B47" s="48" t="s">
         <v>16</v>
@@ -7399,7 +7411,7 @@
     </row>
     <row r="48" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A48" s="20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B48" s="48" t="s">
         <v>16</v>
@@ -7532,7 +7544,7 @@
     </row>
     <row r="49" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A49" s="20" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B49" s="48" t="s">
         <v>16</v>
@@ -7665,7 +7677,7 @@
     </row>
     <row r="50" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A50" s="20" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B50" s="48" t="s">
         <v>16</v>
@@ -7674,13 +7686,13 @@
         <v>1</v>
       </c>
       <c r="D50" s="50" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E50" s="51" t="s">
         <v>69</v>
       </c>
       <c r="F50" s="52" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G50" s="53" t="s">
         <v>69</v>
@@ -7798,7 +7810,7 @@
     </row>
     <row r="51" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A51" s="20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B51" s="48" t="s">
         <v>16</v>
@@ -7931,7 +7943,7 @@
     </row>
     <row r="52" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A52" s="20" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B52" s="48" t="s">
         <v>16</v>
@@ -8064,7 +8076,7 @@
     </row>
     <row r="53" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A53" s="20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B53" s="48" t="s">
         <v>16</v>
@@ -8197,7 +8209,7 @@
     </row>
     <row r="54" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A54" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B54" s="48" t="s">
         <v>16</v>
@@ -8330,7 +8342,7 @@
     </row>
     <row r="55" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A55" s="20" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B55" s="48" t="s">
         <v>16</v>
@@ -8463,7 +8475,7 @@
     </row>
     <row r="56" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A56" s="20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B56" s="48" t="s">
         <v>16</v>
@@ -8596,7 +8608,7 @@
     </row>
     <row r="57" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A57" s="20" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B57" s="48" t="s">
         <v>16</v>
@@ -8729,7 +8741,7 @@
     </row>
     <row r="58" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A58" s="20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B58" s="48" t="s">
         <v>16</v>
@@ -8862,7 +8874,7 @@
     </row>
     <row r="59" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A59" s="20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B59" s="48" t="s">
         <v>16</v>
@@ -8871,13 +8883,13 @@
         <v>1</v>
       </c>
       <c r="D59" s="50" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E59" s="51" t="s">
         <v>69</v>
       </c>
       <c r="F59" s="52" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G59" s="53" t="s">
         <v>69</v>
@@ -8995,7 +9007,7 @@
     </row>
     <row r="60" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A60" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B60" s="48" t="s">
         <v>17</v>
@@ -9128,7 +9140,7 @@
     </row>
     <row r="61" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A61" s="20" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B61" s="9" t="s">
         <v>16</v>
@@ -9261,7 +9273,7 @@
     </row>
     <row r="62" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A62" s="20" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B62" s="9" t="s">
         <v>16</v>
@@ -9394,7 +9406,7 @@
     </row>
     <row r="63" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A63" s="20" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B63" s="9" t="s">
         <v>16</v>
@@ -9527,7 +9539,7 @@
     </row>
     <row r="64" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A64" s="20" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B64" s="9" t="s">
         <v>16</v>
@@ -9660,7 +9672,7 @@
     </row>
     <row r="65" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A65" s="20" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B65" s="9" t="s">
         <v>16</v>
@@ -9926,7 +9938,7 @@
     </row>
     <row r="67" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A67" s="20" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B67" s="20" t="s">
         <v>16</v>
@@ -10059,7 +10071,7 @@
     </row>
     <row r="68" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A68" s="20" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B68" s="20" t="s">
         <v>17</v>
@@ -10192,7 +10204,7 @@
     </row>
     <row r="69" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A69" s="20" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B69" s="20" t="s">
         <v>16</v>
@@ -10324,578 +10336,668 @@
       </c>
     </row>
     <row r="70" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A70" s="20"/>
-      <c r="B70" s="20"/>
-      <c r="C70" s="13"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="15"/>
-      <c r="F70" s="16"/>
-      <c r="G70" s="17"/>
-      <c r="H70" s="18"/>
-      <c r="I70" s="19"/>
-      <c r="J70" s="22" t="e">
+      <c r="A70" s="20" t="s">
+        <v>237</v>
+      </c>
+      <c r="B70" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C70" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="D70" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="E70" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="F70" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="G70" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="H70" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="I70" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="J70" s="22" t="str">
         <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M70" s="21" t="e">
+        <v>42280108</v>
+      </c>
+      <c r="M70" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C70,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N70" s="21">
+        <v>1000</v>
+      </c>
+      <c r="N70" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D70,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D70,'HEX GEN BACKEND'!G:G,0)),D70)</f>
-        <v>0</v>
-      </c>
-      <c r="O70" s="21" t="e">
+        <v>0001010</v>
+      </c>
+      <c r="O70" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E70,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P70" s="21">
+        <v>01</v>
+      </c>
+      <c r="P70" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F70,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F70,'HEX GEN BACKEND'!H:H,0)),F70)</f>
-        <v>0</v>
-      </c>
-      <c r="Q70" s="21" t="e">
+        <v>0000000</v>
+      </c>
+      <c r="Q70" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G70,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R70" s="21">
+        <v>00</v>
+      </c>
+      <c r="R70" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H70,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H70,'HEX GEN BACKEND'!I:I,0)),H70)</f>
-        <v>0</v>
-      </c>
-      <c r="S70" s="21" t="e">
+        <v>0001000</v>
+      </c>
+      <c r="S70" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I70,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U70" s="21" t="e">
+        <v>10</v>
+      </c>
+      <c r="U70" s="21" t="str">
         <f t="shared" si="20"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W70" s="21" t="e">
+        <v>01000010001010000000000100001000</v>
+      </c>
+      <c r="W70" s="21" t="str">
         <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X70" s="21" t="e">
+        <v>0100</v>
+      </c>
+      <c r="X70" s="21" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y70" s="21" t="e">
+        <v>0010</v>
+      </c>
+      <c r="Y70" s="21" t="str">
         <f t="shared" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z70" s="21" t="e">
+        <v>0010</v>
+      </c>
+      <c r="Z70" s="21" t="str">
         <f t="shared" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA70" s="21" t="e">
+        <v>1000</v>
+      </c>
+      <c r="AA70" s="21" t="str">
         <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB70" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AB70" s="21" t="str">
         <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC70" s="21" t="e">
+        <v>0001</v>
+      </c>
+      <c r="AC70" s="21" t="str">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AD70" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AD70" s="21" t="str">
         <f t="shared" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AF70" s="21" t="e">
+        <v>1000</v>
+      </c>
+      <c r="AF70" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W70,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG70" s="21" t="e">
+        <v>4</v>
+      </c>
+      <c r="AG70" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X70,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH70" s="21" t="e">
+        <v>2</v>
+      </c>
+      <c r="AH70" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y70,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI70" s="21" t="e">
+        <v>2</v>
+      </c>
+      <c r="AI70" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z70,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ70" s="21" t="e">
+        <v>8</v>
+      </c>
+      <c r="AJ70" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA70,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK70" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AK70" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB70,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL70" s="21" t="e">
+        <v>1</v>
+      </c>
+      <c r="AL70" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC70,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM70" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AM70" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD70,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO70" s="21" t="e">
+        <v>8</v>
+      </c>
+      <c r="AO70" s="21" t="str">
         <f t="shared" si="21"/>
-        <v>#N/A</v>
+        <v>42280108</v>
       </c>
     </row>
     <row r="71" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A71" s="20"/>
-      <c r="B71" s="20"/>
-      <c r="C71" s="13"/>
-      <c r="D71" s="14"/>
-      <c r="E71" s="15"/>
-      <c r="F71" s="16"/>
-      <c r="G71" s="17"/>
-      <c r="H71" s="18"/>
-      <c r="I71" s="19"/>
-      <c r="J71" s="22" t="e">
+      <c r="A71" s="20" t="s">
+        <v>238</v>
+      </c>
+      <c r="B71" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C71" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D71" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="E71" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F71" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="G71" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="H71" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="I71" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="J71" s="22" t="str">
         <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M71" s="21" t="e">
+        <v>4C280088</v>
+      </c>
+      <c r="M71" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C71,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N71" s="21">
+        <v>1001</v>
+      </c>
+      <c r="N71" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D71,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D71,'HEX GEN BACKEND'!G:G,0)),D71)</f>
-        <v>0</v>
-      </c>
-      <c r="O71" s="21" t="e">
+        <v>0001010</v>
+      </c>
+      <c r="O71" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E71,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P71" s="21">
+        <v>10</v>
+      </c>
+      <c r="P71" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F71,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F71,'HEX GEN BACKEND'!H:H,0)),F71)</f>
-        <v>0</v>
-      </c>
-      <c r="Q71" s="21" t="e">
+        <v>0000000</v>
+      </c>
+      <c r="Q71" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G71,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R71" s="21">
+        <v>00</v>
+      </c>
+      <c r="R71" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H71,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H71,'HEX GEN BACKEND'!I:I,0)),H71)</f>
-        <v>0</v>
-      </c>
-      <c r="S71" s="21" t="e">
+        <v>0001000</v>
+      </c>
+      <c r="S71" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I71,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U71" s="21" t="e">
+        <v>01</v>
+      </c>
+      <c r="U71" s="21" t="str">
         <f t="shared" si="20"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W71" s="21" t="e">
+        <v>01001100001010000000000010001000</v>
+      </c>
+      <c r="W71" s="21" t="str">
         <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X71" s="21" t="e">
+        <v>0100</v>
+      </c>
+      <c r="X71" s="21" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y71" s="21" t="e">
+        <v>1100</v>
+      </c>
+      <c r="Y71" s="21" t="str">
         <f t="shared" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z71" s="21" t="e">
+        <v>0010</v>
+      </c>
+      <c r="Z71" s="21" t="str">
         <f t="shared" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA71" s="21" t="e">
+        <v>1000</v>
+      </c>
+      <c r="AA71" s="21" t="str">
         <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB71" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AB71" s="21" t="str">
         <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC71" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AC71" s="21" t="str">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AD71" s="21" t="e">
+        <v>1000</v>
+      </c>
+      <c r="AD71" s="21" t="str">
         <f t="shared" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AF71" s="21" t="e">
+        <v>1000</v>
+      </c>
+      <c r="AF71" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W71,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG71" s="21" t="e">
+        <v>4</v>
+      </c>
+      <c r="AG71" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X71,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH71" s="21" t="e">
+        <v>C</v>
+      </c>
+      <c r="AH71" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y71,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI71" s="21" t="e">
+        <v>2</v>
+      </c>
+      <c r="AI71" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z71,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ71" s="21" t="e">
+        <v>8</v>
+      </c>
+      <c r="AJ71" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA71,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK71" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AK71" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB71,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL71" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AL71" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC71,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM71" s="21" t="e">
+        <v>8</v>
+      </c>
+      <c r="AM71" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD71,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO71" s="21" t="e">
+        <v>8</v>
+      </c>
+      <c r="AO71" s="21" t="str">
         <f t="shared" si="21"/>
-        <v>#N/A</v>
+        <v>4C280088</v>
       </c>
     </row>
     <row r="72" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A72" s="20"/>
-      <c r="B72" s="20"/>
-      <c r="C72" s="13"/>
-      <c r="D72" s="14"/>
-      <c r="E72" s="15"/>
-      <c r="F72" s="16"/>
-      <c r="G72" s="17"/>
-      <c r="H72" s="18"/>
-      <c r="I72" s="19"/>
-      <c r="J72" s="22" t="e">
+      <c r="A72" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="B72" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C72" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D72" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="E72" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="F72" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="G72" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="H72" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="I72" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="J72" s="22" t="str">
         <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M72" s="21" t="e">
+        <v>4A200108</v>
+      </c>
+      <c r="M72" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C72,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N72" s="21">
+        <v>1001</v>
+      </c>
+      <c r="N72" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D72,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D72,'HEX GEN BACKEND'!G:G,0)),D72)</f>
-        <v>0</v>
-      </c>
-      <c r="O72" s="21" t="e">
+        <v>0001000</v>
+      </c>
+      <c r="O72" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E72,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P72" s="21">
+        <v>01</v>
+      </c>
+      <c r="P72" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F72,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F72,'HEX GEN BACKEND'!H:H,0)),F72)</f>
-        <v>0</v>
-      </c>
-      <c r="Q72" s="21" t="e">
+        <v>0000000</v>
+      </c>
+      <c r="Q72" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G72,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R72" s="21">
+        <v>00</v>
+      </c>
+      <c r="R72" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H72,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H72,'HEX GEN BACKEND'!I:I,0)),H72)</f>
-        <v>0</v>
-      </c>
-      <c r="S72" s="21" t="e">
+        <v>0001000</v>
+      </c>
+      <c r="S72" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I72,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U72" s="21" t="e">
+        <v>10</v>
+      </c>
+      <c r="U72" s="21" t="str">
         <f t="shared" si="20"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W72" s="21" t="e">
+        <v>01001010001000000000000100001000</v>
+      </c>
+      <c r="W72" s="21" t="str">
         <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X72" s="21" t="e">
+        <v>0100</v>
+      </c>
+      <c r="X72" s="21" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y72" s="21" t="e">
+        <v>1010</v>
+      </c>
+      <c r="Y72" s="21" t="str">
         <f t="shared" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z72" s="21" t="e">
+        <v>0010</v>
+      </c>
+      <c r="Z72" s="21" t="str">
         <f t="shared" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA72" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AA72" s="21" t="str">
         <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB72" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AB72" s="21" t="str">
         <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC72" s="21" t="e">
+        <v>0001</v>
+      </c>
+      <c r="AC72" s="21" t="str">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AD72" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AD72" s="21" t="str">
         <f t="shared" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AF72" s="21" t="e">
+        <v>1000</v>
+      </c>
+      <c r="AF72" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W72,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG72" s="21" t="e">
+        <v>4</v>
+      </c>
+      <c r="AG72" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X72,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH72" s="21" t="e">
+        <v>A</v>
+      </c>
+      <c r="AH72" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y72,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI72" s="21" t="e">
+        <v>2</v>
+      </c>
+      <c r="AI72" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z72,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ72" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AJ72" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA72,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK72" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AK72" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB72,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL72" s="21" t="e">
+        <v>1</v>
+      </c>
+      <c r="AL72" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC72,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM72" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AM72" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD72,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO72" s="21" t="e">
+        <v>8</v>
+      </c>
+      <c r="AO72" s="21" t="str">
         <f t="shared" si="21"/>
-        <v>#N/A</v>
+        <v>4A200108</v>
       </c>
     </row>
     <row r="73" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A73" s="20"/>
-      <c r="B73" s="20"/>
-      <c r="C73" s="13"/>
-      <c r="D73" s="14"/>
-      <c r="E73" s="15"/>
-      <c r="F73" s="16"/>
-      <c r="G73" s="17"/>
-      <c r="H73" s="18"/>
-      <c r="I73" s="19"/>
-      <c r="J73" s="22" t="e">
+      <c r="A73" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="B73" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C73" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D73" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="E73" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="F73" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="G73" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="H73" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="I73" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="J73" s="22" t="str">
         <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M73" s="21" t="e">
+        <v>48020A88</v>
+      </c>
+      <c r="M73" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C73,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N73" s="21">
+        <v>1001</v>
+      </c>
+      <c r="N73" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D73,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D73,'HEX GEN BACKEND'!G:G,0)),D73)</f>
-        <v>0</v>
-      </c>
-      <c r="O73" s="21" t="e">
+        <v>0000000</v>
+      </c>
+      <c r="O73" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E73,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P73" s="21">
+        <v>00</v>
+      </c>
+      <c r="P73" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F73,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F73,'HEX GEN BACKEND'!H:H,0)),F73)</f>
-        <v>0</v>
-      </c>
-      <c r="Q73" s="21" t="e">
+        <v>0000101</v>
+      </c>
+      <c r="Q73" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G73,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R73" s="21">
+        <v>10</v>
+      </c>
+      <c r="R73" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H73,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H73,'HEX GEN BACKEND'!I:I,0)),H73)</f>
-        <v>0</v>
-      </c>
-      <c r="S73" s="21" t="e">
+        <v>0001000</v>
+      </c>
+      <c r="S73" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I73,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U73" s="21" t="e">
+        <v>01</v>
+      </c>
+      <c r="U73" s="21" t="str">
         <f t="shared" si="20"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W73" s="21" t="e">
+        <v>01001000000000100000101010001000</v>
+      </c>
+      <c r="W73" s="21" t="str">
         <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X73" s="21" t="e">
+        <v>0100</v>
+      </c>
+      <c r="X73" s="21" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y73" s="21" t="e">
+        <v>1000</v>
+      </c>
+      <c r="Y73" s="21" t="str">
         <f t="shared" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z73" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="Z73" s="21" t="str">
         <f t="shared" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA73" s="21" t="e">
+        <v>0010</v>
+      </c>
+      <c r="AA73" s="21" t="str">
         <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB73" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AB73" s="21" t="str">
         <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC73" s="21" t="e">
+        <v>1010</v>
+      </c>
+      <c r="AC73" s="21" t="str">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AD73" s="21" t="e">
+        <v>1000</v>
+      </c>
+      <c r="AD73" s="21" t="str">
         <f t="shared" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AF73" s="21" t="e">
+        <v>1000</v>
+      </c>
+      <c r="AF73" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W73,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG73" s="21" t="e">
+        <v>4</v>
+      </c>
+      <c r="AG73" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X73,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH73" s="21" t="e">
+        <v>8</v>
+      </c>
+      <c r="AH73" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y73,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI73" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AI73" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z73,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ73" s="21" t="e">
+        <v>2</v>
+      </c>
+      <c r="AJ73" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA73,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK73" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AK73" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB73,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL73" s="21" t="e">
+        <v>A</v>
+      </c>
+      <c r="AL73" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC73,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM73" s="21" t="e">
+        <v>8</v>
+      </c>
+      <c r="AM73" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD73,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO73" s="21" t="e">
+        <v>8</v>
+      </c>
+      <c r="AO73" s="21" t="str">
         <f t="shared" si="21"/>
-        <v>#N/A</v>
+        <v>48020A88</v>
       </c>
     </row>
     <row r="74" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A74" s="20"/>
-      <c r="B74" s="20"/>
-      <c r="C74" s="13"/>
-      <c r="D74" s="14"/>
-      <c r="E74" s="15"/>
-      <c r="F74" s="16"/>
-      <c r="G74" s="17"/>
-      <c r="H74" s="18"/>
-      <c r="I74" s="19"/>
-      <c r="J74" s="22" t="e">
+      <c r="A74" s="20" t="s">
+        <v>241</v>
+      </c>
+      <c r="B74" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C74" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D74" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="E74" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="F74" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="G74" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="H74" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="I74" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="J74" s="22" t="str">
         <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M74" s="21" t="e">
+        <v>E2290A00</v>
+      </c>
+      <c r="M74" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C74,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N74" s="21">
+        <v>1100</v>
+      </c>
+      <c r="N74" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D74,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D74,'HEX GEN BACKEND'!G:G,0)),D74)</f>
-        <v>0</v>
-      </c>
-      <c r="O74" s="21" t="e">
+        <v>0001010</v>
+      </c>
+      <c r="O74" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(E74,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P74" s="21">
+        <v>01</v>
+      </c>
+      <c r="P74" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F74,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F74,'HEX GEN BACKEND'!H:H,0)),F74)</f>
-        <v>0</v>
-      </c>
-      <c r="Q74" s="21" t="e">
+        <v>0000101</v>
+      </c>
+      <c r="Q74" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G74,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R74" s="21">
+        <v>01</v>
+      </c>
+      <c r="R74" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H74,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H74,'HEX GEN BACKEND'!I:I,0)),H74)</f>
-        <v>0</v>
-      </c>
-      <c r="S74" s="21" t="e">
+        <v>0000000</v>
+      </c>
+      <c r="S74" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(I74,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U74" s="21" t="e">
+        <v>00</v>
+      </c>
+      <c r="U74" s="21" t="str">
         <f t="shared" si="20"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W74" s="21" t="e">
+        <v>11100010001010010000101000000000</v>
+      </c>
+      <c r="W74" s="21" t="str">
         <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X74" s="21" t="e">
+        <v>1110</v>
+      </c>
+      <c r="X74" s="21" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y74" s="21" t="e">
+        <v>0010</v>
+      </c>
+      <c r="Y74" s="21" t="str">
         <f t="shared" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z74" s="21" t="e">
+        <v>0010</v>
+      </c>
+      <c r="Z74" s="21" t="str">
         <f t="shared" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA74" s="21" t="e">
+        <v>1001</v>
+      </c>
+      <c r="AA74" s="21" t="str">
         <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB74" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AB74" s="21" t="str">
         <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC74" s="21" t="e">
+        <v>1010</v>
+      </c>
+      <c r="AC74" s="21" t="str">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AD74" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AD74" s="21" t="str">
         <f t="shared" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AF74" s="21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AF74" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W74,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG74" s="21" t="e">
+        <v>E</v>
+      </c>
+      <c r="AG74" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X74,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH74" s="21" t="e">
+        <v>2</v>
+      </c>
+      <c r="AH74" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y74,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI74" s="21" t="e">
+        <v>2</v>
+      </c>
+      <c r="AI74" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z74,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ74" s="21" t="e">
+        <v>9</v>
+      </c>
+      <c r="AJ74" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA74,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK74" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AK74" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB74,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL74" s="21" t="e">
+        <v>A</v>
+      </c>
+      <c r="AL74" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC74,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM74" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AM74" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AD74,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO74" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AO74" s="21" t="str">
         <f t="shared" si="21"/>
-        <v>#N/A</v>
+        <v>E2290A00</v>
       </c>
     </row>
     <row r="75" spans="1:41" x14ac:dyDescent="0.25">
@@ -14005,20 +14107,20 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B101">
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",B2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C101">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="STEP">
+    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="STEP">
       <formula>NOT(ISERROR(SEARCH("STEP",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="STEP">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="STEP">
       <formula>NOT(ISERROR(SEARCH("STEP",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14307,7 +14409,7 @@
         <v>0010000</v>
       </c>
       <c r="D17" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -14352,7 +14454,7 @@
         <v>0010011</v>
       </c>
       <c r="D20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -14382,7 +14484,7 @@
         <v>0010101</v>
       </c>
       <c r="D22" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -14397,7 +14499,7 @@
         <v>0010110</v>
       </c>
       <c r="D23" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -14412,7 +14514,7 @@
         <v>0010111</v>
       </c>
       <c r="D24" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -14427,7 +14529,7 @@
         <v>0011000</v>
       </c>
       <c r="D25" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -14442,7 +14544,7 @@
         <v>0011001</v>
       </c>
       <c r="D26" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -14457,7 +14559,7 @@
         <v>0011010</v>
       </c>
       <c r="D27" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -14472,7 +14574,7 @@
         <v>0011011</v>
       </c>
       <c r="D28" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -14487,7 +14589,7 @@
         <v>0011100</v>
       </c>
       <c r="D29" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -14502,7 +14604,7 @@
         <v>0011101</v>
       </c>
       <c r="D30" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -14517,7 +14619,7 @@
         <v>0011110</v>
       </c>
       <c r="D31" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -14532,7 +14634,7 @@
         <v>0011111</v>
       </c>
       <c r="D32" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -14547,7 +14649,7 @@
         <v>0100000</v>
       </c>
       <c r="D33" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -14562,7 +14664,7 @@
         <v>0100001</v>
       </c>
       <c r="D34" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -14577,7 +14679,7 @@
         <v>0100010</v>
       </c>
       <c r="D35" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -14592,7 +14694,7 @@
         <v>0100011</v>
       </c>
       <c r="D36" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -14607,7 +14709,7 @@
         <v>0100100</v>
       </c>
       <c r="D37" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -14622,7 +14724,7 @@
         <v>0100101</v>
       </c>
       <c r="D38" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -14637,7 +14739,7 @@
         <v>0100110</v>
       </c>
       <c r="D39" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -14652,7 +14754,7 @@
         <v>0100111</v>
       </c>
       <c r="D40" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -14667,7 +14769,7 @@
         <v>0101000</v>
       </c>
       <c r="D41" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -14682,7 +14784,7 @@
         <v>0101001</v>
       </c>
       <c r="D42" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -14697,7 +14799,7 @@
         <v>0101010</v>
       </c>
       <c r="D43" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -14712,7 +14814,7 @@
         <v>0101011</v>
       </c>
       <c r="D44" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -14727,7 +14829,7 @@
         <v>0101100</v>
       </c>
       <c r="D45" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -14742,7 +14844,7 @@
         <v>0101101</v>
       </c>
       <c r="D46" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -14757,7 +14859,7 @@
         <v>0101110</v>
       </c>
       <c r="D47" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -14772,7 +14874,7 @@
         <v>0101111</v>
       </c>
       <c r="D48" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -14787,7 +14889,7 @@
         <v>0110000</v>
       </c>
       <c r="D49" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -14802,7 +14904,7 @@
         <v>0110001</v>
       </c>
       <c r="D50" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -14817,7 +14919,7 @@
         <v>0110010</v>
       </c>
       <c r="D51" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -14832,7 +14934,7 @@
         <v>0110011</v>
       </c>
       <c r="D52" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -14847,7 +14949,7 @@
         <v>0110100</v>
       </c>
       <c r="D53" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -14862,7 +14964,7 @@
         <v>0110101</v>
       </c>
       <c r="D54" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -14877,7 +14979,7 @@
         <v>0110110</v>
       </c>
       <c r="D55" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -14892,7 +14994,7 @@
         <v>0110111</v>
       </c>
       <c r="D56" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -14907,7 +15009,7 @@
         <v>0111000</v>
       </c>
       <c r="D57" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -14922,7 +15024,7 @@
         <v>0111001</v>
       </c>
       <c r="D58" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -14937,7 +15039,7 @@
         <v>0111010</v>
       </c>
       <c r="D59" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -14952,7 +15054,7 @@
         <v>0111011</v>
       </c>
       <c r="D60" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -14967,7 +15069,7 @@
         <v>0111100</v>
       </c>
       <c r="D61" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -14982,7 +15084,7 @@
         <v>0111101</v>
       </c>
       <c r="D62" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -14997,7 +15099,7 @@
         <v>0111110</v>
       </c>
       <c r="D63" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -15012,7 +15114,7 @@
         <v>0111111</v>
       </c>
       <c r="D64" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>

--- a/INSTRUCTIONS/Binary Instructions.xlsx
+++ b/INSTRUCTIONS/Binary Instructions.xlsx
@@ -919,6 +919,16 @@
   <dxfs count="4">
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -934,16 +944,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1235,8 +1235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J74"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1432,7 +1432,7 @@
         <v>16</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D3" s="31" t="s">
         <v>76</v>
@@ -1441,10 +1441,10 @@
         <v>67</v>
       </c>
       <c r="F3" s="33" t="s">
-        <v>187</v>
+        <v>88</v>
       </c>
       <c r="G3" s="34" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H3" s="35" t="s">
         <v>98</v>
@@ -1454,11 +1454,11 @@
       </c>
       <c r="J3" s="13" t="str">
         <f t="shared" ref="J3:J32" si="0">AO3</f>
-        <v>4C072200</v>
+        <v>5C060C00</v>
       </c>
       <c r="M3" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C3,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>1001</v>
+        <v>1011</v>
       </c>
       <c r="N3" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D3,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D3,'HEX GEN BACKEND'!G:G,0)),D3)</f>
@@ -1470,11 +1470,11 @@
       </c>
       <c r="P3" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F3,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F3,'HEX GEN BACKEND'!H:H,0)),F3)</f>
-        <v>0010001</v>
+        <v>0000110</v>
       </c>
       <c r="Q3" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G3,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R3" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H3,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H3,'HEX GEN BACKEND'!I:I,0)),H3)</f>
@@ -1486,11 +1486,11 @@
       </c>
       <c r="U3" s="21" t="str">
         <f t="shared" ref="U3:U66" si="1">B3&amp;M3&amp;O3&amp;N3&amp;Q3&amp;P3&amp;S3&amp;R3</f>
-        <v>01001100000001110010001000000000</v>
+        <v>01011100000001100000110000000000</v>
       </c>
       <c r="W3" s="21" t="str">
         <f t="shared" ref="W3:W32" si="2">MID(U3,1,4)</f>
-        <v>0100</v>
+        <v>0101</v>
       </c>
       <c r="X3" s="21" t="str">
         <f t="shared" ref="X3:X32" si="3">MID(U3,5,4)</f>
@@ -1502,15 +1502,15 @@
       </c>
       <c r="Z3" s="21" t="str">
         <f t="shared" ref="Z3:Z32" si="5">MID(U3,13,4)</f>
-        <v>0111</v>
+        <v>0110</v>
       </c>
       <c r="AA3" s="21" t="str">
         <f t="shared" ref="AA3:AA32" si="6">MID(U3,17,4)</f>
-        <v>0010</v>
+        <v>0000</v>
       </c>
       <c r="AB3" s="21" t="str">
         <f t="shared" ref="AB3:AB32" si="7">MID(U3,21,4)</f>
-        <v>0010</v>
+        <v>1100</v>
       </c>
       <c r="AC3" s="21" t="str">
         <f t="shared" ref="AC3:AC32" si="8">MID(U3,25,4)</f>
@@ -1522,7 +1522,7 @@
       </c>
       <c r="AF3" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W3,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG3" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X3,'HEX GEN BACKEND'!L:L,0))</f>
@@ -1534,15 +1534,15 @@
       </c>
       <c r="AI3" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z3,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AJ3" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA3,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK3" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB3,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
+        <v>C</v>
       </c>
       <c r="AL3" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC3,'HEX GEN BACKEND'!L:L,0))</f>
@@ -1554,7 +1554,7 @@
       </c>
       <c r="AO3" s="21" t="str">
         <f t="shared" ref="AO3:AO66" si="10">AF3&amp;AG3&amp;AH3&amp;AI3&amp;AJ3&amp;AK3&amp;AL3&amp;AM3</f>
-        <v>4C072200</v>
+        <v>5C060C00</v>
       </c>
     </row>
     <row r="4" spans="1:41" x14ac:dyDescent="0.25">
@@ -2493,7 +2493,7 @@
         <v>170</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" s="30" t="s">
         <v>2</v>
@@ -2518,7 +2518,7 @@
       </c>
       <c r="J11" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>E20C0000</v>
+        <v>620C0000</v>
       </c>
       <c r="M11" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C11,'HEX GEN BACKEND'!A:A,0))</f>
@@ -2550,11 +2550,11 @@
       </c>
       <c r="U11" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>11100010000011000000000000000000</v>
+        <v>01100010000011000000000000000000</v>
       </c>
       <c r="W11" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>1110</v>
+        <v>0110</v>
       </c>
       <c r="X11" s="21" t="str">
         <f t="shared" si="3"/>
@@ -2586,7 +2586,7 @@
       </c>
       <c r="AF11" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W11,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>E</v>
+        <v>6</v>
       </c>
       <c r="AG11" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X11,'HEX GEN BACKEND'!L:L,0))</f>
@@ -2618,7 +2618,7 @@
       </c>
       <c r="AO11" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>E20C0000</v>
+        <v>620C0000</v>
       </c>
     </row>
     <row r="12" spans="1:41" x14ac:dyDescent="0.25">
@@ -3702,10 +3702,10 @@
         <v>67</v>
       </c>
       <c r="F20" s="42" t="s">
-        <v>164</v>
+        <v>88</v>
       </c>
       <c r="G20" s="43" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H20" s="44" t="s">
         <v>98</v>
@@ -3715,7 +3715,7 @@
       </c>
       <c r="J20" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>4C170600</v>
+        <v>4C150C00</v>
       </c>
       <c r="M20" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C20,'HEX GEN BACKEND'!A:A,0))</f>
@@ -3731,11 +3731,11 @@
       </c>
       <c r="P20" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(F20,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(F20,'HEX GEN BACKEND'!H:H,0)),F20)</f>
-        <v>0000011</v>
+        <v>0000110</v>
       </c>
       <c r="Q20" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(G20,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>11</v>
+        <v>01</v>
       </c>
       <c r="R20" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(H20,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(H20,'HEX GEN BACKEND'!I:I,0)),H20)</f>
@@ -3747,7 +3747,7 @@
       </c>
       <c r="U20" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>01001100000101110000011000000000</v>
+        <v>01001100000101010000110000000000</v>
       </c>
       <c r="W20" s="21" t="str">
         <f t="shared" si="2"/>
@@ -3763,7 +3763,7 @@
       </c>
       <c r="Z20" s="21" t="str">
         <f t="shared" si="5"/>
-        <v>0111</v>
+        <v>0101</v>
       </c>
       <c r="AA20" s="21" t="str">
         <f t="shared" si="6"/>
@@ -3771,7 +3771,7 @@
       </c>
       <c r="AB20" s="21" t="str">
         <f t="shared" si="7"/>
-        <v>0110</v>
+        <v>1100</v>
       </c>
       <c r="AC20" s="21" t="str">
         <f t="shared" si="8"/>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="AI20" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z20,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AJ20" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA20,'HEX GEN BACKEND'!L:L,0))</f>
@@ -3803,7 +3803,7 @@
       </c>
       <c r="AK20" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB20,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>6</v>
+        <v>C</v>
       </c>
       <c r="AL20" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC20,'HEX GEN BACKEND'!L:L,0))</f>
@@ -3815,7 +3815,7 @@
       </c>
       <c r="AO20" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>4C170600</v>
+        <v>4C150C00</v>
       </c>
     </row>
     <row r="21" spans="1:41" x14ac:dyDescent="0.25">
@@ -9010,7 +9010,7 @@
         <v>197</v>
       </c>
       <c r="B60" s="48" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C60" s="49" t="s">
         <v>2</v>
@@ -9035,7 +9035,7 @@
       </c>
       <c r="J60" s="22" t="str">
         <f t="shared" si="19"/>
-        <v>E2200000</v>
+        <v>62200000</v>
       </c>
       <c r="M60" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C60,'HEX GEN BACKEND'!A:A,0))</f>
@@ -9067,11 +9067,11 @@
       </c>
       <c r="U60" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>11100010001000000000000000000000</v>
+        <v>01100010001000000000000000000000</v>
       </c>
       <c r="W60" s="21" t="str">
         <f t="shared" si="11"/>
-        <v>1110</v>
+        <v>0110</v>
       </c>
       <c r="X60" s="21" t="str">
         <f t="shared" si="12"/>
@@ -9103,7 +9103,7 @@
       </c>
       <c r="AF60" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W60,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>E</v>
+        <v>6</v>
       </c>
       <c r="AG60" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X60,'HEX GEN BACKEND'!L:L,0))</f>
@@ -9135,7 +9135,7 @@
       </c>
       <c r="AO60" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>E2200000</v>
+        <v>62200000</v>
       </c>
     </row>
     <row r="61" spans="1:41" x14ac:dyDescent="0.25">
@@ -10074,7 +10074,7 @@
         <v>235</v>
       </c>
       <c r="B68" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C68" s="13" t="s">
         <v>2</v>
@@ -10099,7 +10099,7 @@
       </c>
       <c r="J68" s="22" t="str">
         <f t="shared" si="19"/>
-        <v>E2280000</v>
+        <v>62280000</v>
       </c>
       <c r="M68" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C68,'HEX GEN BACKEND'!A:A,0))</f>
@@ -10131,11 +10131,11 @@
       </c>
       <c r="U68" s="21" t="str">
         <f t="shared" si="20"/>
-        <v>11100010001010000000000000000000</v>
+        <v>01100010001010000000000000000000</v>
       </c>
       <c r="W68" s="21" t="str">
         <f t="shared" si="11"/>
-        <v>1110</v>
+        <v>0110</v>
       </c>
       <c r="X68" s="21" t="str">
         <f t="shared" si="12"/>
@@ -10167,7 +10167,7 @@
       </c>
       <c r="AF68" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W68,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>E</v>
+        <v>6</v>
       </c>
       <c r="AG68" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X68,'HEX GEN BACKEND'!L:L,0))</f>
@@ -10199,7 +10199,7 @@
       </c>
       <c r="AO68" s="21" t="str">
         <f t="shared" si="21"/>
-        <v>E2280000</v>
+        <v>62280000</v>
       </c>
     </row>
     <row r="69" spans="1:41" x14ac:dyDescent="0.25">
@@ -14107,20 +14107,20 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B101">
-    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",B2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C101">
-    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="STEP">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="STEP">
       <formula>NOT(ISERROR(SEARCH("STEP",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="STEP">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="STEP">
       <formula>NOT(ISERROR(SEARCH("STEP",C2)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/INSTRUCTIONS/Binary Instructions.xlsx
+++ b/INSTRUCTIONS/Binary Instructions.xlsx
@@ -1235,8 +1235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2496,7 +2496,7 @@
         <v>16</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>2</v>
+        <v>98</v>
       </c>
       <c r="D11" s="31" t="s">
         <v>78</v>
@@ -2518,11 +2518,11 @@
       </c>
       <c r="J11" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>620C0000</v>
+        <v>020C0000</v>
       </c>
       <c r="M11" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C11,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>1100</v>
+        <v>0000</v>
       </c>
       <c r="N11" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D11,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D11,'HEX GEN BACKEND'!G:G,0)),D11)</f>
@@ -2550,11 +2550,11 @@
       </c>
       <c r="U11" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>01100010000011000000000000000000</v>
+        <v>00000010000011000000000000000000</v>
       </c>
       <c r="W11" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>0110</v>
+        <v>0000</v>
       </c>
       <c r="X11" s="21" t="str">
         <f t="shared" si="3"/>
@@ -2586,7 +2586,7 @@
       </c>
       <c r="AF11" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W11,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AG11" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X11,'HEX GEN BACKEND'!L:L,0))</f>
@@ -2618,7 +2618,7 @@
       </c>
       <c r="AO11" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>620C0000</v>
+        <v>020C0000</v>
       </c>
     </row>
     <row r="12" spans="1:41" x14ac:dyDescent="0.25">
@@ -9013,7 +9013,7 @@
         <v>16</v>
       </c>
       <c r="C60" s="49" t="s">
-        <v>2</v>
+        <v>98</v>
       </c>
       <c r="D60" s="50" t="s">
         <v>137</v>
@@ -9035,11 +9035,11 @@
       </c>
       <c r="J60" s="22" t="str">
         <f t="shared" si="19"/>
-        <v>62200000</v>
+        <v>02200000</v>
       </c>
       <c r="M60" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C60,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>1100</v>
+        <v>0000</v>
       </c>
       <c r="N60" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D60,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D60,'HEX GEN BACKEND'!G:G,0)),D60)</f>
@@ -9067,11 +9067,11 @@
       </c>
       <c r="U60" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>01100010001000000000000000000000</v>
+        <v>00000010001000000000000000000000</v>
       </c>
       <c r="W60" s="21" t="str">
         <f t="shared" si="11"/>
-        <v>0110</v>
+        <v>0000</v>
       </c>
       <c r="X60" s="21" t="str">
         <f t="shared" si="12"/>
@@ -9103,7 +9103,7 @@
       </c>
       <c r="AF60" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W60,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AG60" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X60,'HEX GEN BACKEND'!L:L,0))</f>
@@ -9135,7 +9135,7 @@
       </c>
       <c r="AO60" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>62200000</v>
+        <v>02200000</v>
       </c>
     </row>
     <row r="61" spans="1:41" x14ac:dyDescent="0.25">
@@ -10077,7 +10077,7 @@
         <v>16</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>2</v>
+        <v>98</v>
       </c>
       <c r="D68" s="14" t="s">
         <v>139</v>
@@ -10099,11 +10099,11 @@
       </c>
       <c r="J68" s="22" t="str">
         <f t="shared" si="19"/>
-        <v>62280000</v>
+        <v>02280000</v>
       </c>
       <c r="M68" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(C68,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>1100</v>
+        <v>0000</v>
       </c>
       <c r="N68" s="21" t="str">
         <f>IF(ISNUMBER(MATCH(D68,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(D68,'HEX GEN BACKEND'!G:G,0)),D68)</f>
@@ -10131,11 +10131,11 @@
       </c>
       <c r="U68" s="21" t="str">
         <f t="shared" si="20"/>
-        <v>01100010001010000000000000000000</v>
+        <v>00000010001010000000000000000000</v>
       </c>
       <c r="W68" s="21" t="str">
         <f t="shared" si="11"/>
-        <v>0110</v>
+        <v>0000</v>
       </c>
       <c r="X68" s="21" t="str">
         <f t="shared" si="12"/>
@@ -10167,7 +10167,7 @@
       </c>
       <c r="AF68" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W68,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AG68" s="21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X68,'HEX GEN BACKEND'!L:L,0))</f>
@@ -10199,7 +10199,7 @@
       </c>
       <c r="AO68" s="21" t="str">
         <f t="shared" si="21"/>
-        <v>62280000</v>
+        <v>02280000</v>
       </c>
     </row>
     <row r="69" spans="1:41" x14ac:dyDescent="0.25">
